--- a/Zaizd2.xlsx
+++ b/Zaizd2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rozklad\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="300" windowWidth="20730" windowHeight="9480"/>
   </bookViews>
@@ -16,9 +21,9 @@
     <sheet name="7 курс" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1 курс'!$A$1:$M$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1 курс'!$A$1:$N$15</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -28,7 +33,7 @@
     <author>xgresx@gmail.com</author>
   </authors>
   <commentList>
-    <comment ref="I15" authorId="0">
+    <comment ref="J15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +58,7 @@
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="B24" authorId="0">
+    <comment ref="B24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +83,7 @@
     <author>xgresx@gmail.com</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0">
+    <comment ref="I9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +124,7 @@
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="I25" authorId="0">
+    <comment ref="I25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B40" authorId="1">
+    <comment ref="B40" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +166,7 @@
     <author>xgresx@gmail.com</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -176,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0">
+    <comment ref="B14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0">
+    <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -217,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="1">
+    <comment ref="I18" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -242,7 +247,7 @@
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="B18" authorId="0">
+    <comment ref="B18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -257,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="0">
+    <comment ref="B34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -277,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="316">
   <si>
     <t>Групи</t>
   </si>
@@ -1222,12 +1227,15 @@
   </si>
   <si>
     <t>Годин 4 заїзд</t>
+  </si>
+  <si>
+    <t>Використано годин</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1817,11 +1825,11 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Ввід" xfId="3" builtinId="20"/>
-    <cellStyle name="Добре" xfId="1" builtinId="26"/>
+    <cellStyle name="Гарний" xfId="1" builtinId="26"/>
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
-    <cellStyle name="Середній" xfId="2" builtinId="28"/>
+    <cellStyle name="Нейтральний" xfId="2" builtinId="28"/>
   </cellStyles>
-  <dxfs count="98">
+  <dxfs count="99">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1845,340 +1853,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3524,6 +3198,365 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3543,54 +3576,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:M27" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:M27"/>
-  <tableColumns count="13">
-    <tableColumn id="1" name="Групи" dataDxfId="14"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="13"/>
-    <tableColumn id="3" name="Годин 1 заїзд" dataDxfId="2"/>
-    <tableColumn id="6" name="Годин 2 заїзд" dataDxfId="12"/>
-    <tableColumn id="14" name="Годин 3 заїзд" dataDxfId="0"/>
-    <tableColumn id="5" name="Годин 4 заїзд" dataDxfId="1"/>
-    <tableColumn id="7" name="Прим." dataDxfId="11"/>
-    <tableColumn id="8" name="шифр спеціальності" dataDxfId="10"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="9"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="8"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="7"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="6"/>
-    <tableColumn id="13" name="Шифр кафедри" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:N27" totalsRowShown="0" headerRowDxfId="98" dataDxfId="96" headerRowBorderDxfId="97" tableBorderDxfId="95" totalsRowBorderDxfId="94">
+  <autoFilter ref="A1:N27"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="Групи" dataDxfId="93"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="92"/>
+    <tableColumn id="3" name="Годин 1 заїзд" dataDxfId="91"/>
+    <tableColumn id="6" name="Годин 2 заїзд" dataDxfId="90"/>
+    <tableColumn id="14" name="Годин 3 заїзд" dataDxfId="89"/>
+    <tableColumn id="5" name="Годин 4 заїзд" dataDxfId="88"/>
+    <tableColumn id="15" name="Використано годин" dataDxfId="0"/>
+    <tableColumn id="7" name="Прим." dataDxfId="87"/>
+    <tableColumn id="8" name="шифр спеціальності" dataDxfId="86"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="85"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="84"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="83"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="82"/>
+    <tableColumn id="13" name="Шифр кафедри" dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:M31" totalsRowShown="0" headerRowDxfId="97" dataDxfId="95" headerRowBorderDxfId="96" tableBorderDxfId="94" totalsRowBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:M31" totalsRowShown="0" headerRowDxfId="80" dataDxfId="78" headerRowBorderDxfId="79" tableBorderDxfId="77" totalsRowBorderDxfId="76">
   <autoFilter ref="A1:M31"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Групи" dataDxfId="92"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="91"/>
-    <tableColumn id="3" name="Лекц." dataDxfId="90"/>
-    <tableColumn id="4" name="Практ." dataDxfId="89"/>
-    <tableColumn id="5" name="Лабор." dataDxfId="88"/>
-    <tableColumn id="6" name="В т. ч.  годин" dataDxfId="87"/>
-    <tableColumn id="7" name="Прим." dataDxfId="86"/>
-    <tableColumn id="8" name="шифр спеціальності" dataDxfId="85"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="84"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="83"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="82"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="81"/>
-    <tableColumn id="13" name="Столбец4" dataDxfId="80"/>
+    <tableColumn id="1" name="Групи" dataDxfId="75"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="74"/>
+    <tableColumn id="3" name="Лекц." dataDxfId="73"/>
+    <tableColumn id="4" name="Практ." dataDxfId="72"/>
+    <tableColumn id="5" name="Лабор." dataDxfId="71"/>
+    <tableColumn id="6" name="В т. ч.  годин" dataDxfId="70"/>
+    <tableColumn id="7" name="Прим." dataDxfId="69"/>
+    <tableColumn id="8" name="шифр спеціальності" dataDxfId="68"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="67"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="66"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="65"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="64"/>
+    <tableColumn id="13" name="Столбец4" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:L44" totalsRowShown="0" headerRowDxfId="79" headerRowBorderDxfId="78" tableBorderDxfId="77" totalsRowBorderDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:L44" totalsRowShown="0" headerRowDxfId="62" headerRowBorderDxfId="61" tableBorderDxfId="60" totalsRowBorderDxfId="59">
   <autoFilter ref="A1:L44"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Групи" dataDxfId="75"/>
+    <tableColumn id="1" name="Групи" dataDxfId="58"/>
     <tableColumn id="2" name="Дисципліна"/>
     <tableColumn id="3" name="Лекц."/>
     <tableColumn id="4" name="Практ."/>
@@ -3601,69 +3635,69 @@
     <tableColumn id="9" name="Викладач"/>
     <tableColumn id="10" name="Лекц.2"/>
     <tableColumn id="11" name="Практ.3"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="74"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:L42" totalsRowShown="0" headerRowDxfId="73" headerRowBorderDxfId="72" tableBorderDxfId="71" totalsRowBorderDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:L42" totalsRowShown="0" headerRowDxfId="56" headerRowBorderDxfId="55" tableBorderDxfId="54" totalsRowBorderDxfId="53">
   <autoFilter ref="A1:L42"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Групи" dataDxfId="69"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="68"/>
-    <tableColumn id="3" name="Лекц." dataDxfId="67"/>
-    <tableColumn id="4" name="Практ." dataDxfId="66"/>
-    <tableColumn id="5" name="Лабор." dataDxfId="65"/>
-    <tableColumn id="6" name="В т. ч.  годин" dataDxfId="64"/>
-    <tableColumn id="7" name="Прим." dataDxfId="63"/>
-    <tableColumn id="8" name="Шифр спеціальності" dataDxfId="62"/>
+    <tableColumn id="1" name="Групи" dataDxfId="52"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="51"/>
+    <tableColumn id="3" name="Лекц." dataDxfId="50"/>
+    <tableColumn id="4" name="Практ." dataDxfId="49"/>
+    <tableColumn id="5" name="Лабор." dataDxfId="48"/>
+    <tableColumn id="6" name="В т. ч.  годин" dataDxfId="47"/>
+    <tableColumn id="7" name="Прим." dataDxfId="46"/>
+    <tableColumn id="8" name="Шифр спеціальності" dataDxfId="45"/>
     <tableColumn id="9" name="Викладач"/>
     <tableColumn id="10" name="Лекц.2"/>
     <tableColumn id="11" name="Практ.3"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="61"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица5" displayName="Таблица5" ref="A1:L27" totalsRowShown="0" headerRowDxfId="60" headerRowBorderDxfId="59" tableBorderDxfId="58" totalsRowBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица5" displayName="Таблица5" ref="A1:L27" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="42" tableBorderDxfId="41" totalsRowBorderDxfId="40">
   <autoFilter ref="A1:L27"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Групи" dataDxfId="56"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="55"/>
-    <tableColumn id="3" name="Лекц." dataDxfId="54"/>
-    <tableColumn id="4" name="Практ." dataDxfId="53"/>
-    <tableColumn id="5" name="Лабор." dataDxfId="52"/>
-    <tableColumn id="6" name="В т. ч.  годин" dataDxfId="51"/>
-    <tableColumn id="7" name="Прим." dataDxfId="50"/>
-    <tableColumn id="8" name="Шифр спецільності" dataDxfId="49"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="48"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="47"/>
+    <tableColumn id="1" name="Групи" dataDxfId="39"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="38"/>
+    <tableColumn id="3" name="Лекц." dataDxfId="37"/>
+    <tableColumn id="4" name="Практ." dataDxfId="36"/>
+    <tableColumn id="5" name="Лабор." dataDxfId="35"/>
+    <tableColumn id="6" name="В т. ч.  годин" dataDxfId="34"/>
+    <tableColumn id="7" name="Прим." dataDxfId="33"/>
+    <tableColumn id="8" name="Шифр спецільності" dataDxfId="32"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="31"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="30"/>
     <tableColumn id="11" name="Практ.3"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="46"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица6" displayName="Таблица6" ref="A1:L34" totalsRowShown="0" tableBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица6" displayName="Таблица6" ref="A1:L34" totalsRowShown="0" tableBorderDxfId="28">
   <autoFilter ref="A1:L34"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Групи" dataDxfId="44"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="43"/>
-    <tableColumn id="3" name="Лекц." dataDxfId="42"/>
-    <tableColumn id="4" name="Практ." dataDxfId="41"/>
-    <tableColumn id="5" name="Лабор." dataDxfId="40"/>
-    <tableColumn id="6" name="В т. ч.  годин" dataDxfId="39"/>
-    <tableColumn id="7" name="Прим." dataDxfId="38"/>
-    <tableColumn id="8" name="Шифр. Спеціальності" dataDxfId="37"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="36"/>
+    <tableColumn id="1" name="Групи" dataDxfId="27"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="26"/>
+    <tableColumn id="3" name="Лекц." dataDxfId="25"/>
+    <tableColumn id="4" name="Практ." dataDxfId="24"/>
+    <tableColumn id="5" name="Лабор." dataDxfId="23"/>
+    <tableColumn id="6" name="В т. ч.  годин" dataDxfId="22"/>
+    <tableColumn id="7" name="Прим." dataDxfId="21"/>
+    <tableColumn id="8" name="Шифр. Спеціальності" dataDxfId="20"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="19"/>
     <tableColumn id="10" name="Лекц.2"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="35"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="18"/>
     <tableColumn id="12" name="Лаб."/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3671,21 +3705,21 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица7" displayName="Таблица7" ref="A1:L4" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица7" displayName="Таблица7" ref="A1:L4" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="A1:L4"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Групи" dataDxfId="29"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="28"/>
-    <tableColumn id="3" name="Лекц." dataDxfId="27"/>
-    <tableColumn id="4" name="Практ." dataDxfId="26"/>
-    <tableColumn id="5" name="Лабор." dataDxfId="25"/>
-    <tableColumn id="6" name="В т. ч.  годин" dataDxfId="24"/>
-    <tableColumn id="7" name="Прим." dataDxfId="23"/>
-    <tableColumn id="8" name="Шифр спецільності" dataDxfId="22"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="21"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="20"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="19"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="18"/>
+    <tableColumn id="1" name="Групи" dataDxfId="12"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="11"/>
+    <tableColumn id="3" name="Лекц." dataDxfId="10"/>
+    <tableColumn id="4" name="Практ." dataDxfId="9"/>
+    <tableColumn id="5" name="Лабор." dataDxfId="8"/>
+    <tableColumn id="6" name="В т. ч.  годин" dataDxfId="7"/>
+    <tableColumn id="7" name="Прим." dataDxfId="6"/>
+    <tableColumn id="8" name="Шифр спецільності" dataDxfId="5"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="4"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="3"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="2"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3694,7 +3728,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартна">
+    <a:clrScheme name="Офіс">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3732,9 +3766,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартна">
+    <a:fontScheme name="Офіс">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3769,7 +3803,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3804,7 +3838,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартна">
+    <a:fmtScheme name="Офіс">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3978,10 +4012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M238"/>
+  <dimension ref="A1:N238"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3989,18 +4023,18 @@
     <col min="1" max="1" width="19.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="42.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.140625" style="3" customWidth="1"/>
-    <col min="4" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10" style="3" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="7" width="14.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10" style="3" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
@@ -4020,49 +4054,61 @@
         <v>314</v>
       </c>
       <c r="G1" s="104" t="s">
+        <v>315</v>
+      </c>
+      <c r="H1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="104" t="s">
+      <c r="I1" s="104" t="s">
         <v>198</v>
       </c>
-      <c r="I1" s="104" t="s">
+      <c r="J1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="105" t="s">
+      <c r="K1" s="105" t="s">
         <v>274</v>
       </c>
-      <c r="K1" s="105" t="s">
+      <c r="L1" s="105" t="s">
         <v>275</v>
       </c>
-      <c r="L1" s="105" t="s">
+      <c r="M1" s="105" t="s">
         <v>218</v>
       </c>
-      <c r="M1" s="106" t="s">
+      <c r="N1" s="106" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
+      <c r="C2" s="96">
+        <v>4</v>
+      </c>
+      <c r="D2" s="96">
+        <v>4</v>
+      </c>
+      <c r="E2" s="96">
+        <v>2</v>
+      </c>
       <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="96" t="s">
+      <c r="G2" s="96">
+        <v>0</v>
+      </c>
+      <c r="H2" s="96"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="96" t="s">
         <v>194</v>
       </c>
-      <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="42"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M2" s="6"/>
+      <c r="N2" s="42"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="s">
         <v>8</v>
       </c>
@@ -4075,19 +4121,22 @@
       <c r="D3" s="96">
         <v>6</v>
       </c>
-      <c r="E3" s="96"/>
+      <c r="E3" s="96">
+        <v>4</v>
+      </c>
       <c r="F3" s="96"/>
       <c r="G3" s="96"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="96" t="s">
+      <c r="H3" s="96"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="42"/>
-    </row>
-    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="M3" s="6"/>
+      <c r="N3" s="42"/>
+    </row>
+    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="95" t="s">
         <v>8</v>
       </c>
@@ -4100,21 +4149,26 @@
       <c r="D4" s="96">
         <v>6</v>
       </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96" t="s">
+      <c r="E4" s="96">
+        <v>4</v>
+      </c>
+      <c r="F4" s="96">
+        <v>4</v>
+      </c>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="97"/>
+      <c r="J4" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="42"/>
-    </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M4" s="6"/>
+      <c r="N4" s="42"/>
+    </row>
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>11</v>
       </c>
@@ -4130,18 +4184,19 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="42"/>
-    </row>
-    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M5" s="6"/>
+      <c r="N5" s="42"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>11</v>
       </c>
@@ -4156,25 +4211,26 @@
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="J6" s="6">
+      <c r="K6" s="6">
         <v>12</v>
       </c>
-      <c r="K6" s="6">
-        <v>8</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="42"/>
-    </row>
-    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="L6" s="6">
+        <v>8</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="42"/>
+    </row>
+    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>11</v>
       </c>
@@ -4189,25 +4245,26 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="6">
         <v>12</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6">
-        <v>8</v>
-      </c>
-      <c r="M7" s="42"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L7" s="6"/>
+      <c r="M7" s="6">
+        <v>8</v>
+      </c>
+      <c r="N7" s="42"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>11</v>
       </c>
@@ -4223,16 +4280,17 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="8"/>
+      <c r="I8" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="42"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M8" s="6"/>
+      <c r="N8" s="42"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>11</v>
       </c>
@@ -4245,54 +4303,58 @@
       <c r="D9" s="8">
         <v>10</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="8">
+        <v>2</v>
+      </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="8"/>
+      <c r="I9" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="J9" s="6">
-        <v>8</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6">
-        <v>6</v>
-      </c>
-      <c r="M9" s="42"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K9" s="6">
+        <v>8</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6">
+        <v>6</v>
+      </c>
+      <c r="N9" s="42"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8">
-        <v>0</v>
-      </c>
+      <c r="C10" s="8"/>
       <c r="D10" s="8">
         <v>4</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8">
+        <v>6</v>
+      </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="8"/>
+      <c r="I10" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="J10" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="J10" s="26">
-        <v>4</v>
-      </c>
-      <c r="K10" s="98"/>
+      <c r="K10" s="26">
+        <v>4</v>
+      </c>
       <c r="L10" s="98"/>
-      <c r="M10" s="42"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M10" s="98"/>
+      <c r="N10" s="42"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>11</v>
       </c>
@@ -4305,21 +4367,26 @@
       <c r="D11" s="8">
         <v>0</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="8">
+        <v>8</v>
+      </c>
+      <c r="F11" s="8">
+        <v>12</v>
+      </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="8"/>
+      <c r="I11" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="42"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M11" s="6"/>
+      <c r="N11" s="42"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>21</v>
       </c>
@@ -4332,23 +4399,28 @@
       <c r="D12" s="8">
         <v>8</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="8">
+        <v>6</v>
+      </c>
+      <c r="F12" s="8">
+        <v>6</v>
+      </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="8"/>
+      <c r="I12" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="J12" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="42" t="s">
+      <c r="M12" s="6"/>
+      <c r="N12" s="42" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>195</v>
       </c>
@@ -4361,23 +4433,28 @@
       <c r="D13" s="8">
         <v>8</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="E13" s="8">
+        <v>6</v>
+      </c>
+      <c r="F13" s="8">
+        <v>6</v>
+      </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="8"/>
+      <c r="I13" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="J13" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="42" t="s">
+      <c r="M13" s="6"/>
+      <c r="N13" s="42" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>23</v>
       </c>
@@ -4390,25 +4467,30 @@
       <c r="D14" s="8">
         <v>8</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="E14" s="8">
+        <v>6</v>
+      </c>
+      <c r="F14" s="8">
+        <v>6</v>
+      </c>
       <c r="G14" s="8"/>
-      <c r="H14" s="6">
+      <c r="H14" s="8"/>
+      <c r="I14" s="6">
         <v>6.1929999999999996</v>
       </c>
-      <c r="I14" s="98" t="s">
+      <c r="J14" s="98" t="s">
         <v>213</v>
       </c>
-      <c r="J14" s="98">
-        <v>4</v>
-      </c>
       <c r="K14" s="98">
+        <v>4</v>
+      </c>
+      <c r="L14" s="98">
         <v>0</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="42"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M14" s="6"/>
+      <c r="N14" s="42"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>23</v>
       </c>
@@ -4421,23 +4503,28 @@
       <c r="D15" s="8">
         <v>4</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="E15" s="8">
+        <v>12</v>
+      </c>
+      <c r="F15" s="8">
+        <v>8</v>
+      </c>
       <c r="G15" s="8"/>
-      <c r="H15" s="6">
+      <c r="H15" s="8"/>
+      <c r="I15" s="6">
         <v>6.1929999999999996</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="J15" s="6">
+      <c r="K15" s="6">
         <v>2</v>
       </c>
-      <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="42"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M15" s="6"/>
+      <c r="N15" s="42"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>23</v>
       </c>
@@ -4450,25 +4537,30 @@
       <c r="D16" s="8">
         <v>8</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="E16" s="8">
+        <v>4</v>
+      </c>
+      <c r="F16" s="8">
+        <v>12</v>
+      </c>
       <c r="G16" s="8"/>
-      <c r="H16" s="6">
+      <c r="H16" s="8"/>
+      <c r="I16" s="6">
         <v>6.1929999999999996</v>
       </c>
-      <c r="I16" s="98" t="s">
+      <c r="J16" s="98" t="s">
         <v>211</v>
       </c>
-      <c r="J16" s="98">
-        <v>4</v>
-      </c>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98">
+      <c r="K16" s="98">
+        <v>4</v>
+      </c>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98">
         <v>2</v>
       </c>
-      <c r="M16" s="42"/>
-    </row>
-    <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N16" s="42"/>
+    </row>
+    <row r="17" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>23</v>
       </c>
@@ -4481,87 +4573,96 @@
       <c r="D17" s="8">
         <v>4</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="8">
+        <v>4</v>
+      </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="6">
+      <c r="H17" s="8"/>
+      <c r="I17" s="6">
         <v>6.1929999999999996</v>
       </c>
-      <c r="I17" s="98" t="s">
+      <c r="J17" s="98" t="s">
         <v>213</v>
       </c>
-      <c r="J17" s="98">
+      <c r="K17" s="98">
         <v>2</v>
-      </c>
-      <c r="K17" s="98">
-        <v>0</v>
       </c>
       <c r="L17" s="98">
         <v>0</v>
       </c>
-      <c r="M17" s="42"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M17" s="98">
+        <v>0</v>
+      </c>
+      <c r="N17" s="42"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8">
+        <v>6</v>
+      </c>
+      <c r="E18" s="8">
+        <v>6</v>
+      </c>
+      <c r="F18" s="8">
+        <v>6</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="6">
+        <v>6.1929999999999996</v>
+      </c>
+      <c r="J18" s="98" t="s">
+        <v>245</v>
+      </c>
+      <c r="K18" s="98">
+        <v>2</v>
+      </c>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98">
         <v>0</v>
       </c>
-      <c r="D18" s="8">
-        <v>6</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="6">
-        <v>6.1929999999999996</v>
-      </c>
-      <c r="I18" s="98" t="s">
-        <v>245</v>
-      </c>
-      <c r="J18" s="98">
-        <v>2</v>
-      </c>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98">
-        <v>0</v>
-      </c>
-      <c r="M18" s="42"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="42"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="8">
-        <v>0</v>
-      </c>
+      <c r="C19" s="8"/>
       <c r="D19" s="8">
         <v>4</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="E19" s="8">
+        <v>4</v>
+      </c>
+      <c r="F19" s="8">
+        <v>4</v>
+      </c>
       <c r="G19" s="8"/>
-      <c r="H19" s="6">
+      <c r="H19" s="8"/>
+      <c r="I19" s="6">
         <v>6.1929999999999996</v>
       </c>
-      <c r="I19" s="98" t="s">
+      <c r="J19" s="98" t="s">
         <v>210</v>
       </c>
-      <c r="J19" s="98">
+      <c r="K19" s="98">
         <v>2</v>
       </c>
-      <c r="K19" s="98"/>
       <c r="L19" s="98"/>
-      <c r="M19" s="42"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M19" s="98"/>
+      <c r="N19" s="42"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>30</v>
       </c>
@@ -4580,23 +4681,24 @@
       <c r="F20" s="6">
         <v>8</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="6">
+      <c r="G20" s="6"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="6">
         <v>6.2050000000000001</v>
       </c>
-      <c r="I20" s="98" t="s">
+      <c r="J20" s="98" t="s">
         <v>214</v>
       </c>
-      <c r="J20" s="98">
-        <v>6</v>
-      </c>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98">
-        <v>4</v>
-      </c>
-      <c r="M20" s="42"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K20" s="98">
+        <v>6</v>
+      </c>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98">
+        <v>4</v>
+      </c>
+      <c r="N20" s="42"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>30</v>
       </c>
@@ -4613,23 +4715,24 @@
         <v>4</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="6">
+      <c r="G21" s="6"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="6">
         <v>6.2050000000000001</v>
       </c>
-      <c r="I21" s="98" t="s">
+      <c r="J21" s="98" t="s">
         <v>215</v>
       </c>
-      <c r="J21" s="98">
-        <v>6</v>
-      </c>
       <c r="K21" s="98">
-        <v>4</v>
-      </c>
-      <c r="L21" s="98"/>
-      <c r="M21" s="42"/>
-    </row>
-    <row r="22" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="L21" s="98">
+        <v>4</v>
+      </c>
+      <c r="M21" s="98"/>
+      <c r="N21" s="42"/>
+    </row>
+    <row r="22" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
         <v>30</v>
       </c>
@@ -4648,21 +4751,22 @@
       <c r="F22" s="6">
         <v>6</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="6">
+      <c r="G22" s="6"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="6">
         <v>6.2050000000000001</v>
       </c>
-      <c r="I22" s="98" t="s">
+      <c r="J22" s="98" t="s">
         <v>216</v>
       </c>
-      <c r="J22" s="98">
-        <v>6</v>
-      </c>
-      <c r="K22" s="6"/>
+      <c r="K22" s="98">
+        <v>6</v>
+      </c>
       <c r="L22" s="6"/>
-      <c r="M22" s="42"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M22" s="6"/>
+      <c r="N22" s="42"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>30</v>
       </c>
@@ -4677,23 +4781,24 @@
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="6">
+      <c r="G23" s="6"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="6">
         <v>6.2050000000000001</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="J23" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="J23" s="6">
-        <v>6</v>
-      </c>
       <c r="K23" s="6">
-        <v>4</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="42"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="L23" s="6">
+        <v>4</v>
+      </c>
+      <c r="M23" s="6"/>
+      <c r="N23" s="42"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
         <v>30</v>
       </c>
@@ -4713,20 +4818,21 @@
         <v>6</v>
       </c>
       <c r="G24" s="8"/>
-      <c r="H24" s="6">
+      <c r="H24" s="8"/>
+      <c r="I24" s="6">
         <v>6.2050000000000001</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="J24" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="J24" s="98"/>
       <c r="K24" s="98"/>
       <c r="L24" s="98"/>
-      <c r="M24" s="42" t="s">
+      <c r="M24" s="98"/>
+      <c r="N24" s="42" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="38" t="s">
         <v>30</v>
       </c>
@@ -4744,20 +4850,21 @@
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="6">
+      <c r="H25" s="8"/>
+      <c r="I25" s="6">
         <v>6.2050000000000001</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="J25" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="42" t="s">
+      <c r="M25" s="6"/>
+      <c r="N25" s="42" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="38" t="s">
         <v>30</v>
       </c>
@@ -4777,22 +4884,23 @@
         <v>8</v>
       </c>
       <c r="G26" s="8"/>
-      <c r="H26" s="6">
+      <c r="H26" s="8"/>
+      <c r="I26" s="6">
         <v>6.2050000000000001</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="J26" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="J26" s="6">
+      <c r="K26" s="6">
         <v>16</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6">
+      <c r="L26" s="6"/>
+      <c r="M26" s="6">
         <v>0</v>
       </c>
-      <c r="M26" s="42"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="42"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="99" t="s">
         <v>30</v>
       </c>
@@ -4811,104 +4919,105 @@
       <c r="F27" s="101">
         <v>2</v>
       </c>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100">
+      <c r="G27" s="101"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100">
         <v>6.2050000000000001</v>
       </c>
-      <c r="I27" s="100" t="s">
+      <c r="J27" s="100" t="s">
         <v>300</v>
       </c>
-      <c r="J27" s="100"/>
       <c r="K27" s="100"/>
       <c r="L27" s="100"/>
-      <c r="M27" s="102"/>
-    </row>
-    <row r="102" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H102" s="14"/>
-    </row>
-    <row r="103" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H103" s="14"/>
-    </row>
-    <row r="105" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H105" s="14"/>
-    </row>
-    <row r="106" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H106" s="14"/>
-    </row>
-    <row r="107" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H107" s="14"/>
-    </row>
-    <row r="108" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H108" s="14"/>
-    </row>
-    <row r="109" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H109" s="14"/>
-    </row>
-    <row r="110" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H110" s="14"/>
-    </row>
-    <row r="111" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H111" s="14"/>
-    </row>
-    <row r="112" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H112" s="14"/>
-    </row>
-    <row r="113" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H113" s="14"/>
-    </row>
-    <row r="146" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H146" s="14"/>
-    </row>
-    <row r="147" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H147" s="14"/>
-    </row>
-    <row r="157" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H157" s="14"/>
-    </row>
-    <row r="158" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H158" s="14"/>
-    </row>
-    <row r="225" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H225" s="14"/>
-    </row>
-    <row r="226" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H226" s="14"/>
-    </row>
-    <row r="227" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H227" s="14"/>
-    </row>
-    <row r="228" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H228" s="14"/>
-    </row>
-    <row r="229" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H229" s="14"/>
-    </row>
-    <row r="230" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H230" s="14"/>
-    </row>
-    <row r="231" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H231" s="14"/>
-    </row>
-    <row r="232" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H232" s="14"/>
-    </row>
-    <row r="233" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H233" s="14"/>
-    </row>
-    <row r="234" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H234" s="14"/>
-    </row>
-    <row r="235" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H235" s="14"/>
-    </row>
-    <row r="236" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H236" s="14"/>
-    </row>
-    <row r="237" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H237" s="14"/>
-    </row>
-    <row r="238" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H238" s="14"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="102"/>
+    </row>
+    <row r="102" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I102" s="14"/>
+    </row>
+    <row r="103" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I103" s="14"/>
+    </row>
+    <row r="105" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I105" s="14"/>
+    </row>
+    <row r="106" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I106" s="14"/>
+    </row>
+    <row r="107" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I107" s="14"/>
+    </row>
+    <row r="108" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I108" s="14"/>
+    </row>
+    <row r="109" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I109" s="14"/>
+    </row>
+    <row r="110" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I110" s="14"/>
+    </row>
+    <row r="111" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I111" s="14"/>
+    </row>
+    <row r="112" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I112" s="14"/>
+    </row>
+    <row r="113" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I113" s="14"/>
+    </row>
+    <row r="146" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I146" s="14"/>
+    </row>
+    <row r="147" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I147" s="14"/>
+    </row>
+    <row r="157" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I157" s="14"/>
+    </row>
+    <row r="158" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I158" s="14"/>
+    </row>
+    <row r="225" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I225" s="14"/>
+    </row>
+    <row r="226" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I226" s="14"/>
+    </row>
+    <row r="227" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I227" s="14"/>
+    </row>
+    <row r="228" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I228" s="14"/>
+    </row>
+    <row r="229" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I229" s="14"/>
+    </row>
+    <row r="230" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I230" s="14"/>
+    </row>
+    <row r="231" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I231" s="14"/>
+    </row>
+    <row r="232" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I232" s="14"/>
+    </row>
+    <row r="233" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I233" s="14"/>
+    </row>
+    <row r="234" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I234" s="14"/>
+    </row>
+    <row r="235" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I235" s="14"/>
+    </row>
+    <row r="236" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I236" s="14"/>
+    </row>
+    <row r="237" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I237" s="14"/>
+    </row>
+    <row r="238" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I238" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Zaizd2.xlsx
+++ b/Zaizd2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="20730" windowHeight="9480"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="20730" windowHeight="9480" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1 курс" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="0" shapeId="0">
+    <comment ref="K9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +124,7 @@
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="J25" authorId="0" shapeId="0">
+    <comment ref="K25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J18" authorId="1" shapeId="0">
+    <comment ref="K18" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="329">
   <si>
     <t>Групи</t>
   </si>
@@ -1275,7 +1275,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1366,6 +1366,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1373,7 +1381,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1400,8 +1408,13 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1559,15 +1572,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1766,27 +1795,174 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="5" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Ввід" xfId="3" builtinId="20"/>
     <cellStyle name="Гарний" xfId="1" builtinId="26"/>
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
     <cellStyle name="Нейтральний" xfId="2" builtinId="28"/>
     <cellStyle name="Поганий" xfId="4" builtinId="27"/>
+    <cellStyle name="Примітка" xfId="5" builtinId="10"/>
   </cellStyles>
-  <dxfs count="127">
+  <dxfs count="132">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -4533,159 +4709,174 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:O27" totalsRowShown="0" headerRowDxfId="126" dataDxfId="124" headerRowBorderDxfId="125" tableBorderDxfId="123" totalsRowBorderDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:O27" totalsRowShown="0" headerRowDxfId="131" dataDxfId="129" headerRowBorderDxfId="130" tableBorderDxfId="128" totalsRowBorderDxfId="127">
   <autoFilter ref="A1:O27"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Групи" dataDxfId="121"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="120"/>
-    <tableColumn id="3" name="Годин 1 заїзд" dataDxfId="119"/>
-    <tableColumn id="6" name="Годин 2 заїзд" dataDxfId="118"/>
-    <tableColumn id="14" name="Годин 3 заїзд" dataDxfId="117"/>
-    <tableColumn id="5" name="Годин 4 заїзд" dataDxfId="116"/>
-    <tableColumn id="15" name="Використано годин" dataDxfId="115"/>
-    <tableColumn id="17" name="Необхідно використати" dataDxfId="0">
+    <tableColumn id="1" name="Групи" dataDxfId="126"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="125"/>
+    <tableColumn id="3" name="Годин 1 заїзд" dataDxfId="124"/>
+    <tableColumn id="6" name="Годин 2 заїзд" dataDxfId="123"/>
+    <tableColumn id="14" name="Годин 3 заїзд" dataDxfId="122"/>
+    <tableColumn id="5" name="Годин 4 заїзд" dataDxfId="121"/>
+    <tableColumn id="15" name="Використано годин" dataDxfId="120"/>
+    <tableColumn id="17" name="Необхідно використати" dataDxfId="5">
       <calculatedColumnFormula>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Прим." dataDxfId="114"/>
-    <tableColumn id="8" name="шифр спеціальності" dataDxfId="113"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="112"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="111"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="110"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="109"/>
-    <tableColumn id="13" name="Шифр кафедри" dataDxfId="108"/>
+    <tableColumn id="7" name="Прим." dataDxfId="119"/>
+    <tableColumn id="8" name="шифр спеціальності" dataDxfId="118"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="117"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="116"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="115"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="114"/>
+    <tableColumn id="13" name="Шифр кафедри" dataDxfId="113"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:N32" totalsRowShown="0" headerRowDxfId="107" dataDxfId="105" headerRowBorderDxfId="106" tableBorderDxfId="104" totalsRowBorderDxfId="103">
-  <autoFilter ref="A1:N32"/>
-  <tableColumns count="14">
-    <tableColumn id="1" name="Групи" dataDxfId="102"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="101"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="100"/>
-    <tableColumn id="15" name="Годин 2 заїзд" dataDxfId="99"/>
-    <tableColumn id="14" name="Годин 3 заїзд" dataDxfId="98"/>
-    <tableColumn id="5" name="Годин 4 заїзд" dataDxfId="97"/>
-    <tableColumn id="4" name="Використано годин" dataDxfId="96"/>
-    <tableColumn id="7" name="Прим." dataDxfId="95"/>
-    <tableColumn id="8" name="шифр спеціальності" dataDxfId="94"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="93"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="92"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="91"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="90"/>
-    <tableColumn id="13" name="Столбец4" dataDxfId="89"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:O32" totalsRowShown="0" headerRowDxfId="112" dataDxfId="110" headerRowBorderDxfId="111" tableBorderDxfId="109" totalsRowBorderDxfId="108">
+  <autoFilter ref="A1:O32"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="Групи" dataDxfId="107"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="106"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="105"/>
+    <tableColumn id="15" name="Годин 2 заїзд" dataDxfId="104"/>
+    <tableColumn id="14" name="Годин 3 заїзд" dataDxfId="103"/>
+    <tableColumn id="5" name="Годин 4 заїзд" dataDxfId="102"/>
+    <tableColumn id="4" name="Використано годин" dataDxfId="101"/>
+    <tableColumn id="3" name="Необхідно використати" dataDxfId="4">
+      <calculatedColumnFormula>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Прим." dataDxfId="100"/>
+    <tableColumn id="8" name="шифр спеціальності" dataDxfId="99"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="98"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="97"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="96"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="95"/>
+    <tableColumn id="13" name="Столбец4" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:M44" totalsRowShown="0" headerRowDxfId="88" dataDxfId="86" headerRowBorderDxfId="87" tableBorderDxfId="85" totalsRowBorderDxfId="84">
-  <autoFilter ref="A1:M44"/>
-  <tableColumns count="13">
-    <tableColumn id="1" name="Групи" dataDxfId="83"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="82"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="81"/>
-    <tableColumn id="14" name="Годин 2 заїзд" dataDxfId="80"/>
-    <tableColumn id="13" name="Годин 3 заїзд" dataDxfId="79"/>
-    <tableColumn id="5" name="Годин 4 заїзд" dataDxfId="78"/>
-    <tableColumn id="4" name="Використано годин" dataDxfId="77"/>
-    <tableColumn id="7" name="Прим." dataDxfId="76"/>
-    <tableColumn id="8" name="Шифр спеціальності" dataDxfId="75"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="74"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="73"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="72"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:N44" totalsRowShown="0" headerRowDxfId="93" dataDxfId="91" headerRowBorderDxfId="92" tableBorderDxfId="90" totalsRowBorderDxfId="89">
+  <autoFilter ref="A1:N44"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="Групи" dataDxfId="88"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="87"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="86"/>
+    <tableColumn id="14" name="Годин 2 заїзд" dataDxfId="85"/>
+    <tableColumn id="13" name="Годин 3 заїзд" dataDxfId="84"/>
+    <tableColumn id="5" name="Годин 4 заїзд" dataDxfId="83"/>
+    <tableColumn id="4" name="Використано годин" dataDxfId="82"/>
+    <tableColumn id="3" name="Необхідно використати" dataDxfId="3">
+      <calculatedColumnFormula>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Прим." dataDxfId="81"/>
+    <tableColumn id="8" name="Шифр спеціальності" dataDxfId="80"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="79"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="78"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="77"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:M42" totalsRowShown="0" headerRowDxfId="70" dataDxfId="68" headerRowBorderDxfId="69" tableBorderDxfId="67" totalsRowBorderDxfId="66">
-  <autoFilter ref="A1:M42"/>
-  <tableColumns count="13">
-    <tableColumn id="1" name="Групи" dataDxfId="65"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="64"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="63"/>
-    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="62"/>
-    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="61"/>
-    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="60"/>
-    <tableColumn id="3" name="Використано годин" dataDxfId="59"/>
-    <tableColumn id="7" name="Прим." dataDxfId="58"/>
-    <tableColumn id="8" name="Шифр спеціальності" dataDxfId="57"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="56"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="55"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="54"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:N42" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72" totalsRowBorderDxfId="71">
+  <autoFilter ref="A1:N42"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="Групи" dataDxfId="70"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="69"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="68"/>
+    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="67"/>
+    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="66"/>
+    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="65"/>
+    <tableColumn id="3" name="Використано годин" dataDxfId="64"/>
+    <tableColumn id="14" name="Необхідно використати" dataDxfId="2">
+      <calculatedColumnFormula>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Прим." dataDxfId="63"/>
+    <tableColumn id="8" name="Шифр спеціальності" dataDxfId="62"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="61"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="60"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="59"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица5" displayName="Таблица5" ref="A1:M27" totalsRowShown="0" headerRowDxfId="52" dataDxfId="50" headerRowBorderDxfId="51" tableBorderDxfId="49" totalsRowBorderDxfId="48">
-  <autoFilter ref="A1:M27"/>
-  <tableColumns count="13">
-    <tableColumn id="1" name="Групи" dataDxfId="47"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="46"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="45"/>
-    <tableColumn id="17" name="Годин 2 заїзд" dataDxfId="44"/>
-    <tableColumn id="16" name="Годин 3 заїзд" dataDxfId="43"/>
-    <tableColumn id="15" name="Годин 4 заїзд" dataDxfId="42"/>
-    <tableColumn id="14" name="Використано годин" dataDxfId="41"/>
-    <tableColumn id="7" name="Прим." dataDxfId="40"/>
-    <tableColumn id="8" name="Шифр спецільності" dataDxfId="39"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="38"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="37"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="36"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица5" displayName="Таблица5" ref="A1:N27" totalsRowShown="0" headerRowDxfId="57" dataDxfId="55" headerRowBorderDxfId="56" tableBorderDxfId="54" totalsRowBorderDxfId="53">
+  <autoFilter ref="A1:N27"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="Групи" dataDxfId="52"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="51"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="50"/>
+    <tableColumn id="17" name="Годин 2 заїзд" dataDxfId="49"/>
+    <tableColumn id="16" name="Годин 3 заїзд" dataDxfId="48"/>
+    <tableColumn id="15" name="Годин 4 заїзд" dataDxfId="47"/>
+    <tableColumn id="14" name="Використано годин" dataDxfId="46"/>
+    <tableColumn id="3" name="Необхідно використати" dataDxfId="1">
+      <calculatedColumnFormula>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Прим." dataDxfId="45"/>
+    <tableColumn id="8" name="Шифр спецільності" dataDxfId="44"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="43"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="42"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="41"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица6" displayName="Таблица6" ref="A1:M48" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" tableBorderDxfId="32">
-  <autoFilter ref="A1:M48"/>
-  <tableColumns count="13">
-    <tableColumn id="1" name="Групи" dataDxfId="31"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="30"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="29"/>
-    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="28"/>
-    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="27"/>
-    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="26"/>
-    <tableColumn id="3" name="Використано годин" dataDxfId="25"/>
-    <tableColumn id="7" name="Прим." dataDxfId="24"/>
-    <tableColumn id="8" name="Шифр. Спеціальності" dataDxfId="23"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="22"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="21"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="20"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица6" displayName="Таблица6" ref="A1:N48" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" tableBorderDxfId="37">
+  <autoFilter ref="A1:N48"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="Групи" dataDxfId="36"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="35"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="34"/>
+    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="33"/>
+    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="32"/>
+    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="31"/>
+    <tableColumn id="3" name="Використано годин" dataDxfId="30"/>
+    <tableColumn id="14" name="Необхідно використати" dataDxfId="0">
+      <calculatedColumnFormula>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Прим." dataDxfId="29"/>
+    <tableColumn id="8" name="Шифр. Спеціальності" dataDxfId="28"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="27"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="26"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="25"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица7" displayName="Таблица7" ref="A1:M4" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица7" displayName="Таблица7" ref="A1:M4" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="A1:M4"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Групи" dataDxfId="13"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="12"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="11"/>
-    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="10"/>
-    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="9"/>
-    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="8"/>
-    <tableColumn id="3" name="Використано годин" dataDxfId="7"/>
-    <tableColumn id="7" name="Прим." dataDxfId="6"/>
-    <tableColumn id="8" name="Шифр спецільності" dataDxfId="5"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="4"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="3"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="2"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="1"/>
+    <tableColumn id="1" name="Групи" dataDxfId="18"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="17"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="16"/>
+    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="15"/>
+    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="14"/>
+    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="13"/>
+    <tableColumn id="3" name="Використано годин" dataDxfId="12"/>
+    <tableColumn id="7" name="Прим." dataDxfId="11"/>
+    <tableColumn id="8" name="Шифр спецільності" dataDxfId="10"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="9"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="8"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="7"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4980,8 +5171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O238"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6150,10 +6341,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6164,18 +6355,18 @@
     <col min="4" max="4" width="12.140625" style="29" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="29" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="29" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" style="29" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" style="29" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="29" customWidth="1"/>
-    <col min="12" max="12" width="10" style="29" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="29"/>
-    <col min="14" max="14" width="11.85546875" style="29" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="29"/>
+    <col min="7" max="8" width="14.28515625" style="29" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="29" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" style="29" customWidth="1"/>
+    <col min="11" max="11" width="25.42578125" style="29" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="29" customWidth="1"/>
+    <col min="13" max="13" width="10" style="29" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="29"/>
+    <col min="15" max="15" width="11.85546875" style="29" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -6198,28 +6389,31 @@
         <v>306</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="J1" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="K1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="L1" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="O1" s="28" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
@@ -6236,18 +6430,24 @@
         <v>2</v>
       </c>
       <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="G2" s="17">
+        <v>6</v>
+      </c>
+      <c r="H2" s="17">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
       <c r="I2" s="17"/>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="17"/>
+      <c r="K2" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="30"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N2" s="4"/>
+      <c r="O2" s="30"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
@@ -6264,18 +6464,24 @@
         <v>4</v>
       </c>
       <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="G3" s="17">
+        <v>4</v>
+      </c>
+      <c r="H3" s="17">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
       <c r="I3" s="17"/>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="17"/>
+      <c r="K3" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="30"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3" s="4"/>
+      <c r="O3" s="30"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>196</v>
       </c>
@@ -6290,24 +6496,30 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4">
+      <c r="G4" s="4">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>8</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>12</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4">
-        <v>4</v>
-      </c>
-      <c r="N4" s="30"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4">
+        <v>4</v>
+      </c>
+      <c r="O4" s="30"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>196</v>
       </c>
@@ -6322,24 +6534,30 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4">
+      <c r="G5" s="4">
+        <v>8</v>
+      </c>
+      <c r="H5" s="4">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>10</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>12</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4">
-        <v>6</v>
-      </c>
-      <c r="N5" s="30"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4">
+        <v>6</v>
+      </c>
+      <c r="O5" s="30"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>196</v>
       </c>
@@ -6358,22 +6576,28 @@
       <c r="F6" s="4">
         <v>10</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4">
+      <c r="G6" s="4">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>10</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>20</v>
       </c>
-      <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="30"/>
-    </row>
-    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="N6" s="4"/>
+      <c r="O6" s="30"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>196</v>
       </c>
@@ -6388,20 +6612,26 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4">
+      <c r="G7" s="4">
+        <v>12</v>
+      </c>
+      <c r="H7" s="4">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>10</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="30"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N7" s="4"/>
+      <c r="O7" s="30"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>196</v>
       </c>
@@ -6416,24 +6646,30 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4">
+      <c r="G8" s="4">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>10</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
         <v>2</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="30"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N8" s="4"/>
+      <c r="O8" s="30"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>196</v>
       </c>
@@ -6448,24 +6684,30 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4">
+      <c r="G9" s="4">
+        <v>6</v>
+      </c>
+      <c r="H9" s="4">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>8</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>10</v>
       </c>
-      <c r="L9" s="4">
-        <v>4</v>
-      </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="30"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M9" s="4">
+        <v>4</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="30"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>196</v>
       </c>
@@ -6482,22 +6724,28 @@
         <v>4</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4">
+      <c r="G10" s="4">
+        <v>4</v>
+      </c>
+      <c r="H10" s="4">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>8</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="K10" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="K10" s="31">
+      <c r="L10" s="31">
         <v>12</v>
       </c>
-      <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="30"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N10" s="4"/>
+      <c r="O10" s="30"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>196</v>
       </c>
@@ -6512,20 +6760,26 @@
       <c r="F11" s="4">
         <v>8</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="K11" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="30"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N11" s="4"/>
+      <c r="O11" s="30"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>196</v>
       </c>
@@ -6540,20 +6794,26 @@
       <c r="F12" s="4">
         <v>4</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4">
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J12" s="31" t="s">
+      <c r="K12" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="K12" s="32"/>
       <c r="L12" s="32"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="30"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M12" s="32"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="30"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>196</v>
       </c>
@@ -6568,20 +6828,26 @@
       <c r="F13" s="4">
         <v>8</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4">
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="30"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N13" s="4"/>
+      <c r="O13" s="30"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
@@ -6592,7 +6858,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E14" s="4">
         <v>10</v>
@@ -6600,54 +6866,66 @@
       <c r="F14" s="4">
         <v>10</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4">
+      <c r="G14" s="4">
+        <v>8</v>
+      </c>
+      <c r="H14" s="4">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="K14" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="K14" s="32">
+      <c r="L14" s="32">
         <v>12</v>
       </c>
-      <c r="L14" s="32">
+      <c r="M14" s="32">
         <v>2</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="30"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N14" s="4"/>
+      <c r="O14" s="30"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="77">
         <v>10</v>
       </c>
-      <c r="D15" s="4">
-        <v>8</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4">
+      <c r="D15" s="77">
+        <v>8</v>
+      </c>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77">
+        <v>8</v>
+      </c>
+      <c r="H15" s="77">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>10</v>
+      </c>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77">
         <v>6.080101</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="77" t="s">
         <v>284</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="30" t="s">
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
@@ -6662,24 +6940,30 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4">
+      <c r="G16" s="4">
+        <v>4</v>
+      </c>
+      <c r="H16" s="4">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="K16" s="4">
-        <v>6</v>
-      </c>
       <c r="L16" s="4">
-        <v>4</v>
-      </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="30"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="M16" s="4">
+        <v>4</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="30"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
@@ -6698,24 +6982,30 @@
       <c r="F17" s="4">
         <v>8</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4">
+      <c r="G17" s="4">
+        <v>4</v>
+      </c>
+      <c r="H17" s="4">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J17" s="31" t="s">
+      <c r="K17" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="K17" s="31">
+      <c r="L17" s="31">
         <v>10</v>
       </c>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31">
+      <c r="M17" s="31"/>
+      <c r="N17" s="31">
         <v>0</v>
       </c>
-      <c r="N17" s="30"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="30"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>19</v>
       </c>
@@ -6734,24 +7024,30 @@
       <c r="F18" s="4">
         <v>6</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4">
+      <c r="G18" s="4">
+        <v>10</v>
+      </c>
+      <c r="H18" s="4">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>10</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>18</v>
       </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4">
+      <c r="M18" s="4"/>
+      <c r="N18" s="4">
         <v>2</v>
       </c>
-      <c r="N18" s="30"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="30"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>19</v>
       </c>
@@ -6759,33 +7055,39 @@
         <v>48</v>
       </c>
       <c r="C19" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E19" s="4">
         <v>4</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4">
+      <c r="G19" s="4">
+        <v>4</v>
+      </c>
+      <c r="H19" s="4">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J19" s="32" t="s">
+      <c r="K19" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="K19" s="32">
-        <v>6</v>
-      </c>
       <c r="L19" s="32">
+        <v>6</v>
+      </c>
+      <c r="M19" s="32">
         <v>2</v>
       </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="30"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N19" s="4"/>
+      <c r="O19" s="30"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>19</v>
       </c>
@@ -6800,24 +7102,30 @@
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4">
+      <c r="G20" s="4">
+        <v>6</v>
+      </c>
+      <c r="H20" s="4">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="K20" s="4">
-        <v>8</v>
-      </c>
       <c r="L20" s="4">
+        <v>8</v>
+      </c>
+      <c r="M20" s="4">
         <v>2</v>
       </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="30"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N20" s="4"/>
+      <c r="O20" s="30"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
@@ -6828,28 +7136,34 @@
         <v>6</v>
       </c>
       <c r="D21" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4">
+      <c r="G21" s="4">
+        <v>6</v>
+      </c>
+      <c r="H21" s="4">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>2</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J21" s="32" t="s">
+      <c r="K21" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="K21" s="32">
-        <v>4</v>
-      </c>
       <c r="L21" s="32">
         <v>4</v>
       </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="30"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M21" s="32">
+        <v>4</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="30"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>56</v>
       </c>
@@ -6868,24 +7182,30 @@
       <c r="F22" s="4">
         <v>4</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4">
+      <c r="G22" s="4">
+        <v>4</v>
+      </c>
+      <c r="H22" s="4">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J22" s="31" t="s">
+      <c r="K22" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="K22" s="31">
-        <v>8</v>
-      </c>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31">
+      <c r="L22" s="31">
+        <v>8</v>
+      </c>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31">
         <v>0</v>
       </c>
-      <c r="N22" s="30"/>
-    </row>
-    <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="O22" s="30"/>
+    </row>
+    <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>56</v>
       </c>
@@ -6900,24 +7220,30 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4">
+      <c r="G23" s="4">
+        <v>6</v>
+      </c>
+      <c r="H23" s="4">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="K23" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="K23" s="31">
-        <v>8</v>
-      </c>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31">
-        <v>4</v>
-      </c>
-      <c r="N23" s="30"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L23" s="31">
+        <v>8</v>
+      </c>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31">
+        <v>4</v>
+      </c>
+      <c r="O23" s="30"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>56</v>
       </c>
@@ -6936,20 +7262,26 @@
       <c r="F24" s="4">
         <v>4</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4">
+      <c r="G24" s="4">
+        <v>4</v>
+      </c>
+      <c r="H24" s="4">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>8</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="K24" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="30"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N24" s="4"/>
+      <c r="O24" s="30"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>56</v>
       </c>
@@ -6968,22 +7300,28 @@
       <c r="F25" s="4">
         <v>4</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4">
+      <c r="G25" s="4">
+        <v>4</v>
+      </c>
+      <c r="H25" s="4">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="K25" s="4">
+      <c r="L25" s="4">
         <v>10</v>
       </c>
-      <c r="L25" s="32"/>
       <c r="M25" s="32"/>
-      <c r="N25" s="30"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N25" s="32"/>
+      <c r="O25" s="30"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>56</v>
       </c>
@@ -6998,22 +7336,28 @@
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4">
+      <c r="G26" s="4">
+        <v>6</v>
+      </c>
+      <c r="H26" s="4">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="K26" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4">
+      <c r="L26" s="4"/>
+      <c r="M26" s="4">
         <v>12</v>
       </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="30"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N26" s="4"/>
+      <c r="O26" s="30"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>56</v>
       </c>
@@ -7032,24 +7376,30 @@
       <c r="F27" s="4">
         <v>4</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4">
+      <c r="G27" s="4">
+        <v>8</v>
+      </c>
+      <c r="H27" s="4">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J27" s="31" t="s">
+      <c r="K27" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="K27" s="31">
+      <c r="L27" s="31">
         <v>10</v>
       </c>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31">
-        <v>4</v>
-      </c>
-      <c r="N27" s="33"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M27" s="31"/>
+      <c r="N27" s="31">
+        <v>4</v>
+      </c>
+      <c r="O27" s="33"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>56</v>
       </c>
@@ -7066,22 +7416,28 @@
       <c r="F28" s="4">
         <v>4</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4">
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J28" s="54" t="s">
+      <c r="K28" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="K28" s="54">
-        <v>4</v>
-      </c>
-      <c r="L28" s="54"/>
+      <c r="L28" s="54">
+        <v>4</v>
+      </c>
       <c r="M28" s="54"/>
-      <c r="N28" s="33"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N28" s="54"/>
+      <c r="O28" s="33"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>195</v>
       </c>
@@ -7098,24 +7454,30 @@
         <v>4</v>
       </c>
       <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4">
+      <c r="G29" s="4">
+        <v>6</v>
+      </c>
+      <c r="H29" s="4">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J29" s="31" t="s">
+      <c r="K29" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="K29" s="31">
-        <v>8</v>
-      </c>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31">
-        <v>4</v>
-      </c>
-      <c r="N29" s="30"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L29" s="31">
+        <v>8</v>
+      </c>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31">
+        <v>4</v>
+      </c>
+      <c r="O29" s="30"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>195</v>
       </c>
@@ -7134,24 +7496,30 @@
       <c r="F30" s="4">
         <v>4</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4">
+      <c r="G30" s="4">
+        <v>8</v>
+      </c>
+      <c r="H30" s="4">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J30" s="31" t="s">
+      <c r="K30" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="K30" s="31">
+      <c r="L30" s="31">
         <v>10</v>
       </c>
-      <c r="L30" s="31">
-        <v>4</v>
-      </c>
-      <c r="M30" s="32"/>
-      <c r="N30" s="30"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M30" s="31">
+        <v>4</v>
+      </c>
+      <c r="N30" s="32"/>
+      <c r="O30" s="30"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>56</v>
       </c>
@@ -7170,24 +7538,30 @@
       <c r="F31" s="4">
         <v>4</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4">
+      <c r="G31" s="4">
+        <v>4</v>
+      </c>
+      <c r="H31" s="4">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J31" s="31" t="s">
+      <c r="K31" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="K31" s="31">
-        <v>8</v>
-      </c>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31">
+      <c r="L31" s="31">
+        <v>8</v>
+      </c>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31">
         <v>2</v>
       </c>
-      <c r="N31" s="34"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="34"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>56</v>
       </c>
@@ -7204,22 +7578,28 @@
         <v>4</v>
       </c>
       <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22">
+      <c r="G32" s="22">
+        <v>4</v>
+      </c>
+      <c r="H32" s="22">
+        <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22">
         <v>6.090103</v>
       </c>
-      <c r="J32" s="35" t="s">
+      <c r="K32" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="K32" s="35">
-        <v>6</v>
-      </c>
       <c r="L32" s="35">
-        <v>4</v>
-      </c>
-      <c r="M32" s="36"/>
-      <c r="N32" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="M32" s="35">
+        <v>4</v>
+      </c>
+      <c r="N32" s="36"/>
+      <c r="O32" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7233,26 +7613,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M98"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="14.28515625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="25" style="7" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="10" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="7"/>
+    <col min="3" max="8" width="14.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="25" style="7" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -7275,25 +7655,28 @@
         <v>306</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="J1" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="K1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="L1" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="N1" s="27" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>196</v>
       </c>
@@ -7304,27 +7687,33 @@
         <v>8</v>
       </c>
       <c r="D2" s="4">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
+      <c r="G2" s="4">
+        <v>8</v>
+      </c>
+      <c r="H2" s="17">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>16</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="K2" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="K2" s="19">
+      <c r="L2" s="19">
         <v>12</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="13">
+      <c r="M2" s="19"/>
+      <c r="N2" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>196</v>
       </c>
@@ -7339,23 +7728,29 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4">
+      <c r="G3" s="4">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>8</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>12</v>
       </c>
-      <c r="L3" s="3">
-        <v>4</v>
-      </c>
-      <c r="M3" s="12"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="3">
+        <v>4</v>
+      </c>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>196</v>
       </c>
@@ -7370,23 +7765,29 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4">
+      <c r="G4" s="4">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>10</v>
       </c>
-      <c r="L4" s="4">
-        <v>4</v>
-      </c>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" s="4">
+        <v>4</v>
+      </c>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>196</v>
       </c>
@@ -7401,54 +7802,66 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4">
+      <c r="G5" s="4">
+        <v>6</v>
+      </c>
+      <c r="H5" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="K5" s="3">
-        <v>6</v>
-      </c>
-      <c r="L5" s="4">
-        <v>4</v>
-      </c>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="L5" s="3">
+        <v>6</v>
+      </c>
+      <c r="M5" s="4">
+        <v>4</v>
+      </c>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="77" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="4">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4">
-        <v>4</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4">
+      <c r="C6" s="77">
+        <v>6</v>
+      </c>
+      <c r="D6" s="77">
+        <v>4</v>
+      </c>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77">
+        <v>8</v>
+      </c>
+      <c r="H6" s="77">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>2</v>
+      </c>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="76" t="s">
         <v>203</v>
       </c>
-      <c r="K6" s="3">
-        <v>8</v>
-      </c>
-      <c r="L6" s="3">
+      <c r="L6" s="76">
+        <v>8</v>
+      </c>
+      <c r="M6" s="76">
         <v>2</v>
       </c>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="76"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>196</v>
       </c>
@@ -7463,23 +7876,29 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4">
+      <c r="G7" s="4">
+        <v>6</v>
+      </c>
+      <c r="H7" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>8</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="K7" s="3">
-        <v>6</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="12">
+      <c r="L7" s="3">
+        <v>6</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>196</v>
       </c>
@@ -7496,21 +7915,27 @@
         <v>10</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4">
+      <c r="G8" s="4">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>10</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M8" s="3"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>196</v>
       </c>
@@ -7525,21 +7950,27 @@
         <v>6</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4">
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>8</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="K9" s="3">
-        <v>8</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L9" s="3">
+        <v>8</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>196</v>
       </c>
@@ -7554,21 +7985,27 @@
         <v>4</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="K10" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="K10" s="10">
-        <v>6</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L10" s="10">
+        <v>6</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>196</v>
       </c>
@@ -7585,21 +8022,27 @@
       <c r="F11" s="4">
         <v>2</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="K11" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="K11" s="10">
-        <v>6</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="12"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L11" s="10">
+        <v>6</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>196</v>
       </c>
@@ -7614,19 +8057,25 @@
       <c r="F12" s="4">
         <v>6</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4">
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M12" s="3"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>196</v>
       </c>
@@ -7641,19 +8090,25 @@
       <c r="F13" s="4">
         <v>6</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4">
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="K13" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M13" s="3"/>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>196</v>
       </c>
@@ -7668,19 +8123,25 @@
       <c r="F14" s="4">
         <v>10</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4">
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="K14" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="12"/>
-    </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M14" s="3"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>196</v>
       </c>
@@ -7695,19 +8156,25 @@
       <c r="F15" s="4">
         <v>8</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4">
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="K15" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M15" s="3"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
@@ -7724,58 +8191,70 @@
         <v>4</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4">
+      <c r="G16" s="4">
+        <v>6</v>
+      </c>
+      <c r="H16" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="K16" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K16" s="10">
-        <v>8</v>
-      </c>
       <c r="L16" s="10">
-        <v>4</v>
-      </c>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="10">
+        <v>4</v>
+      </c>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="4">
-        <v>4</v>
-      </c>
-      <c r="D17" s="4">
-        <v>4</v>
-      </c>
-      <c r="E17" s="4">
-        <v>6</v>
-      </c>
-      <c r="F17" s="4">
-        <v>6</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4">
+      <c r="C17" s="77">
+        <v>4</v>
+      </c>
+      <c r="D17" s="77">
+        <v>4</v>
+      </c>
+      <c r="E17" s="77">
+        <v>6</v>
+      </c>
+      <c r="F17" s="77">
+        <v>6</v>
+      </c>
+      <c r="G17" s="77">
+        <v>0</v>
+      </c>
+      <c r="H17" s="77">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>8</v>
+      </c>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77">
         <v>6.080101</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="K17" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="K17" s="10">
-        <v>8</v>
-      </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="38">
+      <c r="L17" s="78">
+        <v>8</v>
+      </c>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>19</v>
       </c>
@@ -7792,21 +8271,27 @@
         <v>4</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4">
+      <c r="G18" s="4">
+        <v>4</v>
+      </c>
+      <c r="H18" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="K18" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="12"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M18" s="3"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>19</v>
       </c>
@@ -7823,23 +8308,29 @@
         <v>8</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4">
+      <c r="G19" s="4">
+        <v>6</v>
+      </c>
+      <c r="H19" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="K19" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="K19" s="10">
+      <c r="L19" s="10">
         <v>10</v>
       </c>
-      <c r="L19" s="10">
+      <c r="M19" s="10">
         <v>2</v>
       </c>
-      <c r="M19" s="12"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>19</v>
       </c>
@@ -7852,21 +8343,27 @@
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4">
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>8</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="K20" s="3">
-        <v>8</v>
-      </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L20" s="3">
+        <v>8</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
@@ -7881,19 +8378,25 @@
       <c r="F21" s="4">
         <v>4</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4">
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="K21" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="12"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M21" s="3"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>19</v>
       </c>
@@ -7908,23 +8411,29 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4">
+      <c r="G22" s="4">
+        <v>8</v>
+      </c>
+      <c r="H22" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>2</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="K22" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="K22" s="10">
-        <v>8</v>
-      </c>
       <c r="L22" s="10">
+        <v>8</v>
+      </c>
+      <c r="M22" s="10">
         <v>2</v>
       </c>
-      <c r="M22" s="12"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>19</v>
       </c>
@@ -7941,23 +8450,29 @@
         <v>2</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4">
+      <c r="G23" s="4">
+        <v>4</v>
+      </c>
+      <c r="H23" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="K23" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K23" s="10">
-        <v>8</v>
-      </c>
       <c r="L23" s="10">
+        <v>8</v>
+      </c>
+      <c r="M23" s="10">
         <v>0</v>
       </c>
-      <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>19</v>
       </c>
@@ -7974,23 +8489,29 @@
         <v>2</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4">
+      <c r="G24" s="4">
+        <v>4</v>
+      </c>
+      <c r="H24" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="K24" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="K24" s="10">
-        <v>8</v>
-      </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="38">
+      <c r="L24" s="10">
+        <v>8</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c r="N24" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>19</v>
       </c>
@@ -8007,21 +8528,27 @@
         <v>2</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4">
+      <c r="G25" s="4">
+        <v>6</v>
+      </c>
+      <c r="H25" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="K25" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="K25" s="10">
+      <c r="L25" s="10">
         <v>10</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="12"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M25" s="3"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>19</v>
       </c>
@@ -8036,23 +8563,29 @@
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4">
+      <c r="G26" s="4">
+        <v>4</v>
+      </c>
+      <c r="H26" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="K26" s="3">
-        <v>8</v>
-      </c>
       <c r="L26" s="3">
+        <v>8</v>
+      </c>
+      <c r="M26" s="3">
         <v>2</v>
       </c>
-      <c r="M26" s="12"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>19</v>
       </c>
@@ -8067,23 +8600,29 @@
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4">
+      <c r="G27" s="4">
+        <v>6</v>
+      </c>
+      <c r="H27" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="K27" s="3">
-        <v>6</v>
-      </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L27" s="3">
+        <v>6</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>19</v>
       </c>
@@ -8098,23 +8637,29 @@
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4">
+      <c r="G28" s="4">
+        <v>4</v>
+      </c>
+      <c r="H28" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="K28" s="3">
-        <v>6</v>
-      </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L28" s="3">
+        <v>6</v>
+      </c>
+      <c r="M28" s="3"/>
+      <c r="N28" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>19</v>
       </c>
@@ -8129,19 +8674,25 @@
       <c r="F29" s="4">
         <v>6</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4">
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J29" s="19" t="s">
+      <c r="K29" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="12"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M29" s="3"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>19</v>
       </c>
@@ -8158,23 +8709,29 @@
       <c r="F30" s="4">
         <v>2</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4">
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="K30" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="K30" s="10">
-        <v>6</v>
-      </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="38">
+      <c r="L30" s="10">
+        <v>6</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c r="N30" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>91</v>
       </c>
@@ -8189,19 +8746,25 @@
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4" t="s">
+      <c r="G31" s="4">
+        <v>6</v>
+      </c>
+      <c r="H31" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>2</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="4"/>
+      <c r="K31" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="12"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M31" s="3"/>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>56</v>
       </c>
@@ -8220,23 +8783,29 @@
       <c r="F32" s="4">
         <v>2</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4">
+      <c r="G32" s="4">
+        <v>4</v>
+      </c>
+      <c r="H32" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="K32" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="K32" s="10">
-        <v>6</v>
-      </c>
-      <c r="L32" s="31">
+      <c r="L32" s="10">
+        <v>6</v>
+      </c>
+      <c r="M32" s="31">
         <v>2</v>
       </c>
-      <c r="M32" s="12"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>56</v>
       </c>
@@ -8253,23 +8822,29 @@
       <c r="F33" s="4">
         <v>6</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4">
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="K33" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="K33" s="10">
-        <v>4</v>
-      </c>
       <c r="L33" s="10">
+        <v>4</v>
+      </c>
+      <c r="M33" s="10">
         <v>0</v>
       </c>
-      <c r="M33" s="38"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="38"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>56</v>
       </c>
@@ -8284,19 +8859,25 @@
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4">
+      <c r="G34" s="4">
+        <v>6</v>
+      </c>
+      <c r="H34" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>2</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K34" s="3"/>
       <c r="L34" s="3"/>
-      <c r="M34" s="12"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="3"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>56</v>
       </c>
@@ -8315,23 +8896,29 @@
       <c r="F35" s="4">
         <v>6</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4">
+      <c r="G35" s="4">
+        <v>6</v>
+      </c>
+      <c r="H35" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="K35" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="K35" s="10">
+      <c r="L35" s="10">
         <v>12</v>
       </c>
-      <c r="L35" s="4">
+      <c r="M35" s="4">
         <v>0</v>
       </c>
-      <c r="M35" s="12"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>56</v>
       </c>
@@ -8348,23 +8935,29 @@
         <v>4</v>
       </c>
       <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4">
+      <c r="G36" s="4">
+        <v>6</v>
+      </c>
+      <c r="H36" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="K36" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="K36" s="10">
-        <v>6</v>
-      </c>
-      <c r="L36" s="10"/>
-      <c r="M36" s="38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L36" s="10">
+        <v>6</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c r="N36" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>56</v>
       </c>
@@ -8379,23 +8972,29 @@
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4">
+      <c r="G37" s="4">
+        <v>4</v>
+      </c>
+      <c r="H37" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="K37" s="3">
-        <v>4</v>
-      </c>
       <c r="L37" s="3">
-        <v>6</v>
-      </c>
-      <c r="M37" s="12"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="M37" s="3">
+        <v>6</v>
+      </c>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>56</v>
       </c>
@@ -8412,19 +9011,25 @@
         <v>2</v>
       </c>
       <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4">
+      <c r="G38" s="4">
+        <v>4</v>
+      </c>
+      <c r="H38" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="K38" s="3"/>
       <c r="L38" s="3"/>
-      <c r="M38" s="12"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="3"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>56</v>
       </c>
@@ -8441,23 +9046,29 @@
         <v>4</v>
       </c>
       <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4">
+      <c r="G39" s="4">
+        <v>4</v>
+      </c>
+      <c r="H39" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="K39" s="3">
-        <v>6</v>
-      </c>
-      <c r="L39" s="4">
-        <v>4</v>
-      </c>
-      <c r="M39" s="12"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L39" s="3">
+        <v>6</v>
+      </c>
+      <c r="M39" s="4">
+        <v>4</v>
+      </c>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>56</v>
       </c>
@@ -8474,19 +9085,25 @@
         <v>4</v>
       </c>
       <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4">
+      <c r="G40" s="4">
+        <v>4</v>
+      </c>
+      <c r="H40" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="K40" s="19"/>
       <c r="L40" s="19"/>
-      <c r="M40" s="12"/>
-    </row>
-    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M40" s="19"/>
+      <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>99</v>
       </c>
@@ -8501,19 +9118,25 @@
         <v>4</v>
       </c>
       <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4" t="s">
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="3" t="s">
+      <c r="J41" s="4"/>
+      <c r="K41" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="K41" s="3"/>
       <c r="L41" s="3"/>
-      <c r="M41" s="12"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M41" s="3"/>
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>56</v>
       </c>
@@ -8530,23 +9153,29 @@
         <v>4</v>
       </c>
       <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4">
+      <c r="G42" s="4">
+        <v>6</v>
+      </c>
+      <c r="H42" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="K42" s="3">
-        <v>8</v>
-      </c>
-      <c r="L42" s="3"/>
-      <c r="M42" s="12">
+      <c r="L42" s="3">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3"/>
+      <c r="N42" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>56</v>
       </c>
@@ -8565,23 +9194,29 @@
       <c r="F43" s="4">
         <v>2</v>
       </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4">
+      <c r="G43" s="4">
+        <v>4</v>
+      </c>
+      <c r="H43" s="4">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J43" s="10" t="s">
+      <c r="K43" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="K43" s="10">
-        <v>6</v>
-      </c>
       <c r="L43" s="10">
+        <v>6</v>
+      </c>
+      <c r="M43" s="10">
         <v>2</v>
       </c>
-      <c r="M43" s="12"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>56</v>
       </c>
@@ -8600,21 +9235,27 @@
       <c r="F44" s="22">
         <v>8</v>
       </c>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22">
+      <c r="G44" s="22">
+        <v>6</v>
+      </c>
+      <c r="H44" s="22">
+        <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22">
         <v>6.090103</v>
       </c>
-      <c r="J44" s="39" t="s">
+      <c r="K44" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="K44" s="39">
+      <c r="L44" s="39">
         <v>12</v>
       </c>
-      <c r="L44" s="21"/>
-      <c r="M44" s="23"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M44" s="21"/>
+      <c r="N44" s="23"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -8624,8 +9265,9 @@
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -8635,8 +9277,9 @@
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J46" s="8"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -8646,8 +9289,9 @@
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -8657,8 +9301,9 @@
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="8"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -8668,8 +9313,9 @@
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -8679,8 +9325,9 @@
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="8"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -8690,8 +9337,9 @@
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="8"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -8700,9 +9348,10 @@
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
-      <c r="I52" s="5"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I52" s="9"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -8711,9 +9360,10 @@
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
-      <c r="I53" s="5"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I53" s="9"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -8722,9 +9372,10 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
-      <c r="I97" s="3"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I97" s="1"/>
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -8733,7 +9384,8 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
-      <c r="I98" s="3"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8747,27 +9399,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="14.28515625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="23" style="6" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="10" style="6" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="6"/>
+    <col min="3" max="8" width="14.28515625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="23" style="6" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="10" style="6" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -8790,25 +9442,28 @@
         <v>306</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="J1" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="K1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="L1" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="N1" s="27" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>196</v>
       </c>
@@ -8823,23 +9478,29 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
+      <c r="G2" s="4">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>12</v>
       </c>
-      <c r="L2" s="3">
-        <v>4</v>
-      </c>
-      <c r="M2" s="12"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M2" s="3">
+        <v>4</v>
+      </c>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>196</v>
       </c>
@@ -8854,23 +9515,29 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4">
+      <c r="G3" s="4">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>10</v>
       </c>
-      <c r="L3" s="3">
-        <v>4</v>
-      </c>
-      <c r="M3" s="12"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="3">
+        <v>4</v>
+      </c>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>196</v>
       </c>
@@ -8885,21 +9552,27 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4">
+      <c r="G4" s="4">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>2</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>10</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" s="3"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>196</v>
       </c>
@@ -8914,23 +9587,29 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4">
+      <c r="G5" s="4">
+        <v>8</v>
+      </c>
+      <c r="H5" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="K5" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="10">
+      <c r="L5" s="10">
         <v>10</v>
       </c>
-      <c r="L5" s="31">
-        <v>4</v>
-      </c>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M5" s="31">
+        <v>4</v>
+      </c>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>196</v>
       </c>
@@ -8945,23 +9624,29 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4">
+      <c r="G6" s="4">
+        <v>8</v>
+      </c>
+      <c r="H6" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>2</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="K6" s="3">
-        <v>8</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="K6" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L6" s="3">
+        <v>8</v>
+      </c>
+      <c r="M6" s="4">
         <v>2</v>
       </c>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>196</v>
       </c>
@@ -8978,23 +9663,29 @@
         <v>2</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4">
+      <c r="G7" s="4">
+        <v>6</v>
+      </c>
+      <c r="H7" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="K7" s="3">
-        <v>8</v>
-      </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
+        <v>8</v>
+      </c>
+      <c r="M7" s="4">
         <v>2</v>
       </c>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>196</v>
       </c>
@@ -9009,17 +9700,23 @@
       <c r="F8" s="4">
         <v>4</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4">
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M8" s="3"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>196</v>
       </c>
@@ -9034,21 +9731,27 @@
       <c r="F9" s="4">
         <v>12</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4">
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="K9" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="K9" s="10">
-        <v>6</v>
-      </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L9" s="10">
+        <v>6</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>196</v>
       </c>
@@ -9063,21 +9766,27 @@
       <c r="F10" s="4">
         <v>6</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="K10" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="K10" s="10">
+      <c r="L10" s="10">
         <v>10</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M10" s="3"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>196</v>
       </c>
@@ -9094,19 +9803,25 @@
       <c r="F11" s="4">
         <v>2</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="12"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M11" s="3"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>196</v>
       </c>
@@ -9125,21 +9840,27 @@
       <c r="F12" s="4">
         <v>6</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4">
+      <c r="G12" s="4">
+        <v>8</v>
+      </c>
+      <c r="H12" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>8</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="K12" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="K12" s="10">
+      <c r="L12" s="10">
         <v>16</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M12" s="3"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>196</v>
       </c>
@@ -9154,19 +9875,25 @@
       <c r="F13" s="4">
         <v>6</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4">
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="K13" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M13" s="3"/>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>196</v>
       </c>
@@ -9181,19 +9908,25 @@
       <c r="F14" s="4">
         <v>8</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4">
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="K14" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="12"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M14" s="3"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>196</v>
       </c>
@@ -9208,19 +9941,25 @@
       <c r="F15" s="4">
         <v>8</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4">
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="K15" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M15" s="3"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
@@ -9239,23 +9978,29 @@
       <c r="F16" s="4">
         <v>2</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4">
+      <c r="G16" s="4">
+        <v>10</v>
+      </c>
+      <c r="H16" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="K16" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="K16" s="10">
+      <c r="L16" s="10">
         <v>12</v>
       </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="38">
+      <c r="M16" s="10"/>
+      <c r="N16" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
@@ -9270,19 +10015,25 @@
       <c r="F17" s="4">
         <v>6</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4">
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="K17" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M17" s="3"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>19</v>
       </c>
@@ -9299,19 +10050,25 @@
         <v>2</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4">
+      <c r="G18" s="4">
+        <v>4</v>
+      </c>
+      <c r="H18" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="12"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M18" s="3"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>19</v>
       </c>
@@ -9328,23 +10085,29 @@
       <c r="F19" s="4">
         <v>6</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4">
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>8</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="K19" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="K19" s="10">
-        <v>8</v>
-      </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="38">
+      <c r="L19" s="10">
+        <v>8</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c r="N19" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>19</v>
       </c>
@@ -9359,19 +10122,25 @@
       <c r="F20" s="4">
         <v>8</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4">
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="K20" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M20" s="3"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
@@ -9386,23 +10155,29 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4">
+      <c r="G21" s="4">
+        <v>10</v>
+      </c>
+      <c r="H21" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="K21" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M21" s="3"/>
+      <c r="N21" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>19</v>
       </c>
@@ -9417,23 +10192,29 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4">
+      <c r="G22" s="4">
+        <v>8</v>
+      </c>
+      <c r="H22" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>2</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="K22" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="K22" s="3">
-        <v>8</v>
-      </c>
-      <c r="L22" s="4">
+      <c r="L22" s="3">
+        <v>8</v>
+      </c>
+      <c r="M22" s="4">
         <v>2</v>
       </c>
-      <c r="M22" s="12"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>19</v>
       </c>
@@ -9448,23 +10229,29 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4">
+      <c r="G23" s="4">
+        <v>6</v>
+      </c>
+      <c r="H23" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="K23" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="K23" s="10">
-        <v>8</v>
-      </c>
       <c r="L23" s="10">
+        <v>8</v>
+      </c>
+      <c r="M23" s="10">
         <v>2</v>
       </c>
-      <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>19</v>
       </c>
@@ -9479,23 +10266,29 @@
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4">
+      <c r="G24" s="4">
+        <v>6</v>
+      </c>
+      <c r="H24" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="K24" s="3">
-        <v>8</v>
-      </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="12">
+      <c r="L24" s="3">
+        <v>8</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
         <v>19</v>
       </c>
@@ -9508,20 +10301,26 @@
       <c r="F25" s="41">
         <v>10</v>
       </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41">
+      <c r="G25" s="41">
+        <v>0</v>
+      </c>
+      <c r="H25" s="41">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41">
         <v>6.080101</v>
       </c>
-      <c r="J25" s="42" t="s">
+      <c r="K25" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="K25" s="42"/>
       <c r="L25" s="42"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="44"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M25" s="42"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="44"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>19</v>
       </c>
@@ -9540,23 +10339,29 @@
       <c r="F26" s="4">
         <v>6</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4">
+      <c r="G26" s="4">
+        <v>6</v>
+      </c>
+      <c r="H26" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="K26" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10">
-        <v>8</v>
-      </c>
-      <c r="M26" s="38">
+      <c r="L26" s="10"/>
+      <c r="M26" s="10">
+        <v>8</v>
+      </c>
+      <c r="N26" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>19</v>
       </c>
@@ -9571,19 +10376,25 @@
       <c r="F27" s="4">
         <v>10</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4">
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="K27" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="12"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M27" s="3"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>19</v>
       </c>
@@ -9598,21 +10409,27 @@
         <v>6</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4">
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="K28" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="K28" s="10">
-        <v>6</v>
-      </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="12"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L28" s="10">
+        <v>6</v>
+      </c>
+      <c r="M28" s="3"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>19</v>
       </c>
@@ -9627,17 +10444,23 @@
         <v>4</v>
       </c>
       <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4">
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="12"/>
-    </row>
-    <row r="30" spans="1:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M29" s="3"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>91</v>
       </c>
@@ -9652,19 +10475,25 @@
         <v>4</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4" t="s">
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="4"/>
+      <c r="K30" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="12"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M30" s="3"/>
+      <c r="N30" s="12"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>91</v>
       </c>
@@ -9679,15 +10508,21 @@
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="G31" s="4">
+        <v>4</v>
+      </c>
+      <c r="H31" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
       <c r="I31" s="4"/>
-      <c r="J31" s="3"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="12"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M31" s="3"/>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>56</v>
       </c>
@@ -9704,23 +10539,29 @@
         <v>2</v>
       </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4">
+      <c r="G32" s="4">
+        <v>6</v>
+      </c>
+      <c r="H32" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="K32" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="K32" s="10">
-        <v>6</v>
-      </c>
       <c r="L32" s="10">
-        <v>4</v>
-      </c>
-      <c r="M32" s="12"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="M32" s="10">
+        <v>4</v>
+      </c>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>56</v>
       </c>
@@ -9731,7 +10572,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E33" s="4">
         <v>8</v>
@@ -9739,23 +10580,29 @@
       <c r="F33" s="4">
         <v>6</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4">
+      <c r="G33" s="4">
+        <v>6</v>
+      </c>
+      <c r="H33" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J33" s="19" t="s">
+      <c r="K33" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="K33" s="19">
+      <c r="L33" s="19">
         <v>10</v>
       </c>
-      <c r="L33" s="19"/>
-      <c r="M33" s="13">
+      <c r="M33" s="19"/>
+      <c r="N33" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>56</v>
       </c>
@@ -9774,23 +10621,29 @@
       <c r="F34" s="4">
         <v>6</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4">
+      <c r="G34" s="4">
+        <v>6</v>
+      </c>
+      <c r="H34" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>8</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="K34" s="3">
+      <c r="L34" s="3">
         <v>12</v>
       </c>
-      <c r="L34" s="4">
+      <c r="M34" s="4">
         <v>2</v>
       </c>
-      <c r="M34" s="12"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>56</v>
       </c>
@@ -9801,29 +10654,35 @@
         <v>4</v>
       </c>
       <c r="D35" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E35" s="4">
         <v>6</v>
       </c>
       <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4">
+      <c r="G35" s="4">
+        <v>4</v>
+      </c>
+      <c r="H35" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J35" s="19" t="s">
+      <c r="K35" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="K35" s="19">
-        <v>6</v>
-      </c>
       <c r="L35" s="19">
+        <v>6</v>
+      </c>
+      <c r="M35" s="19">
         <v>2</v>
       </c>
-      <c r="M35" s="12"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>56</v>
       </c>
@@ -9840,21 +10699,27 @@
         <v>6</v>
       </c>
       <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4">
+      <c r="G36" s="4">
+        <v>4</v>
+      </c>
+      <c r="H36" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="K36" s="3">
-        <v>8</v>
-      </c>
-      <c r="L36" s="3"/>
-      <c r="M36" s="12"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L36" s="3">
+        <v>8</v>
+      </c>
+      <c r="M36" s="3"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>56</v>
       </c>
@@ -9865,7 +10730,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E37" s="4">
         <v>4</v>
@@ -9873,23 +10738,29 @@
       <c r="F37" s="4">
         <v>4</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4">
+      <c r="G37" s="4">
+        <v>4</v>
+      </c>
+      <c r="H37" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>2</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="K37" s="3">
-        <v>6</v>
-      </c>
-      <c r="L37" s="3">
+      <c r="L37" s="19">
+        <v>6</v>
+      </c>
+      <c r="M37" s="19">
         <v>0</v>
       </c>
-      <c r="M37" s="12"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>56</v>
       </c>
@@ -9906,19 +10777,25 @@
         <v>2</v>
       </c>
       <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4">
+      <c r="G38" s="4">
+        <v>4</v>
+      </c>
+      <c r="H38" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="K38" s="3"/>
       <c r="L38" s="3"/>
-      <c r="M38" s="12"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="3"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>56</v>
       </c>
@@ -9929,7 +10806,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E39" s="4">
         <v>4</v>
@@ -9937,23 +10814,29 @@
       <c r="F39" s="4">
         <v>2</v>
       </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4">
+      <c r="G39" s="4">
+        <v>4</v>
+      </c>
+      <c r="H39" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>2</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J39" s="19" t="s">
+      <c r="K39" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="K39" s="19">
-        <v>6</v>
-      </c>
       <c r="L39" s="19">
+        <v>6</v>
+      </c>
+      <c r="M39" s="19">
         <v>0</v>
       </c>
-      <c r="M39" s="12"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>56</v>
       </c>
@@ -9964,7 +10847,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E40" s="4">
         <v>4</v>
@@ -9972,21 +10855,27 @@
       <c r="F40" s="4">
         <v>4</v>
       </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4">
+      <c r="G40" s="4">
+        <v>2</v>
+      </c>
+      <c r="H40" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J40" s="19" t="s">
+      <c r="K40" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="K40" s="19">
-        <v>6</v>
-      </c>
-      <c r="L40" s="19"/>
-      <c r="M40" s="12"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L40" s="19">
+        <v>6</v>
+      </c>
+      <c r="M40" s="19"/>
+      <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>56</v>
       </c>
@@ -10003,23 +10892,29 @@
         <v>4</v>
       </c>
       <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4">
+      <c r="G41" s="4">
+        <v>6</v>
+      </c>
+      <c r="H41" s="4">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="K41" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="K41" s="10">
-        <v>8</v>
-      </c>
       <c r="L41" s="10">
+        <v>8</v>
+      </c>
+      <c r="M41" s="10">
         <v>2</v>
       </c>
-      <c r="M41" s="12"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>56</v>
       </c>
@@ -10036,21 +10931,27 @@
         <v>4</v>
       </c>
       <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22">
+      <c r="G42" s="22">
+        <v>4</v>
+      </c>
+      <c r="H42" s="22">
+        <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22">
         <v>6.090103</v>
       </c>
-      <c r="J42" s="39" t="s">
+      <c r="K42" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="K42" s="39">
-        <v>8</v>
-      </c>
       <c r="L42" s="39">
+        <v>8</v>
+      </c>
+      <c r="M42" s="39">
         <v>2</v>
       </c>
-      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10063,27 +10964,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="7" customWidth="1"/>
     <col min="2" max="2" width="51.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="14.28515625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="10" style="7" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="7"/>
+    <col min="3" max="8" width="14.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10" style="7" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="7" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -10106,25 +11007,28 @@
         <v>306</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="J1" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="K1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="L1" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="N1" s="27" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>196</v>
       </c>
@@ -10141,21 +11045,27 @@
         <v>2</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
+      <c r="G2" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4">
+        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="K2" s="10">
-        <v>8</v>
-      </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="13"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L2" s="10">
+        <v>8</v>
+      </c>
+      <c r="M2" s="19"/>
+      <c r="N2" s="13"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>196</v>
       </c>
@@ -10172,23 +11082,29 @@
         <v>2</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4">
+      <c r="G3" s="4">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4">
+        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="K3" s="10">
+      <c r="L3" s="10">
         <v>12</v>
       </c>
-      <c r="L3" s="10">
+      <c r="M3" s="10">
         <v>2</v>
       </c>
-      <c r="M3" s="13"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="13"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>196</v>
       </c>
@@ -10205,23 +11121,29 @@
         <v>2</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4">
+      <c r="G4" s="4">
+        <v>6</v>
+      </c>
+      <c r="H4" s="4">
+        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
+        <v>8</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="K4" s="10">
+      <c r="L4" s="10">
         <v>12</v>
       </c>
-      <c r="L4" s="10">
+      <c r="M4" s="10">
         <v>2</v>
       </c>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>196</v>
       </c>
@@ -10238,23 +11160,29 @@
         <v>2</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4">
+      <c r="G5" s="4">
+        <v>8</v>
+      </c>
+      <c r="H5" s="4">
+        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="K5" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="K5" s="10">
+      <c r="L5" s="10">
         <v>12</v>
       </c>
-      <c r="L5" s="10">
+      <c r="M5" s="10">
         <v>2</v>
       </c>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>196</v>
       </c>
@@ -10271,23 +11199,29 @@
         <v>2</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4">
+      <c r="G6" s="4">
+        <v>8</v>
+      </c>
+      <c r="H6" s="4">
+        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
+        <v>8</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="K6" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="K6" s="10">
+      <c r="L6" s="10">
         <v>12</v>
       </c>
-      <c r="L6" s="10">
-        <v>4</v>
-      </c>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M6" s="10">
+        <v>4</v>
+      </c>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>196</v>
       </c>
@@ -10304,21 +11238,27 @@
         <v>2</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4">
+      <c r="G7" s="4">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4">
+        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="K7" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="K7" s="10">
-        <v>8</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L7" s="10">
+        <v>8</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>196</v>
       </c>
@@ -10335,21 +11275,27 @@
         <v>2</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4">
+      <c r="G8" s="4">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4">
+        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="K8" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="K8" s="10">
-        <v>8</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L8" s="10">
+        <v>8</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>196</v>
       </c>
@@ -10366,23 +11312,29 @@
         <v>2</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4">
+      <c r="G9" s="4">
+        <v>6</v>
+      </c>
+      <c r="H9" s="4">
+        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
+        <v>8</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="K9" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="K9" s="10">
+      <c r="L9" s="10">
         <v>12</v>
       </c>
-      <c r="L9" s="10">
+      <c r="M9" s="10">
         <v>2</v>
       </c>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
@@ -10396,26 +11348,32 @@
         <v>10</v>
       </c>
       <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
         <v>10</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4">
+      <c r="H10" s="4">
+        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
+        <v>10</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="K10" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="K10" s="19">
+      <c r="L10" s="19">
         <v>18</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M10" s="19"/>
+      <c r="N10" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
@@ -10429,26 +11387,32 @@
         <v>8</v>
       </c>
       <c r="E11" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4">
+      <c r="G11" s="4">
+        <v>8</v>
+      </c>
+      <c r="H11" s="4">
+        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
+        <v>8</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="K11" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="K11" s="19">
+      <c r="L11" s="19">
         <v>12</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M11" s="19"/>
+      <c r="N11" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>19</v>
       </c>
@@ -10462,26 +11426,32 @@
         <v>10</v>
       </c>
       <c r="E12" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4">
+      <c r="G12" s="4">
+        <v>10</v>
+      </c>
+      <c r="H12" s="4">
+        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
+        <v>10</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="K12" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="K12" s="19">
+      <c r="L12" s="19">
         <v>16</v>
       </c>
-      <c r="L12" s="19"/>
-      <c r="M12" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M12" s="19"/>
+      <c r="N12" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>19</v>
       </c>
@@ -10496,21 +11466,27 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4">
+      <c r="G13" s="4">
+        <v>4</v>
+      </c>
+      <c r="H13" s="4">
+        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="K13" s="3">
-        <v>8</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="L13" s="3">
+        <v>8</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
@@ -10525,19 +11501,25 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4">
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
+        <v>12</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="12"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M14" s="3"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
@@ -10552,23 +11534,29 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4">
+      <c r="G15" s="4">
+        <v>8</v>
+      </c>
+      <c r="H15" s="4">
+        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="K15" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="K15" s="19">
-        <v>8</v>
-      </c>
       <c r="L15" s="19">
-        <v>6</v>
-      </c>
-      <c r="M15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="M15" s="19">
+        <v>6</v>
+      </c>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
@@ -10583,23 +11571,29 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4">
+      <c r="G16" s="4">
+        <v>8</v>
+      </c>
+      <c r="H16" s="4">
+        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4">
         <v>6.080101</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="K16" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="K16" s="10">
-        <v>8</v>
-      </c>
       <c r="L16" s="10">
-        <v>4</v>
-      </c>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="M16" s="10">
+        <v>4</v>
+      </c>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>56</v>
       </c>
@@ -10610,58 +11604,70 @@
         <v>8</v>
       </c>
       <c r="D17" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E17" s="4">
         <v>8</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4">
+      <c r="G17" s="4">
+        <v>8</v>
+      </c>
+      <c r="H17" s="4">
+        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
+        <v>2</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="K17" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="K17" s="19">
-        <v>8</v>
-      </c>
       <c r="L17" s="19">
+        <v>8</v>
+      </c>
+      <c r="M17" s="19">
         <v>2</v>
       </c>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="41">
-        <v>6</v>
-      </c>
-      <c r="D18" s="41">
-        <v>6</v>
-      </c>
-      <c r="E18" s="41">
-        <v>6</v>
-      </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41">
+      <c r="C18" s="79">
+        <v>6</v>
+      </c>
+      <c r="D18" s="79">
+        <v>6</v>
+      </c>
+      <c r="E18" s="79">
+        <v>6</v>
+      </c>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79">
+        <v>0</v>
+      </c>
+      <c r="H18" s="79">
+        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
+        <v>12</v>
+      </c>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79">
         <v>6.090103</v>
       </c>
-      <c r="J18" s="42" t="s">
+      <c r="K18" s="80" t="s">
         <v>246</v>
       </c>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="12"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="76"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>56</v>
       </c>
@@ -10678,23 +11684,29 @@
         <v>2</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4">
+      <c r="G19" s="4">
+        <v>4</v>
+      </c>
+      <c r="H19" s="4">
+        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="K19" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="K19" s="10">
-        <v>4</v>
-      </c>
       <c r="L19" s="10">
         <v>4</v>
       </c>
-      <c r="M19" s="12"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M19" s="10">
+        <v>4</v>
+      </c>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>56</v>
       </c>
@@ -10711,23 +11723,29 @@
         <v>6</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4">
+      <c r="G20" s="4">
+        <v>8</v>
+      </c>
+      <c r="H20" s="4">
+        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="K20" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="K20" s="10">
+      <c r="L20" s="10">
         <v>10</v>
       </c>
-      <c r="L20" s="10">
-        <v>4</v>
-      </c>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M20" s="10">
+        <v>4</v>
+      </c>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>56</v>
       </c>
@@ -10738,29 +11756,35 @@
         <v>6</v>
       </c>
       <c r="D21" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E21" s="4">
         <v>8</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4">
+      <c r="G21" s="4">
+        <v>6</v>
+      </c>
+      <c r="H21" s="4">
+        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
+        <v>2</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="K21" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="K21" s="19">
-        <v>6</v>
-      </c>
-      <c r="L21" s="19"/>
-      <c r="M21" s="13">
+      <c r="L21" s="19">
+        <v>6</v>
+      </c>
+      <c r="M21" s="19"/>
+      <c r="N21" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>56</v>
       </c>
@@ -10775,19 +11799,25 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4">
+      <c r="G22" s="4">
+        <v>6</v>
+      </c>
+      <c r="H22" s="4">
+        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="12"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M22" s="3"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>56</v>
       </c>
@@ -10804,23 +11834,29 @@
         <v>4</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4">
+      <c r="G23" s="4">
+        <v>4</v>
+      </c>
+      <c r="H23" s="4">
+        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="K23" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="K23" s="10">
-        <v>8</v>
-      </c>
       <c r="L23" s="10">
+        <v>8</v>
+      </c>
+      <c r="M23" s="10">
         <v>2</v>
       </c>
-      <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>56</v>
       </c>
@@ -10837,21 +11873,27 @@
         <v>6</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4">
+      <c r="G24" s="4">
+        <v>4</v>
+      </c>
+      <c r="H24" s="4">
+        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="K24" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="K24" s="10">
-        <v>8</v>
-      </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="13"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L24" s="10">
+        <v>8</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c r="N24" s="13"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>56</v>
       </c>
@@ -10866,21 +11908,27 @@
         <v>6</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4">
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
+        <v>8</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4">
         <v>6.090103</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="K25" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="K25" s="10">
-        <v>8</v>
-      </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="12"/>
-    </row>
-    <row r="26" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="10">
+        <v>8</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>99</v>
       </c>
@@ -10895,19 +11943,25 @@
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4" t="s">
+      <c r="G26" s="4">
+        <v>6</v>
+      </c>
+      <c r="H26" s="4">
+        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
+        <v>2</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="4"/>
+      <c r="K26" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="12"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M26" s="3"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>56</v>
       </c>
@@ -10915,28 +11969,34 @@
         <v>156</v>
       </c>
       <c r="C27" s="22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D27" s="22">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22">
+      <c r="G27" s="22">
+        <v>4</v>
+      </c>
+      <c r="H27" s="22">
+        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22">
         <v>6.090103</v>
       </c>
-      <c r="J27" s="47" t="s">
+      <c r="K27" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="K27" s="47">
-        <v>4</v>
-      </c>
       <c r="L27" s="47">
         <v>4</v>
       </c>
-      <c r="M27" s="23"/>
+      <c r="M27" s="47">
+        <v>4</v>
+      </c>
+      <c r="N27" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10949,27 +12009,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="48" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.85546875" style="49" customWidth="1"/>
-    <col min="3" max="7" width="14.28515625" style="48" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="48" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="48" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="48" customWidth="1"/>
-    <col min="12" max="12" width="10" style="48" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="48" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="48"/>
+    <col min="3" max="8" width="14.28515625" style="48" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="48" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" style="48" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="48" customWidth="1"/>
+    <col min="13" max="13" width="10" style="48" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="48" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -10992,25 +12052,28 @@
         <v>306</v>
       </c>
       <c r="H1" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>171</v>
       </c>
@@ -11025,21 +12088,27 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
+      <c r="G2" s="4">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>10</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>16</v>
       </c>
-      <c r="L2" s="3">
-        <v>4</v>
-      </c>
-      <c r="M2" s="57"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M2" s="3">
+        <v>4</v>
+      </c>
+      <c r="N2" s="57"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>171</v>
       </c>
@@ -11054,21 +12123,27 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="G3" s="4">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>10</v>
+      </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>16</v>
       </c>
-      <c r="L3" s="3">
-        <v>4</v>
-      </c>
-      <c r="M3" s="57"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="3">
+        <v>4</v>
+      </c>
+      <c r="N3" s="57"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>171</v>
       </c>
@@ -11083,46 +12158,58 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="4">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>2</v>
+      </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="57"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="M4" s="3"/>
+      <c r="N4" s="57"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="4">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4">
+      <c r="C5" s="77">
+        <v>4</v>
+      </c>
+      <c r="D5" s="77">
+        <v>6</v>
+      </c>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77">
+        <v>6</v>
+      </c>
+      <c r="H5" s="77">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77">
         <v>7.0140000000000002</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="76" t="s">
         <v>212</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3">
+      <c r="L5" s="76"/>
+      <c r="M5" s="76">
         <v>10</v>
       </c>
-      <c r="M5" s="57"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="81"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>170</v>
       </c>
@@ -11133,27 +12220,33 @@
         <v>10</v>
       </c>
       <c r="D6" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4">
+      <c r="G6" s="4">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4">
         <v>7.0140000000000002</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="19">
         <v>12</v>
       </c>
-      <c r="L6" s="3">
-        <v>4</v>
-      </c>
-      <c r="M6" s="57"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M6" s="19">
+        <v>4</v>
+      </c>
+      <c r="N6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>171</v>
       </c>
@@ -11168,19 +12261,25 @@
         <v>6</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="4"/>
+      <c r="K7" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="K7" s="10">
-        <v>4</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="57"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L7" s="10">
+        <v>4</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="57"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>171</v>
       </c>
@@ -11197,19 +12296,25 @@
         <v>6</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="4">
+        <v>8</v>
+      </c>
+      <c r="H8" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="4"/>
+      <c r="K8" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="57"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M8" s="3"/>
+      <c r="N8" s="57"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>171</v>
       </c>
@@ -11224,19 +12329,25 @@
         <v>6</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="4"/>
+      <c r="K9" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="K9" s="3">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="57"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L9" s="3">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="57"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>170</v>
       </c>
@@ -11251,21 +12362,27 @@
         <v>4</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4">
         <v>7.0140000000000002</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="K10" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="K10" s="10">
-        <v>6</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="57"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L10" s="10">
+        <v>6</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="57"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>171</v>
       </c>
@@ -11274,25 +12391,31 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E11" s="4">
         <v>6</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>8</v>
+      </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="4"/>
+      <c r="K11" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="K11" s="19">
-        <v>8</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="57"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L11" s="19">
+        <v>8</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="57"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>171</v>
       </c>
@@ -11307,17 +12430,23 @@
       <c r="F12" s="4">
         <v>10</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>0</v>
+      </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="4"/>
+      <c r="K12" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="57"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M12" s="3"/>
+      <c r="N12" s="57"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>171</v>
       </c>
@@ -11332,17 +12461,23 @@
       <c r="F13" s="4">
         <v>6</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>0</v>
+      </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="4"/>
+      <c r="K13" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="57"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M13" s="3"/>
+      <c r="N13" s="57"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>171</v>
       </c>
@@ -11357,17 +12492,23 @@
       <c r="F14" s="4">
         <v>6</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>0</v>
+      </c>
       <c r="I14" s="4"/>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="4"/>
+      <c r="K14" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="57"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M14" s="3"/>
+      <c r="N14" s="57"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>171</v>
       </c>
@@ -11382,15 +12523,21 @@
       <c r="F15" s="4">
         <v>6</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>0</v>
+      </c>
       <c r="I15" s="4"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="3"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="10"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="57"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M15" s="3"/>
+      <c r="N15" s="57"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>179</v>
       </c>
@@ -11405,21 +12552,27 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="G16" s="4">
+        <v>8</v>
+      </c>
+      <c r="H16" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="4"/>
+      <c r="K16" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="K16" s="10">
-        <v>8</v>
-      </c>
       <c r="L16" s="10">
-        <v>4</v>
-      </c>
-      <c r="M16" s="57"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="M16" s="10">
+        <v>4</v>
+      </c>
+      <c r="N16" s="57"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>179</v>
       </c>
@@ -11434,21 +12587,27 @@
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="G17" s="4">
+        <v>8</v>
+      </c>
+      <c r="H17" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
       <c r="I17" s="4"/>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="4"/>
+      <c r="K17" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="K17" s="10">
-        <v>8</v>
-      </c>
       <c r="L17" s="10">
-        <v>4</v>
-      </c>
-      <c r="M17" s="57"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="M17" s="10">
+        <v>4</v>
+      </c>
+      <c r="N17" s="57"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>179</v>
       </c>
@@ -11463,21 +12622,27 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>14</v>
+      </c>
       <c r="I18" s="4"/>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="4"/>
+      <c r="K18" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="K18" s="19">
-        <v>8</v>
-      </c>
       <c r="L18" s="19">
-        <v>6</v>
-      </c>
-      <c r="M18" s="57"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="M18" s="19">
+        <v>6</v>
+      </c>
+      <c r="N18" s="57"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>179</v>
       </c>
@@ -11492,21 +12657,27 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="G19" s="4">
+        <v>8</v>
+      </c>
+      <c r="H19" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="4"/>
+      <c r="K19" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="K19" s="3">
-        <v>8</v>
-      </c>
       <c r="L19" s="3">
-        <v>4</v>
-      </c>
-      <c r="M19" s="57"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="M19" s="3">
+        <v>4</v>
+      </c>
+      <c r="N19" s="57"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>179</v>
       </c>
@@ -11523,21 +12694,27 @@
         <v>2</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="G20" s="4">
+        <v>6</v>
+      </c>
+      <c r="H20" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>8</v>
+      </c>
       <c r="I20" s="4"/>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="4"/>
+      <c r="K20" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="K20" s="19">
+      <c r="L20" s="19">
         <v>10</v>
       </c>
-      <c r="L20" s="19">
-        <v>4</v>
-      </c>
-      <c r="M20" s="57"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M20" s="19">
+        <v>4</v>
+      </c>
+      <c r="N20" s="57"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>179</v>
       </c>
@@ -11554,21 +12731,27 @@
         <v>4</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="G21" s="4">
+        <v>6</v>
+      </c>
+      <c r="H21" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
       <c r="I21" s="4"/>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="4"/>
+      <c r="K21" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="K21" s="10">
+      <c r="L21" s="10">
         <v>10</v>
       </c>
-      <c r="L21" s="10">
+      <c r="M21" s="10">
         <v>2</v>
       </c>
-      <c r="M21" s="57"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="57"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>179</v>
       </c>
@@ -11583,21 +12766,27 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="G22" s="4">
+        <v>6</v>
+      </c>
+      <c r="H22" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
       <c r="I22" s="4"/>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="4"/>
+      <c r="K22" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="K22" s="10">
-        <v>8</v>
-      </c>
       <c r="L22" s="10">
-        <v>4</v>
-      </c>
-      <c r="M22" s="57"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="M22" s="10">
+        <v>4</v>
+      </c>
+      <c r="N22" s="57"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>179</v>
       </c>
@@ -11612,19 +12801,25 @@
         <v>6</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="4"/>
+      <c r="K23" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="K23" s="19">
-        <v>6</v>
-      </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="57"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L23" s="10">
+        <v>6</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="57"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>180</v>
       </c>
@@ -11639,21 +12834,27 @@
         <v>6</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4">
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4">
         <v>7.1929999999999996</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="K24" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="K24" s="10">
-        <v>6</v>
-      </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="57"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L24" s="10">
+        <v>6</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="57"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>179</v>
       </c>
@@ -11668,19 +12869,25 @@
         <v>4</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
       <c r="I25" s="4"/>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="4"/>
+      <c r="K25" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="K25" s="10">
-        <v>6</v>
-      </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="57"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L25" s="10">
+        <v>6</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="57"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>179</v>
       </c>
@@ -11695,19 +12902,25 @@
         <v>4</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>8</v>
+      </c>
       <c r="I26" s="4"/>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="4"/>
+      <c r="K26" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="K26" s="10">
-        <v>8</v>
-      </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="57"/>
-    </row>
-    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="L26" s="10">
+        <v>8</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="57"/>
+    </row>
+    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>179</v>
       </c>
@@ -11722,19 +12935,25 @@
         <v>4</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>8</v>
+      </c>
       <c r="I27" s="4"/>
-      <c r="J27" s="31" t="s">
+      <c r="J27" s="4"/>
+      <c r="K27" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="K27" s="10">
-        <v>8</v>
-      </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="57"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L27" s="10">
+        <v>8</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="57"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>179</v>
       </c>
@@ -11749,21 +12968,27 @@
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="G28" s="4">
+        <v>8</v>
+      </c>
+      <c r="H28" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
       <c r="I28" s="4"/>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="4"/>
+      <c r="K28" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="K28" s="19">
-        <v>8</v>
-      </c>
       <c r="L28" s="19">
-        <v>4</v>
-      </c>
-      <c r="M28" s="57"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="M28" s="19">
+        <v>4</v>
+      </c>
+      <c r="N28" s="57"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>179</v>
       </c>
@@ -11778,17 +13003,23 @@
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="G29" s="4">
+        <v>8</v>
+      </c>
+      <c r="H29" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
       <c r="I29" s="4"/>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="4"/>
+      <c r="K29" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="57"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M29" s="3"/>
+      <c r="N29" s="57"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>184</v>
       </c>
@@ -11803,21 +13034,27 @@
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4">
+      <c r="G30" s="4">
+        <v>4</v>
+      </c>
+      <c r="H30" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4">
         <v>8.0139999999999993</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="K30" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10">
+      <c r="L30" s="10"/>
+      <c r="M30" s="10">
         <v>10</v>
       </c>
-      <c r="M30" s="57"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="57"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>184</v>
       </c>
@@ -11832,21 +13069,27 @@
         <v>4</v>
       </c>
       <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4">
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4">
         <v>8.0139999999999993</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="K31" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="K31" s="10">
-        <v>6</v>
-      </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="57"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L31" s="10">
+        <v>6</v>
+      </c>
+      <c r="M31" s="3"/>
+      <c r="N31" s="57"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>184</v>
       </c>
@@ -11861,19 +13104,25 @@
       <c r="F32" s="4">
         <v>4</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4">
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4">
         <v>8.0139999999999993</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="K32" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="K32" s="19"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="57"/>
-    </row>
-    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="L32" s="19"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="57"/>
+    </row>
+    <row r="33" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>186</v>
       </c>
@@ -11888,23 +13137,29 @@
         <v>6</v>
       </c>
       <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4">
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4">
         <v>8.1929999999999996</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="K33" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="K33" s="3">
-        <v>6</v>
-      </c>
       <c r="L33" s="3">
+        <v>6</v>
+      </c>
+      <c r="M33" s="3">
         <v>0</v>
       </c>
-      <c r="M33" s="57"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="57"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>186</v>
       </c>
@@ -11921,23 +13176,29 @@
         <v>6</v>
       </c>
       <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4">
+      <c r="G34" s="4">
+        <v>8</v>
+      </c>
+      <c r="H34" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>10</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4">
         <v>8.1929999999999996</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="K34" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="K34" s="3">
+      <c r="L34" s="3">
         <v>14</v>
       </c>
-      <c r="L34" s="4">
-        <v>4</v>
-      </c>
-      <c r="M34" s="57"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="4">
+        <v>4</v>
+      </c>
+      <c r="N34" s="57"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="64" t="s">
         <v>307</v>
       </c>
@@ -11952,17 +13213,23 @@
         <v>4</v>
       </c>
       <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64">
+      <c r="G35" s="64">
+        <v>0</v>
+      </c>
+      <c r="H35" s="64">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64">
         <v>20.204999999999998</v>
       </c>
-      <c r="J35" s="65"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="66"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K35" s="65"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="66"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>307</v>
       </c>
@@ -11979,21 +13246,27 @@
       <c r="F36" s="55">
         <v>4</v>
       </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4">
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="J36" s="58" t="s">
+      <c r="K36" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="K36" s="3">
-        <v>6</v>
-      </c>
-      <c r="L36" s="3"/>
-      <c r="M36" s="56"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L36" s="3">
+        <v>6</v>
+      </c>
+      <c r="M36" s="3"/>
+      <c r="N36" s="56"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>307</v>
       </c>
@@ -12010,21 +13283,27 @@
       <c r="F37" s="55">
         <v>4</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4">
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="J37" s="58" t="s">
+      <c r="K37" s="58" t="s">
         <v>322</v>
       </c>
-      <c r="K37" s="56">
-        <v>6</v>
-      </c>
-      <c r="L37" s="3"/>
-      <c r="M37" s="56"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L37" s="56">
+        <v>6</v>
+      </c>
+      <c r="M37" s="3"/>
+      <c r="N37" s="56"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>307</v>
       </c>
@@ -12039,23 +13318,29 @@
         <v>4</v>
       </c>
       <c r="F38" s="55"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4">
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="J38" s="58" t="s">
+      <c r="K38" s="58" t="s">
         <v>220</v>
       </c>
-      <c r="K38" s="56">
-        <v>4</v>
-      </c>
-      <c r="L38" s="3"/>
-      <c r="M38" s="56">
+      <c r="L38" s="56">
+        <v>4</v>
+      </c>
+      <c r="M38" s="3"/>
+      <c r="N38" s="56">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>307</v>
       </c>
@@ -12070,23 +13355,29 @@
         <v>4</v>
       </c>
       <c r="F39" s="55"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4">
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="J39" s="58" t="s">
+      <c r="K39" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="K39" s="56">
-        <v>4</v>
-      </c>
-      <c r="L39" s="3">
+      <c r="L39" s="56">
+        <v>4</v>
+      </c>
+      <c r="M39" s="3">
         <v>2</v>
       </c>
-      <c r="M39" s="56"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="56"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="64" t="s">
         <v>307</v>
       </c>
@@ -12101,17 +13392,23 @@
         <v>4</v>
       </c>
       <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64">
+      <c r="G40" s="64">
+        <v>0</v>
+      </c>
+      <c r="H40" s="64">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64">
         <v>20.204999999999998</v>
       </c>
-      <c r="J40" s="65"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="67"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K40" s="65"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="67"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>307</v>
       </c>
@@ -12128,21 +13425,27 @@
       <c r="F41" s="55">
         <v>4</v>
       </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4">
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="J41" s="58" t="s">
+      <c r="K41" s="58" t="s">
         <v>323</v>
       </c>
-      <c r="K41" s="56">
-        <v>6</v>
-      </c>
-      <c r="L41" s="3"/>
-      <c r="M41" s="56"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L41" s="56">
+        <v>6</v>
+      </c>
+      <c r="M41" s="3"/>
+      <c r="N41" s="56"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>307</v>
       </c>
@@ -12157,23 +13460,29 @@
         <v>4</v>
       </c>
       <c r="F42" s="55"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4">
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>8</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="J42" s="58" t="s">
+      <c r="K42" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="K42" s="56">
-        <v>6</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="56">
+        <v>6</v>
+      </c>
+      <c r="M42" s="3">
         <v>2</v>
       </c>
-      <c r="M42" s="56"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" s="56"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="64" t="s">
         <v>307</v>
       </c>
@@ -12190,17 +13499,23 @@
       <c r="F43" s="64">
         <v>4</v>
       </c>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64">
+      <c r="G43" s="64">
+        <v>0</v>
+      </c>
+      <c r="H43" s="64">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64">
         <v>20.204999999999998</v>
       </c>
-      <c r="J43" s="65"/>
-      <c r="K43" s="67"/>
-      <c r="L43" s="65"/>
-      <c r="M43" s="67"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K43" s="65"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="65"/>
+      <c r="N43" s="67"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="64" t="s">
         <v>307</v>
       </c>
@@ -12217,17 +13532,23 @@
       <c r="F44" s="64">
         <v>4</v>
       </c>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64">
+      <c r="G44" s="64">
+        <v>0</v>
+      </c>
+      <c r="H44" s="64">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64">
         <v>20.204999999999998</v>
       </c>
-      <c r="J44" s="65"/>
-      <c r="K44" s="67"/>
-      <c r="L44" s="65"/>
-      <c r="M44" s="67"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K44" s="65"/>
+      <c r="L44" s="67"/>
+      <c r="M44" s="65"/>
+      <c r="N44" s="67"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="64" t="s">
         <v>307</v>
       </c>
@@ -12244,17 +13565,23 @@
       <c r="F45" s="64">
         <v>4</v>
       </c>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64">
+      <c r="G45" s="64">
+        <v>0</v>
+      </c>
+      <c r="H45" s="64">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64">
         <v>20.204999999999998</v>
       </c>
-      <c r="J45" s="65"/>
-      <c r="K45" s="67"/>
-      <c r="L45" s="65"/>
-      <c r="M45" s="67"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K45" s="65"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="67"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>307</v>
       </c>
@@ -12271,21 +13598,27 @@
       <c r="F46" s="55">
         <v>4</v>
       </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4">
+      <c r="G46" s="4">
+        <v>0</v>
+      </c>
+      <c r="H46" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="J46" s="58" t="s">
+      <c r="K46" s="58" t="s">
         <v>324</v>
       </c>
-      <c r="K46" s="56">
-        <v>6</v>
-      </c>
-      <c r="L46" s="3"/>
-      <c r="M46" s="56"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L46" s="56">
+        <v>6</v>
+      </c>
+      <c r="M46" s="3"/>
+      <c r="N46" s="56"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>307</v>
       </c>
@@ -12302,21 +13635,27 @@
       <c r="F47" s="55">
         <v>4</v>
       </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4">
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="J47" s="58" t="s">
+      <c r="K47" s="58" t="s">
         <v>325</v>
       </c>
-      <c r="K47" s="56">
-        <v>6</v>
-      </c>
-      <c r="L47" s="3"/>
-      <c r="M47" s="56"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L47" s="56">
+        <v>6</v>
+      </c>
+      <c r="M47" s="3"/>
+      <c r="N47" s="56"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>307</v>
       </c>
@@ -12331,19 +13670,25 @@
         <v>6</v>
       </c>
       <c r="F48" s="55"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4">
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+      <c r="H48" s="4">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="J48" s="58" t="s">
+      <c r="K48" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="K48" s="56">
-        <v>6</v>
-      </c>
-      <c r="L48" s="3"/>
-      <c r="M48" s="56"/>
+      <c r="L48" s="56">
+        <v>6</v>
+      </c>
+      <c r="M48" s="3"/>
+      <c r="N48" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zaizd2.xlsx
+++ b/Zaizd2.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rozklad\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="300" windowWidth="20730" windowHeight="9480" activeTab="5"/>
   </bookViews>
@@ -23,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1 курс'!$A$1:$O$15</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -33,7 +28,7 @@
     <author>xgresx@gmail.com</author>
   </authors>
   <commentList>
-    <comment ref="K15" authorId="0" shapeId="0">
+    <comment ref="K15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +53,7 @@
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="B24" authorId="0" shapeId="0">
+    <comment ref="B24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +78,7 @@
     <author>xgresx@gmail.com</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="0" shapeId="0">
+    <comment ref="K9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +119,7 @@
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="K25" authorId="0" shapeId="0">
+    <comment ref="K25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B40" authorId="1" shapeId="0">
+    <comment ref="B40" authorId="1">
       <text>
         <r>
           <rPr>
@@ -166,7 +161,7 @@
     <author>xgresx@gmail.com</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -196,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K18" authorId="1" shapeId="0">
+    <comment ref="K18" authorId="1">
       <text>
         <r>
           <rPr>
@@ -247,7 +242,7 @@
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="B18" authorId="0" shapeId="0">
+    <comment ref="B18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="0" shapeId="0">
+    <comment ref="B34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1274,7 +1269,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1381,7 +1376,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1411,6 +1406,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1596,7 +1597,7 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1823,172 +1824,43 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Ввід" xfId="3" builtinId="20"/>
-    <cellStyle name="Гарний" xfId="1" builtinId="26"/>
+    <cellStyle name="Добре" xfId="1" builtinId="26"/>
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
-    <cellStyle name="Нейтральний" xfId="2" builtinId="28"/>
     <cellStyle name="Поганий" xfId="4" builtinId="27"/>
     <cellStyle name="Примітка" xfId="5" builtinId="10"/>
+    <cellStyle name="Середній" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="132">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2674,6 +2546,32 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3051,6 +2949,32 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3366,6 +3290,32 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3654,6 +3604,32 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4067,6 +4043,32 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4463,6 +4465,32 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -4719,164 +4747,164 @@
     <tableColumn id="14" name="Годин 3 заїзд" dataDxfId="122"/>
     <tableColumn id="5" name="Годин 4 заїзд" dataDxfId="121"/>
     <tableColumn id="15" name="Використано годин" dataDxfId="120"/>
-    <tableColumn id="17" name="Необхідно використати" dataDxfId="5">
+    <tableColumn id="17" name="Необхідно використати" dataDxfId="119">
       <calculatedColumnFormula>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Прим." dataDxfId="119"/>
-    <tableColumn id="8" name="шифр спеціальності" dataDxfId="118"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="117"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="116"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="115"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="114"/>
-    <tableColumn id="13" name="Шифр кафедри" dataDxfId="113"/>
+    <tableColumn id="7" name="Прим." dataDxfId="118"/>
+    <tableColumn id="8" name="шифр спеціальності" dataDxfId="117"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="116"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="115"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="114"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="113"/>
+    <tableColumn id="13" name="Шифр кафедри" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:O32" totalsRowShown="0" headerRowDxfId="112" dataDxfId="110" headerRowBorderDxfId="111" tableBorderDxfId="109" totalsRowBorderDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:O32" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108" totalsRowBorderDxfId="107">
   <autoFilter ref="A1:O32"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Групи" dataDxfId="107"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="106"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="105"/>
-    <tableColumn id="15" name="Годин 2 заїзд" dataDxfId="104"/>
-    <tableColumn id="14" name="Годин 3 заїзд" dataDxfId="103"/>
-    <tableColumn id="5" name="Годин 4 заїзд" dataDxfId="102"/>
-    <tableColumn id="4" name="Використано годин" dataDxfId="101"/>
-    <tableColumn id="3" name="Необхідно використати" dataDxfId="4">
+    <tableColumn id="1" name="Групи" dataDxfId="106"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="105"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="104"/>
+    <tableColumn id="15" name="Годин 2 заїзд" dataDxfId="103"/>
+    <tableColumn id="14" name="Годин 3 заїзд" dataDxfId="102"/>
+    <tableColumn id="5" name="Годин 4 заїзд" dataDxfId="101"/>
+    <tableColumn id="4" name="Використано годин" dataDxfId="100"/>
+    <tableColumn id="3" name="Необхідно використати" dataDxfId="99">
       <calculatedColumnFormula>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Прим." dataDxfId="100"/>
-    <tableColumn id="8" name="шифр спеціальності" dataDxfId="99"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="98"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="97"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="96"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="95"/>
-    <tableColumn id="13" name="Столбец4" dataDxfId="94"/>
+    <tableColumn id="7" name="Прим." dataDxfId="98"/>
+    <tableColumn id="8" name="шифр спеціальності" dataDxfId="97"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="96"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="95"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="94"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="93"/>
+    <tableColumn id="13" name="Столбец4" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:N44" totalsRowShown="0" headerRowDxfId="93" dataDxfId="91" headerRowBorderDxfId="92" tableBorderDxfId="90" totalsRowBorderDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:N44" totalsRowShown="0" headerRowDxfId="91" dataDxfId="89" headerRowBorderDxfId="90" tableBorderDxfId="88" totalsRowBorderDxfId="87">
   <autoFilter ref="A1:N44"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Групи" dataDxfId="88"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="87"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="86"/>
-    <tableColumn id="14" name="Годин 2 заїзд" dataDxfId="85"/>
-    <tableColumn id="13" name="Годин 3 заїзд" dataDxfId="84"/>
-    <tableColumn id="5" name="Годин 4 заїзд" dataDxfId="83"/>
-    <tableColumn id="4" name="Використано годин" dataDxfId="82"/>
-    <tableColumn id="3" name="Необхідно використати" dataDxfId="3">
+    <tableColumn id="1" name="Групи" dataDxfId="86"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="85"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="84"/>
+    <tableColumn id="14" name="Годин 2 заїзд" dataDxfId="83"/>
+    <tableColumn id="13" name="Годин 3 заїзд" dataDxfId="82"/>
+    <tableColumn id="5" name="Годин 4 заїзд" dataDxfId="81"/>
+    <tableColumn id="4" name="Використано годин" dataDxfId="80"/>
+    <tableColumn id="3" name="Необхідно використати" dataDxfId="79">
       <calculatedColumnFormula>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Прим." dataDxfId="81"/>
-    <tableColumn id="8" name="Шифр спеціальності" dataDxfId="80"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="79"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="78"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="77"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="76"/>
+    <tableColumn id="7" name="Прим." dataDxfId="78"/>
+    <tableColumn id="8" name="Шифр спеціальності" dataDxfId="77"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="76"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="75"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="74"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:N42" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72" totalsRowBorderDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:N42" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69" totalsRowBorderDxfId="68">
   <autoFilter ref="A1:N42"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Групи" dataDxfId="70"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="69"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="68"/>
-    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="67"/>
-    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="66"/>
-    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="65"/>
-    <tableColumn id="3" name="Використано годин" dataDxfId="64"/>
-    <tableColumn id="14" name="Необхідно використати" dataDxfId="2">
+    <tableColumn id="1" name="Групи" dataDxfId="67"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="66"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="65"/>
+    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="64"/>
+    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="63"/>
+    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="62"/>
+    <tableColumn id="3" name="Використано годин" dataDxfId="61"/>
+    <tableColumn id="14" name="Необхідно використати" dataDxfId="60">
       <calculatedColumnFormula>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Прим." dataDxfId="63"/>
-    <tableColumn id="8" name="Шифр спеціальності" dataDxfId="62"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="61"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="60"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="59"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="58"/>
+    <tableColumn id="7" name="Прим." dataDxfId="59"/>
+    <tableColumn id="8" name="Шифр спеціальності" dataDxfId="58"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="57"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="56"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="55"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица5" displayName="Таблица5" ref="A1:N27" totalsRowShown="0" headerRowDxfId="57" dataDxfId="55" headerRowBorderDxfId="56" tableBorderDxfId="54" totalsRowBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица5" displayName="Таблица5" ref="A1:N27" totalsRowShown="0" headerRowDxfId="53" dataDxfId="51" headerRowBorderDxfId="52" tableBorderDxfId="50" totalsRowBorderDxfId="49">
   <autoFilter ref="A1:N27"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Групи" dataDxfId="52"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="51"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="50"/>
-    <tableColumn id="17" name="Годин 2 заїзд" dataDxfId="49"/>
-    <tableColumn id="16" name="Годин 3 заїзд" dataDxfId="48"/>
-    <tableColumn id="15" name="Годин 4 заїзд" dataDxfId="47"/>
-    <tableColumn id="14" name="Використано годин" dataDxfId="46"/>
-    <tableColumn id="3" name="Необхідно використати" dataDxfId="1">
+    <tableColumn id="1" name="Групи" dataDxfId="48"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="47"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="46"/>
+    <tableColumn id="17" name="Годин 2 заїзд" dataDxfId="45"/>
+    <tableColumn id="16" name="Годин 3 заїзд" dataDxfId="44"/>
+    <tableColumn id="15" name="Годин 4 заїзд" dataDxfId="43"/>
+    <tableColumn id="14" name="Використано годин" dataDxfId="42"/>
+    <tableColumn id="3" name="Необхідно використати" dataDxfId="41">
       <calculatedColumnFormula>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Прим." dataDxfId="45"/>
-    <tableColumn id="8" name="Шифр спецільності" dataDxfId="44"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="43"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="42"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="41"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="40"/>
+    <tableColumn id="7" name="Прим." dataDxfId="40"/>
+    <tableColumn id="8" name="Шифр спецільності" dataDxfId="39"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="38"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="37"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="36"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица6" displayName="Таблица6" ref="A1:N48" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" tableBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица6" displayName="Таблица6" ref="A1:N48" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" tableBorderDxfId="32">
   <autoFilter ref="A1:N48"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Групи" dataDxfId="36"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="35"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="34"/>
-    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="33"/>
-    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="32"/>
-    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="31"/>
-    <tableColumn id="3" name="Використано годин" dataDxfId="30"/>
-    <tableColumn id="14" name="Необхідно використати" dataDxfId="0">
+    <tableColumn id="1" name="Групи" dataDxfId="31"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="30"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="29"/>
+    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="28"/>
+    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="27"/>
+    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="26"/>
+    <tableColumn id="3" name="Використано годин" dataDxfId="25"/>
+    <tableColumn id="14" name="Необхідно використати" dataDxfId="24">
       <calculatedColumnFormula>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Прим." dataDxfId="29"/>
-    <tableColumn id="8" name="Шифр. Спеціальності" dataDxfId="28"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="27"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="26"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="25"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="24"/>
+    <tableColumn id="7" name="Прим." dataDxfId="23"/>
+    <tableColumn id="8" name="Шифр. Спеціальності" dataDxfId="22"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="21"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="20"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="19"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица7" displayName="Таблица7" ref="A1:M4" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица7" displayName="Таблица7" ref="A1:M4" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="A1:M4"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Групи" dataDxfId="18"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="17"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="16"/>
-    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="15"/>
-    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="14"/>
-    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="13"/>
-    <tableColumn id="3" name="Використано годин" dataDxfId="12"/>
-    <tableColumn id="7" name="Прим." dataDxfId="11"/>
-    <tableColumn id="8" name="Шифр спецільності" dataDxfId="10"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="9"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="8"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="7"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="6"/>
+    <tableColumn id="1" name="Групи" dataDxfId="12"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="11"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="10"/>
+    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="9"/>
+    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="8"/>
+    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="7"/>
+    <tableColumn id="3" name="Використано годин" dataDxfId="6"/>
+    <tableColumn id="7" name="Прим." dataDxfId="5"/>
+    <tableColumn id="8" name="Шифр спецільності" dataDxfId="4"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="3"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="2"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="1"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4885,7 +4913,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Офіс">
+    <a:clrScheme name="Стандартна">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4923,9 +4951,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Офіс">
+    <a:fontScheme name="Стандартна">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4960,7 +4988,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4995,7 +5023,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Офіс">
+    <a:fmtScheme name="Стандартна">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5171,8 +5199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O238"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5180,7 +5208,9 @@
     <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
-    <col min="4" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="14.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="14.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" style="5" customWidth="1"/>
     <col min="11" max="11" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -5272,39 +5302,39 @@
       <c r="N2" s="3"/>
       <c r="O2" s="12"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="17">
-        <v>4</v>
-      </c>
-      <c r="D3" s="17">
-        <v>6</v>
-      </c>
-      <c r="E3" s="17">
-        <v>4</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17">
-        <v>4</v>
-      </c>
-      <c r="H3" s="17">
+      <c r="C3" s="83">
+        <v>4</v>
+      </c>
+      <c r="D3" s="83">
+        <v>6</v>
+      </c>
+      <c r="E3" s="83">
+        <v>4</v>
+      </c>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83">
+        <v>4</v>
+      </c>
+      <c r="H3" s="83">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="17" t="s">
+      <c r="I3" s="83"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="12"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="86"/>
     </row>
     <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
@@ -6344,7 +6374,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6413,39 +6443,39 @@
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:15" s="90" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="17">
-        <v>6</v>
-      </c>
-      <c r="D2" s="17">
-        <v>4</v>
-      </c>
-      <c r="E2" s="17">
+      <c r="C2" s="83">
+        <v>6</v>
+      </c>
+      <c r="D2" s="83">
+        <v>4</v>
+      </c>
+      <c r="E2" s="83">
         <v>2</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17">
-        <v>6</v>
-      </c>
-      <c r="H2" s="17">
+      <c r="F2" s="83"/>
+      <c r="G2" s="83">
+        <v>6</v>
+      </c>
+      <c r="H2" s="83">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="4" t="s">
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="88" t="s">
         <v>281</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="30"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="89"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -7616,7 +7646,7 @@
   <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9401,8 +9431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10967,7 +10997,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12012,7 +12042,7 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Zaizd2.xlsx
+++ b/Zaizd2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="20730" windowHeight="9480" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="20730" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1 курс" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="7 курс" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1 курс'!$A$1:$O$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1 курс'!$A$1:$R$15</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -28,7 +28,7 @@
     <author>xgresx@gmail.com</author>
   </authors>
   <commentList>
-    <comment ref="K15" authorId="0">
+    <comment ref="N15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="0">
+    <comment ref="N9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="332">
   <si>
     <t>Групи</t>
   </si>
@@ -1264,6 +1264,15 @@
   </si>
   <si>
     <t>Яка кількість годин?</t>
+  </si>
+  <si>
+    <t>Залік</t>
+  </si>
+  <si>
+    <t>Іспит</t>
+  </si>
+  <si>
+    <t>Курс робота/проект</t>
   </si>
 </sst>
 </file>
@@ -1860,7 +1869,255 @@
     <cellStyle name="Примітка" xfId="5" builtinId="10"/>
     <cellStyle name="Середній" xfId="2" builtinId="28"/>
   </cellStyles>
-  <dxfs count="132">
+  <dxfs count="141">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -4020,29 +4277,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -4737,174 +4971,183 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:O27" totalsRowShown="0" headerRowDxfId="131" dataDxfId="129" headerRowBorderDxfId="130" tableBorderDxfId="128" totalsRowBorderDxfId="127">
-  <autoFilter ref="A1:O27"/>
-  <tableColumns count="15">
-    <tableColumn id="1" name="Групи" dataDxfId="126"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="125"/>
-    <tableColumn id="3" name="Годин 1 заїзд" dataDxfId="124"/>
-    <tableColumn id="6" name="Годин 2 заїзд" dataDxfId="123"/>
-    <tableColumn id="14" name="Годин 3 заїзд" dataDxfId="122"/>
-    <tableColumn id="5" name="Годин 4 заїзд" dataDxfId="121"/>
-    <tableColumn id="15" name="Використано годин" dataDxfId="120"/>
-    <tableColumn id="17" name="Необхідно використати" dataDxfId="119">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:R27" totalsRowShown="0" headerRowDxfId="140" dataDxfId="138" headerRowBorderDxfId="139" tableBorderDxfId="137" totalsRowBorderDxfId="136">
+  <autoFilter ref="A1:R27"/>
+  <tableColumns count="18">
+    <tableColumn id="1" name="Групи" dataDxfId="135"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="134"/>
+    <tableColumn id="3" name="Годин 1 заїзд" dataDxfId="133"/>
+    <tableColumn id="6" name="Годин 2 заїзд" dataDxfId="132"/>
+    <tableColumn id="14" name="Годин 3 заїзд" dataDxfId="131"/>
+    <tableColumn id="5" name="Годин 4 заїзд" dataDxfId="130"/>
+    <tableColumn id="15" name="Використано годин" dataDxfId="129"/>
+    <tableColumn id="17" name="Необхідно використати" dataDxfId="128">
       <calculatedColumnFormula>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Прим." dataDxfId="118"/>
-    <tableColumn id="8" name="шифр спеціальності" dataDxfId="117"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="116"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="115"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="114"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="113"/>
-    <tableColumn id="13" name="Шифр кафедри" dataDxfId="112"/>
+    <tableColumn id="16" name="Курс робота/проект" dataDxfId="9"/>
+    <tableColumn id="18" name="Іспит" dataDxfId="8"/>
+    <tableColumn id="20" name="Залік" dataDxfId="7"/>
+    <tableColumn id="7" name="Прим." dataDxfId="127"/>
+    <tableColumn id="8" name="шифр спеціальності" dataDxfId="126"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="125"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="124"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="123"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="122"/>
+    <tableColumn id="13" name="Шифр кафедри" dataDxfId="121"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:O32" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108" totalsRowBorderDxfId="107">
-  <autoFilter ref="A1:O32"/>
-  <tableColumns count="15">
-    <tableColumn id="1" name="Групи" dataDxfId="106"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="105"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="104"/>
-    <tableColumn id="15" name="Годин 2 заїзд" dataDxfId="103"/>
-    <tableColumn id="14" name="Годин 3 заїзд" dataDxfId="102"/>
-    <tableColumn id="5" name="Годин 4 заїзд" dataDxfId="101"/>
-    <tableColumn id="4" name="Використано годин" dataDxfId="100"/>
-    <tableColumn id="3" name="Необхідно використати" dataDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:R32" totalsRowShown="0" headerRowDxfId="120" dataDxfId="118" headerRowBorderDxfId="119" tableBorderDxfId="117" totalsRowBorderDxfId="116">
+  <autoFilter ref="A1:R32"/>
+  <tableColumns count="18">
+    <tableColumn id="1" name="Групи" dataDxfId="115"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="114"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="113"/>
+    <tableColumn id="15" name="Годин 2 заїзд" dataDxfId="112"/>
+    <tableColumn id="14" name="Годин 3 заїзд" dataDxfId="111"/>
+    <tableColumn id="5" name="Годин 4 заїзд" dataDxfId="110"/>
+    <tableColumn id="4" name="Використано годин" dataDxfId="109"/>
+    <tableColumn id="3" name="Необхідно використати" dataDxfId="108">
       <calculatedColumnFormula>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Прим." dataDxfId="98"/>
-    <tableColumn id="8" name="шифр спеціальності" dataDxfId="97"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="96"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="95"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="94"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="93"/>
-    <tableColumn id="13" name="Столбец4" dataDxfId="92"/>
+    <tableColumn id="19" name="Курс робота/проект" dataDxfId="3"/>
+    <tableColumn id="18" name="Іспит" dataDxfId="4"/>
+    <tableColumn id="17" name="Залік" dataDxfId="5"/>
+    <tableColumn id="7" name="Прим." dataDxfId="6"/>
+    <tableColumn id="8" name="шифр спеціальності" dataDxfId="107"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="106"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="105"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="104"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="103"/>
+    <tableColumn id="13" name="Столбец4" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:N44" totalsRowShown="0" headerRowDxfId="91" dataDxfId="89" headerRowBorderDxfId="90" tableBorderDxfId="88" totalsRowBorderDxfId="87">
-  <autoFilter ref="A1:N44"/>
-  <tableColumns count="14">
-    <tableColumn id="1" name="Групи" dataDxfId="86"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="85"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="84"/>
-    <tableColumn id="14" name="Годин 2 заїзд" dataDxfId="83"/>
-    <tableColumn id="13" name="Годин 3 заїзд" dataDxfId="82"/>
-    <tableColumn id="5" name="Годин 4 заїзд" dataDxfId="81"/>
-    <tableColumn id="4" name="Використано годин" dataDxfId="80"/>
-    <tableColumn id="3" name="Необхідно використати" dataDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:Q44" totalsRowShown="0" headerRowDxfId="101" dataDxfId="99" headerRowBorderDxfId="100" tableBorderDxfId="98" totalsRowBorderDxfId="97">
+  <autoFilter ref="A1:Q44"/>
+  <tableColumns count="17">
+    <tableColumn id="1" name="Групи" dataDxfId="96"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="95"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="94"/>
+    <tableColumn id="14" name="Годин 2 заїзд" dataDxfId="93"/>
+    <tableColumn id="13" name="Годин 3 заїзд" dataDxfId="92"/>
+    <tableColumn id="5" name="Годин 4 заїзд" dataDxfId="91"/>
+    <tableColumn id="4" name="Використано годин" dataDxfId="90"/>
+    <tableColumn id="3" name="Необхідно використати" dataDxfId="89">
       <calculatedColumnFormula>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Прим." dataDxfId="78"/>
-    <tableColumn id="8" name="Шифр спеціальності" dataDxfId="77"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="76"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="75"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="74"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="73"/>
+    <tableColumn id="17" name="Курс робота/проект" dataDxfId="0"/>
+    <tableColumn id="16" name="Іспит" dataDxfId="1"/>
+    <tableColumn id="15" name="Залік" dataDxfId="2"/>
+    <tableColumn id="7" name="Прим." dataDxfId="88"/>
+    <tableColumn id="8" name="Шифр спеціальності" dataDxfId="87"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="86"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="85"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="84"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:N42" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69" totalsRowBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:N42" totalsRowShown="0" headerRowDxfId="82" dataDxfId="80" headerRowBorderDxfId="81" tableBorderDxfId="79" totalsRowBorderDxfId="78">
   <autoFilter ref="A1:N42"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Групи" dataDxfId="67"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="66"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="65"/>
-    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="64"/>
-    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="63"/>
-    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="62"/>
-    <tableColumn id="3" name="Використано годин" dataDxfId="61"/>
-    <tableColumn id="14" name="Необхідно використати" dataDxfId="60">
+    <tableColumn id="1" name="Групи" dataDxfId="77"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="76"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="75"/>
+    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="74"/>
+    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="73"/>
+    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="72"/>
+    <tableColumn id="3" name="Використано годин" dataDxfId="71"/>
+    <tableColumn id="14" name="Необхідно використати" dataDxfId="70">
       <calculatedColumnFormula>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Прим." dataDxfId="59"/>
-    <tableColumn id="8" name="Шифр спеціальності" dataDxfId="58"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="57"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="56"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="55"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="54"/>
+    <tableColumn id="7" name="Прим." dataDxfId="69"/>
+    <tableColumn id="8" name="Шифр спеціальності" dataDxfId="68"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="67"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="66"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="65"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица5" displayName="Таблица5" ref="A1:N27" totalsRowShown="0" headerRowDxfId="53" dataDxfId="51" headerRowBorderDxfId="52" tableBorderDxfId="50" totalsRowBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица5" displayName="Таблица5" ref="A1:N27" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
   <autoFilter ref="A1:N27"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Групи" dataDxfId="48"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="47"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="46"/>
-    <tableColumn id="17" name="Годин 2 заїзд" dataDxfId="45"/>
-    <tableColumn id="16" name="Годин 3 заїзд" dataDxfId="44"/>
-    <tableColumn id="15" name="Годин 4 заїзд" dataDxfId="43"/>
-    <tableColumn id="14" name="Використано годин" dataDxfId="42"/>
-    <tableColumn id="3" name="Необхідно використати" dataDxfId="41">
+    <tableColumn id="1" name="Групи" dataDxfId="58"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="57"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="56"/>
+    <tableColumn id="17" name="Годин 2 заїзд" dataDxfId="55"/>
+    <tableColumn id="16" name="Годин 3 заїзд" dataDxfId="54"/>
+    <tableColumn id="15" name="Годин 4 заїзд" dataDxfId="53"/>
+    <tableColumn id="14" name="Використано годин" dataDxfId="52"/>
+    <tableColumn id="3" name="Необхідно використати" dataDxfId="51">
       <calculatedColumnFormula>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Прим." dataDxfId="40"/>
-    <tableColumn id="8" name="Шифр спецільності" dataDxfId="39"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="38"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="37"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="36"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="35"/>
+    <tableColumn id="7" name="Прим." dataDxfId="50"/>
+    <tableColumn id="8" name="Шифр спецільності" dataDxfId="49"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="48"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="47"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="46"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица6" displayName="Таблица6" ref="A1:N48" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица6" displayName="Таблица6" ref="A1:N48" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42">
   <autoFilter ref="A1:N48"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Групи" dataDxfId="31"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="30"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="29"/>
-    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="28"/>
-    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="27"/>
-    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="26"/>
-    <tableColumn id="3" name="Використано годин" dataDxfId="25"/>
-    <tableColumn id="14" name="Необхідно використати" dataDxfId="24">
+    <tableColumn id="1" name="Групи" dataDxfId="41"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="40"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="39"/>
+    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="38"/>
+    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="37"/>
+    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="36"/>
+    <tableColumn id="3" name="Використано годин" dataDxfId="35"/>
+    <tableColumn id="14" name="Необхідно використати" dataDxfId="34">
       <calculatedColumnFormula>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Прим." dataDxfId="23"/>
-    <tableColumn id="8" name="Шифр. Спеціальності" dataDxfId="22"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="21"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="20"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="19"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="18"/>
+    <tableColumn id="7" name="Прим." dataDxfId="33"/>
+    <tableColumn id="8" name="Шифр. Спеціальності" dataDxfId="32"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="31"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="30"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="29"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица7" displayName="Таблица7" ref="A1:M4" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица7" displayName="Таблица7" ref="A1:M4" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <autoFilter ref="A1:M4"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Групи" dataDxfId="12"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="11"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="10"/>
-    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="9"/>
-    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="8"/>
-    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="7"/>
-    <tableColumn id="3" name="Використано годин" dataDxfId="6"/>
-    <tableColumn id="7" name="Прим." dataDxfId="5"/>
-    <tableColumn id="8" name="Шифр спецільності" dataDxfId="4"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="3"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="2"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="1"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="0"/>
+    <tableColumn id="1" name="Групи" dataDxfId="22"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="21"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="20"/>
+    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="19"/>
+    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="18"/>
+    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="17"/>
+    <tableColumn id="3" name="Використано годин" dataDxfId="16"/>
+    <tableColumn id="7" name="Прим." dataDxfId="15"/>
+    <tableColumn id="8" name="Шифр спецільності" dataDxfId="14"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="13"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="12"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="11"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5197,31 +5440,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O238"/>
+  <dimension ref="A1:R238"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
     <col min="5" max="6" width="14.28515625" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="7.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -5247,28 +5493,37 @@
         <v>326</v>
       </c>
       <c r="I1" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="M1" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="N1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="O1" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="Q1" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="R1" s="27" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
@@ -5293,16 +5548,21 @@
         <v>8</v>
       </c>
       <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="17" t="s">
+      <c r="J2" s="25"/>
+      <c r="K2" s="17">
+        <v>3</v>
+      </c>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="12"/>
-    </row>
-    <row r="3" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="12"/>
+    </row>
+    <row r="3" spans="1:18" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
         <v>5</v>
       </c>
@@ -5327,16 +5587,21 @@
         <v>6</v>
       </c>
       <c r="I3" s="83"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="83" t="s">
+      <c r="J3" s="83">
+        <v>3</v>
+      </c>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-    </row>
-    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="86"/>
+    </row>
+    <row r="4" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -5363,16 +5628,21 @@
         <v>6</v>
       </c>
       <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="4" t="s">
+      <c r="J4" s="17">
+        <v>4</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="12"/>
-    </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="12"/>
+    </row>
+    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
@@ -5395,18 +5665,23 @@
         <v>12</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="4">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="12"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="12"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
@@ -5429,22 +5704,27 @@
         <v>10</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="4">
+        <v>2</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="L6" s="3">
+      <c r="O6" s="3">
         <v>12</v>
       </c>
-      <c r="M6" s="3">
-        <v>8</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="12"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="12"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
@@ -5467,22 +5747,27 @@
         <v>10</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="4">
+        <v>2</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="L7" s="3">
+      <c r="O7" s="3">
         <v>12</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3">
-        <v>8</v>
-      </c>
-      <c r="O7" s="12"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3">
+        <v>8</v>
+      </c>
+      <c r="R7" s="12"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -5505,16 +5790,21 @@
         <v>6</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="12"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="12"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
@@ -5539,22 +5829,27 @@
         <v>10</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="4">
+        <v>3</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="L9" s="3">
-        <v>8</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3">
-        <v>6</v>
-      </c>
-      <c r="O9" s="12"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O9" s="3">
+        <v>8</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3">
+        <v>6</v>
+      </c>
+      <c r="R9" s="12"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
@@ -5577,20 +5872,25 @@
         <v>4</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
+        <v>3</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="N10" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="L10" s="10">
-        <v>4</v>
-      </c>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="12"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O10" s="10">
+        <v>4</v>
+      </c>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="12"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
@@ -5617,18 +5917,23 @@
         <v>0</v>
       </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="4">
+        <v>4</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="12"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="12"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
@@ -5655,20 +5960,25 @@
         <v>8</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="4">
+        <v>4</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="N12" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="12" t="s">
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="12" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="68" t="s">
         <v>188</v>
       </c>
@@ -5694,25 +6004,30 @@
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>12</v>
       </c>
-      <c r="I13" s="69" t="s">
+      <c r="I13" s="69"/>
+      <c r="J13" s="69">
+        <v>4</v>
+      </c>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69" t="s">
         <v>327</v>
       </c>
-      <c r="J13" s="70" t="s">
+      <c r="M13" s="70" t="s">
         <v>193</v>
       </c>
-      <c r="K13" s="69" t="s">
+      <c r="N13" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="L13" s="70">
+      <c r="O13" s="70">
         <v>14</v>
       </c>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="71" t="s">
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="71" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
@@ -5737,22 +6052,27 @@
         <v>0</v>
       </c>
       <c r="I14" s="4"/>
-      <c r="J14" s="3">
+      <c r="J14" s="4">
+        <v>4</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="3">
         <v>6.1929999999999996</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="N14" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="L14" s="19">
-        <v>4</v>
-      </c>
-      <c r="M14" s="19">
+      <c r="O14" s="19">
+        <v>4</v>
+      </c>
+      <c r="P14" s="19">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="12"/>
-    </row>
-    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q14" s="3"/>
+      <c r="R14" s="12"/>
+    </row>
+    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="72" t="s">
         <v>19</v>
       </c>
@@ -5776,23 +6096,28 @@
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>10</v>
       </c>
-      <c r="I15" s="73" t="s">
+      <c r="I15" s="73"/>
+      <c r="J15" s="73">
+        <v>4</v>
+      </c>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73" t="s">
         <v>328</v>
       </c>
-      <c r="J15" s="74">
+      <c r="M15" s="74">
         <v>6.1929999999999996</v>
       </c>
-      <c r="K15" s="74" t="s">
+      <c r="N15" s="74" t="s">
         <v>220</v>
       </c>
-      <c r="L15" s="74">
+      <c r="O15" s="74">
         <v>2</v>
       </c>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="75"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="75"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
@@ -5819,22 +6144,27 @@
         <v>0</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="3">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4">
+        <v>4</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="3">
         <v>6.1929999999999996</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="N16" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="L16" s="19">
-        <v>4</v>
-      </c>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19">
+      <c r="O16" s="19">
+        <v>4</v>
+      </c>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19">
         <v>2</v>
       </c>
-      <c r="O16" s="12"/>
-    </row>
-    <row r="17" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="R16" s="12"/>
+    </row>
+    <row r="17" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
@@ -5855,24 +6185,29 @@
         <v>2</v>
       </c>
       <c r="I17" s="4"/>
-      <c r="J17" s="3">
+      <c r="J17" s="4">
+        <v>3</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="3">
         <v>6.1929999999999996</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="N17" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="L17" s="19">
+      <c r="O17" s="19">
         <v>2</v>
       </c>
-      <c r="M17" s="19">
+      <c r="P17" s="19">
         <v>0</v>
       </c>
-      <c r="N17" s="19">
+      <c r="Q17" s="19">
         <v>0</v>
       </c>
-      <c r="O17" s="12"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R17" s="12"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>19</v>
       </c>
@@ -5897,22 +6232,27 @@
         <v>2</v>
       </c>
       <c r="I18" s="4"/>
-      <c r="J18" s="3">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4">
+        <v>4</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="3">
         <v>6.1929999999999996</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="N18" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="L18" s="19">
+      <c r="O18" s="19">
         <v>2</v>
       </c>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19">
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19">
         <v>0</v>
       </c>
-      <c r="O18" s="12"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R18" s="12"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>19</v>
       </c>
@@ -5937,20 +6277,25 @@
         <v>2</v>
       </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="3">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4">
+        <v>4</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="3">
         <v>6.1929999999999996</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="N19" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="L19" s="19">
+      <c r="O19" s="19">
         <v>2</v>
       </c>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="12"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="12"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>26</v>
       </c>
@@ -5976,23 +6321,28 @@
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I20" s="4"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="3">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="3">
         <v>6.2050000000000001</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="N20" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="L20" s="19">
-        <v>6</v>
-      </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19">
-        <v>4</v>
-      </c>
-      <c r="O20" s="12"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="19">
+        <v>6</v>
+      </c>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19">
+        <v>4</v>
+      </c>
+      <c r="R20" s="12"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>26</v>
       </c>
@@ -6016,23 +6366,28 @@
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I21" s="4"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="3">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="3">
         <v>6.2050000000000001</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="N21" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="L21" s="19">
-        <v>6</v>
-      </c>
-      <c r="M21" s="19">
-        <v>4</v>
-      </c>
-      <c r="N21" s="19"/>
-      <c r="O21" s="12"/>
-    </row>
-    <row r="22" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="19">
+        <v>6</v>
+      </c>
+      <c r="P21" s="19">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="12"/>
+    </row>
+    <row r="22" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>26</v>
       </c>
@@ -6056,21 +6411,26 @@
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I22" s="4"/>
+      <c r="I22" s="3"/>
       <c r="J22" s="3">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="3">
         <v>6.2050000000000001</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="N22" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="L22" s="19">
-        <v>6</v>
-      </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="12"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O22" s="19">
+        <v>6</v>
+      </c>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="12"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>26</v>
       </c>
@@ -6092,23 +6452,28 @@
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="3">
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3">
+        <v>2</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="3">
         <v>6.2050000000000001</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="L23" s="3">
-        <v>6</v>
-      </c>
-      <c r="M23" s="3">
-        <v>4</v>
-      </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="12"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O23" s="3">
+        <v>6</v>
+      </c>
+      <c r="P23" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="12"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>26</v>
       </c>
@@ -6135,20 +6500,25 @@
         <v>6</v>
       </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="3">
+      <c r="J24" s="4">
+        <v>4</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="3">
         <v>6.2050000000000001</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="N24" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="12" t="s">
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="12" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="68" t="s">
         <v>26</v>
       </c>
@@ -6172,25 +6542,30 @@
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>8</v>
       </c>
-      <c r="I25" s="69" t="s">
+      <c r="I25" s="69"/>
+      <c r="J25" s="69">
+        <v>3</v>
+      </c>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69" t="s">
         <v>327</v>
       </c>
-      <c r="J25" s="70">
+      <c r="M25" s="70">
         <v>6.2050000000000001</v>
       </c>
-      <c r="K25" s="69" t="s">
+      <c r="N25" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="L25" s="70">
-        <v>6</v>
-      </c>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="71" t="s">
+      <c r="O25" s="70">
+        <v>6</v>
+      </c>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="71" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>26</v>
       </c>
@@ -6217,22 +6592,27 @@
         <v>8</v>
       </c>
       <c r="I26" s="4"/>
-      <c r="J26" s="3">
+      <c r="J26" s="4">
+        <v>4</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="3">
         <v>6.2050000000000001</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>16</v>
       </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3">
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3">
         <v>0</v>
       </c>
-      <c r="O26" s="12"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R26" s="12"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>26</v>
       </c>
@@ -6258,104 +6638,109 @@
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21">
+      <c r="I27" s="22"/>
+      <c r="J27" s="22">
+        <v>3</v>
+      </c>
+      <c r="K27" s="22"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21">
         <v>6.2050000000000001</v>
       </c>
-      <c r="K27" s="21" t="s">
+      <c r="N27" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="23"/>
-    </row>
-    <row r="102" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J102" s="9"/>
-    </row>
-    <row r="103" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J103" s="9"/>
-    </row>
-    <row r="105" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J105" s="9"/>
-    </row>
-    <row r="106" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J106" s="9"/>
-    </row>
-    <row r="107" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J107" s="9"/>
-    </row>
-    <row r="108" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J108" s="9"/>
-    </row>
-    <row r="109" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J109" s="9"/>
-    </row>
-    <row r="110" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J110" s="9"/>
-    </row>
-    <row r="111" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J111" s="9"/>
-    </row>
-    <row r="112" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J112" s="9"/>
-    </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J113" s="9"/>
-    </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J146" s="9"/>
-    </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J147" s="9"/>
-    </row>
-    <row r="157" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J157" s="9"/>
-    </row>
-    <row r="158" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J158" s="9"/>
-    </row>
-    <row r="225" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J225" s="9"/>
-    </row>
-    <row r="226" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J226" s="9"/>
-    </row>
-    <row r="227" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J227" s="9"/>
-    </row>
-    <row r="228" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J228" s="9"/>
-    </row>
-    <row r="229" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J229" s="9"/>
-    </row>
-    <row r="230" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J230" s="9"/>
-    </row>
-    <row r="231" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J231" s="9"/>
-    </row>
-    <row r="232" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J232" s="9"/>
-    </row>
-    <row r="233" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J233" s="9"/>
-    </row>
-    <row r="234" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J234" s="9"/>
-    </row>
-    <row r="235" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J235" s="9"/>
-    </row>
-    <row r="236" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J236" s="9"/>
-    </row>
-    <row r="237" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J237" s="9"/>
-    </row>
-    <row r="238" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J238" s="9"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="23"/>
+    </row>
+    <row r="102" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M102" s="9"/>
+    </row>
+    <row r="103" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M103" s="9"/>
+    </row>
+    <row r="105" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M105" s="9"/>
+    </row>
+    <row r="106" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M106" s="9"/>
+    </row>
+    <row r="107" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M107" s="9"/>
+    </row>
+    <row r="108" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M108" s="9"/>
+    </row>
+    <row r="109" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M109" s="9"/>
+    </row>
+    <row r="110" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M110" s="9"/>
+    </row>
+    <row r="111" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M111" s="9"/>
+    </row>
+    <row r="112" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M112" s="9"/>
+    </row>
+    <row r="113" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M113" s="9"/>
+    </row>
+    <row r="146" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M146" s="9"/>
+    </row>
+    <row r="147" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M147" s="9"/>
+    </row>
+    <row r="157" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M157" s="9"/>
+    </row>
+    <row r="158" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M158" s="9"/>
+    </row>
+    <row r="225" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M225" s="9"/>
+    </row>
+    <row r="226" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M226" s="9"/>
+    </row>
+    <row r="227" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M227" s="9"/>
+    </row>
+    <row r="228" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M228" s="9"/>
+    </row>
+    <row r="229" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M229" s="9"/>
+    </row>
+    <row r="230" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M230" s="9"/>
+    </row>
+    <row r="231" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M231" s="9"/>
+    </row>
+    <row r="232" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M232" s="9"/>
+    </row>
+    <row r="233" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M233" s="9"/>
+    </row>
+    <row r="234" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M234" s="9"/>
+    </row>
+    <row r="235" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M235" s="9"/>
+    </row>
+    <row r="236" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M236" s="9"/>
+    </row>
+    <row r="237" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M237" s="9"/>
+    </row>
+    <row r="238" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M238" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6371,10 +6756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="I1" sqref="I1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6386,17 +6771,20 @@
     <col min="5" max="5" width="10.85546875" style="29" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="29" customWidth="1"/>
     <col min="7" max="8" width="14.28515625" style="29" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="29" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" style="29" customWidth="1"/>
-    <col min="11" max="11" width="25.42578125" style="29" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="29" customWidth="1"/>
-    <col min="13" max="13" width="10" style="29" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="29"/>
-    <col min="15" max="15" width="11.85546875" style="29" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="29"/>
+    <col min="9" max="9" width="7.5703125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="29" customWidth="1"/>
+    <col min="11" max="11" width="6" style="29" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="29" customWidth="1"/>
+    <col min="13" max="13" width="21.28515625" style="29" customWidth="1"/>
+    <col min="14" max="14" width="25.42578125" style="29" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="29" customWidth="1"/>
+    <col min="16" max="16" width="10" style="29" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="29"/>
+    <col min="18" max="18" width="11.85546875" style="29" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -6422,28 +6810,37 @@
         <v>326</v>
       </c>
       <c r="I1" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="L1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="M1" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="N1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="O1" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="Q1" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="R1" s="28" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="90" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="90" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="82" t="s">
         <v>5</v>
       </c>
@@ -6468,16 +6865,21 @@
         <v>4</v>
       </c>
       <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="88" t="s">
+      <c r="J2" s="83">
+        <v>3</v>
+      </c>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="88" t="s">
         <v>281</v>
       </c>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="89"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="89"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
@@ -6502,16 +6904,21 @@
         <v>6</v>
       </c>
       <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="17">
+        <v>3</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="30"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="30"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>196</v>
       </c>
@@ -6535,21 +6942,26 @@
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4">
+        <v>2</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="L4" s="4">
+      <c r="O4" s="4">
         <v>12</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4">
-        <v>4</v>
-      </c>
-      <c r="O4" s="30"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4">
+        <v>4</v>
+      </c>
+      <c r="R4" s="30"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>196</v>
       </c>
@@ -6573,21 +6985,26 @@
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="L5" s="4">
+      <c r="O5" s="4">
         <v>12</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4">
-        <v>6</v>
-      </c>
-      <c r="O5" s="30"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4">
+        <v>6</v>
+      </c>
+      <c r="R5" s="30"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>196</v>
       </c>
@@ -6613,21 +7030,28 @@
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>10</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="4">
+        <v>4</v>
+      </c>
       <c r="J6" s="4">
+        <v>2</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="L6" s="4">
+      <c r="O6" s="4">
         <v>20</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="30"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="30"/>
+    </row>
+    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>196</v>
       </c>
@@ -6651,17 +7075,22 @@
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4">
+        <v>2</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="30"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="30"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>196</v>
       </c>
@@ -6684,22 +7113,27 @@
         <v>6</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="4">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="L8" s="4">
+      <c r="O8" s="4">
         <v>10</v>
       </c>
-      <c r="M8" s="4">
+      <c r="P8" s="4">
         <v>2</v>
       </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="30"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q8" s="4"/>
+      <c r="R8" s="30"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>196</v>
       </c>
@@ -6722,22 +7156,27 @@
         <v>8</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="4">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4">
+        <v>2</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="L9" s="4">
+      <c r="O9" s="4">
         <v>10</v>
       </c>
-      <c r="M9" s="4">
-        <v>4</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="30"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="30"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>196</v>
       </c>
@@ -6762,20 +7201,25 @@
         <v>8</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="4">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
+        <v>3</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="N10" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="L10" s="31">
+      <c r="O10" s="31">
         <v>12</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="30"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="30"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>196</v>
       </c>
@@ -6799,17 +7243,22 @@
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4">
+        <v>4</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="N11" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="30"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="30"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>196</v>
       </c>
@@ -6832,18 +7281,23 @@
         <v>0</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="4">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4">
+        <v>4</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="N12" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="30"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="30"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>196</v>
       </c>
@@ -6866,18 +7320,23 @@
         <v>0</v>
       </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="4">
+      <c r="J13" s="4"/>
+      <c r="K13" s="4">
+        <v>4</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="N13" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="30"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="30"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
@@ -6904,22 +7363,25 @@
         <v>6</v>
       </c>
       <c r="I14" s="4"/>
-      <c r="J14" s="4">
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="N14" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="L14" s="32">
+      <c r="O14" s="32">
         <v>12</v>
       </c>
-      <c r="M14" s="32">
+      <c r="P14" s="32">
         <v>2</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="30"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q14" s="4"/>
+      <c r="R14" s="30"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
@@ -6942,20 +7404,23 @@
         <v>10</v>
       </c>
       <c r="I15" s="77"/>
-      <c r="J15" s="77">
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77">
         <v>6.080101</v>
       </c>
-      <c r="K15" s="77" t="s">
+      <c r="N15" s="77" t="s">
         <v>284</v>
       </c>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77" t="s">
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="77" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
@@ -6978,22 +7443,25 @@
         <v>6</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="4">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="N16" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="L16" s="4">
-        <v>6</v>
-      </c>
-      <c r="M16" s="4">
-        <v>4</v>
-      </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="30"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O16" s="4">
+        <v>6</v>
+      </c>
+      <c r="P16" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="30"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
@@ -7020,22 +7488,25 @@
         <v>6</v>
       </c>
       <c r="I17" s="4"/>
-      <c r="J17" s="4">
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K17" s="31" t="s">
+      <c r="N17" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="L17" s="31">
+      <c r="O17" s="31">
         <v>10</v>
       </c>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31">
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31">
         <v>0</v>
       </c>
-      <c r="O17" s="30"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R17" s="30"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>19</v>
       </c>
@@ -7062,22 +7533,25 @@
         <v>10</v>
       </c>
       <c r="I18" s="4"/>
-      <c r="J18" s="4">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="N18" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="L18" s="4">
+      <c r="O18" s="4">
         <v>18</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4">
         <v>2</v>
       </c>
-      <c r="O18" s="30"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R18" s="30"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>19</v>
       </c>
@@ -7102,22 +7576,25 @@
         <v>4</v>
       </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="4">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K19" s="32" t="s">
+      <c r="N19" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="L19" s="32">
-        <v>6</v>
-      </c>
-      <c r="M19" s="32">
+      <c r="O19" s="32">
+        <v>6</v>
+      </c>
+      <c r="P19" s="32">
         <v>2</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="30"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q19" s="4"/>
+      <c r="R19" s="30"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>19</v>
       </c>
@@ -7140,22 +7617,25 @@
         <v>4</v>
       </c>
       <c r="I20" s="4"/>
-      <c r="J20" s="4">
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="N20" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="L20" s="4">
-        <v>8</v>
-      </c>
-      <c r="M20" s="4">
+      <c r="O20" s="4">
+        <v>8</v>
+      </c>
+      <c r="P20" s="4">
         <v>2</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="30"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q20" s="4"/>
+      <c r="R20" s="30"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
@@ -7178,22 +7658,25 @@
         <v>2</v>
       </c>
       <c r="I21" s="4"/>
-      <c r="J21" s="4">
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K21" s="32" t="s">
+      <c r="N21" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="L21" s="32">
-        <v>4</v>
-      </c>
-      <c r="M21" s="32">
-        <v>4</v>
-      </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="30"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O21" s="32">
+        <v>4</v>
+      </c>
+      <c r="P21" s="32">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="30"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>56</v>
       </c>
@@ -7220,22 +7703,25 @@
         <v>4</v>
       </c>
       <c r="I22" s="4"/>
-      <c r="J22" s="4">
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K22" s="31" t="s">
+      <c r="N22" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="L22" s="31">
-        <v>8</v>
-      </c>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31">
+      <c r="O22" s="31">
+        <v>8</v>
+      </c>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31">
         <v>0</v>
       </c>
-      <c r="O22" s="30"/>
-    </row>
-    <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="R22" s="30"/>
+    </row>
+    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>56</v>
       </c>
@@ -7258,22 +7744,25 @@
         <v>6</v>
       </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="4">
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K23" s="31" t="s">
+      <c r="N23" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="L23" s="31">
-        <v>8</v>
-      </c>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31">
-        <v>4</v>
-      </c>
-      <c r="O23" s="30"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O23" s="31">
+        <v>8</v>
+      </c>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31">
+        <v>4</v>
+      </c>
+      <c r="R23" s="30"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>56</v>
       </c>
@@ -7300,18 +7789,21 @@
         <v>8</v>
       </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="4">
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="N24" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="30"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="30"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>56</v>
       </c>
@@ -7338,20 +7830,23 @@
         <v>6</v>
       </c>
       <c r="I25" s="4"/>
-      <c r="J25" s="4">
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="N25" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="L25" s="4">
+      <c r="O25" s="4">
         <v>10</v>
       </c>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="30"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="30"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>56</v>
       </c>
@@ -7374,20 +7869,23 @@
         <v>6</v>
       </c>
       <c r="I26" s="4"/>
-      <c r="J26" s="4">
-        <v>6.090103</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>209</v>
-      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4">
+        <v>6.090103</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4">
         <v>12</v>
       </c>
-      <c r="N26" s="4"/>
-      <c r="O26" s="30"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q26" s="4"/>
+      <c r="R26" s="30"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>56</v>
       </c>
@@ -7414,22 +7912,25 @@
         <v>6</v>
       </c>
       <c r="I27" s="4"/>
-      <c r="J27" s="4">
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K27" s="31" t="s">
+      <c r="N27" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="L27" s="31">
+      <c r="O27" s="31">
         <v>10</v>
       </c>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31">
-        <v>4</v>
-      </c>
-      <c r="O27" s="33"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31">
+        <v>4</v>
+      </c>
+      <c r="R27" s="33"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>56</v>
       </c>
@@ -7454,20 +7955,23 @@
         <v>4</v>
       </c>
       <c r="I28" s="4"/>
-      <c r="J28" s="4">
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K28" s="54" t="s">
+      <c r="N28" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="L28" s="54">
-        <v>4</v>
-      </c>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="33"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O28" s="54">
+        <v>4</v>
+      </c>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="33"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>195</v>
       </c>
@@ -7492,22 +7996,25 @@
         <v>6</v>
       </c>
       <c r="I29" s="4"/>
-      <c r="J29" s="4">
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K29" s="31" t="s">
+      <c r="N29" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="L29" s="31">
-        <v>8</v>
-      </c>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31">
-        <v>4</v>
-      </c>
-      <c r="O29" s="30"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O29" s="31">
+        <v>8</v>
+      </c>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31">
+        <v>4</v>
+      </c>
+      <c r="R29" s="30"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>195</v>
       </c>
@@ -7534,22 +8041,25 @@
         <v>6</v>
       </c>
       <c r="I30" s="4"/>
-      <c r="J30" s="4">
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K30" s="31" t="s">
+      <c r="N30" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="L30" s="31">
+      <c r="O30" s="31">
         <v>10</v>
       </c>
-      <c r="M30" s="31">
-        <v>4</v>
-      </c>
-      <c r="N30" s="32"/>
-      <c r="O30" s="30"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30" s="31">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="30"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>56</v>
       </c>
@@ -7576,22 +8086,25 @@
         <v>6</v>
       </c>
       <c r="I31" s="4"/>
-      <c r="J31" s="4">
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K31" s="31" t="s">
+      <c r="N31" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="L31" s="31">
-        <v>8</v>
-      </c>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31">
+      <c r="O31" s="31">
+        <v>8</v>
+      </c>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31">
         <v>2</v>
       </c>
-      <c r="O31" s="34"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R31" s="34"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>56</v>
       </c>
@@ -7616,20 +8129,23 @@
         <v>6</v>
       </c>
       <c r="I32" s="22"/>
-      <c r="J32" s="22">
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22">
         <v>6.090103</v>
       </c>
-      <c r="K32" s="35" t="s">
+      <c r="N32" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="L32" s="35">
-        <v>6</v>
-      </c>
-      <c r="M32" s="35">
-        <v>4</v>
-      </c>
-      <c r="N32" s="36"/>
-      <c r="O32" s="37"/>
+      <c r="O32" s="35">
+        <v>6</v>
+      </c>
+      <c r="P32" s="35">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7643,26 +8159,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N98"/>
+  <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="14.28515625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="25" style="7" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="10" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="7"/>
+    <col min="3" max="5" width="14.28515625" style="7" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="25" style="7" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="10" style="7" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -7688,25 +8209,34 @@
         <v>326</v>
       </c>
       <c r="I1" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="L1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="M1" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="N1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="O1" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="Q1" s="27" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>196</v>
       </c>
@@ -7728,22 +8258,27 @@
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>16</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17">
+        <v>2</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="N2" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="L2" s="19">
+      <c r="O2" s="19">
         <v>12</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="13">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>196</v>
       </c>
@@ -7767,20 +8302,25 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4">
+        <v>2</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="L3" s="3">
+      <c r="O3" s="3">
         <v>12</v>
       </c>
-      <c r="M3" s="3">
-        <v>4</v>
-      </c>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P3" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="12"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>196</v>
       </c>
@@ -7804,20 +8344,25 @@
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4">
+        <v>2</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="L4" s="3">
+      <c r="O4" s="3">
         <v>10</v>
       </c>
-      <c r="M4" s="4">
-        <v>4</v>
-      </c>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P4" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="12"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>196</v>
       </c>
@@ -7840,21 +8385,26 @@
         <v>4</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="4">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4">
+        <v>2</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="L5" s="3">
-        <v>6</v>
-      </c>
-      <c r="M5" s="4">
-        <v>4</v>
-      </c>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="3">
+        <v>6</v>
+      </c>
+      <c r="P5" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="12"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>196</v>
       </c>
@@ -7877,21 +8427,26 @@
         <v>2</v>
       </c>
       <c r="I6" s="77"/>
-      <c r="J6" s="77">
+      <c r="J6" s="77"/>
+      <c r="K6" s="77">
+        <v>2</v>
+      </c>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K6" s="76" t="s">
+      <c r="N6" s="76" t="s">
         <v>203</v>
       </c>
-      <c r="L6" s="76">
-        <v>8</v>
-      </c>
-      <c r="M6" s="76">
+      <c r="O6" s="76">
+        <v>8</v>
+      </c>
+      <c r="P6" s="76">
         <v>2</v>
       </c>
-      <c r="N6" s="76"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q6" s="76"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>196</v>
       </c>
@@ -7914,21 +8469,26 @@
         <v>8</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="4">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4">
+        <v>2</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="L7" s="3">
-        <v>6</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="12">
+      <c r="O7" s="3">
+        <v>6</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>196</v>
       </c>
@@ -7954,18 +8514,23 @@
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4">
+        <v>3</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>20</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="12"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="12"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>196</v>
       </c>
@@ -7989,18 +8554,23 @@
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4">
+        <v>3</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="L9" s="3">
-        <v>8</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="3">
+        <v>8</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="12"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>196</v>
       </c>
@@ -8023,19 +8593,22 @@
         <v>6</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="4">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="N10" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="L10" s="10">
-        <v>6</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="12"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="10">
+        <v>6</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="12"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>196</v>
       </c>
@@ -8060,19 +8633,22 @@
         <v>6</v>
       </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="4">
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="N11" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="L11" s="10">
-        <v>6</v>
-      </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="10">
+        <v>6</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="12"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>196</v>
       </c>
@@ -8095,17 +8671,20 @@
         <v>0</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="4">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="12"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>196</v>
       </c>
@@ -8128,17 +8707,20 @@
         <v>0</v>
       </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="4">
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="N13" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="12"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>196</v>
       </c>
@@ -8161,17 +8743,20 @@
         <v>0</v>
       </c>
       <c r="I14" s="4"/>
-      <c r="J14" s="4">
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="N14" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="12"/>
+    </row>
+    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>196</v>
       </c>
@@ -8194,17 +8779,20 @@
         <v>0</v>
       </c>
       <c r="I15" s="4"/>
-      <c r="J15" s="4">
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K15" s="31" t="s">
+      <c r="N15" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="12"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="12"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
@@ -8229,21 +8817,24 @@
         <v>6</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="4">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="N16" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="L16" s="10">
-        <v>8</v>
-      </c>
-      <c r="M16" s="10">
-        <v>4</v>
-      </c>
-      <c r="N16" s="12"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="10">
+        <v>8</v>
+      </c>
+      <c r="P16" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="12"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="77" t="s">
         <v>19</v>
       </c>
@@ -8270,21 +8861,24 @@
         <v>8</v>
       </c>
       <c r="I17" s="77"/>
-      <c r="J17" s="77">
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77">
         <v>6.080101</v>
       </c>
-      <c r="K17" s="78" t="s">
+      <c r="N17" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="L17" s="78">
-        <v>8</v>
-      </c>
-      <c r="M17" s="78"/>
-      <c r="N17" s="78">
+      <c r="O17" s="78">
+        <v>8</v>
+      </c>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>19</v>
       </c>
@@ -8309,19 +8903,22 @@
         <v>6</v>
       </c>
       <c r="I18" s="4"/>
-      <c r="J18" s="4">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="N18" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>10</v>
       </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="12"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>19</v>
       </c>
@@ -8346,21 +8943,24 @@
         <v>6</v>
       </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="4">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="N19" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="L19" s="10">
+      <c r="O19" s="10">
         <v>10</v>
       </c>
-      <c r="M19" s="10">
+      <c r="P19" s="10">
         <v>2</v>
       </c>
-      <c r="N19" s="12"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q19" s="12"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>19</v>
       </c>
@@ -8381,19 +8981,22 @@
         <v>8</v>
       </c>
       <c r="I20" s="4"/>
-      <c r="J20" s="4">
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="L20" s="3">
-        <v>8</v>
-      </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="12"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="3">
+        <v>8</v>
+      </c>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="12"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
@@ -8416,17 +9019,20 @@
         <v>0</v>
       </c>
       <c r="I21" s="4"/>
-      <c r="J21" s="4">
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="N21" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="12"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="12"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>19</v>
       </c>
@@ -8449,21 +9055,24 @@
         <v>2</v>
       </c>
       <c r="I22" s="4"/>
-      <c r="J22" s="4">
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="N22" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="L22" s="10">
-        <v>8</v>
-      </c>
-      <c r="M22" s="10">
+      <c r="O22" s="10">
+        <v>8</v>
+      </c>
+      <c r="P22" s="10">
         <v>2</v>
       </c>
-      <c r="N22" s="12"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q22" s="12"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>19</v>
       </c>
@@ -8488,21 +9097,24 @@
         <v>4</v>
       </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="4">
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="N23" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="L23" s="10">
-        <v>8</v>
-      </c>
-      <c r="M23" s="10">
+      <c r="O23" s="10">
+        <v>8</v>
+      </c>
+      <c r="P23" s="10">
         <v>0</v>
       </c>
-      <c r="N23" s="12"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q23" s="12"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>19</v>
       </c>
@@ -8527,21 +9139,24 @@
         <v>4</v>
       </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="4">
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="N24" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="L24" s="10">
-        <v>8</v>
-      </c>
-      <c r="M24" s="10"/>
-      <c r="N24" s="38">
+      <c r="O24" s="10">
+        <v>8</v>
+      </c>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>19</v>
       </c>
@@ -8566,19 +9181,22 @@
         <v>4</v>
       </c>
       <c r="I25" s="4"/>
-      <c r="J25" s="4">
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="N25" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="L25" s="10">
+      <c r="O25" s="10">
         <v>10</v>
       </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="12"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P25" s="3"/>
+      <c r="Q25" s="12"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>19</v>
       </c>
@@ -8601,21 +9219,24 @@
         <v>6</v>
       </c>
       <c r="I26" s="4"/>
-      <c r="J26" s="4">
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="L26" s="3">
-        <v>8</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
+        <v>8</v>
+      </c>
+      <c r="P26" s="3">
         <v>2</v>
       </c>
-      <c r="N26" s="12"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q26" s="12"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>19</v>
       </c>
@@ -8638,21 +9259,24 @@
         <v>4</v>
       </c>
       <c r="I27" s="4"/>
-      <c r="J27" s="4">
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="L27" s="3">
-        <v>6</v>
-      </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="3">
+        <v>6</v>
+      </c>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>19</v>
       </c>
@@ -8675,21 +9299,24 @@
         <v>6</v>
       </c>
       <c r="I28" s="4"/>
-      <c r="J28" s="4">
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="L28" s="3">
-        <v>6</v>
-      </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="3">
+        <v>6</v>
+      </c>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>19</v>
       </c>
@@ -8712,17 +9339,20 @@
         <v>0</v>
       </c>
       <c r="I29" s="4"/>
-      <c r="J29" s="4">
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K29" s="19" t="s">
+      <c r="N29" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="12"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="12"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>19</v>
       </c>
@@ -8747,21 +9377,24 @@
         <v>6</v>
       </c>
       <c r="I30" s="4"/>
-      <c r="J30" s="4">
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="N30" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="L30" s="10">
-        <v>6</v>
-      </c>
-      <c r="M30" s="10"/>
-      <c r="N30" s="38">
+      <c r="O30" s="10">
+        <v>6</v>
+      </c>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>91</v>
       </c>
@@ -8783,18 +9416,21 @@
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="J31" s="4"/>
-      <c r="K31" s="3" t="s">
+      <c r="M31" s="4"/>
+      <c r="N31" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="12"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="12"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>56</v>
       </c>
@@ -8821,21 +9457,24 @@
         <v>4</v>
       </c>
       <c r="I32" s="4"/>
-      <c r="J32" s="4">
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="N32" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="L32" s="10">
-        <v>6</v>
-      </c>
-      <c r="M32" s="31">
+      <c r="O32" s="10">
+        <v>6</v>
+      </c>
+      <c r="P32" s="31">
         <v>2</v>
       </c>
-      <c r="N32" s="12"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q32" s="12"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>56</v>
       </c>
@@ -8860,21 +9499,24 @@
         <v>4</v>
       </c>
       <c r="I33" s="4"/>
-      <c r="J33" s="4">
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="N33" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="L33" s="10">
-        <v>4</v>
-      </c>
-      <c r="M33" s="10">
+      <c r="O33" s="10">
+        <v>4</v>
+      </c>
+      <c r="P33" s="10">
         <v>0</v>
       </c>
-      <c r="N33" s="38"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q33" s="38"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>56</v>
       </c>
@@ -8897,17 +9539,20 @@
         <v>2</v>
       </c>
       <c r="I34" s="4"/>
-      <c r="J34" s="4">
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="N34" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="12"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="12"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>56</v>
       </c>
@@ -8934,21 +9579,24 @@
         <v>6</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="4">
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="N35" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="L35" s="10">
+      <c r="O35" s="10">
         <v>12</v>
       </c>
-      <c r="M35" s="4">
+      <c r="P35" s="4">
         <v>0</v>
       </c>
-      <c r="N35" s="12"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q35" s="12"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>56</v>
       </c>
@@ -8973,21 +9621,24 @@
         <v>4</v>
       </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="4">
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="N36" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="L36" s="10">
-        <v>6</v>
-      </c>
-      <c r="M36" s="10"/>
-      <c r="N36" s="38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="10">
+        <v>6</v>
+      </c>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>56</v>
       </c>
@@ -9010,21 +9661,24 @@
         <v>6</v>
       </c>
       <c r="I37" s="4"/>
-      <c r="J37" s="4">
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="L37" s="3">
-        <v>4</v>
-      </c>
-      <c r="M37" s="3">
-        <v>6</v>
-      </c>
-      <c r="N37" s="12"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="3">
+        <v>4</v>
+      </c>
+      <c r="P37" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q37" s="12"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>56</v>
       </c>
@@ -9049,17 +9703,20 @@
         <v>4</v>
       </c>
       <c r="I38" s="4"/>
-      <c r="J38" s="4">
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="N38" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="12"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="12"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>56</v>
       </c>
@@ -9084,21 +9741,24 @@
         <v>6</v>
       </c>
       <c r="I39" s="4"/>
-      <c r="J39" s="4">
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="L39" s="3">
-        <v>6</v>
-      </c>
-      <c r="M39" s="4">
-        <v>4</v>
-      </c>
-      <c r="N39" s="12"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39" s="3">
+        <v>6</v>
+      </c>
+      <c r="P39" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q39" s="12"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>56</v>
       </c>
@@ -9123,17 +9783,20 @@
         <v>6</v>
       </c>
       <c r="I40" s="4"/>
-      <c r="J40" s="4">
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="12"/>
-    </row>
-    <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="12"/>
+    </row>
+    <row r="41" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>99</v>
       </c>
@@ -9155,18 +9818,21 @@
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="J41" s="4"/>
-      <c r="K41" s="3" t="s">
+      <c r="M41" s="4"/>
+      <c r="N41" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="12"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="12"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>56</v>
       </c>
@@ -9191,21 +9857,24 @@
         <v>4</v>
       </c>
       <c r="I42" s="4"/>
-      <c r="J42" s="4">
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="L42" s="3">
-        <v>8</v>
-      </c>
-      <c r="M42" s="3"/>
-      <c r="N42" s="12">
+      <c r="O42" s="3">
+        <v>8</v>
+      </c>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>56</v>
       </c>
@@ -9232,21 +9901,24 @@
         <v>4</v>
       </c>
       <c r="I43" s="4"/>
-      <c r="J43" s="4">
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="N43" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="L43" s="10">
-        <v>6</v>
-      </c>
-      <c r="M43" s="10">
+      <c r="O43" s="10">
+        <v>6</v>
+      </c>
+      <c r="P43" s="10">
         <v>2</v>
       </c>
-      <c r="N43" s="12"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q43" s="12"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>56</v>
       </c>
@@ -9273,19 +9945,22 @@
         <v>6</v>
       </c>
       <c r="I44" s="22"/>
-      <c r="J44" s="22">
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22">
         <v>6.090103</v>
       </c>
-      <c r="K44" s="39" t="s">
+      <c r="N44" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="L44" s="39">
+      <c r="O44" s="39">
         <v>12</v>
       </c>
-      <c r="M44" s="21"/>
-      <c r="N44" s="23"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P44" s="21"/>
+      <c r="Q44" s="23"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -9296,8 +9971,11 @@
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -9308,8 +9986,11 @@
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -9320,8 +10001,11 @@
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -9332,8 +10016,11 @@
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -9344,8 +10031,11 @@
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -9356,8 +10046,11 @@
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -9368,8 +10061,11 @@
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -9379,9 +10075,12 @@
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
-      <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="5"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -9391,9 +10090,12 @@
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
-      <c r="J53" s="5"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="5"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -9403,9 +10105,12 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-      <c r="J97" s="3"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -9415,7 +10120,10 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-      <c r="J98" s="3"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12041,7 +12749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>

--- a/Zaizd2.xlsx
+++ b/Zaizd2.xlsx
@@ -119,7 +119,7 @@
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="K25" authorId="0">
+    <comment ref="N25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -217,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K18" authorId="1">
+    <comment ref="N18" authorId="1">
       <text>
         <r>
           <rPr>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="332">
   <si>
     <t>Групи</t>
   </si>
@@ -1869,7 +1869,157 @@
     <cellStyle name="Примітка" xfId="5" builtinId="10"/>
     <cellStyle name="Середній" xfId="2" builtinId="28"/>
   </cellStyles>
-  <dxfs count="141">
+  <dxfs count="147">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -4971,183 +5121,189 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:R27" totalsRowShown="0" headerRowDxfId="140" dataDxfId="138" headerRowBorderDxfId="139" tableBorderDxfId="137" totalsRowBorderDxfId="136">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:R27" totalsRowShown="0" headerRowDxfId="146" dataDxfId="144" headerRowBorderDxfId="145" tableBorderDxfId="143" totalsRowBorderDxfId="142">
   <autoFilter ref="A1:R27"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="Групи" dataDxfId="135"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="134"/>
-    <tableColumn id="3" name="Годин 1 заїзд" dataDxfId="133"/>
-    <tableColumn id="6" name="Годин 2 заїзд" dataDxfId="132"/>
-    <tableColumn id="14" name="Годин 3 заїзд" dataDxfId="131"/>
-    <tableColumn id="5" name="Годин 4 заїзд" dataDxfId="130"/>
-    <tableColumn id="15" name="Використано годин" dataDxfId="129"/>
-    <tableColumn id="17" name="Необхідно використати" dataDxfId="128">
+    <tableColumn id="1" name="Групи" dataDxfId="141"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="140"/>
+    <tableColumn id="3" name="Годин 1 заїзд" dataDxfId="139"/>
+    <tableColumn id="6" name="Годин 2 заїзд" dataDxfId="138"/>
+    <tableColumn id="14" name="Годин 3 заїзд" dataDxfId="137"/>
+    <tableColumn id="5" name="Годин 4 заїзд" dataDxfId="136"/>
+    <tableColumn id="15" name="Використано годин" dataDxfId="135"/>
+    <tableColumn id="17" name="Необхідно використати" dataDxfId="134">
       <calculatedColumnFormula>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Курс робота/проект" dataDxfId="9"/>
-    <tableColumn id="18" name="Іспит" dataDxfId="8"/>
-    <tableColumn id="20" name="Залік" dataDxfId="7"/>
-    <tableColumn id="7" name="Прим." dataDxfId="127"/>
-    <tableColumn id="8" name="шифр спеціальності" dataDxfId="126"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="125"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="124"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="123"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="122"/>
-    <tableColumn id="13" name="Шифр кафедри" dataDxfId="121"/>
+    <tableColumn id="16" name="Курс робота/проект" dataDxfId="15"/>
+    <tableColumn id="18" name="Іспит" dataDxfId="14"/>
+    <tableColumn id="20" name="Залік" dataDxfId="13"/>
+    <tableColumn id="7" name="Прим." dataDxfId="133"/>
+    <tableColumn id="8" name="шифр спеціальності" dataDxfId="132"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="131"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="130"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="129"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="128"/>
+    <tableColumn id="13" name="Шифр кафедри" dataDxfId="127"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:R32" totalsRowShown="0" headerRowDxfId="120" dataDxfId="118" headerRowBorderDxfId="119" tableBorderDxfId="117" totalsRowBorderDxfId="116">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:R32" totalsRowShown="0" headerRowDxfId="126" dataDxfId="124" headerRowBorderDxfId="125" tableBorderDxfId="123" totalsRowBorderDxfId="122">
   <autoFilter ref="A1:R32"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="Групи" dataDxfId="115"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="114"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="113"/>
-    <tableColumn id="15" name="Годин 2 заїзд" dataDxfId="112"/>
-    <tableColumn id="14" name="Годин 3 заїзд" dataDxfId="111"/>
-    <tableColumn id="5" name="Годин 4 заїзд" dataDxfId="110"/>
-    <tableColumn id="4" name="Використано годин" dataDxfId="109"/>
-    <tableColumn id="3" name="Необхідно використати" dataDxfId="108">
+    <tableColumn id="1" name="Групи" dataDxfId="121"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="120"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="119"/>
+    <tableColumn id="15" name="Годин 2 заїзд" dataDxfId="118"/>
+    <tableColumn id="14" name="Годин 3 заїзд" dataDxfId="117"/>
+    <tableColumn id="5" name="Годин 4 заїзд" dataDxfId="116"/>
+    <tableColumn id="4" name="Використано годин" dataDxfId="115"/>
+    <tableColumn id="3" name="Необхідно використати" dataDxfId="114">
       <calculatedColumnFormula>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Курс робота/проект" dataDxfId="3"/>
-    <tableColumn id="18" name="Іспит" dataDxfId="4"/>
-    <tableColumn id="17" name="Залік" dataDxfId="5"/>
-    <tableColumn id="7" name="Прим." dataDxfId="6"/>
-    <tableColumn id="8" name="шифр спеціальності" dataDxfId="107"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="106"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="105"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="104"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="103"/>
-    <tableColumn id="13" name="Столбец4" dataDxfId="102"/>
+    <tableColumn id="19" name="Курс робота/проект" dataDxfId="9"/>
+    <tableColumn id="18" name="Іспит" dataDxfId="10"/>
+    <tableColumn id="17" name="Залік" dataDxfId="11"/>
+    <tableColumn id="7" name="Прим." dataDxfId="12"/>
+    <tableColumn id="8" name="шифр спеціальності" dataDxfId="113"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="112"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="111"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="110"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="109"/>
+    <tableColumn id="13" name="Столбец4" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:Q44" totalsRowShown="0" headerRowDxfId="101" dataDxfId="99" headerRowBorderDxfId="100" tableBorderDxfId="98" totalsRowBorderDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:Q44" totalsRowShown="0" headerRowDxfId="107" dataDxfId="105" headerRowBorderDxfId="106" tableBorderDxfId="104" totalsRowBorderDxfId="103">
   <autoFilter ref="A1:Q44"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Групи" dataDxfId="96"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="95"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="94"/>
-    <tableColumn id="14" name="Годин 2 заїзд" dataDxfId="93"/>
-    <tableColumn id="13" name="Годин 3 заїзд" dataDxfId="92"/>
-    <tableColumn id="5" name="Годин 4 заїзд" dataDxfId="91"/>
-    <tableColumn id="4" name="Використано годин" dataDxfId="90"/>
-    <tableColumn id="3" name="Необхідно використати" dataDxfId="89">
+    <tableColumn id="1" name="Групи" dataDxfId="102"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="101"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="100"/>
+    <tableColumn id="14" name="Годин 2 заїзд" dataDxfId="99"/>
+    <tableColumn id="13" name="Годин 3 заїзд" dataDxfId="98"/>
+    <tableColumn id="5" name="Годин 4 заїзд" dataDxfId="97"/>
+    <tableColumn id="4" name="Використано годин" dataDxfId="96"/>
+    <tableColumn id="3" name="Необхідно використати" dataDxfId="95">
       <calculatedColumnFormula>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Курс робота/проект" dataDxfId="0"/>
-    <tableColumn id="16" name="Іспит" dataDxfId="1"/>
-    <tableColumn id="15" name="Залік" dataDxfId="2"/>
-    <tableColumn id="7" name="Прим." dataDxfId="88"/>
-    <tableColumn id="8" name="Шифр спеціальності" dataDxfId="87"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="86"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="85"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="84"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="83"/>
+    <tableColumn id="17" name="Курс робота/проект" dataDxfId="6"/>
+    <tableColumn id="16" name="Іспит" dataDxfId="7"/>
+    <tableColumn id="15" name="Залік" dataDxfId="8"/>
+    <tableColumn id="7" name="Прим." dataDxfId="94"/>
+    <tableColumn id="8" name="Шифр спеціальності" dataDxfId="93"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="92"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="91"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="90"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="89"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:N42" totalsRowShown="0" headerRowDxfId="82" dataDxfId="80" headerRowBorderDxfId="81" tableBorderDxfId="79" totalsRowBorderDxfId="78">
-  <autoFilter ref="A1:N42"/>
-  <tableColumns count="14">
-    <tableColumn id="1" name="Групи" dataDxfId="77"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="76"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="75"/>
-    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="74"/>
-    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="73"/>
-    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="72"/>
-    <tableColumn id="3" name="Використано годин" dataDxfId="71"/>
-    <tableColumn id="14" name="Необхідно використати" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:Q42" totalsRowShown="0" headerRowDxfId="88" dataDxfId="86" headerRowBorderDxfId="87" tableBorderDxfId="85" totalsRowBorderDxfId="84">
+  <autoFilter ref="A1:Q42"/>
+  <tableColumns count="17">
+    <tableColumn id="1" name="Групи" dataDxfId="83"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="82"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="81"/>
+    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="80"/>
+    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="79"/>
+    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="78"/>
+    <tableColumn id="3" name="Використано годин" dataDxfId="77"/>
+    <tableColumn id="14" name="Необхідно використати" dataDxfId="76">
       <calculatedColumnFormula>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Прим." dataDxfId="69"/>
-    <tableColumn id="8" name="Шифр спеціальності" dataDxfId="68"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="67"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="66"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="65"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="64"/>
+    <tableColumn id="15" name="Курс робота/проект" dataDxfId="5"/>
+    <tableColumn id="16" name="Іспит" dataDxfId="4"/>
+    <tableColumn id="17" name="Залік" dataDxfId="3"/>
+    <tableColumn id="7" name="Прим." dataDxfId="75"/>
+    <tableColumn id="8" name="Шифр спеціальності" dataDxfId="74"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="73"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="72"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="71"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица5" displayName="Таблица5" ref="A1:N27" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
-  <autoFilter ref="A1:N27"/>
-  <tableColumns count="14">
-    <tableColumn id="1" name="Групи" dataDxfId="58"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="57"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="56"/>
-    <tableColumn id="17" name="Годин 2 заїзд" dataDxfId="55"/>
-    <tableColumn id="16" name="Годин 3 заїзд" dataDxfId="54"/>
-    <tableColumn id="15" name="Годин 4 заїзд" dataDxfId="53"/>
-    <tableColumn id="14" name="Використано годин" dataDxfId="52"/>
-    <tableColumn id="3" name="Необхідно використати" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица5" displayName="Таблица5" ref="A1:Q27" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66" totalsRowBorderDxfId="65">
+  <autoFilter ref="A1:Q27"/>
+  <tableColumns count="17">
+    <tableColumn id="1" name="Групи" dataDxfId="64"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="63"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="62"/>
+    <tableColumn id="17" name="Годин 2 заїзд" dataDxfId="61"/>
+    <tableColumn id="16" name="Годин 3 заїзд" dataDxfId="60"/>
+    <tableColumn id="15" name="Годин 4 заїзд" dataDxfId="59"/>
+    <tableColumn id="14" name="Використано годин" dataDxfId="58"/>
+    <tableColumn id="13" name="Курс робота/проект" dataDxfId="0"/>
+    <tableColumn id="5" name="Іспит" dataDxfId="1"/>
+    <tableColumn id="4" name="Залік" dataDxfId="2"/>
+    <tableColumn id="3" name="Необхідно використати" dataDxfId="57">
       <calculatedColumnFormula>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Прим." dataDxfId="50"/>
-    <tableColumn id="8" name="Шифр спецільності" dataDxfId="49"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="48"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="47"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="46"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="45"/>
+    <tableColumn id="7" name="Прим." dataDxfId="56"/>
+    <tableColumn id="8" name="Шифр спецільності" dataDxfId="55"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="54"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="53"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="52"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица6" displayName="Таблица6" ref="A1:N48" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица6" displayName="Таблица6" ref="A1:N48" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" tableBorderDxfId="48">
   <autoFilter ref="A1:N48"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Групи" dataDxfId="41"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="40"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="39"/>
-    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="38"/>
-    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="37"/>
-    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="36"/>
-    <tableColumn id="3" name="Використано годин" dataDxfId="35"/>
-    <tableColumn id="14" name="Необхідно використати" dataDxfId="34">
+    <tableColumn id="1" name="Групи" dataDxfId="47"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="46"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="45"/>
+    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="44"/>
+    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="43"/>
+    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="42"/>
+    <tableColumn id="3" name="Використано годин" dataDxfId="41"/>
+    <tableColumn id="14" name="Необхідно використати" dataDxfId="40">
       <calculatedColumnFormula>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Прим." dataDxfId="33"/>
-    <tableColumn id="8" name="Шифр. Спеціальності" dataDxfId="32"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="31"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="30"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="29"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="28"/>
+    <tableColumn id="7" name="Прим." dataDxfId="39"/>
+    <tableColumn id="8" name="Шифр. Спеціальності" dataDxfId="38"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="37"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="36"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="35"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица7" displayName="Таблица7" ref="A1:M4" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица7" displayName="Таблица7" ref="A1:M4" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
   <autoFilter ref="A1:M4"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Групи" dataDxfId="22"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="21"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="20"/>
-    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="19"/>
-    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="18"/>
-    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="17"/>
-    <tableColumn id="3" name="Використано годин" dataDxfId="16"/>
-    <tableColumn id="7" name="Прим." dataDxfId="15"/>
-    <tableColumn id="8" name="Шифр спецільності" dataDxfId="14"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="13"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="12"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="11"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="10"/>
+    <tableColumn id="1" name="Групи" dataDxfId="28"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="27"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="26"/>
+    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="25"/>
+    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="24"/>
+    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="23"/>
+    <tableColumn id="3" name="Використано годин" dataDxfId="22"/>
+    <tableColumn id="7" name="Прим." dataDxfId="21"/>
+    <tableColumn id="8" name="Шифр спецільності" dataDxfId="20"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="19"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="18"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="17"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6758,8 +6914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7364,7 +7520,9 @@
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="4">
+        <v>4</v>
+      </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4">
         <v>6.080101</v>
@@ -7404,7 +7562,9 @@
         <v>10</v>
       </c>
       <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
+      <c r="J15" s="77">
+        <v>2</v>
+      </c>
       <c r="K15" s="77"/>
       <c r="L15" s="77"/>
       <c r="M15" s="77">
@@ -7444,7 +7604,9 @@
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="K16" s="4">
+        <v>2</v>
+      </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4">
         <v>6.080101</v>
@@ -7489,7 +7651,9 @@
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="K17" s="4">
+        <v>4</v>
+      </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4">
         <v>6.080101</v>
@@ -7532,9 +7696,13 @@
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>10</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="4">
+        <v>4</v>
+      </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="K18" s="4">
+        <v>4</v>
+      </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4">
         <v>6.080101</v>
@@ -7577,7 +7745,9 @@
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="K19" s="4">
+        <v>3</v>
+      </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4">
         <v>6.080101</v>
@@ -7618,7 +7788,9 @@
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="K20" s="4">
+        <v>2</v>
+      </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4">
         <v>6.080101</v>
@@ -7658,7 +7830,9 @@
         <v>2</v>
       </c>
       <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="J21" s="4">
+        <v>2</v>
+      </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4">
@@ -8161,8 +8335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8594,7 +8768,9 @@
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="4">
+        <v>3</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4">
         <v>6.0401040000000004</v>
@@ -8632,8 +8808,12 @@
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="4">
+        <v>4</v>
+      </c>
+      <c r="J11" s="4">
+        <v>4</v>
+      </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4">
@@ -8671,7 +8851,9 @@
         <v>0</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="J12" s="4">
+        <v>4</v>
+      </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4">
@@ -8707,7 +8889,9 @@
         <v>0</v>
       </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="J13" s="4">
+        <v>4</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4">
@@ -8743,7 +8927,9 @@
         <v>0</v>
       </c>
       <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="J14" s="4">
+        <v>4</v>
+      </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4">
@@ -8779,7 +8965,9 @@
         <v>0</v>
       </c>
       <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="J15" s="4">
+        <v>4</v>
+      </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4">
@@ -8817,7 +9005,9 @@
         <v>6</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="J16" s="4">
+        <v>3</v>
+      </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4">
@@ -8861,7 +9051,9 @@
         <v>8</v>
       </c>
       <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
+      <c r="J17" s="77">
+        <v>4</v>
+      </c>
       <c r="K17" s="77"/>
       <c r="L17" s="77"/>
       <c r="M17" s="77">
@@ -8903,7 +9095,9 @@
         <v>6</v>
       </c>
       <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="J18" s="4">
+        <v>3</v>
+      </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4">
@@ -8943,7 +9137,9 @@
         <v>6</v>
       </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="J19" s="4">
+        <v>3</v>
+      </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4">
@@ -8981,7 +9177,9 @@
         <v>8</v>
       </c>
       <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="J20" s="4">
+        <v>2</v>
+      </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4">
@@ -9020,7 +9218,9 @@
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="K21" s="4">
+        <v>4</v>
+      </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4">
         <v>6.080101</v>
@@ -9056,7 +9256,9 @@
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="K22" s="4">
+        <v>2</v>
+      </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4">
         <v>6.080101</v>
@@ -9097,7 +9299,9 @@
         <v>4</v>
       </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="J23" s="4">
+        <v>3</v>
+      </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4">
@@ -10137,27 +10341,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="14.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="23" style="6" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="10" style="6" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="6" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="6"/>
+    <col min="3" max="7" width="14.28515625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9" style="6" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="6" customWidth="1"/>
+    <col min="10" max="11" width="6.28515625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="23" style="6" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="10" style="6" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" style="6" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -10183,25 +10390,34 @@
         <v>326</v>
       </c>
       <c r="I1" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="L1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="M1" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="N1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="O1" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="Q1" s="27" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>196</v>
       </c>
@@ -10225,20 +10441,25 @@
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4">
+        <v>2</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="L2" s="3">
+      <c r="O2" s="3">
         <v>12</v>
       </c>
-      <c r="M2" s="3">
-        <v>4</v>
-      </c>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P2" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="12"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>196</v>
       </c>
@@ -10262,20 +10483,25 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4">
+        <v>2</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="L3" s="3">
+      <c r="O3" s="3">
         <v>10</v>
       </c>
-      <c r="M3" s="3">
-        <v>4</v>
-      </c>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P3" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="12"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>196</v>
       </c>
@@ -10299,18 +10525,23 @@
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4">
+        <v>2</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="L4" s="3">
+      <c r="O4" s="3">
         <v>10</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="12"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>196</v>
       </c>
@@ -10334,20 +10565,25 @@
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="L5" s="10">
+      <c r="O5" s="10">
         <v>10</v>
       </c>
-      <c r="M5" s="31">
-        <v>4</v>
-      </c>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P5" s="31">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="12"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>196</v>
       </c>
@@ -10370,21 +10606,26 @@
         <v>2</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="4">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="L6" s="3">
-        <v>8</v>
-      </c>
-      <c r="M6" s="4">
+      <c r="O6" s="3">
+        <v>8</v>
+      </c>
+      <c r="P6" s="4">
         <v>2</v>
       </c>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q6" s="12"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>196</v>
       </c>
@@ -10408,22 +10649,29 @@
         <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="4">
+        <v>3</v>
+      </c>
       <c r="J7" s="4">
+        <v>3</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="L7" s="3">
-        <v>8</v>
-      </c>
-      <c r="M7" s="4">
+      <c r="O7" s="3">
+        <v>8</v>
+      </c>
+      <c r="P7" s="4">
         <v>2</v>
       </c>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q7" s="12"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>196</v>
       </c>
@@ -10447,14 +10695,19 @@
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4">
+        <v>3</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="12"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="12"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>196</v>
       </c>
@@ -10478,18 +10731,23 @@
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4">
+        <v>3</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="N9" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="L9" s="10">
-        <v>6</v>
-      </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="10">
+        <v>6</v>
+      </c>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="12"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>196</v>
       </c>
@@ -10512,19 +10770,24 @@
         <v>0</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="4">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
+        <v>3</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="N10" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="L10" s="10">
+      <c r="O10" s="10">
         <v>10</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="12"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P10" s="3"/>
+      <c r="Q10" s="12"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>196</v>
       </c>
@@ -10550,16 +10813,21 @@
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4">
+        <v>4</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="12"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>196</v>
       </c>
@@ -10587,18 +10855,23 @@
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4">
+        <v>4</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="N12" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="L12" s="10">
+      <c r="O12" s="10">
         <v>16</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="12"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>196</v>
       </c>
@@ -10621,17 +10894,22 @@
         <v>0</v>
       </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="4">
+      <c r="J13" s="4"/>
+      <c r="K13" s="4">
+        <v>4</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="N13" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="12"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>196</v>
       </c>
@@ -10654,17 +10932,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="4"/>
-      <c r="J14" s="4">
+      <c r="J14" s="4"/>
+      <c r="K14" s="4">
+        <v>4</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="N14" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="12"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>196</v>
       </c>
@@ -10687,17 +10970,22 @@
         <v>0</v>
       </c>
       <c r="I15" s="4"/>
-      <c r="J15" s="4">
+      <c r="J15" s="4"/>
+      <c r="K15" s="4">
+        <v>4</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="N15" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="12"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="12"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
@@ -10724,21 +11012,24 @@
         <v>4</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="4">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="N16" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="L16" s="10">
+      <c r="O16" s="10">
         <v>12</v>
       </c>
-      <c r="M16" s="10"/>
-      <c r="N16" s="38">
+      <c r="P16" s="10"/>
+      <c r="Q16" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
@@ -10761,17 +11052,20 @@
         <v>0</v>
       </c>
       <c r="I17" s="4"/>
-      <c r="J17" s="4">
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="N17" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="12"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="12"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>19</v>
       </c>
@@ -10796,17 +11090,20 @@
         <v>4</v>
       </c>
       <c r="I18" s="4"/>
-      <c r="J18" s="4">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="12"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>19</v>
       </c>
@@ -10831,21 +11128,24 @@
         <v>8</v>
       </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="4">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="N19" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="L19" s="10">
-        <v>8</v>
-      </c>
-      <c r="M19" s="10"/>
-      <c r="N19" s="38">
+      <c r="O19" s="10">
+        <v>8</v>
+      </c>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>19</v>
       </c>
@@ -10868,17 +11168,20 @@
         <v>0</v>
       </c>
       <c r="I20" s="4"/>
-      <c r="J20" s="4">
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="N20" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="12"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="12"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
@@ -10901,21 +11204,24 @@
         <v>4</v>
       </c>
       <c r="I21" s="4"/>
-      <c r="J21" s="4">
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="N21" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>10</v>
       </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" s="3"/>
+      <c r="Q21" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>19</v>
       </c>
@@ -10938,21 +11244,24 @@
         <v>2</v>
       </c>
       <c r="I22" s="4"/>
-      <c r="J22" s="4">
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="N22" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="L22" s="3">
-        <v>8</v>
-      </c>
-      <c r="M22" s="4">
+      <c r="O22" s="3">
+        <v>8</v>
+      </c>
+      <c r="P22" s="4">
         <v>2</v>
       </c>
-      <c r="N22" s="12"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q22" s="12"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>19</v>
       </c>
@@ -10975,21 +11284,24 @@
         <v>4</v>
       </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="4">
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="N23" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="L23" s="10">
-        <v>8</v>
-      </c>
-      <c r="M23" s="10">
+      <c r="O23" s="10">
+        <v>8</v>
+      </c>
+      <c r="P23" s="10">
         <v>2</v>
       </c>
-      <c r="N23" s="12"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q23" s="12"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>19</v>
       </c>
@@ -11012,21 +11324,24 @@
         <v>4</v>
       </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="4">
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="L24" s="3">
-        <v>8</v>
-      </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="12">
+      <c r="O24" s="3">
+        <v>8</v>
+      </c>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
         <v>19</v>
       </c>
@@ -11047,18 +11362,21 @@
         <v>0</v>
       </c>
       <c r="I25" s="41"/>
-      <c r="J25" s="41">
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41">
         <v>6.080101</v>
       </c>
-      <c r="K25" s="42" t="s">
+      <c r="N25" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="44"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="44"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>19</v>
       </c>
@@ -11085,21 +11403,24 @@
         <v>4</v>
       </c>
       <c r="I26" s="4"/>
-      <c r="J26" s="4">
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="N26" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10">
-        <v>8</v>
-      </c>
-      <c r="N26" s="38">
+      <c r="O26" s="10"/>
+      <c r="P26" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>19</v>
       </c>
@@ -11122,17 +11443,20 @@
         <v>0</v>
       </c>
       <c r="I27" s="4"/>
-      <c r="J27" s="4">
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="N27" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="12"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="12"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>19</v>
       </c>
@@ -11155,19 +11479,22 @@
         <v>6</v>
       </c>
       <c r="I28" s="4"/>
-      <c r="J28" s="4">
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="N28" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="L28" s="10">
-        <v>6</v>
-      </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="12"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O28" s="10">
+        <v>6</v>
+      </c>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="12"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>19</v>
       </c>
@@ -11190,15 +11517,18 @@
         <v>4</v>
       </c>
       <c r="I29" s="4"/>
-      <c r="J29" s="4">
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="12"/>
-    </row>
-    <row r="30" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="12"/>
+    </row>
+    <row r="30" spans="1:18" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>91</v>
       </c>
@@ -11220,18 +11550,21 @@
         <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="J30" s="4"/>
-      <c r="K30" s="3" t="s">
+      <c r="M30" s="4"/>
+      <c r="N30" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="12"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="12"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>91</v>
       </c>
@@ -11255,12 +11588,15 @@
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="12"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="12"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>56</v>
       </c>
@@ -11285,21 +11621,24 @@
         <v>4</v>
       </c>
       <c r="I32" s="4"/>
-      <c r="J32" s="4">
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="N32" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="L32" s="10">
-        <v>6</v>
-      </c>
-      <c r="M32" s="10">
-        <v>4</v>
-      </c>
-      <c r="N32" s="12"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="10">
+        <v>6</v>
+      </c>
+      <c r="P32" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="12"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>56</v>
       </c>
@@ -11326,21 +11665,24 @@
         <v>4</v>
       </c>
       <c r="I33" s="4"/>
-      <c r="J33" s="4">
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K33" s="19" t="s">
+      <c r="N33" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="L33" s="19">
+      <c r="O33" s="19">
         <v>10</v>
       </c>
-      <c r="M33" s="19"/>
-      <c r="N33" s="13">
+      <c r="P33" s="19"/>
+      <c r="Q33" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>56</v>
       </c>
@@ -11367,21 +11709,24 @@
         <v>8</v>
       </c>
       <c r="I34" s="4"/>
-      <c r="J34" s="4">
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="L34" s="3">
+      <c r="O34" s="3">
         <v>12</v>
       </c>
-      <c r="M34" s="4">
+      <c r="P34" s="4">
         <v>2</v>
       </c>
-      <c r="N34" s="12"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q34" s="12"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>56</v>
       </c>
@@ -11406,21 +11751,24 @@
         <v>4</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="4">
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K35" s="19" t="s">
+      <c r="N35" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="L35" s="19">
-        <v>6</v>
-      </c>
-      <c r="M35" s="19">
+      <c r="O35" s="19">
+        <v>6</v>
+      </c>
+      <c r="P35" s="19">
         <v>2</v>
       </c>
-      <c r="N35" s="12"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q35" s="12"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>56</v>
       </c>
@@ -11445,19 +11793,22 @@
         <v>4</v>
       </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="4">
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="L36" s="3">
-        <v>8</v>
-      </c>
-      <c r="M36" s="3"/>
-      <c r="N36" s="12"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="3">
+        <v>8</v>
+      </c>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="12"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>56</v>
       </c>
@@ -11484,21 +11835,24 @@
         <v>2</v>
       </c>
       <c r="I37" s="4"/>
-      <c r="J37" s="4">
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K37" s="19" t="s">
+      <c r="N37" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="L37" s="19">
-        <v>6</v>
-      </c>
-      <c r="M37" s="19">
+      <c r="O37" s="19">
+        <v>6</v>
+      </c>
+      <c r="P37" s="19">
         <v>0</v>
       </c>
-      <c r="N37" s="12"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q37" s="12"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>56</v>
       </c>
@@ -11523,17 +11877,20 @@
         <v>6</v>
       </c>
       <c r="I38" s="4"/>
-      <c r="J38" s="4">
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="N38" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="12"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="12"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>56</v>
       </c>
@@ -11560,21 +11917,24 @@
         <v>2</v>
       </c>
       <c r="I39" s="4"/>
-      <c r="J39" s="4">
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K39" s="19" t="s">
+      <c r="N39" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="L39" s="19">
-        <v>6</v>
-      </c>
-      <c r="M39" s="19">
+      <c r="O39" s="19">
+        <v>6</v>
+      </c>
+      <c r="P39" s="19">
         <v>0</v>
       </c>
-      <c r="N39" s="12"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q39" s="12"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>56</v>
       </c>
@@ -11601,19 +11961,22 @@
         <v>4</v>
       </c>
       <c r="I40" s="4"/>
-      <c r="J40" s="4">
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K40" s="19" t="s">
+      <c r="N40" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="L40" s="19">
-        <v>6</v>
-      </c>
-      <c r="M40" s="19"/>
-      <c r="N40" s="12"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="19">
+        <v>6</v>
+      </c>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="12"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>56</v>
       </c>
@@ -11638,21 +12001,24 @@
         <v>4</v>
       </c>
       <c r="I41" s="4"/>
-      <c r="J41" s="4">
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K41" s="10" t="s">
+      <c r="N41" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="L41" s="10">
-        <v>8</v>
-      </c>
-      <c r="M41" s="10">
+      <c r="O41" s="10">
+        <v>8</v>
+      </c>
+      <c r="P41" s="10">
         <v>2</v>
       </c>
-      <c r="N41" s="12"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q41" s="12"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>56</v>
       </c>
@@ -11677,19 +12043,22 @@
         <v>6</v>
       </c>
       <c r="I42" s="22"/>
-      <c r="J42" s="22">
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22">
         <v>6.090103</v>
       </c>
-      <c r="K42" s="39" t="s">
+      <c r="N42" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="L42" s="39">
-        <v>8</v>
-      </c>
-      <c r="M42" s="39">
+      <c r="O42" s="39">
+        <v>8</v>
+      </c>
+      <c r="P42" s="39">
         <v>2</v>
       </c>
-      <c r="N42" s="23"/>
+      <c r="Q42" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11702,27 +12071,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="7" customWidth="1"/>
     <col min="2" max="2" width="51.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="14.28515625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="10" style="7" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="7" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="7"/>
+    <col min="3" max="7" width="14.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="6" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="23.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="10" style="7" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" style="7" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -11745,28 +12118,37 @@
         <v>306</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="L1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="M1" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="N1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="O1" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="Q1" s="27" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>196</v>
       </c>
@@ -11786,24 +12168,29 @@
       <c r="G2" s="4">
         <v>4</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="L2" s="10">
-        <v>8</v>
-      </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="13"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="10">
+        <v>8</v>
+      </c>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>196</v>
       </c>
@@ -11823,26 +12210,31 @@
       <c r="G3" s="4">
         <v>8</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4">
+        <v>3</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="L3" s="10">
+      <c r="O3" s="10">
         <v>12</v>
       </c>
-      <c r="M3" s="10">
+      <c r="P3" s="10">
         <v>2</v>
       </c>
-      <c r="N3" s="13"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q3" s="13"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>196</v>
       </c>
@@ -11862,26 +12254,31 @@
       <c r="G4" s="4">
         <v>6</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>8</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="L4" s="10">
+      <c r="O4" s="10">
         <v>12</v>
       </c>
-      <c r="M4" s="10">
+      <c r="P4" s="10">
         <v>2</v>
       </c>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q4" s="12"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>196</v>
       </c>
@@ -11901,26 +12298,31 @@
       <c r="G5" s="4">
         <v>8</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4">
+        <v>3</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="L5" s="10">
+      <c r="O5" s="10">
         <v>12</v>
       </c>
-      <c r="M5" s="10">
+      <c r="P5" s="10">
         <v>2</v>
       </c>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q5" s="12"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>196</v>
       </c>
@@ -11940,26 +12342,31 @@
       <c r="G6" s="4">
         <v>8</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
+        <v>3</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>8</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="N6" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="L6" s="10">
+      <c r="O6" s="10">
         <v>12</v>
       </c>
-      <c r="M6" s="10">
-        <v>4</v>
-      </c>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P6" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="12"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>196</v>
       </c>
@@ -11979,24 +12386,29 @@
       <c r="G7" s="4">
         <v>4</v>
       </c>
-      <c r="H7" s="4">
-        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
-        <v>4</v>
-      </c>
+      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4">
+        <v>3</v>
+      </c>
+      <c r="K7" s="4">
+        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="N7" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="L7" s="10">
-        <v>8</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="10">
+        <v>8</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="12"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>196</v>
       </c>
@@ -12016,24 +12428,29 @@
       <c r="G8" s="4">
         <v>4</v>
       </c>
-      <c r="H8" s="4">
-        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
-        <v>4</v>
-      </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4">
+        <v>3</v>
+      </c>
+      <c r="K8" s="4">
+        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
+        <v>4</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="N8" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="L8" s="10">
-        <v>8</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="12"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="10">
+        <v>8</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="12"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>196</v>
       </c>
@@ -12053,26 +12470,31 @@
       <c r="G9" s="4">
         <v>6</v>
       </c>
-      <c r="H9" s="4">
-        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
-        <v>8</v>
-      </c>
+      <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4">
+        <v>3</v>
+      </c>
+      <c r="K9" s="4">
+        <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
+        <v>8</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="N9" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="L9" s="10">
+      <c r="O9" s="10">
         <v>12</v>
       </c>
-      <c r="M9" s="10">
+      <c r="P9" s="10">
         <v>2</v>
       </c>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q9" s="12"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
@@ -12092,26 +12514,29 @@
       <c r="G10" s="4">
         <v>10</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>10</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="N10" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="L10" s="19">
+      <c r="O10" s="19">
         <v>18</v>
       </c>
-      <c r="M10" s="19"/>
-      <c r="N10" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
@@ -12131,26 +12556,29 @@
       <c r="G11" s="4">
         <v>8</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>8</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="N11" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="L11" s="19">
+      <c r="O11" s="19">
         <v>12</v>
       </c>
-      <c r="M11" s="19"/>
-      <c r="N11" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P11" s="19"/>
+      <c r="Q11" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>19</v>
       </c>
@@ -12170,26 +12598,29 @@
       <c r="G12" s="4">
         <v>10</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>10</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4">
+      <c r="L12" s="4"/>
+      <c r="M12" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="N12" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="L12" s="19">
+      <c r="O12" s="19">
         <v>16</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P12" s="19"/>
+      <c r="Q12" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>19</v>
       </c>
@@ -12207,24 +12638,27 @@
       <c r="G13" s="4">
         <v>4</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4">
+      <c r="L13" s="4"/>
+      <c r="M13" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="L13" s="3">
-        <v>8</v>
-      </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="O13" s="3">
+        <v>8</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="12"/>
+    </row>
+    <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
@@ -12242,22 +12676,25 @@
       <c r="G14" s="4">
         <v>0</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>12</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="N14" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="12"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
@@ -12275,26 +12712,29 @@
       <c r="G15" s="4">
         <v>8</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4">
+      <c r="L15" s="4"/>
+      <c r="M15" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="N15" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="L15" s="19">
-        <v>8</v>
-      </c>
-      <c r="M15" s="19">
-        <v>6</v>
-      </c>
-      <c r="N15" s="12"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="19">
+        <v>8</v>
+      </c>
+      <c r="P15" s="19">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="12"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
@@ -12312,26 +12752,29 @@
       <c r="G16" s="4">
         <v>8</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4">
+      <c r="L16" s="4"/>
+      <c r="M16" s="4">
         <v>6.080101</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="N16" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="L16" s="10">
-        <v>8</v>
-      </c>
-      <c r="M16" s="10">
-        <v>4</v>
-      </c>
-      <c r="N16" s="12"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="10">
+        <v>8</v>
+      </c>
+      <c r="P16" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="12"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>56</v>
       </c>
@@ -12351,26 +12794,29 @@
       <c r="G17" s="4">
         <v>8</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4">
+      <c r="L17" s="4"/>
+      <c r="M17" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="N17" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="L17" s="19">
-        <v>8</v>
-      </c>
-      <c r="M17" s="19">
+      <c r="O17" s="19">
+        <v>8</v>
+      </c>
+      <c r="P17" s="19">
         <v>2</v>
       </c>
-      <c r="N17" s="12"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q17" s="12"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="79" t="s">
         <v>56</v>
       </c>
@@ -12390,22 +12836,25 @@
       <c r="G18" s="79">
         <v>0</v>
       </c>
-      <c r="H18" s="79">
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>12</v>
       </c>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79">
+      <c r="L18" s="79"/>
+      <c r="M18" s="79">
         <v>6.090103</v>
       </c>
-      <c r="K18" s="80" t="s">
+      <c r="N18" s="80" t="s">
         <v>246</v>
       </c>
-      <c r="L18" s="80"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="76"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="76"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>56</v>
       </c>
@@ -12425,26 +12874,29 @@
       <c r="G19" s="4">
         <v>4</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4">
+      <c r="L19" s="4"/>
+      <c r="M19" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="N19" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="L19" s="10">
-        <v>4</v>
-      </c>
-      <c r="M19" s="10">
-        <v>4</v>
-      </c>
-      <c r="N19" s="12"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="10">
+        <v>4</v>
+      </c>
+      <c r="P19" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="12"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>56</v>
       </c>
@@ -12464,26 +12916,29 @@
       <c r="G20" s="4">
         <v>8</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4">
+      <c r="L20" s="4"/>
+      <c r="M20" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="N20" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="L20" s="10">
+      <c r="O20" s="10">
         <v>10</v>
       </c>
-      <c r="M20" s="10">
-        <v>4</v>
-      </c>
-      <c r="N20" s="12"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P20" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="12"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>56</v>
       </c>
@@ -12503,26 +12958,29 @@
       <c r="G21" s="4">
         <v>6</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4">
+      <c r="L21" s="4"/>
+      <c r="M21" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="N21" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="L21" s="19">
-        <v>6</v>
-      </c>
-      <c r="M21" s="19"/>
-      <c r="N21" s="13">
+      <c r="O21" s="19">
+        <v>6</v>
+      </c>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>56</v>
       </c>
@@ -12540,22 +12998,25 @@
       <c r="G22" s="4">
         <v>6</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4">
+      <c r="L22" s="4"/>
+      <c r="M22" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="12"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="12"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>56</v>
       </c>
@@ -12575,26 +13036,29 @@
       <c r="G23" s="4">
         <v>4</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4">
+      <c r="L23" s="4"/>
+      <c r="M23" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="N23" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="L23" s="10">
-        <v>8</v>
-      </c>
-      <c r="M23" s="10">
+      <c r="O23" s="10">
+        <v>8</v>
+      </c>
+      <c r="P23" s="10">
         <v>2</v>
       </c>
-      <c r="N23" s="12"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q23" s="12"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>56</v>
       </c>
@@ -12614,24 +13078,27 @@
       <c r="G24" s="4">
         <v>4</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4">
+      <c r="L24" s="4"/>
+      <c r="M24" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="N24" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="L24" s="10">
-        <v>8</v>
-      </c>
-      <c r="M24" s="10"/>
-      <c r="N24" s="13"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="10">
+        <v>8</v>
+      </c>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>56</v>
       </c>
@@ -12649,24 +13116,27 @@
       <c r="G25" s="4">
         <v>0</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>8</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4">
+      <c r="L25" s="4"/>
+      <c r="M25" s="4">
         <v>6.090103</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="N25" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="L25" s="10">
-        <v>8</v>
-      </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="12"/>
-    </row>
-    <row r="26" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="10">
+        <v>8</v>
+      </c>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="12"/>
+    </row>
+    <row r="26" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>99</v>
       </c>
@@ -12684,22 +13154,25 @@
       <c r="G26" s="4">
         <v>6</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="L26" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="3" t="s">
+      <c r="M26" s="4"/>
+      <c r="N26" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="12"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="12"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>56</v>
       </c>
@@ -12717,24 +13190,27 @@
       <c r="G27" s="22">
         <v>4</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22">
+      <c r="L27" s="22"/>
+      <c r="M27" s="22">
         <v>6.090103</v>
       </c>
-      <c r="K27" s="47" t="s">
+      <c r="N27" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="L27" s="47">
-        <v>4</v>
-      </c>
-      <c r="M27" s="47">
-        <v>4</v>
-      </c>
-      <c r="N27" s="23"/>
+      <c r="O27" s="47">
+        <v>4</v>
+      </c>
+      <c r="P27" s="47">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zaizd2.xlsx
+++ b/Zaizd2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rozklad\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="20730" windowHeight="9420" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="20730" windowHeight="9420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1 курс" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1 курс'!$A$1:$R$15</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -28,7 +33,7 @@
     <author>xgresx@gmail.com</author>
   </authors>
   <commentList>
-    <comment ref="N15" authorId="0">
+    <comment ref="N15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +58,7 @@
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="B24" authorId="0">
+    <comment ref="B24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +83,7 @@
     <author>xgresx@gmail.com</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N9" authorId="0">
+    <comment ref="N9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +124,7 @@
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="N25" authorId="0">
+    <comment ref="N25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B40" authorId="1">
+    <comment ref="B40" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +166,7 @@
     <author>xgresx@gmail.com</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -176,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0">
+    <comment ref="B14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0">
+    <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -217,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N18" authorId="1">
+    <comment ref="N18" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -242,7 +247,7 @@
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="B18" authorId="0">
+    <comment ref="B18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -257,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="0">
+    <comment ref="B34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -277,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="332">
   <si>
     <t>Групи</t>
   </si>
@@ -1278,7 +1283,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1863,336 +1868,13 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Ввід" xfId="3" builtinId="20"/>
-    <cellStyle name="Добре" xfId="1" builtinId="26"/>
+    <cellStyle name="Гарний" xfId="1" builtinId="26"/>
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Нейтральний" xfId="2" builtinId="28"/>
     <cellStyle name="Поганий" xfId="4" builtinId="27"/>
     <cellStyle name="Примітка" xfId="5" builtinId="10"/>
-    <cellStyle name="Середній" xfId="2" builtinId="28"/>
   </cellStyles>
-  <dxfs count="147">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="150">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -3360,6 +3042,81 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3697,6 +3454,81 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -4011,6 +3843,81 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -4427,6 +4334,104 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -4852,6 +4857,81 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -5121,22 +5201,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:R27" totalsRowShown="0" headerRowDxfId="146" dataDxfId="144" headerRowBorderDxfId="145" tableBorderDxfId="143" totalsRowBorderDxfId="142">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:R27" totalsRowShown="0" headerRowDxfId="149" dataDxfId="147" headerRowBorderDxfId="148" tableBorderDxfId="146" totalsRowBorderDxfId="145">
   <autoFilter ref="A1:R27"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="Групи" dataDxfId="141"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="140"/>
-    <tableColumn id="3" name="Годин 1 заїзд" dataDxfId="139"/>
-    <tableColumn id="6" name="Годин 2 заїзд" dataDxfId="138"/>
-    <tableColumn id="14" name="Годин 3 заїзд" dataDxfId="137"/>
-    <tableColumn id="5" name="Годин 4 заїзд" dataDxfId="136"/>
-    <tableColumn id="15" name="Використано годин" dataDxfId="135"/>
-    <tableColumn id="17" name="Необхідно використати" dataDxfId="134">
+    <tableColumn id="1" name="Групи" dataDxfId="144"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="143"/>
+    <tableColumn id="3" name="Годин 1 заїзд" dataDxfId="142"/>
+    <tableColumn id="6" name="Годин 2 заїзд" dataDxfId="141"/>
+    <tableColumn id="14" name="Годин 3 заїзд" dataDxfId="140"/>
+    <tableColumn id="5" name="Годин 4 заїзд" dataDxfId="139"/>
+    <tableColumn id="15" name="Використано годин" dataDxfId="138"/>
+    <tableColumn id="17" name="Необхідно використати" dataDxfId="137">
       <calculatedColumnFormula>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Курс робота/проект" dataDxfId="15"/>
-    <tableColumn id="18" name="Іспит" dataDxfId="14"/>
-    <tableColumn id="20" name="Залік" dataDxfId="13"/>
+    <tableColumn id="16" name="Курс робота/проект" dataDxfId="136"/>
+    <tableColumn id="18" name="Іспит" dataDxfId="135"/>
+    <tableColumn id="20" name="Залік" dataDxfId="134"/>
     <tableColumn id="7" name="Прим." dataDxfId="133"/>
     <tableColumn id="8" name="шифр спеціальності" dataDxfId="132"/>
     <tableColumn id="9" name="Викладач" dataDxfId="131"/>
@@ -5163,147 +5243,150 @@
     <tableColumn id="3" name="Необхідно використати" dataDxfId="114">
       <calculatedColumnFormula>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Курс робота/проект" dataDxfId="9"/>
-    <tableColumn id="18" name="Іспит" dataDxfId="10"/>
-    <tableColumn id="17" name="Залік" dataDxfId="11"/>
-    <tableColumn id="7" name="Прим." dataDxfId="12"/>
-    <tableColumn id="8" name="шифр спеціальності" dataDxfId="113"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="112"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="111"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="110"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="109"/>
-    <tableColumn id="13" name="Столбец4" dataDxfId="108"/>
+    <tableColumn id="19" name="Курс робота/проект" dataDxfId="113"/>
+    <tableColumn id="18" name="Іспит" dataDxfId="112"/>
+    <tableColumn id="17" name="Залік" dataDxfId="111"/>
+    <tableColumn id="7" name="Прим." dataDxfId="110"/>
+    <tableColumn id="8" name="шифр спеціальності" dataDxfId="109"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="108"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="107"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="106"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="105"/>
+    <tableColumn id="13" name="Столбец4" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:Q44" totalsRowShown="0" headerRowDxfId="107" dataDxfId="105" headerRowBorderDxfId="106" tableBorderDxfId="104" totalsRowBorderDxfId="103">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:Q44" totalsRowShown="0" headerRowDxfId="103" dataDxfId="101" headerRowBorderDxfId="102" tableBorderDxfId="100" totalsRowBorderDxfId="99">
   <autoFilter ref="A1:Q44"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Групи" dataDxfId="102"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="101"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="100"/>
-    <tableColumn id="14" name="Годин 2 заїзд" dataDxfId="99"/>
-    <tableColumn id="13" name="Годин 3 заїзд" dataDxfId="98"/>
-    <tableColumn id="5" name="Годин 4 заїзд" dataDxfId="97"/>
-    <tableColumn id="4" name="Використано годин" dataDxfId="96"/>
-    <tableColumn id="3" name="Необхідно використати" dataDxfId="95">
+    <tableColumn id="1" name="Групи" dataDxfId="98"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="97"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="96"/>
+    <tableColumn id="14" name="Годин 2 заїзд" dataDxfId="95"/>
+    <tableColumn id="13" name="Годин 3 заїзд" dataDxfId="94"/>
+    <tableColumn id="5" name="Годин 4 заїзд" dataDxfId="93"/>
+    <tableColumn id="4" name="Використано годин" dataDxfId="92"/>
+    <tableColumn id="3" name="Необхідно використати" dataDxfId="91">
       <calculatedColumnFormula>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Курс робота/проект" dataDxfId="6"/>
-    <tableColumn id="16" name="Іспит" dataDxfId="7"/>
-    <tableColumn id="15" name="Залік" dataDxfId="8"/>
-    <tableColumn id="7" name="Прим." dataDxfId="94"/>
-    <tableColumn id="8" name="Шифр спеціальності" dataDxfId="93"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="92"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="91"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="90"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="89"/>
+    <tableColumn id="17" name="Курс робота/проект" dataDxfId="90"/>
+    <tableColumn id="16" name="Іспит" dataDxfId="89"/>
+    <tableColumn id="15" name="Залік" dataDxfId="88"/>
+    <tableColumn id="7" name="Прим." dataDxfId="87"/>
+    <tableColumn id="8" name="Шифр спеціальності" dataDxfId="86"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="85"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="84"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="83"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:Q42" totalsRowShown="0" headerRowDxfId="88" dataDxfId="86" headerRowBorderDxfId="87" tableBorderDxfId="85" totalsRowBorderDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:Q42" totalsRowShown="0" headerRowDxfId="81" dataDxfId="79" headerRowBorderDxfId="80" tableBorderDxfId="78" totalsRowBorderDxfId="77">
   <autoFilter ref="A1:Q42"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Групи" dataDxfId="83"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="82"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="81"/>
-    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="80"/>
-    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="79"/>
-    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="78"/>
-    <tableColumn id="3" name="Використано годин" dataDxfId="77"/>
-    <tableColumn id="14" name="Необхідно використати" dataDxfId="76">
+    <tableColumn id="1" name="Групи" dataDxfId="76"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="75"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="74"/>
+    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="73"/>
+    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="72"/>
+    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="71"/>
+    <tableColumn id="3" name="Використано годин" dataDxfId="70"/>
+    <tableColumn id="14" name="Необхідно використати" dataDxfId="69">
       <calculatedColumnFormula>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Курс робота/проект" dataDxfId="5"/>
-    <tableColumn id="16" name="Іспит" dataDxfId="4"/>
-    <tableColumn id="17" name="Залік" dataDxfId="3"/>
-    <tableColumn id="7" name="Прим." dataDxfId="75"/>
-    <tableColumn id="8" name="Шифр спеціальності" dataDxfId="74"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="73"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="72"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="71"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="70"/>
+    <tableColumn id="15" name="Курс робота/проект" dataDxfId="68"/>
+    <tableColumn id="16" name="Іспит" dataDxfId="67"/>
+    <tableColumn id="17" name="Залік" dataDxfId="66"/>
+    <tableColumn id="7" name="Прим." dataDxfId="65"/>
+    <tableColumn id="8" name="Шифр спеціальності" dataDxfId="64"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="63"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="62"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="61"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица5" displayName="Таблица5" ref="A1:Q27" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66" totalsRowBorderDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица5" displayName="Таблица5" ref="A1:Q27" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
   <autoFilter ref="A1:Q27"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Групи" dataDxfId="64"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="63"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="62"/>
-    <tableColumn id="17" name="Годин 2 заїзд" dataDxfId="61"/>
-    <tableColumn id="16" name="Годин 3 заїзд" dataDxfId="60"/>
-    <tableColumn id="15" name="Годин 4 заїзд" dataDxfId="59"/>
-    <tableColumn id="14" name="Використано годин" dataDxfId="58"/>
-    <tableColumn id="13" name="Курс робота/проект" dataDxfId="0"/>
-    <tableColumn id="5" name="Іспит" dataDxfId="1"/>
-    <tableColumn id="4" name="Залік" dataDxfId="2"/>
-    <tableColumn id="3" name="Необхідно використати" dataDxfId="57">
+    <tableColumn id="1" name="Групи" dataDxfId="54"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="53"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="52"/>
+    <tableColumn id="17" name="Годин 2 заїзд" dataDxfId="51"/>
+    <tableColumn id="16" name="Годин 3 заїзд" dataDxfId="50"/>
+    <tableColumn id="15" name="Годин 4 заїзд" dataDxfId="49"/>
+    <tableColumn id="14" name="Використано годин" dataDxfId="48"/>
+    <tableColumn id="13" name="Курс робота/проект" dataDxfId="47"/>
+    <tableColumn id="5" name="Іспит" dataDxfId="46"/>
+    <tableColumn id="4" name="Залік" dataDxfId="45"/>
+    <tableColumn id="3" name="Необхідно використати" dataDxfId="44">
       <calculatedColumnFormula>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Прим." dataDxfId="56"/>
-    <tableColumn id="8" name="Шифр спецільності" dataDxfId="55"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="54"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="53"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="52"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="51"/>
+    <tableColumn id="7" name="Прим." dataDxfId="43"/>
+    <tableColumn id="8" name="Шифр спецільності" dataDxfId="42"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="41"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="40"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="39"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица6" displayName="Таблица6" ref="A1:N48" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" tableBorderDxfId="48">
-  <autoFilter ref="A1:N48"/>
-  <tableColumns count="14">
-    <tableColumn id="1" name="Групи" dataDxfId="47"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="46"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="45"/>
-    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="44"/>
-    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="43"/>
-    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="42"/>
-    <tableColumn id="3" name="Використано годин" dataDxfId="41"/>
-    <tableColumn id="14" name="Необхідно використати" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица6" displayName="Таблица6" ref="A1:Q48" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
+  <autoFilter ref="A1:Q48"/>
+  <tableColumns count="17">
+    <tableColumn id="1" name="Групи" dataDxfId="34"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="33"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="32"/>
+    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="31"/>
+    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="30"/>
+    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="29"/>
+    <tableColumn id="3" name="Використано годин" dataDxfId="28"/>
+    <tableColumn id="14" name="Необхідно використати" dataDxfId="27">
       <calculatedColumnFormula>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Прим." dataDxfId="39"/>
-    <tableColumn id="8" name="Шифр. Спеціальності" dataDxfId="38"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="37"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="36"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="35"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="34"/>
+    <tableColumn id="17" name="Курс робота/проект" dataDxfId="0"/>
+    <tableColumn id="16" name="Іспит" dataDxfId="1"/>
+    <tableColumn id="15" name="Залік" dataDxfId="2"/>
+    <tableColumn id="7" name="Прим." dataDxfId="26"/>
+    <tableColumn id="8" name="Шифр. Спеціальності" dataDxfId="25"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="24"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="23"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="22"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица7" displayName="Таблица7" ref="A1:M4" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица7" displayName="Таблица7" ref="A1:M4" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <autoFilter ref="A1:M4"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Групи" dataDxfId="28"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="27"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="26"/>
-    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="25"/>
-    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="24"/>
-    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="23"/>
-    <tableColumn id="3" name="Використано годин" dataDxfId="22"/>
-    <tableColumn id="7" name="Прим." dataDxfId="21"/>
-    <tableColumn id="8" name="Шифр спецільності" dataDxfId="20"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="19"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="18"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="17"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="16"/>
+    <tableColumn id="1" name="Групи" dataDxfId="15"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="14"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="13"/>
+    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="12"/>
+    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="11"/>
+    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="10"/>
+    <tableColumn id="3" name="Використано годин" dataDxfId="9"/>
+    <tableColumn id="7" name="Прим." dataDxfId="8"/>
+    <tableColumn id="8" name="Шифр спецільності" dataDxfId="7"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="6"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="5"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="4"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5312,7 +5395,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартна">
+    <a:clrScheme name="Офіс">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5350,9 +5433,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартна">
+    <a:fontScheme name="Офіс">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5387,7 +5470,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5422,7 +5505,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартна">
+    <a:fmtScheme name="Офіс">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5598,7 +5681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R238"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:K1"/>
     </sheetView>
   </sheetViews>
@@ -6915,7 +6998,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6924,8 +7007,8 @@
     <col min="2" max="2" width="61.7109375" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" style="29" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="29" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="29" hidden="1" customWidth="1"/>
     <col min="7" max="8" width="14.28515625" style="29" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" style="29" customWidth="1"/>
     <col min="10" max="10" width="7.140625" style="29" customWidth="1"/>
@@ -7877,7 +7960,9 @@
         <v>4</v>
       </c>
       <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="J22" s="4">
+        <v>4</v>
+      </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4">
@@ -7918,7 +8003,9 @@
         <v>6</v>
       </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="J23" s="4">
+        <v>2</v>
+      </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4">
@@ -7963,7 +8050,9 @@
         <v>8</v>
       </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="J24" s="4">
+        <v>4</v>
+      </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4">
@@ -8004,7 +8093,9 @@
         <v>6</v>
       </c>
       <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="J25" s="4">
+        <v>4</v>
+      </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4">
@@ -8044,7 +8135,9 @@
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="K26" s="4">
+        <v>2</v>
+      </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4">
         <v>6.090103</v>
@@ -8086,7 +8179,9 @@
         <v>6</v>
       </c>
       <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="J27" s="4">
+        <v>4</v>
+      </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4">
@@ -8129,7 +8224,9 @@
         <v>4</v>
       </c>
       <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="J28" s="4">
+        <v>4</v>
+      </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4">
@@ -8171,7 +8268,9 @@
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+      <c r="K29" s="4">
+        <v>3</v>
+      </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4">
         <v>6.090103</v>
@@ -8215,7 +8314,9 @@
         <v>6</v>
       </c>
       <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="J30" s="4">
+        <v>4</v>
+      </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4">
@@ -8260,7 +8361,9 @@
         <v>6</v>
       </c>
       <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="J31" s="4">
+        <v>3</v>
+      </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4">
@@ -8303,7 +8406,9 @@
         <v>6</v>
       </c>
       <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
+      <c r="J32" s="22">
+        <v>3</v>
+      </c>
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22">
@@ -8335,16 +8440,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.28515625" style="7" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" style="7" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="7" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="7" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="7" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" style="7" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="7" customWidth="1"/>
     <col min="10" max="10" width="7.42578125" style="7" customWidth="1"/>
@@ -9344,7 +9451,9 @@
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="K24" s="4">
+        <v>3</v>
+      </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4">
         <v>6.080101</v>
@@ -9385,7 +9494,9 @@
         <v>4</v>
       </c>
       <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="J25" s="4">
+        <v>4</v>
+      </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4">
@@ -9424,7 +9535,9 @@
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="K26" s="4">
+        <v>2</v>
+      </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4">
         <v>6.080101</v>
@@ -9464,7 +9577,9 @@
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="K27" s="4">
+        <v>3</v>
+      </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4">
         <v>6.080101</v>
@@ -9503,7 +9618,9 @@
         <v>6</v>
       </c>
       <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="J28" s="4">
+        <v>2</v>
+      </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4">
@@ -9543,7 +9660,9 @@
         <v>0</v>
       </c>
       <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="J29" s="4">
+        <v>4</v>
+      </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4">
@@ -9580,8 +9699,12 @@
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="I30" s="4">
+        <v>4</v>
+      </c>
+      <c r="J30" s="4">
+        <v>4</v>
+      </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4">
@@ -9622,7 +9745,9 @@
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
+      <c r="K31" s="4">
+        <v>2</v>
+      </c>
       <c r="L31" s="4" t="s">
         <v>200</v>
       </c>
@@ -9661,7 +9786,9 @@
         <v>4</v>
       </c>
       <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="J32" s="4">
+        <v>4</v>
+      </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4">
@@ -9703,7 +9830,9 @@
         <v>4</v>
       </c>
       <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="J33" s="4">
+        <v>4</v>
+      </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4">
@@ -9744,7 +9873,9 @@
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
+      <c r="K34" s="4">
+        <v>2</v>
+      </c>
       <c r="L34" s="4"/>
       <c r="M34" s="4">
         <v>6.090103</v>
@@ -9782,8 +9913,12 @@
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="I35" s="4">
+        <v>3</v>
+      </c>
+      <c r="J35" s="4">
+        <v>4</v>
+      </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4">
@@ -9825,7 +9960,9 @@
         <v>4</v>
       </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+      <c r="J36" s="4">
+        <v>3</v>
+      </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4">
@@ -9866,7 +10003,9 @@
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
+      <c r="K37" s="4">
+        <v>2</v>
+      </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4">
         <v>6.090103</v>
@@ -9908,7 +10047,9 @@
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
+      <c r="K38" s="4">
+        <v>3</v>
+      </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4">
         <v>6.090103</v>
@@ -9945,7 +10086,9 @@
         <v>6</v>
       </c>
       <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
+      <c r="J39" s="4">
+        <v>3</v>
+      </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4">
@@ -9987,7 +10130,9 @@
         <v>6</v>
       </c>
       <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
+      <c r="J40" s="4">
+        <v>3</v>
+      </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4">
@@ -10023,7 +10168,9 @@
         <v>4</v>
       </c>
       <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
+      <c r="J41" s="4">
+        <v>3</v>
+      </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4" t="s">
         <v>201</v>
@@ -10061,7 +10208,9 @@
         <v>4</v>
       </c>
       <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
+      <c r="J42" s="4">
+        <v>3</v>
+      </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4">
@@ -10106,7 +10255,9 @@
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
+      <c r="K43" s="4">
+        <v>4</v>
+      </c>
       <c r="L43" s="4"/>
       <c r="M43" s="4">
         <v>6.090103</v>
@@ -10150,7 +10301,9 @@
       </c>
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
+      <c r="K44" s="22">
+        <v>4</v>
+      </c>
       <c r="L44" s="22"/>
       <c r="M44" s="22">
         <v>6.090103</v>
@@ -10343,15 +10496,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="14.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" style="6" customWidth="1"/>
+    <col min="5" max="6" width="14.28515625" style="6" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="6" customWidth="1"/>
     <col min="8" max="8" width="9" style="6" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" style="6" customWidth="1"/>
     <col min="10" max="11" width="6.28515625" style="6" customWidth="1"/>
@@ -11012,7 +11167,9 @@
         <v>4</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="J16" s="4">
+        <v>4</v>
+      </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4">
@@ -11052,7 +11209,9 @@
         <v>0</v>
       </c>
       <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="J17" s="4">
+        <v>4</v>
+      </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4">
@@ -11090,7 +11249,9 @@
         <v>4</v>
       </c>
       <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="J18" s="4">
+        <v>3</v>
+      </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4">
@@ -11129,7 +11290,9 @@
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="K19" s="4">
+        <v>4</v>
+      </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4">
         <v>6.080101</v>
@@ -11169,7 +11332,9 @@
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="K20" s="4">
+        <v>4</v>
+      </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4">
         <v>6.080101</v>
@@ -11205,7 +11370,9 @@
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="K21" s="4">
+        <v>2</v>
+      </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4">
         <v>6.080101</v>
@@ -11244,7 +11411,9 @@
         <v>2</v>
       </c>
       <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="J22" s="4">
+        <v>2</v>
+      </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4">
@@ -11285,7 +11454,9 @@
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="K23" s="4">
+        <v>2</v>
+      </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4">
         <v>6.080101</v>
@@ -11325,7 +11496,9 @@
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="K24" s="4">
+        <v>2</v>
+      </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4">
         <v>6.080101</v>
@@ -11362,7 +11535,9 @@
         <v>0</v>
       </c>
       <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
+      <c r="J25" s="41">
+        <v>4</v>
+      </c>
       <c r="K25" s="41"/>
       <c r="L25" s="41"/>
       <c r="M25" s="41">
@@ -11404,7 +11579,9 @@
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="K26" s="4">
+        <v>4</v>
+      </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4">
         <v>6.080101</v>
@@ -11444,7 +11621,9 @@
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="K27" s="4">
+        <v>4</v>
+      </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4">
         <v>6.080101</v>
@@ -11479,7 +11658,9 @@
         <v>6</v>
       </c>
       <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="J28" s="4">
+        <v>3</v>
+      </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4">
@@ -11518,7 +11699,9 @@
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+      <c r="K29" s="4">
+        <v>3</v>
+      </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4">
         <v>6.080101</v>
@@ -11551,7 +11734,9 @@
         <v>4</v>
       </c>
       <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="J30" s="4">
+        <v>3</v>
+      </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4" t="s">
         <v>201</v>
@@ -11588,7 +11773,9 @@
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
+      <c r="K31" s="4">
+        <v>2</v>
+      </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="3"/>
@@ -11622,7 +11809,9 @@
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="K32" s="4">
+        <v>3</v>
+      </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4">
         <v>6.090103</v>
@@ -11665,7 +11854,9 @@
         <v>4</v>
       </c>
       <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="J33" s="4">
+        <v>4</v>
+      </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4">
@@ -11709,7 +11900,9 @@
         <v>8</v>
       </c>
       <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="J34" s="4">
+        <v>4</v>
+      </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4">
@@ -11751,7 +11944,9 @@
         <v>4</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="J35" s="4">
+        <v>3</v>
+      </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4">
@@ -11793,7 +11988,9 @@
         <v>4</v>
       </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+      <c r="J36" s="4">
+        <v>3</v>
+      </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4">
@@ -11836,7 +12033,9 @@
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
+      <c r="K37" s="4">
+        <v>4</v>
+      </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4">
         <v>6.090103</v>
@@ -11878,7 +12077,9 @@
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
+      <c r="K38" s="4">
+        <v>3</v>
+      </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4">
         <v>6.090103</v>
@@ -11917,7 +12118,9 @@
         <v>2</v>
       </c>
       <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
+      <c r="J39" s="4">
+        <v>4</v>
+      </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4">
@@ -11960,9 +12163,13 @@
         <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I40" s="4"/>
+      <c r="I40" s="4">
+        <v>3</v>
+      </c>
       <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
+      <c r="K40" s="4">
+        <v>4</v>
+      </c>
       <c r="L40" s="4"/>
       <c r="M40" s="4">
         <v>6.090103</v>
@@ -12000,7 +12207,9 @@
         <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I41" s="4"/>
+      <c r="I41" s="4">
+        <v>3</v>
+      </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -12044,7 +12253,9 @@
       </c>
       <c r="I42" s="22"/>
       <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
+      <c r="K42" s="22">
+        <v>3</v>
+      </c>
       <c r="L42" s="22"/>
       <c r="M42" s="22">
         <v>6.090103</v>
@@ -12073,15 +12284,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="7" customWidth="1"/>
     <col min="2" max="2" width="51.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="14.28515625" style="7" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" style="7" customWidth="1"/>
+    <col min="5" max="6" width="14.28515625" style="7" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="7" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" style="7" customWidth="1"/>
     <col min="9" max="9" width="6" style="7" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" style="7" customWidth="1"/>
@@ -12515,7 +12728,9 @@
         <v>10</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="I10" s="4">
+        <v>3</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
@@ -12557,7 +12772,9 @@
         <v>8</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="I11" s="4">
+        <v>3</v>
+      </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
@@ -12600,7 +12817,9 @@
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="J12" s="4">
+        <v>3</v>
+      </c>
       <c r="K12" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>10</v>
@@ -12640,7 +12859,9 @@
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="J13" s="4">
+        <v>2</v>
+      </c>
       <c r="K13" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>4</v>
@@ -12678,7 +12899,9 @@
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="J14" s="4">
+        <v>2</v>
+      </c>
       <c r="K14" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>12</v>
@@ -12714,7 +12937,9 @@
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="J15" s="4">
+        <v>2</v>
+      </c>
       <c r="K15" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>6</v>
@@ -12754,7 +12979,9 @@
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="J16" s="4">
+        <v>2</v>
+      </c>
       <c r="K16" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>4</v>
@@ -12795,7 +13022,9 @@
         <v>8</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="I17" s="4">
+        <v>3</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
@@ -12837,7 +13066,9 @@
         <v>0</v>
       </c>
       <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
+      <c r="I18" s="79">
+        <v>3</v>
+      </c>
       <c r="J18" s="79"/>
       <c r="K18" s="79">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
@@ -12876,7 +13107,9 @@
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="J19" s="4">
+        <v>3</v>
+      </c>
       <c r="K19" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>4</v>
@@ -12917,7 +13150,9 @@
         <v>8</v>
       </c>
       <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="I20" s="4">
+        <v>3</v>
+      </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
@@ -12959,7 +13194,9 @@
         <v>6</v>
       </c>
       <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="I21" s="4">
+        <v>3</v>
+      </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
@@ -13000,7 +13237,9 @@
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="J22" s="4">
+        <v>2</v>
+      </c>
       <c r="K22" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>6</v>
@@ -13038,7 +13277,9 @@
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="J23" s="4">
+        <v>3</v>
+      </c>
       <c r="K23" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>6</v>
@@ -13079,7 +13320,9 @@
         <v>4</v>
       </c>
       <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="I24" s="4">
+        <v>3</v>
+      </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
@@ -13117,7 +13360,9 @@
         <v>0</v>
       </c>
       <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="I25" s="4">
+        <v>3</v>
+      </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
@@ -13156,7 +13401,9 @@
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="J26" s="4">
+        <v>2</v>
+      </c>
       <c r="K26" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>2</v>
@@ -13192,7 +13439,9 @@
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
+      <c r="J27" s="22">
+        <v>2</v>
+      </c>
       <c r="K27" s="22">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>4</v>
@@ -13223,27 +13472,32 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.85546875" style="49" customWidth="1"/>
-    <col min="3" max="8" width="14.28515625" style="48" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="48" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" style="48" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="48" customWidth="1"/>
-    <col min="13" max="13" width="10" style="48" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="48" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="48"/>
+    <col min="2" max="2" width="52" style="49" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" style="48" customWidth="1"/>
+    <col min="5" max="6" width="14.28515625" style="48" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="14.28515625" style="48" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="48" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="48" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="48" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="48" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="48" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="23.85546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="48" customWidth="1"/>
+    <col min="16" max="16" width="10" style="48" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" style="48" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -13268,26 +13522,35 @@
       <c r="H1" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="L1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="K1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>171</v>
       </c>
@@ -13310,19 +13573,24 @@
         <v>10</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="4">
+        <v>2</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="L2" s="3">
+      <c r="O2" s="3">
         <v>16</v>
       </c>
-      <c r="M2" s="3">
-        <v>4</v>
-      </c>
-      <c r="N2" s="57"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P2" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="57"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>171</v>
       </c>
@@ -13344,20 +13612,27 @@
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>10</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3" t="s">
+      <c r="I3" s="4">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4">
+        <v>2</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="L3" s="3">
+      <c r="O3" s="3">
         <v>16</v>
       </c>
-      <c r="M3" s="3">
-        <v>4</v>
-      </c>
-      <c r="N3" s="57"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P3" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="57"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>171</v>
       </c>
@@ -13380,15 +13655,20 @@
         <v>2</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="3" t="s">
+      <c r="J4" s="4">
+        <v>2</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="57"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="57"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>170</v>
       </c>
@@ -13411,19 +13691,24 @@
         <v>4</v>
       </c>
       <c r="I5" s="77"/>
-      <c r="J5" s="77">
+      <c r="J5" s="77"/>
+      <c r="K5" s="77">
+        <v>2</v>
+      </c>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77">
         <v>7.0140000000000002</v>
       </c>
-      <c r="K5" s="76" t="s">
+      <c r="N5" s="76" t="s">
         <v>212</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76">
+      <c r="O5" s="76"/>
+      <c r="P5" s="76">
         <v>10</v>
       </c>
-      <c r="N5" s="81"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q5" s="81"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>170</v>
       </c>
@@ -13446,21 +13731,26 @@
         <v>6</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="4">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
         <v>7.0140000000000002</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="N6" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="L6" s="19">
+      <c r="O6" s="19">
         <v>12</v>
       </c>
-      <c r="M6" s="19">
-        <v>4</v>
-      </c>
-      <c r="N6" s="57"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P6" s="19">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="57"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>171</v>
       </c>
@@ -13483,17 +13773,22 @@
         <v>4</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="10" t="s">
+      <c r="J7" s="4">
+        <v>3</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="L7" s="10">
-        <v>4</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="57"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="10">
+        <v>4</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="57"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>171</v>
       </c>
@@ -13518,17 +13813,22 @@
         <v>6</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3" t="s">
+      <c r="J8" s="4">
+        <v>3</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>14</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="57"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="57"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>171</v>
       </c>
@@ -13551,17 +13851,22 @@
         <v>4</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="3" t="s">
+      <c r="J9" s="4">
+        <v>3</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="L9" s="3">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="57"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="3">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="57"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>170</v>
       </c>
@@ -13584,19 +13889,24 @@
         <v>6</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="4">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
+        <v>3</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4">
         <v>7.0140000000000002</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="N10" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="L10" s="10">
-        <v>6</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="57"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="10">
+        <v>6</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="57"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>171</v>
       </c>
@@ -13620,16 +13930,21 @@
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="4">
+        <v>3</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="L11" s="19">
-        <v>8</v>
-      </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="57"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="19">
+        <v>8</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="57"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>171</v>
       </c>
@@ -13651,16 +13966,23 @@
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>0</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="3" t="s">
+      <c r="I12" s="4">
+        <v>4</v>
+      </c>
+      <c r="J12" s="4">
+        <v>4</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="57"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="57"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>171</v>
       </c>
@@ -13683,15 +14005,20 @@
         <v>0</v>
       </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="10" t="s">
+      <c r="J13" s="4">
+        <v>4</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="57"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="57"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>171</v>
       </c>
@@ -13714,15 +14041,20 @@
         <v>0</v>
       </c>
       <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="10" t="s">
+      <c r="J14" s="4">
+        <v>4</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="57"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="57"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>171</v>
       </c>
@@ -13745,13 +14077,18 @@
         <v>0</v>
       </c>
       <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="57"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J15" s="4">
+        <v>4</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="57"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>179</v>
       </c>
@@ -13775,18 +14112,23 @@
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="4">
+        <v>2</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="L16" s="10">
-        <v>8</v>
-      </c>
-      <c r="M16" s="10">
-        <v>4</v>
-      </c>
-      <c r="N16" s="57"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="10">
+        <v>8</v>
+      </c>
+      <c r="P16" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="57"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>179</v>
       </c>
@@ -13810,18 +14152,23 @@
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="4">
+        <v>2</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="L17" s="10">
-        <v>8</v>
-      </c>
-      <c r="M17" s="10">
-        <v>4</v>
-      </c>
-      <c r="N17" s="57"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="10">
+        <v>8</v>
+      </c>
+      <c r="P17" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="57"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>179</v>
       </c>
@@ -13844,19 +14191,24 @@
         <v>14</v>
       </c>
       <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="10" t="s">
+      <c r="J18" s="4">
+        <v>2</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="L18" s="19">
-        <v>8</v>
-      </c>
-      <c r="M18" s="19">
-        <v>6</v>
-      </c>
-      <c r="N18" s="57"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="19">
+        <v>8</v>
+      </c>
+      <c r="P18" s="19">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="57"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>179</v>
       </c>
@@ -13878,20 +14230,27 @@
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="3" t="s">
+      <c r="I19" s="4">
+        <v>2</v>
+      </c>
+      <c r="J19" s="4">
+        <v>2</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="L19" s="3">
-        <v>8</v>
-      </c>
-      <c r="M19" s="3">
-        <v>4</v>
-      </c>
-      <c r="N19" s="57"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="3">
+        <v>8</v>
+      </c>
+      <c r="P19" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="57"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>179</v>
       </c>
@@ -13916,19 +14275,24 @@
         <v>8</v>
       </c>
       <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="10" t="s">
+      <c r="J20" s="4">
+        <v>3</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="L20" s="19">
+      <c r="O20" s="19">
         <v>10</v>
       </c>
-      <c r="M20" s="19">
-        <v>4</v>
-      </c>
-      <c r="N20" s="57"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P20" s="19">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="57"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>179</v>
       </c>
@@ -13953,19 +14317,24 @@
         <v>6</v>
       </c>
       <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="10" t="s">
+      <c r="J21" s="4">
+        <v>3</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="L21" s="10">
+      <c r="O21" s="10">
         <v>10</v>
       </c>
-      <c r="M21" s="10">
-        <v>2</v>
-      </c>
-      <c r="N21" s="57"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P21" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="57"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>179</v>
       </c>
@@ -13989,18 +14358,23 @@
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="4">
+        <v>2</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="L22" s="10">
-        <v>8</v>
-      </c>
-      <c r="M22" s="10">
-        <v>4</v>
-      </c>
-      <c r="N22" s="57"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="10">
+        <v>8</v>
+      </c>
+      <c r="P22" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="57"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>179</v>
       </c>
@@ -14023,17 +14397,22 @@
         <v>6</v>
       </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="10" t="s">
+      <c r="J23" s="4">
+        <v>3</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="L23" s="10">
-        <v>6</v>
-      </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="57"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="10">
+        <v>6</v>
+      </c>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="57"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>180</v>
       </c>
@@ -14057,18 +14436,23 @@
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4">
+        <v>3</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4">
         <v>7.1929999999999996</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="N24" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="L24" s="10">
-        <v>6</v>
-      </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="57"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="10">
+        <v>6</v>
+      </c>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="57"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>179</v>
       </c>
@@ -14092,16 +14476,21 @@
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="4">
+        <v>2</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="L25" s="10">
-        <v>6</v>
-      </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="57"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="10">
+        <v>6</v>
+      </c>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="57"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>179</v>
       </c>
@@ -14125,16 +14514,21 @@
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="4">
+        <v>2</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="L26" s="10">
-        <v>8</v>
-      </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="57"/>
-    </row>
-    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="O26" s="10">
+        <v>8</v>
+      </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="57"/>
+    </row>
+    <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>179</v>
       </c>
@@ -14157,17 +14551,22 @@
         <v>8</v>
       </c>
       <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="31" t="s">
+      <c r="J27" s="4">
+        <v>3</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="L27" s="10">
-        <v>8</v>
-      </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="57"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="10">
+        <v>8</v>
+      </c>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="57"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>179</v>
       </c>
@@ -14191,18 +14590,23 @@
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="4">
+        <v>2</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="L28" s="19">
-        <v>8</v>
-      </c>
-      <c r="M28" s="19">
-        <v>4</v>
-      </c>
-      <c r="N28" s="57"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="19">
+        <v>8</v>
+      </c>
+      <c r="P28" s="19">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="57"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>179</v>
       </c>
@@ -14225,15 +14629,20 @@
         <v>4</v>
       </c>
       <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="4">
+        <v>2</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="57"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="57"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>184</v>
       </c>
@@ -14256,19 +14665,24 @@
         <v>6</v>
       </c>
       <c r="I30" s="4"/>
-      <c r="J30" s="4">
+      <c r="J30" s="4"/>
+      <c r="K30" s="4">
+        <v>2</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4">
         <v>8.0139999999999993</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="N30" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10">
+      <c r="O30" s="10"/>
+      <c r="P30" s="10">
         <v>10</v>
       </c>
-      <c r="N30" s="57"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q30" s="57"/>
+    </row>
+    <row r="31" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>184</v>
       </c>
@@ -14291,19 +14705,24 @@
         <v>6</v>
       </c>
       <c r="I31" s="4"/>
-      <c r="J31" s="4">
+      <c r="J31" s="4"/>
+      <c r="K31" s="4">
+        <v>3</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4">
         <v>8.0139999999999993</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="N31" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="L31" s="10">
-        <v>6</v>
-      </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="57"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="10">
+        <v>6</v>
+      </c>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="57"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>184</v>
       </c>
@@ -14327,16 +14746,21 @@
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4">
+        <v>4</v>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4">
         <v>8.0139999999999993</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="N32" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="L32" s="19"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="57"/>
-    </row>
-    <row r="33" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="O32" s="19"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="57"/>
+    </row>
+    <row r="33" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>186</v>
       </c>
@@ -14359,21 +14783,26 @@
         <v>6</v>
       </c>
       <c r="I33" s="4"/>
-      <c r="J33" s="4">
+      <c r="J33" s="4"/>
+      <c r="K33" s="4">
+        <v>3</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4">
         <v>8.1929999999999996</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="N33" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="L33" s="3">
-        <v>6</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
+        <v>6</v>
+      </c>
+      <c r="P33" s="3">
         <v>0</v>
       </c>
-      <c r="N33" s="57"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q33" s="57"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>186</v>
       </c>
@@ -14398,21 +14827,26 @@
         <v>10</v>
       </c>
       <c r="I34" s="4"/>
-      <c r="J34" s="4">
+      <c r="J34" s="4"/>
+      <c r="K34" s="4">
+        <v>3</v>
+      </c>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4">
         <v>8.1929999999999996</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="N34" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="L34" s="3">
+      <c r="O34" s="3">
         <v>14</v>
       </c>
-      <c r="M34" s="4">
-        <v>4</v>
-      </c>
-      <c r="N34" s="57"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P34" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="57"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="64" t="s">
         <v>307</v>
       </c>
@@ -14436,14 +14870,19 @@
       </c>
       <c r="I35" s="64"/>
       <c r="J35" s="64">
+        <v>3</v>
+      </c>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64">
         <v>20.204999999999998</v>
       </c>
-      <c r="K35" s="65"/>
-      <c r="L35" s="66"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="66"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N35" s="65"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="66"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>307</v>
       </c>
@@ -14468,19 +14907,24 @@
         <v>6</v>
       </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="4">
+      <c r="J36" s="4"/>
+      <c r="K36" s="4">
+        <v>3</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="K36" s="58" t="s">
+      <c r="N36" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="L36" s="3">
-        <v>6</v>
-      </c>
-      <c r="M36" s="3"/>
-      <c r="N36" s="56"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="3">
+        <v>6</v>
+      </c>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="56"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>307</v>
       </c>
@@ -14504,20 +14948,27 @@
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I37" s="4"/>
+      <c r="I37" s="4">
+        <v>3</v>
+      </c>
       <c r="J37" s="4">
+        <v>4</v>
+      </c>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="K37" s="58" t="s">
+      <c r="N37" s="58" t="s">
         <v>322</v>
       </c>
-      <c r="L37" s="56">
-        <v>6</v>
-      </c>
-      <c r="M37" s="3"/>
-      <c r="N37" s="56"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="56">
+        <v>6</v>
+      </c>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="56"/>
+    </row>
+    <row r="38" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>307</v>
       </c>
@@ -14540,21 +14991,26 @@
         <v>6</v>
       </c>
       <c r="I38" s="4"/>
-      <c r="J38" s="4">
+      <c r="J38" s="4"/>
+      <c r="K38" s="4">
+        <v>3</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="K38" s="58" t="s">
+      <c r="N38" s="58" t="s">
         <v>220</v>
       </c>
-      <c r="L38" s="56">
-        <v>4</v>
-      </c>
-      <c r="M38" s="3"/>
-      <c r="N38" s="56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="56">
+        <v>4</v>
+      </c>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>307</v>
       </c>
@@ -14577,21 +15033,26 @@
         <v>6</v>
       </c>
       <c r="I39" s="4"/>
-      <c r="J39" s="4">
+      <c r="J39" s="4"/>
+      <c r="K39" s="4">
+        <v>3</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="K39" s="58" t="s">
+      <c r="N39" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="L39" s="56">
-        <v>4</v>
-      </c>
-      <c r="M39" s="3">
-        <v>2</v>
-      </c>
-      <c r="N39" s="56"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39" s="56">
+        <v>4</v>
+      </c>
+      <c r="P39" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="56"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="64" t="s">
         <v>307</v>
       </c>
@@ -14614,15 +15075,20 @@
         <v>6</v>
       </c>
       <c r="I40" s="64"/>
-      <c r="J40" s="64">
+      <c r="J40" s="64"/>
+      <c r="K40" s="64">
+        <v>2</v>
+      </c>
+      <c r="L40" s="64"/>
+      <c r="M40" s="64">
         <v>20.204999999999998</v>
       </c>
-      <c r="K40" s="65"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="67"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N40" s="65"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="65"/>
+      <c r="Q40" s="67"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>307</v>
       </c>
@@ -14646,20 +15112,27 @@
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I41" s="4"/>
+      <c r="I41" s="4">
+        <v>3</v>
+      </c>
       <c r="J41" s="4">
+        <v>4</v>
+      </c>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="K41" s="58" t="s">
+      <c r="N41" s="58" t="s">
         <v>323</v>
       </c>
-      <c r="L41" s="56">
-        <v>6</v>
-      </c>
-      <c r="M41" s="3"/>
-      <c r="N41" s="56"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41" s="56">
+        <v>6</v>
+      </c>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="56"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>307</v>
       </c>
@@ -14682,21 +15155,26 @@
         <v>8</v>
       </c>
       <c r="I42" s="4"/>
-      <c r="J42" s="4">
+      <c r="J42" s="4"/>
+      <c r="K42" s="4">
+        <v>3</v>
+      </c>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="K42" s="58" t="s">
+      <c r="N42" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="L42" s="56">
-        <v>6</v>
-      </c>
-      <c r="M42" s="3">
-        <v>2</v>
-      </c>
-      <c r="N42" s="56"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42" s="56">
+        <v>6</v>
+      </c>
+      <c r="P42" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="56"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="64" t="s">
         <v>307</v>
       </c>
@@ -14722,14 +15200,19 @@
       </c>
       <c r="I43" s="64"/>
       <c r="J43" s="64">
+        <v>4</v>
+      </c>
+      <c r="K43" s="64"/>
+      <c r="L43" s="64"/>
+      <c r="M43" s="64">
         <v>20.204999999999998</v>
       </c>
-      <c r="K43" s="65"/>
-      <c r="L43" s="67"/>
-      <c r="M43" s="65"/>
-      <c r="N43" s="67"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N43" s="65"/>
+      <c r="O43" s="67"/>
+      <c r="P43" s="65"/>
+      <c r="Q43" s="67"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="64" t="s">
         <v>307</v>
       </c>
@@ -14754,15 +15237,20 @@
         <v>4</v>
       </c>
       <c r="I44" s="64"/>
-      <c r="J44" s="64">
+      <c r="J44" s="64"/>
+      <c r="K44" s="64">
+        <v>4</v>
+      </c>
+      <c r="L44" s="64"/>
+      <c r="M44" s="64">
         <v>20.204999999999998</v>
       </c>
-      <c r="K44" s="65"/>
-      <c r="L44" s="67"/>
-      <c r="M44" s="65"/>
-      <c r="N44" s="67"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N44" s="65"/>
+      <c r="O44" s="67"/>
+      <c r="P44" s="65"/>
+      <c r="Q44" s="67"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="64" t="s">
         <v>307</v>
       </c>
@@ -14787,15 +15275,20 @@
         <v>6</v>
       </c>
       <c r="I45" s="64"/>
-      <c r="J45" s="64">
+      <c r="J45" s="64"/>
+      <c r="K45" s="64">
+        <v>4</v>
+      </c>
+      <c r="L45" s="64"/>
+      <c r="M45" s="64">
         <v>20.204999999999998</v>
       </c>
-      <c r="K45" s="65"/>
-      <c r="L45" s="67"/>
-      <c r="M45" s="65"/>
-      <c r="N45" s="67"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N45" s="65"/>
+      <c r="O45" s="67"/>
+      <c r="P45" s="65"/>
+      <c r="Q45" s="67"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>307</v>
       </c>
@@ -14819,20 +15312,27 @@
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I46" s="4"/>
+      <c r="I46" s="4">
+        <v>3</v>
+      </c>
       <c r="J46" s="4">
+        <v>4</v>
+      </c>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="K46" s="58" t="s">
+      <c r="N46" s="58" t="s">
         <v>324</v>
       </c>
-      <c r="L46" s="56">
-        <v>6</v>
-      </c>
-      <c r="M46" s="3"/>
-      <c r="N46" s="56"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46" s="56">
+        <v>6</v>
+      </c>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="56"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>307</v>
       </c>
@@ -14858,18 +15358,23 @@
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4">
+        <v>3</v>
+      </c>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="K47" s="58" t="s">
+      <c r="N47" s="58" t="s">
         <v>325</v>
       </c>
-      <c r="L47" s="56">
-        <v>6</v>
-      </c>
-      <c r="M47" s="3"/>
-      <c r="N47" s="56"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47" s="56">
+        <v>6</v>
+      </c>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="56"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>307</v>
       </c>
@@ -14893,20 +15398,25 @@
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4">
+        <v>3</v>
+      </c>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="K48" s="58" t="s">
+      <c r="N48" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="L48" s="56">
-        <v>6</v>
-      </c>
-      <c r="M48" s="3"/>
-      <c r="N48" s="56"/>
+      <c r="O48" s="56">
+        <v>6</v>
+      </c>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>

--- a/Zaizd2.xlsx
+++ b/Zaizd2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rozklad\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="20730" windowHeight="9420" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="420" windowWidth="20730" windowHeight="9360" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1 курс" sheetId="1" r:id="rId1"/>
@@ -23,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1 курс'!$A$1:$R$15</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -33,7 +28,7 @@
     <author>xgresx@gmail.com</author>
   </authors>
   <commentList>
-    <comment ref="N15" authorId="0" shapeId="0">
+    <comment ref="N15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +53,7 @@
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="B24" authorId="0" shapeId="0">
+    <comment ref="B24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +78,7 @@
     <author>xgresx@gmail.com</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N9" authorId="0" shapeId="0">
+    <comment ref="N9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +119,7 @@
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="N25" authorId="0" shapeId="0">
+    <comment ref="N25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B40" authorId="1" shapeId="0">
+    <comment ref="B40" authorId="1">
       <text>
         <r>
           <rPr>
@@ -166,7 +161,7 @@
     <author>xgresx@gmail.com</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -192,11 +187,12 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Наступний заїзд</t>
+          <t xml:space="preserve">Наступний заїзд залік
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N18" authorId="1" shapeId="0">
+    <comment ref="N18" authorId="1">
       <text>
         <r>
           <rPr>
@@ -247,7 +243,7 @@
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="B18" authorId="0" shapeId="0">
+    <comment ref="B18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="0" shapeId="0">
+    <comment ref="B34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -282,7 +278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="335">
   <si>
     <t>Групи</t>
   </si>
@@ -1184,9 +1180,6 @@
     <t>7.04010401</t>
   </si>
   <si>
-    <t>проф. Барчій І.Є</t>
-  </si>
-  <si>
     <t xml:space="preserve">Лісове деревинознавство </t>
   </si>
   <si>
@@ -1278,12 +1271,24 @@
   </si>
   <si>
     <t>Курс робота/проект</t>
+  </si>
+  <si>
+    <t>доц. Хоменко Т.І.</t>
+  </si>
+  <si>
+    <t>ст. викл. Афанасьєв Д.М.</t>
+  </si>
+  <si>
+    <t>проф. Фелбаба-Клушина Л.М.</t>
+  </si>
+  <si>
+    <t>ст. викл. Головацький Н.Т.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1611,7 +1616,7 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1654,14 +1659,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1794,7 +1793,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1865,91 +1863,52 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Ввід" xfId="3" builtinId="20"/>
-    <cellStyle name="Гарний" xfId="1" builtinId="26"/>
+    <cellStyle name="Добре" xfId="1" builtinId="26"/>
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
-    <cellStyle name="Нейтральний" xfId="2" builtinId="28"/>
     <cellStyle name="Поганий" xfId="4" builtinId="27"/>
     <cellStyle name="Примітка" xfId="5" builtinId="10"/>
+    <cellStyle name="Середній" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="150">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2635,6 +2594,81 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -5356,37 +5390,37 @@
     <tableColumn id="14" name="Необхідно використати" dataDxfId="27">
       <calculatedColumnFormula>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Курс робота/проект" dataDxfId="0"/>
-    <tableColumn id="16" name="Іспит" dataDxfId="1"/>
-    <tableColumn id="15" name="Залік" dataDxfId="2"/>
-    <tableColumn id="7" name="Прим." dataDxfId="26"/>
-    <tableColumn id="8" name="Шифр. Спеціальності" dataDxfId="25"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="24"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="23"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="22"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="21"/>
+    <tableColumn id="17" name="Курс робота/проект" dataDxfId="26"/>
+    <tableColumn id="16" name="Іспит" dataDxfId="25"/>
+    <tableColumn id="15" name="Залік" dataDxfId="24"/>
+    <tableColumn id="7" name="Прим." dataDxfId="23"/>
+    <tableColumn id="8" name="Шифр. Спеціальності" dataDxfId="22"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="21"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="20"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="19"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица7" displayName="Таблица7" ref="A1:M4" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица7" displayName="Таблица7" ref="A1:M4" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="A1:M4"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Групи" dataDxfId="15"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="14"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="13"/>
-    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="12"/>
-    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="11"/>
-    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="10"/>
-    <tableColumn id="3" name="Використано годин" dataDxfId="9"/>
-    <tableColumn id="7" name="Прим." dataDxfId="8"/>
-    <tableColumn id="8" name="Шифр спецільності" dataDxfId="7"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="6"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="5"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="4"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="3"/>
+    <tableColumn id="1" name="Групи" dataDxfId="12"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="11"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="10"/>
+    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="9"/>
+    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="8"/>
+    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="7"/>
+    <tableColumn id="3" name="Використано годин" dataDxfId="6"/>
+    <tableColumn id="7" name="Прим." dataDxfId="5"/>
+    <tableColumn id="8" name="Шифр спецільності" dataDxfId="4"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="3"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="2"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="1"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5395,7 +5429,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Офіс">
+    <a:clrScheme name="Стандартна">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5433,9 +5467,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Офіс">
+    <a:fontScheme name="Стандартна">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5470,7 +5504,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5505,7 +5539,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Офіс">
+    <a:fmtScheme name="Стандартна">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5681,8 +5715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R238"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K1"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5707,218 +5741,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="J1" s="25" t="s">
+      <c r="H1" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="J1" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="L1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="N1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="26" t="s">
+      <c r="N1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="25" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:18" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="17">
-        <v>4</v>
-      </c>
-      <c r="D2" s="17">
-        <v>4</v>
-      </c>
-      <c r="E2" s="17">
-        <v>2</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17">
+      <c r="B2" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="80">
+        <v>4</v>
+      </c>
+      <c r="D2" s="80">
+        <v>4</v>
+      </c>
+      <c r="E2" s="80">
+        <v>2</v>
+      </c>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80">
         <v>0</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="80">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>8</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="17">
+      <c r="I2" s="80"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="80">
         <v>3</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="17" t="s">
+      <c r="L2" s="80"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="80" t="s">
         <v>187</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="12"/>
-    </row>
-    <row r="3" spans="1:18" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="83"/>
+    </row>
+    <row r="3" spans="1:18" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="83">
-        <v>4</v>
-      </c>
-      <c r="D3" s="83">
-        <v>6</v>
-      </c>
-      <c r="E3" s="83">
-        <v>4</v>
-      </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83">
-        <v>4</v>
-      </c>
-      <c r="H3" s="83">
+      <c r="C3" s="80">
+        <v>4</v>
+      </c>
+      <c r="D3" s="80">
+        <v>6</v>
+      </c>
+      <c r="E3" s="80">
+        <v>4</v>
+      </c>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80">
+        <v>4</v>
+      </c>
+      <c r="H3" s="80">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83">
+      <c r="I3" s="80"/>
+      <c r="J3" s="80">
         <v>3</v>
       </c>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="83" t="s">
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="86"/>
-    </row>
-    <row r="4" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="83"/>
+    </row>
+    <row r="4" spans="1:18" s="84" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="17">
-        <v>6</v>
-      </c>
-      <c r="D4" s="17">
-        <v>6</v>
-      </c>
-      <c r="E4" s="17">
-        <v>4</v>
-      </c>
-      <c r="F4" s="17">
-        <v>4</v>
-      </c>
-      <c r="G4" s="17">
-        <v>6</v>
-      </c>
-      <c r="H4" s="17">
+      <c r="B4" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="80">
+        <v>6</v>
+      </c>
+      <c r="D4" s="80">
+        <v>6</v>
+      </c>
+      <c r="E4" s="80">
+        <v>4</v>
+      </c>
+      <c r="F4" s="80">
+        <v>4</v>
+      </c>
+      <c r="G4" s="80">
+        <v>6</v>
+      </c>
+      <c r="H4" s="80">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17">
-        <v>4</v>
-      </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="4" t="s">
+      <c r="I4" s="80"/>
+      <c r="J4" s="80">
+        <v>4</v>
+      </c>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="85" t="s">
         <v>281</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="12"/>
-    </row>
-    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="83"/>
+    </row>
+    <row r="5" spans="1:18" s="84" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="85">
         <v>12</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="85">
         <v>10</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4">
+      <c r="G5" s="85">
         <v>10</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="85">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>12</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4">
-        <v>2</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4" t="s">
+      <c r="I5" s="85"/>
+      <c r="J5" s="85">
+        <v>2</v>
+      </c>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85" t="s">
         <v>194</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="85" t="s">
         <v>280</v>
       </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="12"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="83"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -6006,42 +6040,42 @@
       </c>
       <c r="R7" s="12"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:18" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8" s="85">
+        <v>8</v>
+      </c>
+      <c r="D8" s="85">
         <v>6</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4">
-        <v>8</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="85">
+        <v>8</v>
+      </c>
+      <c r="H8" s="85">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4">
-        <v>2</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4" t="s">
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85">
+        <v>2</v>
+      </c>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85" t="s">
         <v>194</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="12"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="83"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -6125,8 +6159,8 @@
       <c r="O10" s="10">
         <v>4</v>
       </c>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
       <c r="R10" s="12"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -6218,51 +6252,51 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="65" t="s">
         <v>188</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="69">
+      <c r="C13" s="66">
         <v>10</v>
       </c>
-      <c r="D13" s="69">
-        <v>8</v>
-      </c>
-      <c r="E13" s="69">
-        <v>6</v>
-      </c>
-      <c r="F13" s="69">
-        <v>6</v>
-      </c>
-      <c r="G13" s="69">
-        <v>6</v>
-      </c>
-      <c r="H13" s="69">
+      <c r="D13" s="66">
+        <v>8</v>
+      </c>
+      <c r="E13" s="66">
+        <v>6</v>
+      </c>
+      <c r="F13" s="66">
+        <v>6</v>
+      </c>
+      <c r="G13" s="66">
+        <v>6</v>
+      </c>
+      <c r="H13" s="66">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>12</v>
       </c>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69">
-        <v>4</v>
-      </c>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69" t="s">
-        <v>327</v>
-      </c>
-      <c r="M13" s="70" t="s">
+      <c r="I13" s="66"/>
+      <c r="J13" s="66">
+        <v>4</v>
+      </c>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="M13" s="67" t="s">
         <v>193</v>
       </c>
-      <c r="N13" s="69" t="s">
+      <c r="N13" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="O13" s="70">
+      <c r="O13" s="67">
         <v>14</v>
       </c>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="71" t="s">
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="68" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6299,62 +6333,62 @@
       <c r="M14" s="3">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="N14" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="O14" s="19">
-        <v>4</v>
-      </c>
-      <c r="P14" s="19">
+      <c r="O14" s="17">
+        <v>4</v>
+      </c>
+      <c r="P14" s="17">
         <v>0</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="12"/>
     </row>
     <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="73">
-        <v>6</v>
-      </c>
-      <c r="D15" s="73">
-        <v>4</v>
-      </c>
-      <c r="E15" s="73">
+      <c r="C15" s="70">
+        <v>6</v>
+      </c>
+      <c r="D15" s="70">
+        <v>4</v>
+      </c>
+      <c r="E15" s="70">
         <v>12</v>
       </c>
-      <c r="F15" s="73">
-        <v>8</v>
-      </c>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73">
+      <c r="F15" s="70">
+        <v>8</v>
+      </c>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>10</v>
       </c>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73">
-        <v>4</v>
-      </c>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73" t="s">
-        <v>328</v>
-      </c>
-      <c r="M15" s="74">
+      <c r="I15" s="70"/>
+      <c r="J15" s="70">
+        <v>4</v>
+      </c>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70" t="s">
+        <v>327</v>
+      </c>
+      <c r="M15" s="71">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N15" s="74" t="s">
+      <c r="N15" s="71" t="s">
         <v>220</v>
       </c>
-      <c r="O15" s="74">
-        <v>2</v>
-      </c>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="75"/>
+      <c r="O15" s="71">
+        <v>2</v>
+      </c>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="72"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -6391,14 +6425,14 @@
       <c r="M16" s="3">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N16" s="19" t="s">
+      <c r="N16" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="O16" s="19">
-        <v>4</v>
-      </c>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19">
+      <c r="O16" s="17">
+        <v>4</v>
+      </c>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17">
         <v>2</v>
       </c>
       <c r="R16" s="12"/>
@@ -6432,16 +6466,16 @@
       <c r="M17" s="3">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N17" s="19" t="s">
+      <c r="N17" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="O17" s="19">
-        <v>2</v>
-      </c>
-      <c r="P17" s="19">
+      <c r="O17" s="17">
+        <v>2</v>
+      </c>
+      <c r="P17" s="17">
         <v>0</v>
       </c>
-      <c r="Q17" s="19">
+      <c r="Q17" s="17">
         <v>0</v>
       </c>
       <c r="R17" s="12"/>
@@ -6479,14 +6513,14 @@
       <c r="M18" s="3">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N18" s="19" t="s">
+      <c r="N18" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="O18" s="19">
-        <v>2</v>
-      </c>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19">
+      <c r="O18" s="17">
+        <v>2</v>
+      </c>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17">
         <v>0</v>
       </c>
       <c r="R18" s="12"/>
@@ -6524,14 +6558,14 @@
       <c r="M19" s="3">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N19" s="19" t="s">
+      <c r="N19" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="O19" s="19">
-        <v>2</v>
-      </c>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
+      <c r="O19" s="17">
+        <v>2</v>
+      </c>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
       <c r="R19" s="12"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -6569,14 +6603,14 @@
       <c r="M20" s="3">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N20" s="19" t="s">
+      <c r="N20" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="O20" s="19">
-        <v>6</v>
-      </c>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19">
+      <c r="O20" s="17">
+        <v>6</v>
+      </c>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17">
         <v>4</v>
       </c>
       <c r="R20" s="12"/>
@@ -6614,16 +6648,16 @@
       <c r="M21" s="3">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N21" s="19" t="s">
+      <c r="N21" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="O21" s="19">
-        <v>6</v>
-      </c>
-      <c r="P21" s="19">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="19"/>
+      <c r="O21" s="17">
+        <v>6</v>
+      </c>
+      <c r="P21" s="17">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="17"/>
       <c r="R21" s="12"/>
     </row>
     <row r="22" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6659,10 +6693,10 @@
       <c r="M22" s="3">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N22" s="19" t="s">
+      <c r="N22" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="O22" s="19">
+      <c r="O22" s="17">
         <v>6</v>
       </c>
       <c r="P22" s="3"/>
@@ -6712,17 +6746,17 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="12"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:18" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="4">
-        <v>4</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="C24" s="85">
+        <v>4</v>
+      </c>
+      <c r="D24" s="85">
         <v>6</v>
       </c>
       <c r="E24" s="4">
@@ -6731,76 +6765,76 @@
       <c r="F24" s="4">
         <v>6</v>
       </c>
-      <c r="G24" s="4">
-        <v>4</v>
-      </c>
-      <c r="H24" s="4">
+      <c r="G24" s="85">
+        <v>4</v>
+      </c>
+      <c r="H24" s="85">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4">
-        <v>4</v>
-      </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="3">
+      <c r="I24" s="85"/>
+      <c r="J24" s="85">
+        <v>4</v>
+      </c>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="82">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N24" s="10" t="s">
+      <c r="N24" s="90" t="s">
         <v>282</v>
       </c>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="12" t="s">
+      <c r="O24" s="91"/>
+      <c r="P24" s="91"/>
+      <c r="Q24" s="91"/>
+      <c r="R24" s="83" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="68" t="s">
+      <c r="A25" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="69">
-        <v>4</v>
-      </c>
-      <c r="D25" s="69">
-        <v>8</v>
-      </c>
-      <c r="E25" s="69">
-        <v>4</v>
-      </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69">
-        <v>4</v>
-      </c>
-      <c r="H25" s="69">
+      <c r="C25" s="66">
+        <v>4</v>
+      </c>
+      <c r="D25" s="66">
+        <v>8</v>
+      </c>
+      <c r="E25" s="66">
+        <v>4</v>
+      </c>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66">
+        <v>4</v>
+      </c>
+      <c r="H25" s="66">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>8</v>
       </c>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69">
+      <c r="I25" s="66"/>
+      <c r="J25" s="66">
         <v>3</v>
       </c>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69" t="s">
-        <v>327</v>
-      </c>
-      <c r="M25" s="70">
+      <c r="K25" s="66"/>
+      <c r="L25" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="M25" s="67">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N25" s="69" t="s">
+      <c r="N25" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="O25" s="70">
-        <v>6</v>
-      </c>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="71" t="s">
+      <c r="O25" s="67">
+        <v>6</v>
+      </c>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="68" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6851,48 +6885,48 @@
       </c>
       <c r="R26" s="12"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+    <row r="27" spans="1:18" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="21">
-        <v>4</v>
-      </c>
-      <c r="D27" s="22">
-        <v>6</v>
-      </c>
-      <c r="E27" s="22">
-        <v>4</v>
-      </c>
-      <c r="F27" s="22">
-        <v>2</v>
-      </c>
-      <c r="G27" s="22">
-        <v>4</v>
-      </c>
-      <c r="H27" s="22">
+      <c r="C27" s="93">
+        <v>4</v>
+      </c>
+      <c r="D27" s="94">
+        <v>6</v>
+      </c>
+      <c r="E27" s="20">
+        <v>4</v>
+      </c>
+      <c r="F27" s="20">
+        <v>2</v>
+      </c>
+      <c r="G27" s="94">
+        <v>4</v>
+      </c>
+      <c r="H27" s="94">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22">
+      <c r="I27" s="94"/>
+      <c r="J27" s="94">
         <v>3</v>
       </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21">
+      <c r="K27" s="94"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="93">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N27" s="21" t="s">
+      <c r="N27" s="93" t="s">
         <v>293</v>
       </c>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="23"/>
+      <c r="O27" s="93"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="93"/>
+      <c r="R27" s="95"/>
     </row>
     <row r="102" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M102" s="9"/>
@@ -6997,165 +7031,165 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="29" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="29" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="14.28515625" style="29" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" style="29" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="29" customWidth="1"/>
-    <col min="11" max="11" width="6" style="29" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="29" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" style="29" customWidth="1"/>
-    <col min="14" max="14" width="25.42578125" style="29" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" style="29" customWidth="1"/>
-    <col min="16" max="16" width="10" style="29" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="29"/>
-    <col min="18" max="18" width="11.85546875" style="29" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="1" width="10.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="27" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="27" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="14.28515625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="27" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="27" customWidth="1"/>
+    <col min="11" max="11" width="6" style="27" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="27" customWidth="1"/>
+    <col min="13" max="13" width="0.140625" style="27" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" style="27" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="27" customWidth="1"/>
+    <col min="16" max="16" width="10" style="27" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="27"/>
+    <col min="18" max="18" width="11.85546875" style="27" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="J1" s="25" t="s">
+      <c r="H1" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="J1" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="L1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="N1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="26" t="s">
+      <c r="N1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="26" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="90" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+    <row r="2" spans="1:18" s="87" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="83">
-        <v>6</v>
-      </c>
-      <c r="D2" s="83">
-        <v>4</v>
-      </c>
-      <c r="E2" s="83">
-        <v>2</v>
-      </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83">
-        <v>6</v>
-      </c>
-      <c r="H2" s="83">
+      <c r="C2" s="80">
+        <v>6</v>
+      </c>
+      <c r="D2" s="80">
+        <v>4</v>
+      </c>
+      <c r="E2" s="80">
+        <v>2</v>
+      </c>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80">
+        <v>6</v>
+      </c>
+      <c r="H2" s="80">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83">
+      <c r="I2" s="80"/>
+      <c r="J2" s="80">
         <v>3</v>
       </c>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="88" t="s">
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="85" t="s">
         <v>281</v>
       </c>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="89"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="86"/>
+    </row>
+    <row r="3" spans="1:18" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="17">
-        <v>4</v>
-      </c>
-      <c r="D3" s="17">
-        <v>6</v>
-      </c>
-      <c r="E3" s="17">
-        <v>4</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17">
-        <v>4</v>
-      </c>
-      <c r="H3" s="17">
+      <c r="C3" s="80">
+        <v>4</v>
+      </c>
+      <c r="D3" s="80">
+        <v>6</v>
+      </c>
+      <c r="E3" s="80">
+        <v>4</v>
+      </c>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80">
+        <v>4</v>
+      </c>
+      <c r="H3" s="80">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17">
+      <c r="I3" s="80"/>
+      <c r="J3" s="80">
         <v>3</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="4" t="s">
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="85" t="s">
         <v>294</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="30"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="86"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -7198,7 +7232,7 @@
       <c r="Q4" s="4">
         <v>4</v>
       </c>
-      <c r="R4" s="30"/>
+      <c r="R4" s="28"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -7241,7 +7275,7 @@
       <c r="Q5" s="4">
         <v>6</v>
       </c>
-      <c r="R5" s="30"/>
+      <c r="R5" s="28"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -7288,46 +7322,46 @@
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="30"/>
-    </row>
-    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="R6" s="28"/>
+    </row>
+    <row r="7" spans="1:18" s="87" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="88" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="85">
         <v>12</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="85">
         <v>10</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4">
+      <c r="G7" s="85">
         <v>12</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="85">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>10</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4">
-        <v>2</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4">
+      <c r="I7" s="85"/>
+      <c r="J7" s="85">
+        <v>2</v>
+      </c>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="85" t="s">
         <v>283</v>
       </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="30"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="86"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -7370,7 +7404,7 @@
         <v>2</v>
       </c>
       <c r="Q8" s="4"/>
-      <c r="R8" s="30"/>
+      <c r="R8" s="28"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -7413,7 +7447,7 @@
         <v>4</v>
       </c>
       <c r="Q9" s="4"/>
-      <c r="R9" s="30"/>
+      <c r="R9" s="28"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -7448,15 +7482,15 @@
       <c r="M10" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N10" s="31" t="s">
+      <c r="N10" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="O10" s="31">
+      <c r="O10" s="29">
         <v>12</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="30"/>
+      <c r="R10" s="28"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -7489,13 +7523,13 @@
       <c r="M11" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N11" s="31" t="s">
+      <c r="N11" s="29" t="s">
         <v>202</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="30"/>
+      <c r="R11" s="28"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -7528,13 +7562,13 @@
       <c r="M12" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N12" s="31" t="s">
+      <c r="N12" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="30"/>
+      <c r="R12" s="28"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
@@ -7573,7 +7607,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="30"/>
+      <c r="R13" s="28"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -7610,56 +7644,56 @@
       <c r="M14" s="4">
         <v>6.080101</v>
       </c>
-      <c r="N14" s="32" t="s">
+      <c r="N14" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="O14" s="32">
+      <c r="O14" s="30">
         <v>12</v>
       </c>
-      <c r="P14" s="32">
+      <c r="P14" s="30">
         <v>2</v>
       </c>
       <c r="Q14" s="4"/>
-      <c r="R14" s="30"/>
+      <c r="R14" s="28"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="77">
+      <c r="C15" s="74">
         <v>10</v>
       </c>
-      <c r="D15" s="77">
-        <v>8</v>
-      </c>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77">
-        <v>8</v>
-      </c>
-      <c r="H15" s="77">
+      <c r="D15" s="74">
+        <v>8</v>
+      </c>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74">
+        <v>8</v>
+      </c>
+      <c r="H15" s="74">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>10</v>
       </c>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77">
-        <v>2</v>
-      </c>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77">
+      <c r="I15" s="74"/>
+      <c r="J15" s="74">
+        <v>2</v>
+      </c>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74">
         <v>6.080101</v>
       </c>
-      <c r="N15" s="77" t="s">
+      <c r="N15" s="74" t="s">
         <v>284</v>
       </c>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77" t="s">
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74" t="s">
         <v>236</v>
       </c>
     </row>
@@ -7704,7 +7738,7 @@
         <v>4</v>
       </c>
       <c r="Q16" s="4"/>
-      <c r="R16" s="30"/>
+      <c r="R16" s="28"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -7741,17 +7775,17 @@
       <c r="M17" s="4">
         <v>6.080101</v>
       </c>
-      <c r="N17" s="31" t="s">
+      <c r="N17" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="O17" s="31">
+      <c r="O17" s="29">
         <v>10</v>
       </c>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31">
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29">
         <v>0</v>
       </c>
-      <c r="R17" s="30"/>
+      <c r="R17" s="28"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -7800,7 +7834,7 @@
       <c r="Q18" s="4">
         <v>2</v>
       </c>
-      <c r="R18" s="30"/>
+      <c r="R18" s="28"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -7835,17 +7869,17 @@
       <c r="M19" s="4">
         <v>6.080101</v>
       </c>
-      <c r="N19" s="32" t="s">
+      <c r="N19" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="O19" s="32">
-        <v>6</v>
-      </c>
-      <c r="P19" s="32">
+      <c r="O19" s="30">
+        <v>6</v>
+      </c>
+      <c r="P19" s="30">
         <v>2</v>
       </c>
       <c r="Q19" s="4"/>
-      <c r="R19" s="30"/>
+      <c r="R19" s="28"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
@@ -7888,7 +7922,7 @@
         <v>2</v>
       </c>
       <c r="Q20" s="4"/>
-      <c r="R20" s="30"/>
+      <c r="R20" s="28"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
@@ -7921,17 +7955,17 @@
       <c r="M21" s="4">
         <v>6.080101</v>
       </c>
-      <c r="N21" s="32" t="s">
+      <c r="N21" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="O21" s="32">
-        <v>4</v>
-      </c>
-      <c r="P21" s="32">
+      <c r="O21" s="30">
+        <v>4</v>
+      </c>
+      <c r="P21" s="30">
         <v>4</v>
       </c>
       <c r="Q21" s="4"/>
-      <c r="R21" s="30"/>
+      <c r="R21" s="28"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
@@ -7968,17 +8002,17 @@
       <c r="M22" s="4">
         <v>6.090103</v>
       </c>
-      <c r="N22" s="31" t="s">
+      <c r="N22" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="O22" s="31">
-        <v>8</v>
-      </c>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31">
+      <c r="O22" s="29">
+        <v>8</v>
+      </c>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29">
         <v>0</v>
       </c>
-      <c r="R22" s="30"/>
+      <c r="R22" s="28"/>
     </row>
     <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
@@ -8011,17 +8045,17 @@
       <c r="M23" s="4">
         <v>6.090103</v>
       </c>
-      <c r="N23" s="31" t="s">
+      <c r="N23" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="O23" s="31">
-        <v>8</v>
-      </c>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31">
-        <v>4</v>
-      </c>
-      <c r="R23" s="30"/>
+      <c r="O23" s="29">
+        <v>8</v>
+      </c>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29">
+        <v>4</v>
+      </c>
+      <c r="R23" s="28"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
@@ -8058,13 +8092,11 @@
       <c r="M24" s="4">
         <v>6.090103</v>
       </c>
-      <c r="N24" s="4" t="s">
-        <v>300</v>
-      </c>
+      <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="30"/>
+      <c r="R24" s="28"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
@@ -8107,9 +8139,9 @@
       <c r="O25" s="4">
         <v>10</v>
       </c>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="28"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
@@ -8150,7 +8182,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="4"/>
-      <c r="R26" s="30"/>
+      <c r="R26" s="28"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
@@ -8187,17 +8219,17 @@
       <c r="M27" s="4">
         <v>6.090103</v>
       </c>
-      <c r="N27" s="31" t="s">
+      <c r="N27" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="O27" s="31">
+      <c r="O27" s="29">
         <v>10</v>
       </c>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31">
-        <v>4</v>
-      </c>
-      <c r="R27" s="33"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29">
+        <v>4</v>
+      </c>
+      <c r="R27" s="31"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
@@ -8232,15 +8264,15 @@
       <c r="M28" s="4">
         <v>6.090103</v>
       </c>
-      <c r="N28" s="54" t="s">
+      <c r="N28" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="O28" s="54">
-        <v>4</v>
-      </c>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="33"/>
+      <c r="O28" s="52">
+        <v>4</v>
+      </c>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="31"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
@@ -8275,17 +8307,17 @@
       <c r="M29" s="4">
         <v>6.090103</v>
       </c>
-      <c r="N29" s="31" t="s">
+      <c r="N29" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="O29" s="31">
-        <v>8</v>
-      </c>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31">
-        <v>4</v>
-      </c>
-      <c r="R29" s="30"/>
+      <c r="O29" s="29">
+        <v>8</v>
+      </c>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29">
+        <v>4</v>
+      </c>
+      <c r="R29" s="28"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
@@ -8322,17 +8354,17 @@
       <c r="M30" s="4">
         <v>6.090103</v>
       </c>
-      <c r="N30" s="31" t="s">
+      <c r="N30" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="O30" s="31">
+      <c r="O30" s="29">
         <v>10</v>
       </c>
-      <c r="P30" s="31">
-        <v>4</v>
-      </c>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="30"/>
+      <c r="P30" s="29">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="28"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
@@ -8369,62 +8401,62 @@
       <c r="M31" s="4">
         <v>6.090103</v>
       </c>
-      <c r="N31" s="31" t="s">
+      <c r="N31" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="O31" s="31">
-        <v>8</v>
-      </c>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31">
-        <v>2</v>
-      </c>
-      <c r="R31" s="34"/>
+      <c r="O31" s="29">
+        <v>8</v>
+      </c>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29">
+        <v>2</v>
+      </c>
+      <c r="R31" s="32"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="22">
-        <v>6</v>
-      </c>
-      <c r="D32" s="22">
-        <v>4</v>
-      </c>
-      <c r="E32" s="22">
-        <v>4</v>
-      </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22">
-        <v>4</v>
-      </c>
-      <c r="H32" s="22">
+      <c r="C32" s="20">
+        <v>6</v>
+      </c>
+      <c r="D32" s="20">
+        <v>4</v>
+      </c>
+      <c r="E32" s="20">
+        <v>4</v>
+      </c>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20">
+        <v>4</v>
+      </c>
+      <c r="H32" s="20">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22">
+      <c r="I32" s="20"/>
+      <c r="J32" s="20">
         <v>3</v>
       </c>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22">
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20">
         <v>6.090103</v>
       </c>
-      <c r="N32" s="35" t="s">
+      <c r="N32" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="O32" s="35">
-        <v>6</v>
-      </c>
-      <c r="P32" s="35">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="37"/>
+      <c r="O32" s="33">
+        <v>6</v>
+      </c>
+      <c r="P32" s="33">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8440,14 +8472,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.7109375" style="7" customWidth="1"/>
     <col min="3" max="4" width="14.28515625" style="7" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" style="7" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="7" hidden="1" customWidth="1"/>
@@ -8456,8 +8488,8 @@
     <col min="9" max="9" width="9.140625" style="7" customWidth="1"/>
     <col min="10" max="10" width="7.42578125" style="7" customWidth="1"/>
     <col min="11" max="11" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" style="7" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="25" style="7" customWidth="1"/>
     <col min="15" max="15" width="9.28515625" style="7" customWidth="1"/>
     <col min="16" max="16" width="10" style="7" customWidth="1"/>
@@ -8465,55 +8497,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="J1" s="25" t="s">
+      <c r="H1" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="J1" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="L1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="N1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="26" t="s">
+      <c r="N1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="25" t="s">
         <v>211</v>
       </c>
     </row>
@@ -8535,26 +8567,26 @@
       <c r="G2" s="4">
         <v>8</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="16">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>16</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17">
-        <v>2</v>
-      </c>
-      <c r="K2" s="17"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16">
+        <v>2</v>
+      </c>
+      <c r="K2" s="16"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="O2" s="19">
+      <c r="O2" s="17">
         <v>12</v>
       </c>
-      <c r="P2" s="19"/>
+      <c r="P2" s="17"/>
       <c r="Q2" s="13">
         <v>12</v>
       </c>
@@ -8686,46 +8718,46 @@
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="77">
-        <v>6</v>
-      </c>
-      <c r="D6" s="77">
-        <v>4</v>
-      </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77">
-        <v>8</v>
-      </c>
-      <c r="H6" s="77">
+      <c r="C6" s="74">
+        <v>6</v>
+      </c>
+      <c r="D6" s="74">
+        <v>4</v>
+      </c>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74">
+        <v>8</v>
+      </c>
+      <c r="H6" s="74">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77">
-        <v>2</v>
-      </c>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77">
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74">
+        <v>2</v>
+      </c>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N6" s="76" t="s">
+      <c r="N6" s="73" t="s">
         <v>203</v>
       </c>
-      <c r="O6" s="76">
-        <v>8</v>
-      </c>
-      <c r="P6" s="76">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="76"/>
+      <c r="O6" s="73">
+        <v>8</v>
+      </c>
+      <c r="P6" s="73">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="73"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -9042,7 +9074,7 @@
       <c r="M14" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="N14" s="17" t="s">
         <v>205</v>
       </c>
       <c r="O14" s="3"/>
@@ -9080,7 +9112,7 @@
       <c r="M15" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N15" s="31" t="s">
+      <c r="N15" s="29" t="s">
         <v>249</v>
       </c>
       <c r="O15" s="3"/>
@@ -9132,48 +9164,48 @@
       <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="77">
-        <v>4</v>
-      </c>
-      <c r="D17" s="77">
-        <v>4</v>
-      </c>
-      <c r="E17" s="77">
-        <v>6</v>
-      </c>
-      <c r="F17" s="77">
-        <v>6</v>
-      </c>
-      <c r="G17" s="77">
+      <c r="C17" s="74">
+        <v>4</v>
+      </c>
+      <c r="D17" s="74">
+        <v>4</v>
+      </c>
+      <c r="E17" s="74">
+        <v>6</v>
+      </c>
+      <c r="F17" s="74">
+        <v>6</v>
+      </c>
+      <c r="G17" s="74">
         <v>0</v>
       </c>
-      <c r="H17" s="77">
+      <c r="H17" s="74">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>8</v>
       </c>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77">
-        <v>4</v>
-      </c>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77">
+      <c r="I17" s="74"/>
+      <c r="J17" s="74">
+        <v>4</v>
+      </c>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74">
         <v>6.080101</v>
       </c>
-      <c r="N17" s="78" t="s">
+      <c r="N17" s="75" t="s">
         <v>213</v>
       </c>
-      <c r="O17" s="78">
-        <v>8</v>
-      </c>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="78">
+      <c r="O17" s="75">
+        <v>8</v>
+      </c>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75">
         <v>0</v>
       </c>
     </row>
@@ -9465,7 +9497,7 @@
         <v>8</v>
       </c>
       <c r="P24" s="10"/>
-      <c r="Q24" s="38">
+      <c r="Q24" s="36">
         <v>0</v>
       </c>
     </row>
@@ -9668,7 +9700,7 @@
       <c r="M29" s="4">
         <v>6.080101</v>
       </c>
-      <c r="N29" s="19" t="s">
+      <c r="N29" s="17" t="s">
         <v>244</v>
       </c>
       <c r="O29" s="3"/>
@@ -9717,47 +9749,47 @@
         <v>6</v>
       </c>
       <c r="P30" s="10"/>
-      <c r="Q30" s="38">
+      <c r="Q30" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:17" s="100" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="4">
-        <v>6</v>
-      </c>
-      <c r="D31" s="4">
-        <v>2</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4">
-        <v>6</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="C31" s="85">
+        <v>6</v>
+      </c>
+      <c r="D31" s="85">
+        <v>2</v>
+      </c>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85">
+        <v>6</v>
+      </c>
+      <c r="H31" s="85">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4">
-        <v>2</v>
-      </c>
-      <c r="L31" s="4" t="s">
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85">
+        <v>2</v>
+      </c>
+      <c r="L31" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="M31" s="4"/>
-      <c r="N31" s="3" t="s">
+      <c r="M31" s="85"/>
+      <c r="N31" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="12"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="83"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
@@ -9800,7 +9832,7 @@
       <c r="O32" s="10">
         <v>6</v>
       </c>
-      <c r="P32" s="31">
+      <c r="P32" s="29">
         <v>2</v>
       </c>
       <c r="Q32" s="12"/>
@@ -9847,45 +9879,45 @@
       <c r="P33" s="10">
         <v>0</v>
       </c>
-      <c r="Q33" s="38"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="Q33" s="36"/>
+    </row>
+    <row r="34" spans="1:17" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="4">
-        <v>6</v>
-      </c>
-      <c r="D34" s="4">
-        <v>2</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4">
-        <v>6</v>
-      </c>
-      <c r="H34" s="4">
+      <c r="C34" s="85">
+        <v>6</v>
+      </c>
+      <c r="D34" s="85">
+        <v>2</v>
+      </c>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85">
+        <v>6</v>
+      </c>
+      <c r="H34" s="85">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4">
-        <v>2</v>
-      </c>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4">
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85">
+        <v>2</v>
+      </c>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85">
         <v>6.090103</v>
       </c>
-      <c r="N34" s="7" t="s">
+      <c r="N34" s="100" t="s">
         <v>287</v>
       </c>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="12"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="82"/>
+      <c r="Q34" s="83"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
@@ -9975,7 +10007,7 @@
         <v>6</v>
       </c>
       <c r="P36" s="10"/>
-      <c r="Q36" s="38">
+      <c r="Q36" s="36">
         <v>4</v>
       </c>
     </row>
@@ -10141,8 +10173,8 @@
       <c r="N40" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
       <c r="Q40" s="12"/>
     </row>
     <row r="41" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -10274,48 +10306,48 @@
       <c r="Q43" s="12"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="22">
-        <v>6</v>
-      </c>
-      <c r="D44" s="22">
-        <v>6</v>
-      </c>
-      <c r="E44" s="22">
-        <v>6</v>
-      </c>
-      <c r="F44" s="22">
-        <v>8</v>
-      </c>
-      <c r="G44" s="22">
-        <v>6</v>
-      </c>
-      <c r="H44" s="22">
+      <c r="C44" s="20">
+        <v>6</v>
+      </c>
+      <c r="D44" s="20">
+        <v>6</v>
+      </c>
+      <c r="E44" s="20">
+        <v>6</v>
+      </c>
+      <c r="F44" s="20">
+        <v>8</v>
+      </c>
+      <c r="G44" s="20">
+        <v>6</v>
+      </c>
+      <c r="H44" s="20">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22">
-        <v>4</v>
-      </c>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22">
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20">
+        <v>4</v>
+      </c>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20">
         <v>6.090103</v>
       </c>
-      <c r="N44" s="39" t="s">
+      <c r="N44" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="O44" s="39">
+      <c r="O44" s="37">
         <v>12</v>
       </c>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="23"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="21"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
@@ -10496,8 +10528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10510,8 +10542,8 @@
     <col min="8" max="8" width="9" style="6" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" style="6" customWidth="1"/>
     <col min="10" max="11" width="6.28515625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="3" style="6" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" style="6" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="23" style="6" customWidth="1"/>
     <col min="15" max="15" width="9.28515625" style="6" customWidth="1"/>
     <col min="16" max="16" width="10" style="6" customWidth="1"/>
@@ -10520,55 +10552,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="J1" s="25" t="s">
+      <c r="H1" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="J1" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="L1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="N1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="26" t="s">
+      <c r="N1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="25" t="s">
         <v>211</v>
       </c>
     </row>
@@ -10733,7 +10765,7 @@
       <c r="O5" s="10">
         <v>10</v>
       </c>
-      <c r="P5" s="31">
+      <c r="P5" s="29">
         <v>4</v>
       </c>
       <c r="Q5" s="12"/>
@@ -11182,7 +11214,7 @@
         <v>12</v>
       </c>
       <c r="P16" s="10"/>
-      <c r="Q16" s="38">
+      <c r="Q16" s="36">
         <v>2</v>
       </c>
     </row>
@@ -11304,7 +11336,7 @@
         <v>8</v>
       </c>
       <c r="P19" s="10"/>
-      <c r="Q19" s="38">
+      <c r="Q19" s="36">
         <v>0</v>
       </c>
     </row>
@@ -11514,42 +11546,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+    <row r="25" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41">
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39">
         <v>10</v>
       </c>
-      <c r="G25" s="41">
+      <c r="G25" s="39">
         <v>0</v>
       </c>
-      <c r="H25" s="41">
+      <c r="H25" s="39">
         <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
         <v>0</v>
       </c>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41">
-        <v>4</v>
-      </c>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41">
+      <c r="I25" s="39"/>
+      <c r="J25" s="39">
+        <v>4</v>
+      </c>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39">
         <v>6.080101</v>
       </c>
-      <c r="N25" s="42" t="s">
+      <c r="N25" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="44"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="42"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
@@ -11593,7 +11625,7 @@
       <c r="P26" s="10">
         <v>8</v>
       </c>
-      <c r="Q26" s="38">
+      <c r="Q26" s="36">
         <v>2</v>
       </c>
     </row>
@@ -11778,7 +11810,9 @@
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="3"/>
+      <c r="N31" s="3" t="s">
+        <v>332</v>
+      </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="12"/>
@@ -11862,13 +11896,13 @@
       <c r="M33" s="4">
         <v>6.090103</v>
       </c>
-      <c r="N33" s="19" t="s">
+      <c r="N33" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="O33" s="19">
+      <c r="O33" s="17">
         <v>10</v>
       </c>
-      <c r="P33" s="19"/>
+      <c r="P33" s="17"/>
       <c r="Q33" s="13">
         <v>0</v>
       </c>
@@ -11952,13 +11986,13 @@
       <c r="M35" s="4">
         <v>6.090103</v>
       </c>
-      <c r="N35" s="19" t="s">
+      <c r="N35" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="O35" s="19">
-        <v>6</v>
-      </c>
-      <c r="P35" s="19">
+      <c r="O35" s="17">
+        <v>6</v>
+      </c>
+      <c r="P35" s="17">
         <v>2</v>
       </c>
       <c r="Q35" s="12"/>
@@ -12040,13 +12074,13 @@
       <c r="M37" s="4">
         <v>6.090103</v>
       </c>
-      <c r="N37" s="19" t="s">
+      <c r="N37" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="O37" s="19">
-        <v>6</v>
-      </c>
-      <c r="P37" s="19">
+      <c r="O37" s="17">
+        <v>6</v>
+      </c>
+      <c r="P37" s="17">
         <v>0</v>
       </c>
       <c r="Q37" s="12"/>
@@ -12126,13 +12160,13 @@
       <c r="M39" s="4">
         <v>6.090103</v>
       </c>
-      <c r="N39" s="19" t="s">
+      <c r="N39" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="O39" s="19">
-        <v>6</v>
-      </c>
-      <c r="P39" s="19">
+      <c r="O39" s="17">
+        <v>6</v>
+      </c>
+      <c r="P39" s="17">
         <v>0</v>
       </c>
       <c r="Q39" s="12"/>
@@ -12142,7 +12176,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C40" s="4">
         <v>6</v>
@@ -12174,13 +12208,13 @@
       <c r="M40" s="4">
         <v>6.090103</v>
       </c>
-      <c r="N40" s="19" t="s">
+      <c r="N40" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="O40" s="19">
-        <v>6</v>
-      </c>
-      <c r="P40" s="19"/>
+      <c r="O40" s="17">
+        <v>6</v>
+      </c>
+      <c r="P40" s="17"/>
       <c r="Q40" s="12"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -12228,48 +12262,48 @@
       <c r="Q41" s="12"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="22">
-        <v>4</v>
-      </c>
-      <c r="D42" s="22">
-        <v>6</v>
-      </c>
-      <c r="E42" s="22">
-        <v>4</v>
-      </c>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22">
-        <v>4</v>
-      </c>
-      <c r="H42" s="22">
+      <c r="C42" s="20">
+        <v>4</v>
+      </c>
+      <c r="D42" s="20">
+        <v>6</v>
+      </c>
+      <c r="E42" s="20">
+        <v>4</v>
+      </c>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20">
+        <v>4</v>
+      </c>
+      <c r="H42" s="20">
         <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22">
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20">
         <v>3</v>
       </c>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22">
+      <c r="L42" s="20"/>
+      <c r="M42" s="20">
         <v>6.090103</v>
       </c>
-      <c r="N42" s="39" t="s">
+      <c r="N42" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="O42" s="39">
-        <v>8</v>
-      </c>
-      <c r="P42" s="39">
-        <v>2</v>
-      </c>
-      <c r="Q42" s="23"/>
+      <c r="O42" s="37">
+        <v>8</v>
+      </c>
+      <c r="P42" s="37">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12284,23 +12318,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="7" customWidth="1"/>
     <col min="2" max="2" width="51.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.28515625" style="7" customWidth="1"/>
-    <col min="5" max="6" width="14.28515625" style="7" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="7" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="7" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" style="7" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" style="7" customWidth="1"/>
     <col min="9" max="9" width="6" style="7" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" style="7" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="7" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="23.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.28515625" style="7" customWidth="1"/>
     <col min="16" max="16" width="10" style="7" customWidth="1"/>
@@ -12309,55 +12345,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="I1" s="25" t="s">
+      <c r="H1" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="I1" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="K1" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="L1" s="25" t="s">
+      <c r="J1" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="L1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="N1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="26" t="s">
+      <c r="N1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="25" t="s">
         <v>211</v>
       </c>
     </row>
@@ -12400,7 +12436,7 @@
       <c r="O2" s="10">
         <v>8</v>
       </c>
-      <c r="P2" s="19"/>
+      <c r="P2" s="17"/>
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -12711,7 +12747,7 @@
       <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="44" t="s">
         <v>148</v>
       </c>
       <c r="C10" s="4">
@@ -12740,13 +12776,13 @@
       <c r="M10" s="4">
         <v>6.080101</v>
       </c>
-      <c r="N10" s="19" t="s">
+      <c r="N10" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="17">
         <v>18</v>
       </c>
-      <c r="P10" s="19"/>
+      <c r="P10" s="17"/>
       <c r="Q10" s="13">
         <v>4</v>
       </c>
@@ -12784,13 +12820,13 @@
       <c r="M11" s="4">
         <v>6.080101</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="N11" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11" s="17">
         <v>12</v>
       </c>
-      <c r="P11" s="19"/>
+      <c r="P11" s="17"/>
       <c r="Q11" s="13">
         <v>8</v>
       </c>
@@ -12828,13 +12864,13 @@
       <c r="M12" s="4">
         <v>6.080101</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="O12" s="19">
+      <c r="O12" s="17">
         <v>16</v>
       </c>
-      <c r="P12" s="19"/>
+      <c r="P12" s="17"/>
       <c r="Q12" s="13">
         <v>8</v>
       </c>
@@ -12880,42 +12916,42 @@
       <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="4">
-        <v>6</v>
-      </c>
-      <c r="D14" s="4">
-        <v>6</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4">
+      <c r="C14" s="85">
+        <v>6</v>
+      </c>
+      <c r="D14" s="85">
+        <v>6</v>
+      </c>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85">
         <v>0</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4">
-        <v>2</v>
-      </c>
-      <c r="K14" s="4">
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85">
+        <v>2</v>
+      </c>
+      <c r="K14" s="85">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>12</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4">
+      <c r="L14" s="85"/>
+      <c r="M14" s="85">
         <v>6.080101</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="85" t="s">
         <v>281</v>
       </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="12"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="83"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
@@ -12951,10 +12987,10 @@
       <c r="N15" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="O15" s="19">
-        <v>8</v>
-      </c>
-      <c r="P15" s="19">
+      <c r="O15" s="17">
+        <v>8</v>
+      </c>
+      <c r="P15" s="17">
         <v>6</v>
       </c>
       <c r="Q15" s="12"/>
@@ -13034,56 +13070,56 @@
       <c r="M17" s="4">
         <v>6.090103</v>
       </c>
-      <c r="N17" s="19" t="s">
+      <c r="N17" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="O17" s="19">
-        <v>8</v>
-      </c>
-      <c r="P17" s="19">
+      <c r="O17" s="17">
+        <v>8</v>
+      </c>
+      <c r="P17" s="17">
         <v>2</v>
       </c>
       <c r="Q17" s="12"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="79">
-        <v>6</v>
-      </c>
-      <c r="D18" s="79">
-        <v>6</v>
-      </c>
-      <c r="E18" s="79">
-        <v>6</v>
-      </c>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79">
+      <c r="C18" s="76">
+        <v>6</v>
+      </c>
+      <c r="D18" s="76">
+        <v>6</v>
+      </c>
+      <c r="E18" s="76">
+        <v>6</v>
+      </c>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76">
         <v>0</v>
       </c>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79">
+      <c r="H18" s="76"/>
+      <c r="I18" s="76">
         <v>3</v>
       </c>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79">
+      <c r="J18" s="76"/>
+      <c r="K18" s="76">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>12</v>
       </c>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79">
+      <c r="L18" s="76"/>
+      <c r="M18" s="76">
         <v>6.090103</v>
       </c>
-      <c r="N18" s="80" t="s">
+      <c r="N18" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="O18" s="80"/>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="76"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="73"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -13209,10 +13245,10 @@
       <c r="N21" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="O21" s="19">
-        <v>6</v>
-      </c>
-      <c r="P21" s="19"/>
+      <c r="O21" s="17">
+        <v>6</v>
+      </c>
+      <c r="P21" s="17"/>
       <c r="Q21" s="13">
         <v>2</v>
       </c>
@@ -13381,85 +13417,85 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:17" s="100" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="4">
-        <v>6</v>
-      </c>
-      <c r="D26" s="4">
-        <v>2</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4">
-        <v>6</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4">
-        <v>2</v>
-      </c>
-      <c r="K26" s="4">
+      <c r="C26" s="85">
+        <v>6</v>
+      </c>
+      <c r="D26" s="85">
+        <v>2</v>
+      </c>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85">
+        <v>6</v>
+      </c>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85">
+        <v>2</v>
+      </c>
+      <c r="K26" s="85">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="3" t="s">
+      <c r="M26" s="85"/>
+      <c r="N26" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="12"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="83"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="C27" s="22">
-        <v>4</v>
-      </c>
-      <c r="D27" s="22">
-        <v>4</v>
-      </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22">
-        <v>4</v>
-      </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22">
-        <v>2</v>
-      </c>
-      <c r="K27" s="22">
+      <c r="C27" s="20">
+        <v>4</v>
+      </c>
+      <c r="D27" s="20">
+        <v>4</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20">
+        <v>4</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20">
+        <v>2</v>
+      </c>
+      <c r="K27" s="20">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22">
+      <c r="L27" s="20"/>
+      <c r="M27" s="20">
         <v>6.090103</v>
       </c>
-      <c r="N27" s="47" t="s">
+      <c r="N27" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="O27" s="47">
-        <v>4</v>
-      </c>
-      <c r="P27" s="47">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="23"/>
+      <c r="O27" s="45">
+        <v>4</v>
+      </c>
+      <c r="P27" s="45">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13475,75 +13511,75 @@
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52" style="49" customWidth="1"/>
-    <col min="3" max="4" width="14.28515625" style="48" customWidth="1"/>
-    <col min="5" max="6" width="14.28515625" style="48" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="14.28515625" style="48" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="48" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" style="48" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="48" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="48" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="48" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="23.85546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" style="48" customWidth="1"/>
-    <col min="16" max="16" width="10" style="48" customWidth="1"/>
-    <col min="17" max="17" width="7.140625" style="48" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="48"/>
+    <col min="1" max="1" width="15.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52" style="47" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" style="46" customWidth="1"/>
+    <col min="5" max="6" width="14.28515625" style="46" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="14.28515625" style="46" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="46" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="46" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="46" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="46" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="46" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="23.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="46" customWidth="1"/>
+    <col min="16" max="16" width="10" style="46" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" style="46" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" s="57" t="s">
         <v>302</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="E1" s="57" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="F1" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="G1" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="J1" s="25" t="s">
+      <c r="H1" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="J1" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="K1" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="N1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="21" t="s">
+      <c r="N1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="19" t="s">
         <v>268</v>
       </c>
       <c r="Q1" s="9" t="s">
@@ -13588,7 +13624,7 @@
       <c r="P2" s="3">
         <v>4</v>
       </c>
-      <c r="Q2" s="57"/>
+      <c r="Q2" s="55"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -13630,7 +13666,7 @@
       <c r="P3" s="3">
         <v>4</v>
       </c>
-      <c r="Q3" s="57"/>
+      <c r="Q3" s="55"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -13666,47 +13702,47 @@
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="57"/>
+      <c r="Q4" s="55"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="77">
-        <v>4</v>
-      </c>
-      <c r="D5" s="77">
-        <v>6</v>
-      </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77">
-        <v>6</v>
-      </c>
-      <c r="H5" s="77">
+      <c r="C5" s="74">
+        <v>4</v>
+      </c>
+      <c r="D5" s="74">
+        <v>6</v>
+      </c>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74">
+        <v>6</v>
+      </c>
+      <c r="H5" s="74">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77">
-        <v>2</v>
-      </c>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77">
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74">
+        <v>2</v>
+      </c>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74">
         <v>7.0140000000000002</v>
       </c>
-      <c r="N5" s="76" t="s">
+      <c r="N5" s="73" t="s">
         <v>212</v>
       </c>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76">
+      <c r="O5" s="73"/>
+      <c r="P5" s="73">
         <v>10</v>
       </c>
-      <c r="Q5" s="81"/>
+      <c r="Q5" s="78"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -13739,16 +13775,16 @@
       <c r="M6" s="4">
         <v>7.0140000000000002</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="17">
         <v>12</v>
       </c>
-      <c r="P6" s="19">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="57"/>
+      <c r="P6" s="17">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="55"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -13786,7 +13822,7 @@
         <v>4</v>
       </c>
       <c r="P7" s="3"/>
-      <c r="Q7" s="57"/>
+      <c r="Q7" s="55"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -13826,7 +13862,7 @@
         <v>14</v>
       </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="57"/>
+      <c r="Q8" s="55"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -13864,7 +13900,7 @@
         <v>4</v>
       </c>
       <c r="P9" s="3"/>
-      <c r="Q9" s="57"/>
+      <c r="Q9" s="55"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -13904,7 +13940,7 @@
         <v>6</v>
       </c>
       <c r="P10" s="3"/>
-      <c r="Q10" s="57"/>
+      <c r="Q10" s="55"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -13935,14 +13971,14 @@
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="19" t="s">
+      <c r="N11" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11" s="17">
         <v>8</v>
       </c>
       <c r="P11" s="3"/>
-      <c r="Q11" s="57"/>
+      <c r="Q11" s="55"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -13980,7 +14016,7 @@
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="57"/>
+      <c r="Q12" s="55"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -14016,7 +14052,7 @@
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="57"/>
+      <c r="Q13" s="55"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -14052,7 +14088,7 @@
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="57"/>
+      <c r="Q14" s="55"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -14086,7 +14122,7 @@
       <c r="N15" s="10"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="57"/>
+      <c r="Q15" s="55"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -14126,7 +14162,7 @@
       <c r="P16" s="10">
         <v>4</v>
       </c>
-      <c r="Q16" s="57"/>
+      <c r="Q16" s="55"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -14166,7 +14202,7 @@
       <c r="P17" s="10">
         <v>4</v>
       </c>
-      <c r="Q17" s="57"/>
+      <c r="Q17" s="55"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -14200,13 +14236,13 @@
       <c r="N18" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="O18" s="19">
-        <v>8</v>
-      </c>
-      <c r="P18" s="19">
-        <v>6</v>
-      </c>
-      <c r="Q18" s="57"/>
+      <c r="O18" s="17">
+        <v>8</v>
+      </c>
+      <c r="P18" s="17">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="55"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -14248,7 +14284,7 @@
       <c r="P19" s="3">
         <v>4</v>
       </c>
-      <c r="Q19" s="57"/>
+      <c r="Q19" s="55"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -14284,13 +14320,13 @@
       <c r="N20" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="O20" s="19">
+      <c r="O20" s="17">
         <v>10</v>
       </c>
-      <c r="P20" s="19">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="57"/>
+      <c r="P20" s="17">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="55"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -14332,13 +14368,13 @@
       <c r="P21" s="10">
         <v>2</v>
       </c>
-      <c r="Q21" s="57"/>
+      <c r="Q21" s="55"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="39" t="s">
         <v>265</v>
       </c>
       <c r="C22" s="4">
@@ -14372,7 +14408,7 @@
       <c r="P22" s="10">
         <v>4</v>
       </c>
-      <c r="Q22" s="57"/>
+      <c r="Q22" s="55"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -14410,7 +14446,7 @@
         <v>6</v>
       </c>
       <c r="P23" s="3"/>
-      <c r="Q23" s="57"/>
+      <c r="Q23" s="55"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -14450,7 +14486,7 @@
         <v>6</v>
       </c>
       <c r="P24" s="3"/>
-      <c r="Q24" s="57"/>
+      <c r="Q24" s="55"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -14488,7 +14524,7 @@
         <v>6</v>
       </c>
       <c r="P25" s="3"/>
-      <c r="Q25" s="57"/>
+      <c r="Q25" s="55"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -14526,13 +14562,13 @@
         <v>8</v>
       </c>
       <c r="P26" s="3"/>
-      <c r="Q26" s="57"/>
+      <c r="Q26" s="55"/>
     </row>
     <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="39" t="s">
         <v>266</v>
       </c>
       <c r="C27" s="4"/>
@@ -14557,14 +14593,14 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="31" t="s">
+      <c r="N27" s="29" t="s">
         <v>270</v>
       </c>
       <c r="O27" s="10">
         <v>8</v>
       </c>
       <c r="P27" s="3"/>
-      <c r="Q27" s="57"/>
+      <c r="Q27" s="55"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -14598,13 +14634,13 @@
       <c r="N28" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="O28" s="19">
-        <v>8</v>
-      </c>
-      <c r="P28" s="19">
-        <v>4</v>
-      </c>
-      <c r="Q28" s="57"/>
+      <c r="O28" s="17">
+        <v>8</v>
+      </c>
+      <c r="P28" s="17">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="55"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -14640,7 +14676,7 @@
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="57"/>
+      <c r="Q29" s="55"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -14680,7 +14716,7 @@
       <c r="P30" s="10">
         <v>10</v>
       </c>
-      <c r="Q30" s="57"/>
+      <c r="Q30" s="55"/>
     </row>
     <row r="31" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -14720,7 +14756,7 @@
         <v>6</v>
       </c>
       <c r="P31" s="3"/>
-      <c r="Q31" s="57"/>
+      <c r="Q31" s="55"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -14756,9 +14792,9 @@
       <c r="N32" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="O32" s="19"/>
+      <c r="O32" s="17"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="57"/>
+      <c r="Q32" s="55"/>
     </row>
     <row r="33" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -14800,7 +14836,7 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-      <c r="Q33" s="57"/>
+      <c r="Q33" s="55"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -14844,59 +14880,61 @@
       <c r="P34" s="4">
         <v>4</v>
       </c>
-      <c r="Q34" s="57"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="64" t="s">
+      <c r="Q34" s="55"/>
+    </row>
+    <row r="35" spans="1:17" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="96" t="s">
+        <v>306</v>
+      </c>
+      <c r="B35" s="96" t="s">
         <v>307</v>
       </c>
-      <c r="B35" s="64" t="s">
-        <v>308</v>
-      </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64">
-        <v>4</v>
-      </c>
-      <c r="E35" s="64">
-        <v>4</v>
-      </c>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64">
+      <c r="C35" s="96"/>
+      <c r="D35" s="96">
+        <v>4</v>
+      </c>
+      <c r="E35" s="62">
+        <v>4</v>
+      </c>
+      <c r="F35" s="62"/>
+      <c r="G35" s="96">
         <v>0</v>
       </c>
-      <c r="H35" s="64">
+      <c r="H35" s="96">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64">
+      <c r="I35" s="96"/>
+      <c r="J35" s="96">
         <v>3</v>
       </c>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64">
+      <c r="K35" s="96"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="62">
         <v>20.204999999999998</v>
       </c>
-      <c r="N35" s="65"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="66"/>
+      <c r="N35" s="97" t="s">
+        <v>331</v>
+      </c>
+      <c r="O35" s="98"/>
+      <c r="P35" s="97"/>
+      <c r="Q35" s="98"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="55">
-        <v>6</v>
-      </c>
-      <c r="E36" s="55">
-        <v>4</v>
-      </c>
-      <c r="F36" s="55">
+      <c r="D36" s="53">
+        <v>6</v>
+      </c>
+      <c r="E36" s="53">
+        <v>4</v>
+      </c>
+      <c r="F36" s="53">
         <v>4</v>
       </c>
       <c r="G36" s="4">
@@ -14915,30 +14953,30 @@
       <c r="M36" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N36" s="58" t="s">
-        <v>321</v>
+      <c r="N36" s="56" t="s">
+        <v>320</v>
       </c>
       <c r="O36" s="3">
         <v>6</v>
       </c>
       <c r="P36" s="3"/>
-      <c r="Q36" s="56"/>
+      <c r="Q36" s="54"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="55">
-        <v>6</v>
-      </c>
-      <c r="E37" s="55">
-        <v>4</v>
-      </c>
-      <c r="F37" s="55">
+      <c r="D37" s="53">
+        <v>6</v>
+      </c>
+      <c r="E37" s="53">
+        <v>4</v>
+      </c>
+      <c r="F37" s="53">
         <v>4</v>
       </c>
       <c r="G37" s="4">
@@ -14959,30 +14997,30 @@
       <c r="M37" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N37" s="58" t="s">
-        <v>322</v>
-      </c>
-      <c r="O37" s="56">
+      <c r="N37" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="O37" s="54">
         <v>6</v>
       </c>
       <c r="P37" s="3"/>
-      <c r="Q37" s="56"/>
+      <c r="Q37" s="54"/>
     </row>
     <row r="38" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="55">
-        <v>6</v>
-      </c>
-      <c r="E38" s="55">
-        <v>4</v>
-      </c>
-      <c r="F38" s="55"/>
+      <c r="D38" s="53">
+        <v>6</v>
+      </c>
+      <c r="E38" s="53">
+        <v>4</v>
+      </c>
+      <c r="F38" s="53"/>
       <c r="G38" s="4">
         <v>0</v>
       </c>
@@ -14999,32 +15037,32 @@
       <c r="M38" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N38" s="58" t="s">
+      <c r="N38" s="56" t="s">
         <v>220</v>
       </c>
-      <c r="O38" s="56">
+      <c r="O38" s="54">
         <v>4</v>
       </c>
       <c r="P38" s="3"/>
-      <c r="Q38" s="56">
+      <c r="Q38" s="54">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="55">
-        <v>6</v>
-      </c>
-      <c r="E39" s="55">
-        <v>4</v>
-      </c>
-      <c r="F39" s="55"/>
+      <c r="D39" s="53">
+        <v>6</v>
+      </c>
+      <c r="E39" s="53">
+        <v>4</v>
+      </c>
+      <c r="F39" s="53"/>
       <c r="G39" s="4">
         <v>0</v>
       </c>
@@ -15041,68 +15079,68 @@
       <c r="M39" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N39" s="58" t="s">
+      <c r="N39" s="56" t="s">
         <v>264</v>
       </c>
-      <c r="O39" s="56">
+      <c r="O39" s="54">
         <v>4</v>
       </c>
       <c r="P39" s="3">
         <v>2</v>
       </c>
-      <c r="Q39" s="56"/>
+      <c r="Q39" s="54"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="64" t="s">
-        <v>307</v>
-      </c>
-      <c r="B40" s="64" t="s">
-        <v>312</v>
-      </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64">
-        <v>6</v>
-      </c>
-      <c r="E40" s="64">
-        <v>4</v>
-      </c>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64">
+      <c r="A40" s="62" t="s">
+        <v>306</v>
+      </c>
+      <c r="B40" s="62" t="s">
+        <v>311</v>
+      </c>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62">
+        <v>6</v>
+      </c>
+      <c r="E40" s="62">
+        <v>4</v>
+      </c>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62">
         <v>0</v>
       </c>
-      <c r="H40" s="64">
+      <c r="H40" s="62">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="64">
-        <v>2</v>
-      </c>
-      <c r="L40" s="64"/>
-      <c r="M40" s="64">
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62">
+        <v>2</v>
+      </c>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62">
         <v>20.204999999999998</v>
       </c>
-      <c r="N40" s="65"/>
-      <c r="O40" s="67"/>
-      <c r="P40" s="65"/>
-      <c r="Q40" s="67"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="64"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="64"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="55">
-        <v>6</v>
-      </c>
-      <c r="E41" s="55">
-        <v>6</v>
-      </c>
-      <c r="F41" s="55">
+      <c r="D41" s="53">
+        <v>6</v>
+      </c>
+      <c r="E41" s="53">
+        <v>6</v>
+      </c>
+      <c r="F41" s="53">
         <v>4</v>
       </c>
       <c r="G41" s="4">
@@ -15123,30 +15161,30 @@
       <c r="M41" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N41" s="58" t="s">
-        <v>323</v>
-      </c>
-      <c r="O41" s="56">
+      <c r="N41" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="O41" s="54">
         <v>6</v>
       </c>
       <c r="P41" s="3"/>
-      <c r="Q41" s="56"/>
+      <c r="Q41" s="54"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="55">
-        <v>8</v>
-      </c>
-      <c r="E42" s="55">
-        <v>4</v>
-      </c>
-      <c r="F42" s="55"/>
+      <c r="D42" s="53">
+        <v>8</v>
+      </c>
+      <c r="E42" s="53">
+        <v>4</v>
+      </c>
+      <c r="F42" s="53"/>
       <c r="G42" s="4">
         <v>0</v>
       </c>
@@ -15163,146 +15201,150 @@
       <c r="M42" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N42" s="58" t="s">
+      <c r="N42" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="O42" s="56">
+      <c r="O42" s="54">
         <v>6</v>
       </c>
       <c r="P42" s="3">
         <v>2</v>
       </c>
-      <c r="Q42" s="56"/>
+      <c r="Q42" s="54"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="64" t="s">
-        <v>307</v>
-      </c>
-      <c r="B43" s="64" t="s">
+      <c r="A43" s="62" t="s">
+        <v>306</v>
+      </c>
+      <c r="B43" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62">
+        <v>6</v>
+      </c>
+      <c r="E43" s="62">
+        <v>4</v>
+      </c>
+      <c r="F43" s="62">
+        <v>4</v>
+      </c>
+      <c r="G43" s="62">
+        <v>0</v>
+      </c>
+      <c r="H43" s="62">
+        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
+        <v>6</v>
+      </c>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62">
+        <v>4</v>
+      </c>
+      <c r="K43" s="62"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="62">
+        <v>20.204999999999998</v>
+      </c>
+      <c r="N43" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="O43" s="64"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="64"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="62" t="s">
+        <v>306</v>
+      </c>
+      <c r="B44" s="62" t="s">
         <v>315</v>
       </c>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64">
-        <v>6</v>
-      </c>
-      <c r="E43" s="64">
-        <v>4</v>
-      </c>
-      <c r="F43" s="64">
-        <v>4</v>
-      </c>
-      <c r="G43" s="64">
+      <c r="C44" s="62"/>
+      <c r="D44" s="62">
+        <v>4</v>
+      </c>
+      <c r="E44" s="62">
+        <v>4</v>
+      </c>
+      <c r="F44" s="62">
+        <v>4</v>
+      </c>
+      <c r="G44" s="62">
         <v>0</v>
       </c>
-      <c r="H43" s="64">
+      <c r="H44" s="62">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
-        <v>6</v>
-      </c>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64">
-        <v>4</v>
-      </c>
-      <c r="K43" s="64"/>
-      <c r="L43" s="64"/>
-      <c r="M43" s="64">
+        <v>4</v>
+      </c>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62">
+        <v>4</v>
+      </c>
+      <c r="L44" s="62"/>
+      <c r="M44" s="62">
         <v>20.204999999999998</v>
       </c>
-      <c r="N43" s="65"/>
-      <c r="O43" s="67"/>
-      <c r="P43" s="65"/>
-      <c r="Q43" s="67"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="64" t="s">
-        <v>307</v>
-      </c>
-      <c r="B44" s="64" t="s">
+      <c r="N44" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="O44" s="64"/>
+      <c r="P44" s="63"/>
+      <c r="Q44" s="64"/>
+    </row>
+    <row r="45" spans="1:17" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="96" t="s">
+        <v>306</v>
+      </c>
+      <c r="B45" s="96" t="s">
         <v>316</v>
       </c>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64">
-        <v>4</v>
-      </c>
-      <c r="E44" s="64">
-        <v>4</v>
-      </c>
-      <c r="F44" s="64">
-        <v>4</v>
-      </c>
-      <c r="G44" s="64">
+      <c r="C45" s="96"/>
+      <c r="D45" s="96">
+        <v>6</v>
+      </c>
+      <c r="E45" s="96">
+        <v>2</v>
+      </c>
+      <c r="F45" s="96">
+        <v>4</v>
+      </c>
+      <c r="G45" s="96">
         <v>0</v>
       </c>
-      <c r="H44" s="64">
+      <c r="H45" s="96">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
-        <v>4</v>
-      </c>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="64">
-        <v>4</v>
-      </c>
-      <c r="L44" s="64"/>
-      <c r="M44" s="64">
+        <v>6</v>
+      </c>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="96">
+        <v>4</v>
+      </c>
+      <c r="L45" s="96"/>
+      <c r="M45" s="96">
         <v>20.204999999999998</v>
       </c>
-      <c r="N44" s="65"/>
-      <c r="O44" s="67"/>
-      <c r="P44" s="65"/>
-      <c r="Q44" s="67"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="64" t="s">
-        <v>307</v>
-      </c>
-      <c r="B45" s="64" t="s">
-        <v>317</v>
-      </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64">
-        <v>6</v>
-      </c>
-      <c r="E45" s="64">
-        <v>2</v>
-      </c>
-      <c r="F45" s="64">
-        <v>4</v>
-      </c>
-      <c r="G45" s="64">
-        <v>0</v>
-      </c>
-      <c r="H45" s="64">
-        <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
-        <v>6</v>
-      </c>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64">
-        <v>4</v>
-      </c>
-      <c r="L45" s="64"/>
-      <c r="M45" s="64">
-        <v>20.204999999999998</v>
-      </c>
-      <c r="N45" s="65"/>
-      <c r="O45" s="67"/>
-      <c r="P45" s="65"/>
-      <c r="Q45" s="67"/>
+      <c r="N45" s="97"/>
+      <c r="O45" s="101"/>
+      <c r="P45" s="97"/>
+      <c r="Q45" s="101"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="55">
-        <v>6</v>
-      </c>
-      <c r="E46" s="55">
-        <v>6</v>
-      </c>
-      <c r="F46" s="55">
+      <c r="D46" s="53">
+        <v>6</v>
+      </c>
+      <c r="E46" s="53">
+        <v>6</v>
+      </c>
+      <c r="F46" s="53">
         <v>4</v>
       </c>
       <c r="G46" s="4">
@@ -15323,30 +15365,30 @@
       <c r="M46" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N46" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="O46" s="56">
+      <c r="N46" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="O46" s="54">
         <v>6</v>
       </c>
       <c r="P46" s="3"/>
-      <c r="Q46" s="56"/>
+      <c r="Q46" s="54"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="55">
-        <v>6</v>
-      </c>
-      <c r="E47" s="55">
-        <v>4</v>
-      </c>
-      <c r="F47" s="55">
+      <c r="D47" s="53">
+        <v>6</v>
+      </c>
+      <c r="E47" s="53">
+        <v>4</v>
+      </c>
+      <c r="F47" s="53">
         <v>4</v>
       </c>
       <c r="G47" s="4">
@@ -15365,30 +15407,30 @@
       <c r="M47" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N47" s="58" t="s">
-        <v>325</v>
-      </c>
-      <c r="O47" s="56">
+      <c r="N47" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="O47" s="54">
         <v>6</v>
       </c>
       <c r="P47" s="3"/>
-      <c r="Q47" s="56"/>
+      <c r="Q47" s="54"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="55">
-        <v>6</v>
-      </c>
-      <c r="E48" s="55">
-        <v>6</v>
-      </c>
-      <c r="F48" s="55"/>
+      <c r="D48" s="53">
+        <v>6</v>
+      </c>
+      <c r="E48" s="53">
+        <v>6</v>
+      </c>
+      <c r="F48" s="53"/>
       <c r="G48" s="4">
         <v>0</v>
       </c>
@@ -15405,14 +15447,14 @@
       <c r="M48" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N48" s="58" t="s">
-        <v>321</v>
-      </c>
-      <c r="O48" s="56">
+      <c r="N48" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="O48" s="54">
         <v>6</v>
       </c>
       <c r="P48" s="3"/>
-      <c r="Q48" s="56"/>
+      <c r="Q48" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15446,43 +15488,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="J1" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="52" t="s">
+      <c r="J1" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="50" t="s">
         <v>268</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="51" t="s">
         <v>211</v>
       </c>
     </row>
@@ -15501,7 +15543,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="55" t="s">
         <v>299</v>
       </c>
       <c r="J2" s="10" t="s">
@@ -15511,7 +15553,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="10"/>
-      <c r="M2" s="19"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -15528,7 +15570,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="55" t="s">
         <v>299</v>
       </c>
       <c r="J3" s="10" t="s">
@@ -15553,147 +15595,147 @@
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="61" t="s">
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="59" t="s">
         <v>299</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="K4" s="39">
-        <v>8</v>
-      </c>
-      <c r="L4" s="39">
-        <v>2</v>
-      </c>
-      <c r="M4" s="62"/>
+      <c r="K4" s="37">
+        <v>8</v>
+      </c>
+      <c r="L4" s="37">
+        <v>2</v>
+      </c>
+      <c r="M4" s="60"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G5" s="63"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G6" s="63"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G7" s="63"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G8" s="63"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G9" s="63"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G10" s="63"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G11" s="63"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G12" s="63"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G13" s="63"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G14" s="63"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G15" s="63"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G16" s="63"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
     </row>
     <row r="17" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G17" s="63"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
     </row>
     <row r="18" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G18" s="63"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zaizd2.xlsx
+++ b/Zaizd2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="420" windowWidth="20730" windowHeight="9360" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="420" windowWidth="20730" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="1 курс" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>на наступний заїзд 1 пара</t>
+          <t>всього 14 годин</t>
         </r>
       </text>
     </comment>
@@ -241,6 +241,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>user</author>
+    <author>Admin</author>
   </authors>
   <commentList>
     <comment ref="B18" authorId="0">
@@ -255,6 +256,30 @@
             <charset val="204"/>
           </rPr>
           <t>Наступний заїзд</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J18" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Іспит на наступний</t>
         </r>
       </text>
     </comment>
@@ -278,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="333">
   <si>
     <t>Групи</t>
   </si>
@@ -742,9 +767,6 @@
     <t>Оцінка землі і нерухомого майна</t>
   </si>
   <si>
-    <t>Економіка лісового та садово-паркового господарства</t>
-  </si>
-  <si>
     <t>Лісова селекція</t>
   </si>
   <si>
@@ -974,9 +996,6 @@
   </si>
   <si>
     <t>доц. Пересоляк В.Ю.</t>
-  </si>
-  <si>
-    <t>проф. Лендєл М.А.</t>
   </si>
   <si>
     <t>ст.викл. Жиган М.В.</t>
@@ -1289,7 +1308,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1394,8 +1413,21 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1430,6 +1462,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1616,7 +1654,7 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1796,18 +1834,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1899,6 +1925,44 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Ввід" xfId="3" builtinId="20"/>
@@ -5715,8 +5779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R238"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5748,420 +5812,420 @@
         <v>3</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>305</v>
-      </c>
       <c r="H1" s="23" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P1" s="24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q1" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R1" s="25" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="80">
-        <v>4</v>
-      </c>
-      <c r="D2" s="80">
-        <v>4</v>
-      </c>
-      <c r="E2" s="80">
-        <v>2</v>
-      </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80">
+      <c r="B2" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="76">
+        <v>4</v>
+      </c>
+      <c r="D2" s="76">
+        <v>4</v>
+      </c>
+      <c r="E2" s="76">
+        <v>2</v>
+      </c>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76">
         <v>0</v>
       </c>
-      <c r="H2" s="80">
+      <c r="H2" s="76">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>8</v>
       </c>
-      <c r="I2" s="80"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="80">
+      <c r="I2" s="76"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="76">
         <v>3</v>
       </c>
-      <c r="L2" s="80"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="83"/>
-    </row>
-    <row r="3" spans="1:18" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="L2" s="76"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="76" t="s">
+        <v>186</v>
+      </c>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="79"/>
+    </row>
+    <row r="3" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="80">
-        <v>4</v>
-      </c>
-      <c r="D3" s="80">
-        <v>6</v>
-      </c>
-      <c r="E3" s="80">
-        <v>4</v>
-      </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80">
-        <v>4</v>
-      </c>
-      <c r="H3" s="80">
+      <c r="C3" s="76">
+        <v>4</v>
+      </c>
+      <c r="D3" s="76">
+        <v>6</v>
+      </c>
+      <c r="E3" s="76">
+        <v>4</v>
+      </c>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76">
+        <v>4</v>
+      </c>
+      <c r="H3" s="76">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80">
+      <c r="I3" s="76"/>
+      <c r="J3" s="76">
         <v>3</v>
       </c>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="83"/>
-    </row>
-    <row r="4" spans="1:18" s="84" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="76" t="s">
+        <v>189</v>
+      </c>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="79"/>
+    </row>
+    <row r="4" spans="1:18" s="80" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="80" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="80">
-        <v>6</v>
-      </c>
-      <c r="D4" s="80">
-        <v>6</v>
-      </c>
-      <c r="E4" s="80">
-        <v>4</v>
-      </c>
-      <c r="F4" s="80">
-        <v>4</v>
-      </c>
-      <c r="G4" s="80">
-        <v>6</v>
-      </c>
-      <c r="H4" s="80">
+      <c r="B4" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="76">
+        <v>6</v>
+      </c>
+      <c r="D4" s="76">
+        <v>6</v>
+      </c>
+      <c r="E4" s="76">
+        <v>4</v>
+      </c>
+      <c r="F4" s="76">
+        <v>4</v>
+      </c>
+      <c r="G4" s="76">
+        <v>6</v>
+      </c>
+      <c r="H4" s="76">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80">
-        <v>4</v>
-      </c>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="85" t="s">
-        <v>281</v>
-      </c>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="83"/>
-    </row>
-    <row r="5" spans="1:18" s="84" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
+      <c r="I4" s="76"/>
+      <c r="J4" s="76">
+        <v>4</v>
+      </c>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="79"/>
+    </row>
+    <row r="5" spans="1:18" s="80" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="85">
+      <c r="B5" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="81">
         <v>12</v>
       </c>
-      <c r="D5" s="85">
+      <c r="D5" s="81">
         <v>10</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="85">
+      <c r="G5" s="81">
         <v>10</v>
       </c>
-      <c r="H5" s="85">
+      <c r="H5" s="81">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>12</v>
       </c>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85">
-        <v>2</v>
-      </c>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85" t="s">
-        <v>194</v>
-      </c>
-      <c r="N5" s="85" t="s">
-        <v>280</v>
-      </c>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="83"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="I5" s="81"/>
+      <c r="J5" s="81">
+        <v>2</v>
+      </c>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="N5" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="79"/>
+    </row>
+    <row r="6" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="81">
         <v>14</v>
       </c>
-      <c r="D6" s="4">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4">
+      <c r="D6" s="81">
+        <v>6</v>
+      </c>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81">
         <v>10</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="81">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>10</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4">
-        <v>2</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="O6" s="3">
+      <c r="I6" s="81"/>
+      <c r="J6" s="81">
+        <v>2</v>
+      </c>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="N6" s="78" t="s">
+        <v>201</v>
+      </c>
+      <c r="O6" s="78">
         <v>12</v>
       </c>
-      <c r="P6" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="12"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="P6" s="78">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="79"/>
+    </row>
+    <row r="7" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="81">
         <v>10</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="81">
         <v>10</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81">
         <v>10</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="81">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>10</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4">
-        <v>2</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="O7" s="3">
+      <c r="I7" s="81"/>
+      <c r="J7" s="81">
+        <v>2</v>
+      </c>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="N7" s="78" t="s">
+        <v>202</v>
+      </c>
+      <c r="O7" s="78">
         <v>12</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3">
-        <v>8</v>
-      </c>
-      <c r="R7" s="12"/>
-    </row>
-    <row r="8" spans="1:18" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78">
+        <v>8</v>
+      </c>
+      <c r="R7" s="79"/>
+    </row>
+    <row r="8" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="85">
-        <v>8</v>
-      </c>
-      <c r="D8" s="85">
+      <c r="C8" s="81">
+        <v>8</v>
+      </c>
+      <c r="D8" s="81">
         <v>6</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="85">
-        <v>8</v>
-      </c>
-      <c r="H8" s="85">
+      <c r="G8" s="81">
+        <v>8</v>
+      </c>
+      <c r="H8" s="81">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85">
-        <v>2</v>
-      </c>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85" t="s">
-        <v>194</v>
-      </c>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="83"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81">
+        <v>2</v>
+      </c>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="79"/>
+    </row>
+    <row r="9" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C9" s="81">
+        <v>4</v>
+      </c>
+      <c r="D9" s="81">
         <v>10</v>
       </c>
-      <c r="E9" s="4">
-        <v>2</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
-        <v>4</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="E9" s="81">
+        <v>2</v>
+      </c>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81">
+        <v>4</v>
+      </c>
+      <c r="H9" s="81">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>10</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4">
+      <c r="I9" s="81"/>
+      <c r="J9" s="81">
         <v>3</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="N9" s="3" t="s">
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="N9" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="O9" s="78">
+        <v>8</v>
+      </c>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78">
+        <v>6</v>
+      </c>
+      <c r="R9" s="79"/>
+    </row>
+    <row r="10" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81">
+        <v>4</v>
+      </c>
+      <c r="E10" s="81">
+        <v>6</v>
+      </c>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81">
+        <v>0</v>
+      </c>
+      <c r="H10" s="81">
+        <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
+        <v>4</v>
+      </c>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81">
+        <v>3</v>
+      </c>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="N10" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="O9" s="3">
-        <v>8</v>
-      </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3">
-        <v>6</v>
-      </c>
-      <c r="R9" s="12"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4">
-        <v>4</v>
-      </c>
-      <c r="E10" s="4">
-        <v>6</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
-        <v>4</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4">
-        <v>3</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="O10" s="10">
-        <v>4</v>
-      </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="12"/>
+      <c r="O10" s="86">
+        <v>4</v>
+      </c>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="79"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -6196,108 +6260,108 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="12"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="81">
         <v>10</v>
       </c>
-      <c r="D12" s="4">
-        <v>8</v>
-      </c>
-      <c r="E12" s="4">
-        <v>6</v>
-      </c>
-      <c r="F12" s="4">
-        <v>6</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="D12" s="81">
+        <v>8</v>
+      </c>
+      <c r="E12" s="81">
+        <v>6</v>
+      </c>
+      <c r="F12" s="81">
+        <v>6</v>
+      </c>
+      <c r="G12" s="81">
         <v>10</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="81">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>8</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4">
-        <v>4</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="12" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
+      <c r="I12" s="81"/>
+      <c r="J12" s="81">
+        <v>4</v>
+      </c>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="N12" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="79" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="80" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="98" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="66">
+      <c r="C13" s="99">
         <v>10</v>
       </c>
-      <c r="D13" s="66">
-        <v>8</v>
-      </c>
-      <c r="E13" s="66">
-        <v>6</v>
-      </c>
-      <c r="F13" s="66">
-        <v>6</v>
-      </c>
-      <c r="G13" s="66">
-        <v>6</v>
-      </c>
-      <c r="H13" s="66">
+      <c r="D13" s="99">
+        <v>8</v>
+      </c>
+      <c r="E13" s="99">
+        <v>6</v>
+      </c>
+      <c r="F13" s="99">
+        <v>6</v>
+      </c>
+      <c r="G13" s="99">
+        <v>6</v>
+      </c>
+      <c r="H13" s="99">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>12</v>
       </c>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66">
-        <v>4</v>
-      </c>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="M13" s="67" t="s">
-        <v>193</v>
-      </c>
-      <c r="N13" s="66" t="s">
-        <v>189</v>
-      </c>
-      <c r="O13" s="67">
+      <c r="I13" s="99"/>
+      <c r="J13" s="99">
+        <v>4</v>
+      </c>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99" t="s">
+        <v>324</v>
+      </c>
+      <c r="M13" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="N13" s="99" t="s">
+        <v>188</v>
+      </c>
+      <c r="O13" s="100">
         <v>14</v>
       </c>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="68" t="s">
-        <v>236</v>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="100"/>
+      <c r="R13" s="101" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -6334,7 +6398,7 @@
         <v>6.1929999999999996</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O14" s="17">
         <v>4</v>
@@ -6346,49 +6410,49 @@
       <c r="R14" s="12"/>
     </row>
     <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="70">
-        <v>6</v>
-      </c>
-      <c r="D15" s="70">
-        <v>4</v>
-      </c>
-      <c r="E15" s="70">
+      <c r="C15" s="66">
+        <v>6</v>
+      </c>
+      <c r="D15" s="66">
+        <v>4</v>
+      </c>
+      <c r="E15" s="66">
         <v>12</v>
       </c>
-      <c r="F15" s="70">
-        <v>8</v>
-      </c>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70">
+      <c r="F15" s="66">
+        <v>8</v>
+      </c>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>10</v>
       </c>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70">
-        <v>4</v>
-      </c>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70" t="s">
-        <v>327</v>
-      </c>
-      <c r="M15" s="71">
+      <c r="I15" s="66"/>
+      <c r="J15" s="66">
+        <v>4</v>
+      </c>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="M15" s="67">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N15" s="71" t="s">
-        <v>220</v>
-      </c>
-      <c r="O15" s="71">
-        <v>2</v>
-      </c>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="72"/>
+      <c r="N15" s="67" t="s">
+        <v>219</v>
+      </c>
+      <c r="O15" s="67">
+        <v>2</v>
+      </c>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="68"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -6426,7 +6490,7 @@
         <v>6.1929999999999996</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O16" s="17">
         <v>4</v>
@@ -6452,10 +6516,12 @@
         <v>4</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
       <c r="H17" s="4">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4">
@@ -6467,7 +6533,7 @@
         <v>6.1929999999999996</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O17" s="17">
         <v>2</v>
@@ -6514,7 +6580,7 @@
         <v>6.1929999999999996</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O18" s="17">
         <v>2</v>
@@ -6559,7 +6625,7 @@
         <v>6.1929999999999996</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O19" s="17">
         <v>2</v>
@@ -6604,7 +6670,7 @@
         <v>6.2050000000000001</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O20" s="17">
         <v>6</v>
@@ -6615,50 +6681,50 @@
       </c>
       <c r="R20" s="12"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="4">
-        <v>6</v>
-      </c>
-      <c r="D21" s="3">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3">
-        <v>6</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="C21" s="81">
+        <v>6</v>
+      </c>
+      <c r="D21" s="78">
+        <v>4</v>
+      </c>
+      <c r="E21" s="78">
+        <v>4</v>
+      </c>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78">
+        <v>6</v>
+      </c>
+      <c r="H21" s="78">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3">
+      <c r="I21" s="78"/>
+      <c r="J21" s="78">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="3">
+      <c r="K21" s="78"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="78">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N21" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="O21" s="17">
-        <v>6</v>
-      </c>
-      <c r="P21" s="17">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="12"/>
+      <c r="N21" s="87" t="s">
+        <v>207</v>
+      </c>
+      <c r="O21" s="87">
+        <v>6</v>
+      </c>
+      <c r="P21" s="87">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="79"/>
     </row>
     <row r="22" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
@@ -6694,7 +6760,7 @@
         <v>6.2050000000000001</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O22" s="17">
         <v>6</v>
@@ -6735,7 +6801,7 @@
         <v>6.2050000000000001</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O23" s="3">
         <v>6</v>
@@ -6746,17 +6812,17 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="12"/>
     </row>
-    <row r="24" spans="1:18" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="88" t="s">
+    <row r="24" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="85">
-        <v>4</v>
-      </c>
-      <c r="D24" s="85">
+      <c r="C24" s="81">
+        <v>4</v>
+      </c>
+      <c r="D24" s="81">
         <v>6</v>
       </c>
       <c r="E24" s="4">
@@ -6765,77 +6831,77 @@
       <c r="F24" s="4">
         <v>6</v>
       </c>
-      <c r="G24" s="85">
-        <v>4</v>
-      </c>
-      <c r="H24" s="85">
+      <c r="G24" s="81">
+        <v>4</v>
+      </c>
+      <c r="H24" s="81">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85">
-        <v>4</v>
-      </c>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="82">
+      <c r="I24" s="81"/>
+      <c r="J24" s="81">
+        <v>4</v>
+      </c>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="78">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N24" s="90" t="s">
-        <v>282</v>
-      </c>
-      <c r="O24" s="91"/>
-      <c r="P24" s="91"/>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="83" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="65" t="s">
+      <c r="N24" s="86" t="s">
+        <v>280</v>
+      </c>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="79" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="80" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="66">
-        <v>4</v>
-      </c>
-      <c r="D25" s="66">
-        <v>8</v>
-      </c>
-      <c r="E25" s="66">
-        <v>4</v>
-      </c>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66">
-        <v>4</v>
-      </c>
-      <c r="H25" s="66">
+      <c r="C25" s="99">
+        <v>4</v>
+      </c>
+      <c r="D25" s="99">
+        <v>8</v>
+      </c>
+      <c r="E25" s="99">
+        <v>4</v>
+      </c>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99">
+        <v>4</v>
+      </c>
+      <c r="H25" s="99">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>8</v>
       </c>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66">
+      <c r="I25" s="99"/>
+      <c r="J25" s="99">
         <v>3</v>
       </c>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="M25" s="67">
+      <c r="K25" s="99"/>
+      <c r="L25" s="99" t="s">
+        <v>324</v>
+      </c>
+      <c r="M25" s="100">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N25" s="66" t="s">
-        <v>189</v>
-      </c>
-      <c r="O25" s="67">
-        <v>6</v>
-      </c>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="68" t="s">
-        <v>236</v>
+      <c r="N25" s="99" t="s">
+        <v>188</v>
+      </c>
+      <c r="O25" s="100">
+        <v>6</v>
+      </c>
+      <c r="P25" s="100"/>
+      <c r="Q25" s="100"/>
+      <c r="R25" s="101" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -6874,7 +6940,7 @@
         <v>6.2050000000000001</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O26" s="3">
         <v>16</v>
@@ -6885,17 +6951,17 @@
       </c>
       <c r="R26" s="12"/>
     </row>
-    <row r="27" spans="1:18" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="92" t="s">
+    <row r="27" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="93">
-        <v>4</v>
-      </c>
-      <c r="D27" s="94">
+      <c r="C27" s="89">
+        <v>4</v>
+      </c>
+      <c r="D27" s="90">
         <v>6</v>
       </c>
       <c r="E27" s="20">
@@ -6904,29 +6970,29 @@
       <c r="F27" s="20">
         <v>2</v>
       </c>
-      <c r="G27" s="94">
-        <v>4</v>
-      </c>
-      <c r="H27" s="94">
+      <c r="G27" s="90">
+        <v>4</v>
+      </c>
+      <c r="H27" s="90">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94">
+      <c r="I27" s="90"/>
+      <c r="J27" s="90">
         <v>3</v>
       </c>
-      <c r="K27" s="94"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93">
+      <c r="K27" s="90"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="89">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N27" s="93" t="s">
-        <v>293</v>
-      </c>
-      <c r="O27" s="93"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="93"/>
-      <c r="R27" s="95"/>
+      <c r="N27" s="89" t="s">
+        <v>291</v>
+      </c>
+      <c r="O27" s="89"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="91"/>
     </row>
     <row r="102" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M102" s="9"/>
@@ -7031,24 +7097,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="27" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="27" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="14.28515625" style="27" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="27" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="27" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="27" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" style="27" customWidth="1"/>
     <col min="10" max="10" width="7.140625" style="27" customWidth="1"/>
     <col min="11" max="11" width="6" style="27" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="27" customWidth="1"/>
-    <col min="13" max="13" width="0.140625" style="27" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="27" customWidth="1"/>
+    <col min="13" max="13" width="0.140625" style="27" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="23.28515625" style="27" customWidth="1"/>
     <col min="15" max="15" width="9.28515625" style="27" customWidth="1"/>
     <col min="16" max="16" width="10" style="27" customWidth="1"/>
@@ -7065,135 +7131,135 @@
         <v>3</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>305</v>
-      </c>
       <c r="H1" s="23" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="R1" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q1" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="R1" s="26" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="87" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+    </row>
+    <row r="2" spans="1:18" s="83" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="80">
-        <v>6</v>
-      </c>
-      <c r="D2" s="80">
-        <v>4</v>
-      </c>
-      <c r="E2" s="80">
-        <v>2</v>
-      </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80">
-        <v>6</v>
-      </c>
-      <c r="H2" s="80">
+      <c r="C2" s="76">
+        <v>6</v>
+      </c>
+      <c r="D2" s="76">
+        <v>4</v>
+      </c>
+      <c r="E2" s="76">
+        <v>2</v>
+      </c>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76">
+        <v>6</v>
+      </c>
+      <c r="H2" s="76">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80">
+      <c r="I2" s="76"/>
+      <c r="J2" s="76">
         <v>3</v>
       </c>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="85" t="s">
-        <v>281</v>
-      </c>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="86"/>
-    </row>
-    <row r="3" spans="1:18" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="82"/>
+    </row>
+    <row r="3" spans="1:18" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="80">
-        <v>4</v>
-      </c>
-      <c r="D3" s="80">
-        <v>6</v>
-      </c>
-      <c r="E3" s="80">
-        <v>4</v>
-      </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80">
-        <v>4</v>
-      </c>
-      <c r="H3" s="80">
+      <c r="C3" s="76">
+        <v>4</v>
+      </c>
+      <c r="D3" s="76">
+        <v>6</v>
+      </c>
+      <c r="E3" s="76">
+        <v>4</v>
+      </c>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76">
+        <v>4</v>
+      </c>
+      <c r="H3" s="76">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80">
+      <c r="I3" s="76"/>
+      <c r="J3" s="76">
         <v>3</v>
       </c>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="85" t="s">
-        <v>294</v>
-      </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="86"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="81" t="s">
+        <v>292</v>
+      </c>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="82"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>36</v>
@@ -7223,7 +7289,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O4" s="4">
         <v>12</v>
@@ -7236,7 +7302,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>37</v>
@@ -7266,7 +7332,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O5" s="4">
         <v>12</v>
@@ -7277,9 +7343,9 @@
       </c>
       <c r="R5" s="28"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>38</v>
@@ -7315,7 +7381,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O6" s="4">
         <v>20</v>
@@ -7324,48 +7390,48 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="28"/>
     </row>
-    <row r="7" spans="1:18" s="87" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
-        <v>196</v>
-      </c>
-      <c r="B7" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="85">
+    <row r="7" spans="1:18" s="83" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="84" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="81">
         <v>12</v>
       </c>
-      <c r="D7" s="85">
+      <c r="D7" s="81">
         <v>10</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="85">
+      <c r="G7" s="81">
         <v>12</v>
       </c>
-      <c r="H7" s="85">
+      <c r="H7" s="81">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>10</v>
       </c>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85">
-        <v>2</v>
-      </c>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85">
+      <c r="I7" s="81"/>
+      <c r="J7" s="81">
+        <v>2</v>
+      </c>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N7" s="85" t="s">
-        <v>283</v>
-      </c>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="86"/>
+      <c r="N7" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="82"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>39</v>
@@ -7395,7 +7461,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O8" s="4">
         <v>10</v>
@@ -7408,7 +7474,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>40</v>
@@ -7438,7 +7504,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O9" s="4">
         <v>10</v>
@@ -7451,7 +7517,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>41</v>
@@ -7483,7 +7549,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N10" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O10" s="29">
         <v>12</v>
@@ -7492,9 +7558,9 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="28"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>42</v>
@@ -7524,7 +7590,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N11" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -7533,7 +7599,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>43</v>
@@ -7563,7 +7629,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N12" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
@@ -7572,7 +7638,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>44</v>
@@ -7602,7 +7668,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -7645,7 +7711,7 @@
         <v>6.080101</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O14" s="30">
         <v>12</v>
@@ -7656,45 +7722,45 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="28"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:18" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="74">
+      <c r="C15" s="102">
         <v>10</v>
       </c>
-      <c r="D15" s="74">
-        <v>8</v>
-      </c>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74">
-        <v>8</v>
-      </c>
-      <c r="H15" s="74">
+      <c r="D15" s="102">
+        <v>8</v>
+      </c>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102">
+        <v>8</v>
+      </c>
+      <c r="H15" s="102">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>10</v>
       </c>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74">
-        <v>2</v>
-      </c>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74">
+      <c r="I15" s="102"/>
+      <c r="J15" s="102">
+        <v>2</v>
+      </c>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102">
         <v>6.080101</v>
       </c>
-      <c r="N15" s="74" t="s">
-        <v>284</v>
-      </c>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74" t="s">
-        <v>236</v>
+      <c r="N15" s="102" t="s">
+        <v>282</v>
+      </c>
+      <c r="O15" s="102"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="102" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -7729,7 +7795,7 @@
         <v>6.080101</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O16" s="4">
         <v>6</v>
@@ -7776,7 +7842,7 @@
         <v>6.080101</v>
       </c>
       <c r="N17" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O17" s="29">
         <v>10</v>
@@ -7825,7 +7891,7 @@
         <v>6.080101</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O18" s="4">
         <v>18</v>
@@ -7836,7 +7902,7 @@
       </c>
       <c r="R18" s="28"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>19</v>
       </c>
@@ -7870,7 +7936,7 @@
         <v>6.080101</v>
       </c>
       <c r="N19" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O19" s="30">
         <v>6</v>
@@ -7913,7 +7979,7 @@
         <v>6.080101</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O20" s="4">
         <v>8</v>
@@ -7956,7 +8022,7 @@
         <v>6.080101</v>
       </c>
       <c r="N21" s="30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O21" s="30">
         <v>4</v>
@@ -8003,7 +8069,7 @@
         <v>6.090103</v>
       </c>
       <c r="N22" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O22" s="29">
         <v>8</v>
@@ -8046,7 +8112,7 @@
         <v>6.090103</v>
       </c>
       <c r="N23" s="29" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O23" s="29">
         <v>8</v>
@@ -8057,46 +8123,46 @@
       </c>
       <c r="R23" s="28"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:18" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="4">
-        <v>6</v>
-      </c>
-      <c r="D24" s="4">
-        <v>6</v>
-      </c>
-      <c r="E24" s="4">
-        <v>2</v>
-      </c>
-      <c r="F24" s="4">
-        <v>4</v>
-      </c>
-      <c r="G24" s="4">
-        <v>4</v>
-      </c>
-      <c r="H24" s="4">
+      <c r="C24" s="81">
+        <v>6</v>
+      </c>
+      <c r="D24" s="81">
+        <v>6</v>
+      </c>
+      <c r="E24" s="81">
+        <v>2</v>
+      </c>
+      <c r="F24" s="81">
+        <v>4</v>
+      </c>
+      <c r="G24" s="81">
+        <v>8</v>
+      </c>
+      <c r="H24" s="81">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
-        <v>8</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4">
-        <v>4</v>
-      </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4">
+        <v>4</v>
+      </c>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81">
+        <v>4</v>
+      </c>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81">
         <v>6.090103</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="28"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="82"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
@@ -8134,7 +8200,7 @@
         <v>6.090103</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O25" s="4">
         <v>10</v>
@@ -8143,7 +8209,7 @@
       <c r="Q25" s="30"/>
       <c r="R25" s="28"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>56</v>
       </c>
@@ -8175,7 +8241,7 @@
         <v>6.090103</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4">
@@ -8220,7 +8286,7 @@
         <v>6.090103</v>
       </c>
       <c r="N27" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O27" s="29">
         <v>10</v>
@@ -8265,7 +8331,7 @@
         <v>6.090103</v>
       </c>
       <c r="N28" s="52" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O28" s="52">
         <v>4</v>
@@ -8276,7 +8342,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>58</v>
@@ -8308,7 +8374,7 @@
         <v>6.090103</v>
       </c>
       <c r="N29" s="29" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O29" s="29">
         <v>8</v>
@@ -8321,7 +8387,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>59</v>
@@ -8355,7 +8421,7 @@
         <v>6.090103</v>
       </c>
       <c r="N30" s="29" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O30" s="29">
         <v>10</v>
@@ -8402,7 +8468,7 @@
         <v>6.090103</v>
       </c>
       <c r="N31" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O31" s="29">
         <v>8</v>
@@ -8413,7 +8479,7 @@
       </c>
       <c r="R31" s="32"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>56</v>
       </c>
@@ -8447,7 +8513,7 @@
         <v>6.090103</v>
       </c>
       <c r="N32" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O32" s="33">
         <v>6</v>
@@ -8472,8 +8538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8504,54 +8570,54 @@
         <v>3</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>305</v>
-      </c>
       <c r="H1" s="23" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P1" s="24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q1" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>66</v>
@@ -8581,7 +8647,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O2" s="17">
         <v>12</v>
@@ -8593,7 +8659,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>67</v>
@@ -8623,7 +8689,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O3" s="3">
         <v>12</v>
@@ -8635,7 +8701,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>68</v>
@@ -8665,7 +8731,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O4" s="3">
         <v>10</v>
@@ -8675,93 +8741,93 @@
       </c>
       <c r="Q4" s="12"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:17" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="84" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="4">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="81">
+        <v>6</v>
+      </c>
+      <c r="D5" s="81">
         <v>4</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4">
-        <v>6</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5" s="81">
+        <v>6</v>
+      </c>
+      <c r="H5" s="81">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4">
-        <v>2</v>
-      </c>
-      <c r="L5" s="4"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81">
+        <v>2</v>
+      </c>
+      <c r="L5" s="81"/>
       <c r="M5" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="O5" s="3">
-        <v>6</v>
-      </c>
-      <c r="P5" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="12"/>
+      <c r="N5" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="O5" s="78">
+        <v>6</v>
+      </c>
+      <c r="P5" s="81">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="79"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" s="74" t="s">
+      <c r="A6" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="74">
-        <v>6</v>
-      </c>
-      <c r="D6" s="74">
-        <v>4</v>
-      </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74">
-        <v>8</v>
-      </c>
-      <c r="H6" s="74">
+      <c r="C6" s="70">
+        <v>6</v>
+      </c>
+      <c r="D6" s="70">
+        <v>4</v>
+      </c>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70">
+        <v>8</v>
+      </c>
+      <c r="H6" s="70">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74">
-        <v>2</v>
-      </c>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74">
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70">
+        <v>2</v>
+      </c>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N6" s="73" t="s">
-        <v>203</v>
-      </c>
-      <c r="O6" s="73">
-        <v>8</v>
-      </c>
-      <c r="P6" s="73">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="73"/>
+      <c r="N6" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="O6" s="69">
+        <v>8</v>
+      </c>
+      <c r="P6" s="69">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="69"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>71</v>
@@ -8791,7 +8857,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O7" s="3">
         <v>6</v>
@@ -8803,7 +8869,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>72</v>
@@ -8835,7 +8901,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O8" s="3">
         <v>20</v>
@@ -8845,10 +8911,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4">
@@ -8875,7 +8941,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O9" s="3">
         <v>8</v>
@@ -8885,7 +8951,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>73</v>
@@ -8915,7 +8981,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O10" s="10">
         <v>6</v>
@@ -8925,7 +8991,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>74</v>
@@ -8959,7 +9025,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O11" s="10">
         <v>6</v>
@@ -8969,7 +9035,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>75</v>
@@ -8999,7 +9065,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -9007,7 +9073,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>76</v>
@@ -9037,7 +9103,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -9045,7 +9111,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>77</v>
@@ -9075,7 +9141,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -9083,7 +9149,7 @@
     </row>
     <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>78</v>
@@ -9113,7 +9179,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N15" s="29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -9153,7 +9219,7 @@
         <v>6.080101</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O16" s="10">
         <v>8</v>
@@ -9164,48 +9230,48 @@
       <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="74">
-        <v>4</v>
-      </c>
-      <c r="D17" s="74">
-        <v>4</v>
-      </c>
-      <c r="E17" s="74">
-        <v>6</v>
-      </c>
-      <c r="F17" s="74">
-        <v>6</v>
-      </c>
-      <c r="G17" s="74">
+      <c r="C17" s="70">
+        <v>4</v>
+      </c>
+      <c r="D17" s="70">
+        <v>4</v>
+      </c>
+      <c r="E17" s="70">
+        <v>6</v>
+      </c>
+      <c r="F17" s="70">
+        <v>6</v>
+      </c>
+      <c r="G17" s="70">
         <v>0</v>
       </c>
-      <c r="H17" s="74">
+      <c r="H17" s="70">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>8</v>
       </c>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74">
-        <v>4</v>
-      </c>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74">
+      <c r="I17" s="70"/>
+      <c r="J17" s="70">
+        <v>4</v>
+      </c>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70">
         <v>6.080101</v>
       </c>
-      <c r="N17" s="75" t="s">
-        <v>213</v>
-      </c>
-      <c r="O17" s="75">
-        <v>8</v>
-      </c>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75">
+      <c r="N17" s="71" t="s">
+        <v>212</v>
+      </c>
+      <c r="O17" s="71">
+        <v>8</v>
+      </c>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71">
         <v>0</v>
       </c>
     </row>
@@ -9243,7 +9309,7 @@
         <v>6.080101</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O18" s="3">
         <v>10</v>
@@ -9285,7 +9351,7 @@
         <v>6.080101</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O19" s="10">
         <v>10</v>
@@ -9325,7 +9391,7 @@
         <v>6.080101</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O20" s="3">
         <v>8</v>
@@ -9365,7 +9431,7 @@
         <v>6.080101</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -9403,7 +9469,7 @@
         <v>6.080101</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O22" s="10">
         <v>8</v>
@@ -9447,7 +9513,7 @@
         <v>6.080101</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O23" s="10">
         <v>8</v>
@@ -9491,7 +9557,7 @@
         <v>6.080101</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O24" s="10">
         <v>8</v>
@@ -9535,7 +9601,7 @@
         <v>6.080101</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O25" s="10">
         <v>10</v>
@@ -9575,7 +9641,7 @@
         <v>6.080101</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O26" s="3">
         <v>8</v>
@@ -9617,7 +9683,7 @@
         <v>6.080101</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O27" s="3">
         <v>6</v>
@@ -9659,7 +9725,7 @@
         <v>6.080101</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O28" s="3">
         <v>6</v>
@@ -9701,7 +9767,7 @@
         <v>6.080101</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -9743,7 +9809,7 @@
         <v>6.080101</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O30" s="10">
         <v>6</v>
@@ -9753,43 +9819,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="100" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="88" t="s">
+    <row r="31" spans="1:17" s="96" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="85" t="s">
+      <c r="B31" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="85">
-        <v>6</v>
-      </c>
-      <c r="D31" s="85">
-        <v>2</v>
-      </c>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85">
-        <v>6</v>
-      </c>
-      <c r="H31" s="85">
+      <c r="C31" s="81">
+        <v>6</v>
+      </c>
+      <c r="D31" s="81">
+        <v>2</v>
+      </c>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81">
+        <v>6</v>
+      </c>
+      <c r="H31" s="81">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="85">
-        <v>2</v>
-      </c>
-      <c r="L31" s="85" t="s">
-        <v>200</v>
-      </c>
-      <c r="M31" s="85"/>
-      <c r="N31" s="82" t="s">
-        <v>285</v>
-      </c>
-      <c r="O31" s="82"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="83"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81">
+        <v>2</v>
+      </c>
+      <c r="L31" s="81" t="s">
+        <v>199</v>
+      </c>
+      <c r="M31" s="81"/>
+      <c r="N31" s="78" t="s">
+        <v>283</v>
+      </c>
+      <c r="O31" s="78"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="79"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
@@ -9827,7 +9893,7 @@
         <v>6.090103</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O32" s="10">
         <v>6</v>
@@ -9871,7 +9937,7 @@
         <v>6.090103</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O33" s="10">
         <v>4</v>
@@ -9881,43 +9947,43 @@
       </c>
       <c r="Q33" s="36"/>
     </row>
-    <row r="34" spans="1:17" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="88" t="s">
+    <row r="34" spans="1:17" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="85" t="s">
+      <c r="B34" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="85">
-        <v>6</v>
-      </c>
-      <c r="D34" s="85">
-        <v>2</v>
-      </c>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85">
-        <v>6</v>
-      </c>
-      <c r="H34" s="85">
+      <c r="C34" s="81">
+        <v>6</v>
+      </c>
+      <c r="D34" s="81">
+        <v>2</v>
+      </c>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81">
+        <v>6</v>
+      </c>
+      <c r="H34" s="81">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85">
-        <v>2</v>
-      </c>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85">
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81">
+        <v>2</v>
+      </c>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81">
         <v>6.090103</v>
       </c>
-      <c r="N34" s="100" t="s">
-        <v>287</v>
-      </c>
-      <c r="O34" s="82"/>
-      <c r="P34" s="82"/>
-      <c r="Q34" s="83"/>
+      <c r="N34" s="96" t="s">
+        <v>285</v>
+      </c>
+      <c r="O34" s="78"/>
+      <c r="P34" s="78"/>
+      <c r="Q34" s="79"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
@@ -9957,7 +10023,7 @@
         <v>6.090103</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O35" s="10">
         <v>12</v>
@@ -10001,7 +10067,7 @@
         <v>6.090103</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O36" s="10">
         <v>6</v>
@@ -10043,7 +10109,7 @@
         <v>6.090103</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O37" s="3">
         <v>4</v>
@@ -10087,7 +10153,7 @@
         <v>6.090103</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -10127,7 +10193,7 @@
         <v>6.090103</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O39" s="3">
         <v>6</v>
@@ -10171,49 +10237,49 @@
         <v>6.090103</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O40" s="17"/>
       <c r="P40" s="17"/>
       <c r="Q40" s="12"/>
     </row>
-    <row r="41" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+    <row r="41" spans="1:17" s="96" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4">
-        <v>4</v>
-      </c>
-      <c r="E41" s="4">
-        <v>4</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4">
+      <c r="C41" s="81"/>
+      <c r="D41" s="81">
+        <v>4</v>
+      </c>
+      <c r="E41" s="81">
+        <v>4</v>
+      </c>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81">
         <v>0</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="81">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4">
+      <c r="I41" s="81"/>
+      <c r="J41" s="81">
         <v>3</v>
       </c>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="M41" s="4"/>
-      <c r="N41" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="12"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="81" t="s">
+        <v>200</v>
+      </c>
+      <c r="M41" s="81"/>
+      <c r="N41" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="O41" s="78"/>
+      <c r="P41" s="78"/>
+      <c r="Q41" s="79"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -10249,7 +10315,7 @@
         <v>6.090103</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O42" s="3">
         <v>8</v>
@@ -10295,7 +10361,7 @@
         <v>6.090103</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O43" s="10">
         <v>6</v>
@@ -10341,7 +10407,7 @@
         <v>6.090103</v>
       </c>
       <c r="N44" s="37" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O44" s="37">
         <v>12</v>
@@ -10528,8 +10594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10559,54 +10625,54 @@
         <v>3</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>305</v>
-      </c>
       <c r="H1" s="23" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P1" s="24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q1" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>108</v>
@@ -10636,7 +10702,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O2" s="3">
         <v>12</v>
@@ -10648,7 +10714,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>109</v>
@@ -10678,7 +10744,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O3" s="3">
         <v>10</v>
@@ -10690,7 +10756,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>110</v>
@@ -10720,7 +10786,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O4" s="3">
         <v>10</v>
@@ -10730,7 +10796,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>111</v>
@@ -10760,7 +10826,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O5" s="10">
         <v>10</v>
@@ -10772,7 +10838,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>112</v>
@@ -10802,7 +10868,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O6" s="3">
         <v>8</v>
@@ -10814,7 +10880,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>113</v>
@@ -10848,7 +10914,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O7" s="3">
         <v>8</v>
@@ -10860,7 +10926,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>94</v>
@@ -10896,7 +10962,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>114</v>
@@ -10926,7 +10992,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O9" s="10">
         <v>6</v>
@@ -10936,7 +11002,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>115</v>
@@ -10966,7 +11032,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O10" s="10">
         <v>10</v>
@@ -10974,49 +11040,49 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:17" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="84" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4">
-        <v>6</v>
-      </c>
-      <c r="E11" s="4">
-        <v>6</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="C11" s="81"/>
+      <c r="D11" s="81">
+        <v>6</v>
+      </c>
+      <c r="E11" s="81">
+        <v>6</v>
+      </c>
+      <c r="F11" s="81">
+        <v>2</v>
+      </c>
+      <c r="G11" s="81">
         <v>0</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="81">
         <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4">
-        <v>4</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4">
+      <c r="I11" s="81"/>
+      <c r="J11" s="81">
+        <v>4</v>
+      </c>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N11" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="12"/>
+      <c r="N11" s="78" t="s">
+        <v>287</v>
+      </c>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="79"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>117</v>
@@ -11050,7 +11116,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O12" s="10">
         <v>16</v>
@@ -11060,7 +11126,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>118</v>
@@ -11090,7 +11156,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -11098,7 +11164,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>119</v>
@@ -11128,7 +11194,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -11136,7 +11202,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>120</v>
@@ -11166,7 +11232,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -11208,7 +11274,7 @@
         <v>6.080101</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O16" s="10">
         <v>12</v>
@@ -11250,7 +11316,7 @@
         <v>6.080101</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -11290,7 +11356,7 @@
         <v>6.080101</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -11330,7 +11396,7 @@
         <v>6.080101</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O19" s="10">
         <v>8</v>
@@ -11372,7 +11438,7 @@
         <v>6.080101</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -11410,7 +11476,7 @@
         <v>6.080101</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O21" s="3">
         <v>10</v>
@@ -11452,7 +11518,7 @@
         <v>6.080101</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O22" s="3">
         <v>8</v>
@@ -11494,7 +11560,7 @@
         <v>6.080101</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O23" s="10">
         <v>8</v>
@@ -11536,7 +11602,7 @@
         <v>6.080101</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O24" s="3">
         <v>8</v>
@@ -11576,7 +11642,7 @@
         <v>6.080101</v>
       </c>
       <c r="N25" s="40" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O25" s="40"/>
       <c r="P25" s="40"/>
@@ -11619,7 +11685,7 @@
         <v>6.080101</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O26" s="10"/>
       <c r="P26" s="10">
@@ -11661,7 +11727,7 @@
         <v>6.080101</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -11699,7 +11765,7 @@
         <v>6.080101</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O28" s="10">
         <v>6</v>
@@ -11707,115 +11773,115 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="12"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:18" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4">
-        <v>4</v>
-      </c>
-      <c r="E29" s="4">
-        <v>4</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4">
+      <c r="C29" s="104"/>
+      <c r="D29" s="104">
+        <v>4</v>
+      </c>
+      <c r="E29" s="104">
+        <v>4</v>
+      </c>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104">
         <v>0</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="104">
         <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4">
+      <c r="I29" s="104"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="104">
         <v>3</v>
       </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4">
+      <c r="L29" s="104"/>
+      <c r="M29" s="104">
         <v>6.080101</v>
       </c>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="12"/>
-    </row>
-    <row r="30" spans="1:18" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="N29" s="106"/>
+      <c r="O29" s="106"/>
+      <c r="P29" s="106"/>
+      <c r="Q29" s="107"/>
+    </row>
+    <row r="30" spans="1:18" s="105" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4">
-        <v>4</v>
-      </c>
-      <c r="E30" s="4">
-        <v>4</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4">
+      <c r="C30" s="81"/>
+      <c r="D30" s="81">
+        <v>4</v>
+      </c>
+      <c r="E30" s="81">
+        <v>4</v>
+      </c>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81">
         <v>0</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="81">
         <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4">
+      <c r="I30" s="81"/>
+      <c r="J30" s="81">
         <v>3</v>
       </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="M30" s="4"/>
-      <c r="N30" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="12"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="K30" s="81"/>
+      <c r="L30" s="81" t="s">
+        <v>200</v>
+      </c>
+      <c r="M30" s="81"/>
+      <c r="N30" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="79"/>
+    </row>
+    <row r="31" spans="1:18" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="4">
-        <v>4</v>
-      </c>
-      <c r="D31" s="4">
-        <v>4</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4">
-        <v>4</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="C31" s="81">
+        <v>4</v>
+      </c>
+      <c r="D31" s="81">
+        <v>4</v>
+      </c>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81">
+        <v>4</v>
+      </c>
+      <c r="H31" s="81">
         <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4">
-        <v>2</v>
-      </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="12"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81">
+        <v>2</v>
+      </c>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="O31" s="78"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="79"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
@@ -11851,7 +11917,7 @@
         <v>6.090103</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O32" s="10">
         <v>6</v>
@@ -11897,7 +11963,7 @@
         <v>6.090103</v>
       </c>
       <c r="N33" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O33" s="17">
         <v>10</v>
@@ -11943,7 +12009,7 @@
         <v>6.090103</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O34" s="3">
         <v>12</v>
@@ -11987,7 +12053,7 @@
         <v>6.090103</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O35" s="17">
         <v>6</v>
@@ -12031,7 +12097,7 @@
         <v>6.090103</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O36" s="3">
         <v>8</v>
@@ -12075,7 +12141,7 @@
         <v>6.090103</v>
       </c>
       <c r="N37" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O37" s="17">
         <v>6</v>
@@ -12119,7 +12185,7 @@
         <v>6.090103</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -12161,7 +12227,7 @@
         <v>6.090103</v>
       </c>
       <c r="N39" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O39" s="17">
         <v>6</v>
@@ -12176,7 +12242,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C40" s="4">
         <v>6</v>
@@ -12209,7 +12275,7 @@
         <v>6.090103</v>
       </c>
       <c r="N40" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O40" s="17">
         <v>6</v>
@@ -12251,7 +12317,7 @@
         <v>6.090103</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O41" s="10">
         <v>8</v>
@@ -12295,7 +12361,7 @@
         <v>6.090103</v>
       </c>
       <c r="N42" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O42" s="37">
         <v>8</v>
@@ -12319,7 +12385,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12352,54 +12418,54 @@
         <v>3</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>305</v>
-      </c>
       <c r="H1" s="23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P1" s="24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q1" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>141</v>
@@ -12431,7 +12497,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O2" s="10">
         <v>8</v>
@@ -12441,7 +12507,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>142</v>
@@ -12473,7 +12539,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O3" s="10">
         <v>12</v>
@@ -12485,7 +12551,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>143</v>
@@ -12517,7 +12583,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O4" s="10">
         <v>12</v>
@@ -12529,7 +12595,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>144</v>
@@ -12561,7 +12627,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O5" s="10">
         <v>12</v>
@@ -12573,7 +12639,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>145</v>
@@ -12605,7 +12671,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O6" s="10">
         <v>12</v>
@@ -12617,7 +12683,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>146</v>
@@ -12649,7 +12715,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O7" s="10">
         <v>8</v>
@@ -12659,7 +12725,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>30</v>
@@ -12691,7 +12757,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O8" s="10">
         <v>8</v>
@@ -12701,7 +12767,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>147</v>
@@ -12733,7 +12799,7 @@
         <v>6.0401040000000004</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O9" s="10">
         <v>12</v>
@@ -12777,7 +12843,7 @@
         <v>6.080101</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O10" s="17">
         <v>18</v>
@@ -12821,7 +12887,7 @@
         <v>6.080101</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O11" s="17">
         <v>12</v>
@@ -12865,7 +12931,7 @@
         <v>6.080101</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O12" s="17">
         <v>16</v>
@@ -12907,7 +12973,7 @@
         <v>6.080101</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O13" s="3">
         <v>8</v>
@@ -12916,42 +12982,42 @@
       <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="85">
-        <v>6</v>
-      </c>
-      <c r="D14" s="85">
-        <v>6</v>
-      </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85">
+      <c r="C14" s="81">
+        <v>6</v>
+      </c>
+      <c r="D14" s="81">
+        <v>6</v>
+      </c>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81">
         <v>0</v>
       </c>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85">
-        <v>2</v>
-      </c>
-      <c r="K14" s="85">
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81">
+        <v>2</v>
+      </c>
+      <c r="K14" s="81">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>12</v>
       </c>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85">
+      <c r="L14" s="81"/>
+      <c r="M14" s="81">
         <v>6.080101</v>
       </c>
-      <c r="N14" s="85" t="s">
-        <v>281</v>
-      </c>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="83"/>
+      <c r="N14" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="79"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
@@ -12985,7 +13051,7 @@
         <v>6.080101</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O15" s="17">
         <v>8</v>
@@ -13027,7 +13093,7 @@
         <v>6.080101</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O16" s="10">
         <v>8</v>
@@ -13039,87 +13105,85 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="C17" s="4">
         <v>8</v>
       </c>
       <c r="D17" s="4">
-        <v>2</v>
-      </c>
-      <c r="E17" s="4">
-        <v>8</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4">
         <v>8</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="4">
-        <v>3</v>
-      </c>
-      <c r="J17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4">
+        <v>2</v>
+      </c>
       <c r="K17" s="4">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4">
-        <v>6.090103</v>
-      </c>
-      <c r="N17" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="O17" s="17">
-        <v>8</v>
-      </c>
-      <c r="P17" s="17">
-        <v>2</v>
+        <v>6.080101</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="O17" s="10">
+        <v>8</v>
+      </c>
+      <c r="P17" s="10">
+        <v>4</v>
       </c>
       <c r="Q17" s="12"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="76">
-        <v>6</v>
-      </c>
-      <c r="D18" s="76">
-        <v>6</v>
-      </c>
-      <c r="E18" s="76">
-        <v>6</v>
-      </c>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76">
+      <c r="C18" s="72">
+        <v>6</v>
+      </c>
+      <c r="D18" s="72">
+        <v>6</v>
+      </c>
+      <c r="E18" s="72">
+        <v>6</v>
+      </c>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72">
         <v>0</v>
       </c>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76">
+      <c r="H18" s="72"/>
+      <c r="I18" s="72">
         <v>3</v>
       </c>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76">
+      <c r="J18" s="72"/>
+      <c r="K18" s="72">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>12</v>
       </c>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76">
+      <c r="L18" s="72"/>
+      <c r="M18" s="72">
         <v>6.090103</v>
       </c>
-      <c r="N18" s="77" t="s">
-        <v>246</v>
-      </c>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="73"/>
+      <c r="N18" s="73" t="s">
+        <v>244</v>
+      </c>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="69"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -13155,7 +13219,7 @@
         <v>6.090103</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O19" s="10">
         <v>4</v>
@@ -13199,7 +13263,7 @@
         <v>6.090103</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O20" s="10">
         <v>10</v>
@@ -13214,7 +13278,7 @@
         <v>56</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C21" s="4">
         <v>6</v>
@@ -13243,7 +13307,7 @@
         <v>6.090103</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O21" s="17">
         <v>6</v>
@@ -13285,7 +13349,7 @@
         <v>6.090103</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -13325,7 +13389,7 @@
         <v>6.090103</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O23" s="10">
         <v>8</v>
@@ -13369,7 +13433,7 @@
         <v>6.090103</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O24" s="10">
         <v>8</v>
@@ -13409,7 +13473,7 @@
         <v>6.090103</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O25" s="10">
         <v>8</v>
@@ -13417,50 +13481,50 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" spans="1:17" s="100" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="88" t="s">
+    <row r="26" spans="1:17" s="96" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="85">
-        <v>6</v>
-      </c>
-      <c r="D26" s="85">
-        <v>2</v>
-      </c>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85">
-        <v>6</v>
-      </c>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85">
-        <v>2</v>
-      </c>
-      <c r="K26" s="85">
+      <c r="C26" s="81">
+        <v>6</v>
+      </c>
+      <c r="D26" s="81">
+        <v>2</v>
+      </c>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81">
+        <v>6</v>
+      </c>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81">
+        <v>2</v>
+      </c>
+      <c r="K26" s="81">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="L26" s="85" t="s">
-        <v>200</v>
-      </c>
-      <c r="M26" s="85"/>
-      <c r="N26" s="82" t="s">
-        <v>285</v>
-      </c>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="83"/>
+      <c r="L26" s="81" t="s">
+        <v>199</v>
+      </c>
+      <c r="M26" s="81"/>
+      <c r="N26" s="78" t="s">
+        <v>283</v>
+      </c>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="79"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C27" s="20">
         <v>4</v>
@@ -13487,7 +13551,7 @@
         <v>6.090103</v>
       </c>
       <c r="N27" s="45" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O27" s="45">
         <v>4</v>
@@ -13510,8 +13574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13524,7 +13588,7 @@
     <col min="9" max="9" width="9.85546875" style="46" customWidth="1"/>
     <col min="10" max="10" width="7.28515625" style="46" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" style="46" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="46" customWidth="1"/>
+    <col min="12" max="12" width="1.5703125" style="46" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" style="46" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="23.85546875" style="46" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.28515625" style="46" customWidth="1"/>
@@ -13541,57 +13605,57 @@
         <v>3</v>
       </c>
       <c r="C1" s="57" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" s="57" t="s">
         <v>301</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="F1" s="57" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="G1" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="57" t="s">
-        <v>304</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>305</v>
-      </c>
       <c r="H1" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" s="4">
         <v>10</v>
@@ -13616,7 +13680,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O2" s="3">
         <v>16</v>
@@ -13628,10 +13692,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
@@ -13658,7 +13722,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O3" s="3">
         <v>16</v>
@@ -13668,88 +13732,88 @@
       </c>
       <c r="Q3" s="55"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="4">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
-        <v>8</v>
-      </c>
-      <c r="H4" s="4">
+    <row r="4" spans="1:17" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="81">
+        <v>8</v>
+      </c>
+      <c r="D4" s="81">
+        <v>2</v>
+      </c>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81">
+        <v>8</v>
+      </c>
+      <c r="H4" s="81">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4">
-        <v>2</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="55"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81">
+        <v>2</v>
+      </c>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="113"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="74" t="s">
+      <c r="A5" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="74">
-        <v>4</v>
-      </c>
-      <c r="D5" s="74">
-        <v>6</v>
-      </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74">
-        <v>6</v>
-      </c>
-      <c r="H5" s="74">
+      <c r="C5" s="70">
+        <v>4</v>
+      </c>
+      <c r="D5" s="70">
+        <v>6</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70">
+        <v>6</v>
+      </c>
+      <c r="H5" s="70">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74">
-        <v>2</v>
-      </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74">
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70">
+        <v>2</v>
+      </c>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70">
         <v>7.0140000000000002</v>
       </c>
-      <c r="N5" s="73" t="s">
-        <v>212</v>
-      </c>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73">
+      <c r="N5" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69">
         <v>10</v>
       </c>
-      <c r="Q5" s="78"/>
+      <c r="Q5" s="74"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="4">
         <v>10</v>
@@ -13776,7 +13840,7 @@
         <v>7.0140000000000002</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O6" s="17">
         <v>12</v>
@@ -13788,10 +13852,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4">
@@ -13816,7 +13880,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O7" s="10">
         <v>4</v>
@@ -13826,10 +13890,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" s="4">
         <v>8</v>
@@ -13856,7 +13920,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O8" s="3">
         <v>14</v>
@@ -13866,10 +13930,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4">
@@ -13894,7 +13958,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O9" s="3">
         <v>4</v>
@@ -13904,10 +13968,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4">
@@ -13934,7 +13998,7 @@
         <v>7.0140000000000002</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O10" s="10">
         <v>6</v>
@@ -13944,10 +14008,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4">
@@ -13972,7 +14036,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O11" s="17">
         <v>8</v>
@@ -13982,10 +14046,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -14012,7 +14076,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -14020,10 +14084,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -14048,7 +14112,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -14056,10 +14120,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -14084,7 +14148,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -14092,10 +14156,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -14126,10 +14190,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C16" s="4">
         <v>8</v>
@@ -14154,7 +14218,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O16" s="10">
         <v>8</v>
@@ -14166,10 +14230,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C17" s="4">
         <v>8</v>
@@ -14194,7 +14258,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O17" s="10">
         <v>8</v>
@@ -14204,52 +14268,52 @@
       </c>
       <c r="Q17" s="55"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C18" s="4">
-        <v>8</v>
-      </c>
-      <c r="D18" s="4">
-        <v>6</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4">
+    <row r="18" spans="1:17" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="104" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="104" t="s">
+        <v>271</v>
+      </c>
+      <c r="C18" s="104">
+        <v>8</v>
+      </c>
+      <c r="D18" s="104">
+        <v>6</v>
+      </c>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104">
         <v>0</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="104">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>14</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4">
-        <v>2</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="O18" s="17">
-        <v>8</v>
-      </c>
-      <c r="P18" s="17">
-        <v>6</v>
-      </c>
-      <c r="Q18" s="55"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104">
+        <v>2</v>
+      </c>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="110" t="s">
+        <v>272</v>
+      </c>
+      <c r="O18" s="109">
+        <v>8</v>
+      </c>
+      <c r="P18" s="109">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="111"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C19" s="4">
         <v>8</v>
@@ -14276,7 +14340,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O19" s="3">
         <v>8</v>
@@ -14288,10 +14352,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C20" s="4">
         <v>6</v>
@@ -14318,7 +14382,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O20" s="17">
         <v>10</v>
@@ -14330,10 +14394,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C21" s="4">
         <v>6</v>
@@ -14360,7 +14424,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O21" s="10">
         <v>10</v>
@@ -14372,10 +14436,10 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C22" s="4">
         <v>6</v>
@@ -14400,7 +14464,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O22" s="10">
         <v>8</v>
@@ -14412,7 +14476,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>149</v>
@@ -14440,7 +14504,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O23" s="10">
         <v>6</v>
@@ -14450,10 +14514,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4">
@@ -14480,7 +14544,7 @@
         <v>7.1929999999999996</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O24" s="10">
         <v>6</v>
@@ -14490,10 +14554,10 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4">
@@ -14518,7 +14582,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O25" s="10">
         <v>6</v>
@@ -14528,10 +14592,10 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4">
@@ -14556,7 +14620,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O26" s="10">
         <v>8</v>
@@ -14566,10 +14630,10 @@
     </row>
     <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4">
@@ -14594,7 +14658,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="29" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O27" s="10">
         <v>8</v>
@@ -14604,10 +14668,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C28" s="4">
         <v>8</v>
@@ -14632,7 +14696,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O28" s="17">
         <v>8</v>
@@ -14642,48 +14706,48 @@
       </c>
       <c r="Q28" s="55"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="1:17" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="81" t="s">
         <v>178</v>
       </c>
-      <c r="C29" s="4">
-        <v>8</v>
-      </c>
-      <c r="D29" s="4">
-        <v>4</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4">
-        <v>8</v>
-      </c>
-      <c r="H29" s="4">
+      <c r="B29" s="81" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="81">
+        <v>8</v>
+      </c>
+      <c r="D29" s="81">
+        <v>4</v>
+      </c>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81">
+        <v>8</v>
+      </c>
+      <c r="H29" s="81">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4">
-        <v>2</v>
-      </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="55"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81">
+        <v>2</v>
+      </c>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="78" t="s">
+        <v>290</v>
+      </c>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="113"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C30" s="4">
         <v>4</v>
@@ -14710,7 +14774,7 @@
         <v>8.0139999999999993</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O30" s="10"/>
       <c r="P30" s="10">
@@ -14720,10 +14784,10 @@
     </row>
     <row r="31" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4">
@@ -14750,7 +14814,7 @@
         <v>8.0139999999999993</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O31" s="10">
         <v>6</v>
@@ -14760,10 +14824,10 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -14790,7 +14854,7 @@
         <v>8.0139999999999993</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O32" s="17"/>
       <c r="P32" s="3"/>
@@ -14798,10 +14862,10 @@
     </row>
     <row r="33" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4">
@@ -14828,7 +14892,7 @@
         <v>8.1929999999999996</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O33" s="3">
         <v>6</v>
@@ -14840,10 +14904,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C34" s="4">
         <v>10</v>
@@ -14872,7 +14936,7 @@
         <v>8.1929999999999996</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O34" s="3">
         <v>14</v>
@@ -14882,50 +14946,50 @@
       </c>
       <c r="Q34" s="55"/>
     </row>
-    <row r="35" spans="1:17" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="96" t="s">
-        <v>306</v>
-      </c>
-      <c r="B35" s="96" t="s">
-        <v>307</v>
-      </c>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96">
+    <row r="35" spans="1:17" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="92" t="s">
+        <v>304</v>
+      </c>
+      <c r="B35" s="92" t="s">
+        <v>305</v>
+      </c>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92">
         <v>4</v>
       </c>
       <c r="E35" s="62">
         <v>4</v>
       </c>
       <c r="F35" s="62"/>
-      <c r="G35" s="96">
+      <c r="G35" s="92">
         <v>0</v>
       </c>
-      <c r="H35" s="96">
+      <c r="H35" s="92">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I35" s="96"/>
-      <c r="J35" s="96">
+      <c r="I35" s="92"/>
+      <c r="J35" s="92">
         <v>3</v>
       </c>
-      <c r="K35" s="96"/>
-      <c r="L35" s="96"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
       <c r="M35" s="62">
         <v>20.204999999999998</v>
       </c>
-      <c r="N35" s="97" t="s">
-        <v>331</v>
-      </c>
-      <c r="O35" s="98"/>
-      <c r="P35" s="97"/>
-      <c r="Q35" s="98"/>
+      <c r="N35" s="93" t="s">
+        <v>329</v>
+      </c>
+      <c r="O35" s="94"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="94"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>308</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="53">
@@ -14954,7 +15018,7 @@
         <v>20.204999999999998</v>
       </c>
       <c r="N36" s="56" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O36" s="3">
         <v>6</v>
@@ -14964,10 +15028,10 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="53">
@@ -14998,7 +15062,7 @@
         <v>20.204999999999998</v>
       </c>
       <c r="N37" s="56" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O37" s="54">
         <v>6</v>
@@ -15008,10 +15072,10 @@
     </row>
     <row r="38" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="53">
@@ -15038,7 +15102,7 @@
         <v>20.204999999999998</v>
       </c>
       <c r="N38" s="56" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O38" s="54">
         <v>4</v>
@@ -15050,10 +15114,10 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="53">
@@ -15080,7 +15144,7 @@
         <v>20.204999999999998</v>
       </c>
       <c r="N39" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O39" s="54">
         <v>4</v>
@@ -15092,10 +15156,10 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="62" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B40" s="62" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C40" s="62"/>
       <c r="D40" s="62">
@@ -15128,10 +15192,10 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="53">
@@ -15162,7 +15226,7 @@
         <v>20.204999999999998</v>
       </c>
       <c r="N41" s="56" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O41" s="54">
         <v>6</v>
@@ -15172,10 +15236,10 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="53">
@@ -15202,7 +15266,7 @@
         <v>20.204999999999998</v>
       </c>
       <c r="N42" s="56" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O42" s="54">
         <v>6</v>
@@ -15214,10 +15278,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="62" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B43" s="62" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C43" s="62"/>
       <c r="D43" s="62">
@@ -15246,7 +15310,7 @@
         <v>20.204999999999998</v>
       </c>
       <c r="N43" s="63" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O43" s="64"/>
       <c r="P43" s="63"/>
@@ -15254,10 +15318,10 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="62" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B44" s="62" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C44" s="62"/>
       <c r="D44" s="62">
@@ -15286,56 +15350,56 @@
         <v>20.204999999999998</v>
       </c>
       <c r="N44" s="63" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O44" s="64"/>
       <c r="P44" s="63"/>
       <c r="Q44" s="64"/>
     </row>
-    <row r="45" spans="1:17" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="96" t="s">
-        <v>306</v>
-      </c>
-      <c r="B45" s="96" t="s">
-        <v>316</v>
-      </c>
-      <c r="C45" s="96"/>
-      <c r="D45" s="96">
-        <v>6</v>
-      </c>
-      <c r="E45" s="96">
-        <v>2</v>
-      </c>
-      <c r="F45" s="96">
-        <v>4</v>
-      </c>
-      <c r="G45" s="96">
+    <row r="45" spans="1:17" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="92" t="s">
+        <v>304</v>
+      </c>
+      <c r="B45" s="92" t="s">
+        <v>314</v>
+      </c>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92">
+        <v>6</v>
+      </c>
+      <c r="E45" s="92">
+        <v>2</v>
+      </c>
+      <c r="F45" s="92">
+        <v>4</v>
+      </c>
+      <c r="G45" s="92">
         <v>0</v>
       </c>
-      <c r="H45" s="96">
+      <c r="H45" s="92">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I45" s="96"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96">
-        <v>4</v>
-      </c>
-      <c r="L45" s="96"/>
-      <c r="M45" s="96">
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="92">
+        <v>4</v>
+      </c>
+      <c r="L45" s="92"/>
+      <c r="M45" s="92">
         <v>20.204999999999998</v>
       </c>
-      <c r="N45" s="97"/>
-      <c r="O45" s="101"/>
-      <c r="P45" s="97"/>
-      <c r="Q45" s="101"/>
+      <c r="N45" s="93"/>
+      <c r="O45" s="97"/>
+      <c r="P45" s="93"/>
+      <c r="Q45" s="97"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="53">
@@ -15366,7 +15430,7 @@
         <v>20.204999999999998</v>
       </c>
       <c r="N46" s="56" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O46" s="54">
         <v>6</v>
@@ -15376,10 +15440,10 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="53">
@@ -15408,7 +15472,7 @@
         <v>20.204999999999998</v>
       </c>
       <c r="N47" s="56" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="O47" s="54">
         <v>6</v>
@@ -15418,10 +15482,10 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="53">
@@ -15448,7 +15512,7 @@
         <v>20.204999999999998</v>
       </c>
       <c r="N48" s="56" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O48" s="54">
         <v>6</v>
@@ -15495,45 +15559,45 @@
         <v>3</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="H1" s="49" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J1" s="49" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L1" s="50" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M1" s="51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C2" s="14">
         <v>8</v>
@@ -15544,10 +15608,10 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="55" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K2" s="10">
         <v>10</v>
@@ -15557,10 +15621,10 @@
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>295</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>297</v>
       </c>
       <c r="C3" s="14">
         <v>8</v>
@@ -15571,10 +15635,10 @@
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="55" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="10">
@@ -15584,10 +15648,10 @@
     </row>
     <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C4" s="14">
         <v>8</v>
@@ -15598,10 +15662,10 @@
       <c r="G4" s="58"/>
       <c r="H4" s="58"/>
       <c r="I4" s="59" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K4" s="37">
         <v>8</v>

--- a/Zaizd2.xlsx
+++ b/Zaizd2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="420" windowWidth="20730" windowHeight="9360"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="20730" windowHeight="9300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1 курс" sheetId="1" r:id="rId1"/>
@@ -1654,7 +1654,7 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1746,15 +1746,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1963,6 +1954,21 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Ввід" xfId="3" builtinId="20"/>
@@ -5779,8 +5785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R238"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5860,372 +5866,372 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="76">
-        <v>4</v>
-      </c>
-      <c r="D2" s="76">
-        <v>4</v>
-      </c>
-      <c r="E2" s="76">
-        <v>2</v>
-      </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76">
+      <c r="B2" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="73">
+        <v>4</v>
+      </c>
+      <c r="D2" s="73">
+        <v>4</v>
+      </c>
+      <c r="E2" s="73">
+        <v>2</v>
+      </c>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73">
         <v>0</v>
       </c>
-      <c r="H2" s="76">
+      <c r="H2" s="73">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>8</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="76">
+      <c r="I2" s="73"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="73">
         <v>3</v>
       </c>
-      <c r="L2" s="76"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="76" t="s">
+      <c r="L2" s="73"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="79"/>
-    </row>
-    <row r="3" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="76"/>
+    </row>
+    <row r="3" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="76">
-        <v>4</v>
-      </c>
-      <c r="D3" s="76">
-        <v>6</v>
-      </c>
-      <c r="E3" s="76">
-        <v>4</v>
-      </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76">
-        <v>4</v>
-      </c>
-      <c r="H3" s="76">
+      <c r="C3" s="73">
+        <v>4</v>
+      </c>
+      <c r="D3" s="73">
+        <v>6</v>
+      </c>
+      <c r="E3" s="73">
+        <v>4</v>
+      </c>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73">
+        <v>4</v>
+      </c>
+      <c r="H3" s="73">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76">
+      <c r="I3" s="73"/>
+      <c r="J3" s="73">
         <v>3</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="76" t="s">
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="79"/>
-    </row>
-    <row r="4" spans="1:18" s="80" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="76"/>
+    </row>
+    <row r="4" spans="1:18" s="77" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="76">
-        <v>6</v>
-      </c>
-      <c r="D4" s="76">
-        <v>6</v>
-      </c>
-      <c r="E4" s="76">
-        <v>4</v>
-      </c>
-      <c r="F4" s="76">
-        <v>4</v>
-      </c>
-      <c r="G4" s="76">
-        <v>6</v>
-      </c>
-      <c r="H4" s="76">
+      <c r="B4" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="73">
+        <v>6</v>
+      </c>
+      <c r="D4" s="73">
+        <v>6</v>
+      </c>
+      <c r="E4" s="73">
+        <v>4</v>
+      </c>
+      <c r="F4" s="73">
+        <v>4</v>
+      </c>
+      <c r="G4" s="73">
+        <v>6</v>
+      </c>
+      <c r="H4" s="73">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76">
-        <v>4</v>
-      </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="81" t="s">
+      <c r="I4" s="73"/>
+      <c r="J4" s="73">
+        <v>4</v>
+      </c>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="78" t="s">
         <v>279</v>
       </c>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="79"/>
-    </row>
-    <row r="5" spans="1:18" s="80" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="84" t="s">
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="76"/>
+    </row>
+    <row r="5" spans="1:18" s="77" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="81">
+      <c r="B5" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="78">
         <v>12</v>
       </c>
-      <c r="D5" s="81">
+      <c r="D5" s="78">
         <v>10</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="81">
+      <c r="G5" s="78">
         <v>10</v>
       </c>
-      <c r="H5" s="81">
+      <c r="H5" s="78">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>12</v>
       </c>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81">
-        <v>2</v>
-      </c>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81" t="s">
+      <c r="I5" s="78"/>
+      <c r="J5" s="78">
+        <v>2</v>
+      </c>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="N5" s="81" t="s">
+      <c r="N5" s="78" t="s">
         <v>278</v>
       </c>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="79"/>
-    </row>
-    <row r="6" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="76"/>
+    </row>
+    <row r="6" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="78">
         <v>14</v>
       </c>
-      <c r="D6" s="81">
-        <v>6</v>
-      </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81">
+      <c r="D6" s="78">
+        <v>6</v>
+      </c>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78">
         <v>10</v>
       </c>
-      <c r="H6" s="81">
+      <c r="H6" s="78">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>10</v>
       </c>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81">
-        <v>2</v>
-      </c>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81" t="s">
+      <c r="I6" s="78"/>
+      <c r="J6" s="78">
+        <v>2</v>
+      </c>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="N6" s="78" t="s">
+      <c r="N6" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="O6" s="78">
+      <c r="O6" s="75">
         <v>12</v>
       </c>
-      <c r="P6" s="78">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="79"/>
-    </row>
-    <row r="7" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84" t="s">
+      <c r="P6" s="75">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="76"/>
+    </row>
+    <row r="7" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="81">
+      <c r="C7" s="78">
         <v>10</v>
       </c>
-      <c r="D7" s="81">
+      <c r="D7" s="78">
         <v>10</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81">
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78">
         <v>10</v>
       </c>
-      <c r="H7" s="81">
+      <c r="H7" s="78">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>10</v>
       </c>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81">
-        <v>2</v>
-      </c>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81" t="s">
+      <c r="I7" s="78"/>
+      <c r="J7" s="78">
+        <v>2</v>
+      </c>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="N7" s="78" t="s">
+      <c r="N7" s="75" t="s">
         <v>202</v>
       </c>
-      <c r="O7" s="78">
+      <c r="O7" s="75">
         <v>12</v>
       </c>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78">
-        <v>8</v>
-      </c>
-      <c r="R7" s="79"/>
-    </row>
-    <row r="8" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75">
+        <v>8</v>
+      </c>
+      <c r="R7" s="76"/>
+    </row>
+    <row r="8" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="81">
-        <v>8</v>
-      </c>
-      <c r="D8" s="81">
+      <c r="C8" s="78">
+        <v>8</v>
+      </c>
+      <c r="D8" s="78">
         <v>6</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="81">
-        <v>8</v>
-      </c>
-      <c r="H8" s="81">
+      <c r="G8" s="78">
+        <v>8</v>
+      </c>
+      <c r="H8" s="78">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81">
-        <v>2</v>
-      </c>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81" t="s">
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78">
+        <v>2</v>
+      </c>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="79"/>
-    </row>
-    <row r="9" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84" t="s">
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="76"/>
+    </row>
+    <row r="9" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="81">
-        <v>4</v>
-      </c>
-      <c r="D9" s="81">
+      <c r="C9" s="78">
+        <v>4</v>
+      </c>
+      <c r="D9" s="78">
         <v>10</v>
       </c>
-      <c r="E9" s="81">
-        <v>2</v>
-      </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81">
-        <v>4</v>
-      </c>
-      <c r="H9" s="81">
+      <c r="E9" s="78">
+        <v>2</v>
+      </c>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78">
+        <v>4</v>
+      </c>
+      <c r="H9" s="78">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>10</v>
       </c>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81">
+      <c r="I9" s="78"/>
+      <c r="J9" s="78">
         <v>3</v>
       </c>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81" t="s">
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="N9" s="78" t="s">
+      <c r="N9" s="75" t="s">
         <v>203</v>
       </c>
-      <c r="O9" s="78">
-        <v>8</v>
-      </c>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="78">
-        <v>6</v>
-      </c>
-      <c r="R9" s="79"/>
-    </row>
-    <row r="10" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="84" t="s">
+      <c r="O9" s="75">
+        <v>8</v>
+      </c>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="75">
+        <v>6</v>
+      </c>
+      <c r="R9" s="76"/>
+    </row>
+    <row r="10" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81">
-        <v>4</v>
-      </c>
-      <c r="E10" s="81">
-        <v>6</v>
-      </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81">
+      <c r="C10" s="78"/>
+      <c r="D10" s="78">
+        <v>4</v>
+      </c>
+      <c r="E10" s="78">
+        <v>6</v>
+      </c>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78">
         <v>0</v>
       </c>
-      <c r="H10" s="81">
+      <c r="H10" s="78">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81">
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78">
         <v>3</v>
       </c>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81" t="s">
+      <c r="L10" s="78"/>
+      <c r="M10" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="N10" s="86" t="s">
+      <c r="N10" s="83" t="s">
         <v>204</v>
       </c>
-      <c r="O10" s="86">
-        <v>4</v>
-      </c>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="79"/>
+      <c r="O10" s="83">
+        <v>4</v>
+      </c>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="76"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -6270,97 +6276,97 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="12"/>
     </row>
-    <row r="12" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="84" t="s">
+    <row r="12" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="78">
         <v>10</v>
       </c>
-      <c r="D12" s="81">
-        <v>8</v>
-      </c>
-      <c r="E12" s="81">
-        <v>6</v>
-      </c>
-      <c r="F12" s="81">
-        <v>6</v>
-      </c>
-      <c r="G12" s="81">
+      <c r="D12" s="78">
+        <v>8</v>
+      </c>
+      <c r="E12" s="78">
+        <v>6</v>
+      </c>
+      <c r="F12" s="78">
+        <v>6</v>
+      </c>
+      <c r="G12" s="78">
         <v>10</v>
       </c>
-      <c r="H12" s="81">
+      <c r="H12" s="78">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>8</v>
       </c>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81">
-        <v>4</v>
-      </c>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="78" t="s">
+      <c r="I12" s="78"/>
+      <c r="J12" s="78">
+        <v>4</v>
+      </c>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="N12" s="81" t="s">
+      <c r="N12" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="79" t="s">
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="76" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="80" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="98" t="s">
+    <row r="13" spans="1:18" s="77" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="95" t="s">
         <v>187</v>
       </c>
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="99">
+      <c r="C13" s="96">
         <v>10</v>
       </c>
-      <c r="D13" s="99">
-        <v>8</v>
-      </c>
-      <c r="E13" s="99">
-        <v>6</v>
-      </c>
-      <c r="F13" s="99">
-        <v>6</v>
-      </c>
-      <c r="G13" s="99">
-        <v>6</v>
-      </c>
-      <c r="H13" s="99">
+      <c r="D13" s="96">
+        <v>8</v>
+      </c>
+      <c r="E13" s="96">
+        <v>6</v>
+      </c>
+      <c r="F13" s="96">
+        <v>6</v>
+      </c>
+      <c r="G13" s="96">
+        <v>6</v>
+      </c>
+      <c r="H13" s="96">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>12</v>
       </c>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99">
-        <v>4</v>
-      </c>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99" t="s">
+      <c r="I13" s="96"/>
+      <c r="J13" s="96">
+        <v>4</v>
+      </c>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96" t="s">
         <v>324</v>
       </c>
-      <c r="M13" s="100" t="s">
+      <c r="M13" s="97" t="s">
         <v>192</v>
       </c>
-      <c r="N13" s="99" t="s">
+      <c r="N13" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="O13" s="100">
+      <c r="O13" s="97">
         <v>14</v>
       </c>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="100"/>
-      <c r="R13" s="101" t="s">
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="98" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6410,49 +6416,49 @@
       <c r="R14" s="12"/>
     </row>
     <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="66">
-        <v>6</v>
-      </c>
-      <c r="D15" s="66">
-        <v>4</v>
-      </c>
-      <c r="E15" s="66">
+      <c r="C15" s="63">
+        <v>6</v>
+      </c>
+      <c r="D15" s="63">
+        <v>4</v>
+      </c>
+      <c r="E15" s="63">
         <v>12</v>
       </c>
-      <c r="F15" s="66">
-        <v>8</v>
-      </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66">
+      <c r="F15" s="63">
+        <v>8</v>
+      </c>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>10</v>
       </c>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66">
-        <v>4</v>
-      </c>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66" t="s">
+      <c r="I15" s="63"/>
+      <c r="J15" s="63">
+        <v>4</v>
+      </c>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63" t="s">
         <v>325</v>
       </c>
-      <c r="M15" s="67">
+      <c r="M15" s="64">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N15" s="67" t="s">
+      <c r="N15" s="64" t="s">
         <v>219</v>
       </c>
-      <c r="O15" s="67">
-        <v>2</v>
-      </c>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="68"/>
+      <c r="O15" s="64">
+        <v>2</v>
+      </c>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="65"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -6546,185 +6552,185 @@
       </c>
       <c r="R17" s="12"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4">
-        <v>2</v>
-      </c>
-      <c r="E18" s="4">
-        <v>6</v>
-      </c>
-      <c r="F18" s="4">
-        <v>6</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="C18" s="78"/>
+      <c r="D18" s="78">
+        <v>2</v>
+      </c>
+      <c r="E18" s="78">
+        <v>6</v>
+      </c>
+      <c r="F18" s="78">
+        <v>6</v>
+      </c>
+      <c r="G18" s="78">
         <v>0</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="78">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4">
-        <v>4</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="3">
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78">
+        <v>4</v>
+      </c>
+      <c r="L18" s="78"/>
+      <c r="M18" s="75">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N18" s="17" t="s">
+      <c r="N18" s="84" t="s">
         <v>236</v>
       </c>
-      <c r="O18" s="17">
-        <v>2</v>
-      </c>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17">
+      <c r="O18" s="84">
+        <v>2</v>
+      </c>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84">
         <v>0</v>
       </c>
-      <c r="R18" s="12"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="R18" s="76"/>
+    </row>
+    <row r="19" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4">
-        <v>2</v>
-      </c>
-      <c r="E19" s="4">
-        <v>4</v>
-      </c>
-      <c r="F19" s="4">
-        <v>4</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="C19" s="78"/>
+      <c r="D19" s="78">
+        <v>2</v>
+      </c>
+      <c r="E19" s="78">
+        <v>4</v>
+      </c>
+      <c r="F19" s="78">
+        <v>4</v>
+      </c>
+      <c r="G19" s="78">
         <v>0</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="78">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4">
-        <v>4</v>
-      </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="3">
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78">
+        <v>4</v>
+      </c>
+      <c r="L19" s="78"/>
+      <c r="M19" s="75">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N19" s="17" t="s">
+      <c r="N19" s="84" t="s">
         <v>202</v>
       </c>
-      <c r="O19" s="17">
-        <v>2</v>
-      </c>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="12"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="O19" s="84">
+        <v>2</v>
+      </c>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="76"/>
+    </row>
+    <row r="20" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="4">
-        <v>6</v>
-      </c>
-      <c r="D20" s="3">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>8</v>
-      </c>
-      <c r="G20" s="3">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="C20" s="78">
+        <v>6</v>
+      </c>
+      <c r="D20" s="75">
+        <v>4</v>
+      </c>
+      <c r="E20" s="75">
+        <v>4</v>
+      </c>
+      <c r="F20" s="75">
+        <v>8</v>
+      </c>
+      <c r="G20" s="75">
+        <v>4</v>
+      </c>
+      <c r="H20" s="75">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="3">
+      <c r="I20" s="75"/>
+      <c r="J20" s="75">
+        <v>4</v>
+      </c>
+      <c r="K20" s="75"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="75">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N20" s="17" t="s">
+      <c r="N20" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="O20" s="17">
-        <v>6</v>
-      </c>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17">
-        <v>4</v>
-      </c>
-      <c r="R20" s="12"/>
-    </row>
-    <row r="21" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="84" t="s">
+      <c r="O20" s="84">
+        <v>6</v>
+      </c>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="84">
+        <v>4</v>
+      </c>
+      <c r="R20" s="76"/>
+    </row>
+    <row r="21" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="81">
-        <v>6</v>
-      </c>
-      <c r="D21" s="78">
-        <v>4</v>
-      </c>
-      <c r="E21" s="78">
-        <v>4</v>
-      </c>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78">
-        <v>6</v>
-      </c>
-      <c r="H21" s="78">
+      <c r="C21" s="78">
+        <v>6</v>
+      </c>
+      <c r="D21" s="75">
+        <v>4</v>
+      </c>
+      <c r="E21" s="75">
+        <v>4</v>
+      </c>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75">
+        <v>6</v>
+      </c>
+      <c r="H21" s="75">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78">
+      <c r="I21" s="75"/>
+      <c r="J21" s="75">
         <v>3</v>
       </c>
-      <c r="K21" s="78"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="78">
+      <c r="K21" s="75"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="75">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N21" s="87" t="s">
+      <c r="N21" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="O21" s="87">
-        <v>6</v>
-      </c>
-      <c r="P21" s="87">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="87"/>
-      <c r="R21" s="79"/>
+      <c r="O21" s="84">
+        <v>6</v>
+      </c>
+      <c r="P21" s="84">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="76"/>
     </row>
     <row r="22" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
@@ -6769,60 +6775,60 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="12"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="4">
-        <v>6</v>
-      </c>
-      <c r="D23" s="3">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3">
-        <v>6</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="C23" s="78">
+        <v>6</v>
+      </c>
+      <c r="D23" s="75">
+        <v>4</v>
+      </c>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75">
+        <v>6</v>
+      </c>
+      <c r="H23" s="75">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3">
-        <v>2</v>
-      </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="3">
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75">
+        <v>2</v>
+      </c>
+      <c r="L23" s="78"/>
+      <c r="M23" s="75">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="N23" s="75" t="s">
         <v>208</v>
       </c>
-      <c r="O23" s="3">
-        <v>6</v>
-      </c>
-      <c r="P23" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="12"/>
-    </row>
-    <row r="24" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="84" t="s">
+      <c r="O23" s="75">
+        <v>6</v>
+      </c>
+      <c r="P23" s="75">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="76"/>
+    </row>
+    <row r="24" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="81">
-        <v>4</v>
-      </c>
-      <c r="D24" s="81">
+      <c r="C24" s="78">
+        <v>4</v>
+      </c>
+      <c r="D24" s="78">
         <v>6</v>
       </c>
       <c r="E24" s="4">
@@ -6831,137 +6837,137 @@
       <c r="F24" s="4">
         <v>6</v>
       </c>
-      <c r="G24" s="81">
-        <v>4</v>
-      </c>
-      <c r="H24" s="81">
+      <c r="G24" s="78">
+        <v>4</v>
+      </c>
+      <c r="H24" s="78">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81">
-        <v>4</v>
-      </c>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="78">
+      <c r="I24" s="78"/>
+      <c r="J24" s="78">
+        <v>4</v>
+      </c>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="75">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N24" s="86" t="s">
+      <c r="N24" s="83" t="s">
         <v>280</v>
       </c>
-      <c r="O24" s="87"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="87"/>
-      <c r="R24" s="79" t="s">
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="76" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="80" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="98" t="s">
+    <row r="25" spans="1:18" s="77" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="99" t="s">
+      <c r="B25" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="99">
-        <v>4</v>
-      </c>
-      <c r="D25" s="99">
-        <v>8</v>
-      </c>
-      <c r="E25" s="99">
-        <v>4</v>
-      </c>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99">
-        <v>4</v>
-      </c>
-      <c r="H25" s="99">
+      <c r="C25" s="96">
+        <v>4</v>
+      </c>
+      <c r="D25" s="96">
+        <v>8</v>
+      </c>
+      <c r="E25" s="96">
+        <v>4</v>
+      </c>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96">
+        <v>4</v>
+      </c>
+      <c r="H25" s="96">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>8</v>
       </c>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99">
+      <c r="I25" s="96"/>
+      <c r="J25" s="96">
         <v>3</v>
       </c>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99" t="s">
+      <c r="K25" s="96"/>
+      <c r="L25" s="96" t="s">
         <v>324</v>
       </c>
-      <c r="M25" s="100">
+      <c r="M25" s="97">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N25" s="99" t="s">
+      <c r="N25" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="O25" s="100">
-        <v>6</v>
-      </c>
-      <c r="P25" s="100"/>
-      <c r="Q25" s="100"/>
-      <c r="R25" s="101" t="s">
+      <c r="O25" s="97">
+        <v>6</v>
+      </c>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="98" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="4">
-        <v>8</v>
-      </c>
-      <c r="D26" s="4">
-        <v>8</v>
-      </c>
-      <c r="E26" s="4">
-        <v>6</v>
-      </c>
-      <c r="F26" s="4">
-        <v>8</v>
-      </c>
-      <c r="G26" s="4">
-        <v>8</v>
-      </c>
-      <c r="H26" s="4">
+      <c r="C26" s="78">
+        <v>8</v>
+      </c>
+      <c r="D26" s="78">
+        <v>8</v>
+      </c>
+      <c r="E26" s="78">
+        <v>6</v>
+      </c>
+      <c r="F26" s="78">
+        <v>8</v>
+      </c>
+      <c r="G26" s="78">
+        <v>8</v>
+      </c>
+      <c r="H26" s="78">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>8</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4">
-        <v>4</v>
-      </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="3">
+      <c r="I26" s="78"/>
+      <c r="J26" s="78">
+        <v>4</v>
+      </c>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="75">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="N26" s="75" t="s">
         <v>233</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="75">
         <v>16</v>
       </c>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3">
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75">
         <v>0</v>
       </c>
-      <c r="R26" s="12"/>
-    </row>
-    <row r="27" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="88" t="s">
+      <c r="R26" s="76"/>
+    </row>
+    <row r="27" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="89">
-        <v>4</v>
-      </c>
-      <c r="D27" s="90">
+      <c r="C27" s="86">
+        <v>4</v>
+      </c>
+      <c r="D27" s="87">
         <v>6</v>
       </c>
       <c r="E27" s="20">
@@ -6970,29 +6976,29 @@
       <c r="F27" s="20">
         <v>2</v>
       </c>
-      <c r="G27" s="90">
-        <v>4</v>
-      </c>
-      <c r="H27" s="90">
+      <c r="G27" s="87">
+        <v>4</v>
+      </c>
+      <c r="H27" s="87">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90">
+      <c r="I27" s="87"/>
+      <c r="J27" s="87">
         <v>3</v>
       </c>
-      <c r="K27" s="90"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89">
+      <c r="K27" s="87"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N27" s="89" t="s">
+      <c r="N27" s="86" t="s">
         <v>291</v>
       </c>
-      <c r="O27" s="89"/>
-      <c r="P27" s="89"/>
-      <c r="Q27" s="89"/>
-      <c r="R27" s="91"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="86"/>
+      <c r="R27" s="88"/>
     </row>
     <row r="102" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M102" s="9"/>
@@ -7097,8 +7103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7179,384 +7185,384 @@
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="83" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:18" s="80" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="76">
-        <v>6</v>
-      </c>
-      <c r="D2" s="76">
-        <v>4</v>
-      </c>
-      <c r="E2" s="76">
-        <v>2</v>
-      </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76">
-        <v>6</v>
-      </c>
-      <c r="H2" s="76">
+      <c r="C2" s="73">
+        <v>6</v>
+      </c>
+      <c r="D2" s="73">
+        <v>4</v>
+      </c>
+      <c r="E2" s="73">
+        <v>2</v>
+      </c>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73">
+        <v>6</v>
+      </c>
+      <c r="H2" s="73">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76">
+      <c r="I2" s="73"/>
+      <c r="J2" s="73">
         <v>3</v>
       </c>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="81" t="s">
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="78" t="s">
         <v>279</v>
       </c>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="82"/>
-    </row>
-    <row r="3" spans="1:18" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="79"/>
+    </row>
+    <row r="3" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="76">
-        <v>4</v>
-      </c>
-      <c r="D3" s="76">
-        <v>6</v>
-      </c>
-      <c r="E3" s="76">
-        <v>4</v>
-      </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76">
-        <v>4</v>
-      </c>
-      <c r="H3" s="76">
+      <c r="C3" s="73">
+        <v>4</v>
+      </c>
+      <c r="D3" s="73">
+        <v>6</v>
+      </c>
+      <c r="E3" s="73">
+        <v>4</v>
+      </c>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73">
+        <v>4</v>
+      </c>
+      <c r="H3" s="73">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76">
+      <c r="I3" s="73"/>
+      <c r="J3" s="73">
         <v>3</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="81" t="s">
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="78" t="s">
         <v>292</v>
       </c>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="82"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="79"/>
+    </row>
+    <row r="4" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="4">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
-        <v>8</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="C4" s="78">
+        <v>8</v>
+      </c>
+      <c r="D4" s="78">
+        <v>8</v>
+      </c>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78">
+        <v>8</v>
+      </c>
+      <c r="H4" s="78">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>8</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4">
-        <v>2</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4">
+      <c r="I4" s="78"/>
+      <c r="J4" s="78">
+        <v>2</v>
+      </c>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="78" t="s">
         <v>211</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="78">
         <v>12</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4">
-        <v>4</v>
-      </c>
-      <c r="R4" s="28"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78">
+        <v>4</v>
+      </c>
+      <c r="R4" s="79"/>
+    </row>
+    <row r="5" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="78">
+        <v>8</v>
+      </c>
+      <c r="D5" s="78">
         <v>10</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4">
-        <v>8</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78">
+        <v>8</v>
+      </c>
+      <c r="H5" s="78">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>10</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4">
-        <v>2</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4">
+      <c r="I5" s="78"/>
+      <c r="J5" s="78">
+        <v>2</v>
+      </c>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="78" t="s">
         <v>237</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="78">
         <v>12</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4">
-        <v>6</v>
-      </c>
-      <c r="R5" s="28"/>
-    </row>
-    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78">
+        <v>6</v>
+      </c>
+      <c r="R5" s="79"/>
+    </row>
+    <row r="6" spans="1:18" s="80" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="78">
         <v>10</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="78">
         <v>10</v>
       </c>
-      <c r="E6" s="4">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E6" s="78">
+        <v>8</v>
+      </c>
+      <c r="F6" s="78">
         <v>10</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="78">
         <v>10</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="78">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>10</v>
       </c>
-      <c r="I6" s="4">
-        <v>4</v>
-      </c>
-      <c r="J6" s="4">
-        <v>2</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4">
+      <c r="I6" s="78">
+        <v>4</v>
+      </c>
+      <c r="J6" s="78">
+        <v>2</v>
+      </c>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="78" t="s">
         <v>201</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="78">
         <v>20</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="28"/>
-    </row>
-    <row r="7" spans="1:18" s="83" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="84" t="s">
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="79"/>
+    </row>
+    <row r="7" spans="1:18" s="80" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="81">
+      <c r="B7" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="78">
         <v>12</v>
       </c>
-      <c r="D7" s="81">
+      <c r="D7" s="78">
         <v>10</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="81">
+      <c r="G7" s="78">
         <v>12</v>
       </c>
-      <c r="H7" s="81">
+      <c r="H7" s="78">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>10</v>
       </c>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81">
-        <v>2</v>
-      </c>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81">
+      <c r="I7" s="78"/>
+      <c r="J7" s="78">
+        <v>2</v>
+      </c>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N7" s="81" t="s">
+      <c r="N7" s="78" t="s">
         <v>281</v>
       </c>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="82"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="79"/>
+    </row>
+    <row r="8" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="4">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
-        <v>6</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="C8" s="78">
+        <v>6</v>
+      </c>
+      <c r="D8" s="78">
+        <v>6</v>
+      </c>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78">
+        <v>6</v>
+      </c>
+      <c r="H8" s="78">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4">
-        <v>2</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4">
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78">
+        <v>2</v>
+      </c>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="78">
         <v>10</v>
       </c>
-      <c r="P8" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="28"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="P8" s="78">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="79"/>
+    </row>
+    <row r="9" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="4">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
-        <v>6</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="C9" s="78">
+        <v>6</v>
+      </c>
+      <c r="D9" s="78">
+        <v>8</v>
+      </c>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78">
+        <v>6</v>
+      </c>
+      <c r="H9" s="78">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>8</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4">
-        <v>2</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4">
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78">
+        <v>2</v>
+      </c>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="78" t="s">
         <v>258</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="78">
         <v>10</v>
       </c>
-      <c r="P9" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="28"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="P9" s="78">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="79"/>
+    </row>
+    <row r="10" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="4">
-        <v>4</v>
-      </c>
-      <c r="D10" s="4">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4">
-        <v>4</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4">
-        <v>4</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="C10" s="78">
+        <v>4</v>
+      </c>
+      <c r="D10" s="78">
+        <v>8</v>
+      </c>
+      <c r="E10" s="78">
+        <v>4</v>
+      </c>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78">
+        <v>4</v>
+      </c>
+      <c r="H10" s="78">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>8</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4">
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78">
         <v>3</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4">
+      <c r="L10" s="78"/>
+      <c r="M10" s="78">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N10" s="29" t="s">
+      <c r="N10" s="111" t="s">
         <v>204</v>
       </c>
-      <c r="O10" s="29">
+      <c r="O10" s="111">
         <v>12</v>
       </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="28"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="79"/>
     </row>
     <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -7675,410 +7681,410 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="28"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="78">
         <v>12</v>
       </c>
-      <c r="D14" s="4">
-        <v>2</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="D14" s="78">
+        <v>2</v>
+      </c>
+      <c r="E14" s="78">
         <v>10</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="78">
         <v>10</v>
       </c>
-      <c r="G14" s="4">
-        <v>8</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="G14" s="78">
+        <v>8</v>
+      </c>
+      <c r="H14" s="78">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4">
-        <v>4</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4">
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78">
+        <v>4</v>
+      </c>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78">
         <v>6.080101</v>
       </c>
-      <c r="N14" s="30" t="s">
+      <c r="N14" s="112" t="s">
         <v>205</v>
       </c>
-      <c r="O14" s="30">
+      <c r="O14" s="112">
         <v>12</v>
       </c>
-      <c r="P14" s="30">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="28"/>
-    </row>
-    <row r="15" spans="1:18" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="84" t="s">
+      <c r="P14" s="112">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="79"/>
+    </row>
+    <row r="15" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="102">
+      <c r="C15" s="99">
         <v>10</v>
       </c>
-      <c r="D15" s="102">
-        <v>8</v>
-      </c>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102">
-        <v>8</v>
-      </c>
-      <c r="H15" s="102">
+      <c r="D15" s="99">
+        <v>8</v>
+      </c>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99">
+        <v>8</v>
+      </c>
+      <c r="H15" s="99">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>10</v>
       </c>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102">
-        <v>2</v>
-      </c>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102">
+      <c r="I15" s="99"/>
+      <c r="J15" s="99">
+        <v>2</v>
+      </c>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99">
         <v>6.080101</v>
       </c>
-      <c r="N15" s="102" t="s">
+      <c r="N15" s="99" t="s">
         <v>282</v>
       </c>
-      <c r="O15" s="102"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="102" t="s">
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
+      <c r="R15" s="99" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="4">
-        <v>4</v>
-      </c>
-      <c r="D16" s="4">
-        <v>6</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4">
-        <v>4</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="C16" s="78">
+        <v>4</v>
+      </c>
+      <c r="D16" s="78">
+        <v>6</v>
+      </c>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78">
+        <v>4</v>
+      </c>
+      <c r="H16" s="78">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4">
-        <v>2</v>
-      </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4">
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78">
+        <v>2</v>
+      </c>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78">
         <v>6.080101</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="78" t="s">
         <v>222</v>
       </c>
-      <c r="O16" s="4">
-        <v>6</v>
-      </c>
-      <c r="P16" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="28"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="O16" s="78">
+        <v>6</v>
+      </c>
+      <c r="P16" s="78">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="79"/>
+    </row>
+    <row r="17" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="4">
-        <v>4</v>
-      </c>
-      <c r="D17" s="4">
-        <v>6</v>
-      </c>
-      <c r="E17" s="4">
-        <v>8</v>
-      </c>
-      <c r="F17" s="4">
-        <v>8</v>
-      </c>
-      <c r="G17" s="4">
-        <v>4</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="C17" s="78">
+        <v>4</v>
+      </c>
+      <c r="D17" s="78">
+        <v>6</v>
+      </c>
+      <c r="E17" s="78">
+        <v>8</v>
+      </c>
+      <c r="F17" s="78">
+        <v>8</v>
+      </c>
+      <c r="G17" s="78">
+        <v>4</v>
+      </c>
+      <c r="H17" s="78">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4">
-        <v>4</v>
-      </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4">
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78">
+        <v>4</v>
+      </c>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78">
         <v>6.080101</v>
       </c>
-      <c r="N17" s="29" t="s">
+      <c r="N17" s="111" t="s">
         <v>212</v>
       </c>
-      <c r="O17" s="29">
+      <c r="O17" s="111">
         <v>10</v>
       </c>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29">
+      <c r="P17" s="111"/>
+      <c r="Q17" s="111">
         <v>0</v>
       </c>
-      <c r="R17" s="28"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="R17" s="79"/>
+    </row>
+    <row r="18" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="78">
         <v>10</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="78">
         <v>10</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="78">
         <v>10</v>
       </c>
-      <c r="F18" s="4">
-        <v>6</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="F18" s="78">
+        <v>6</v>
+      </c>
+      <c r="G18" s="78">
         <v>10</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="78">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>10</v>
       </c>
-      <c r="I18" s="4">
-        <v>4</v>
-      </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4">
-        <v>4</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4">
+      <c r="I18" s="78">
+        <v>4</v>
+      </c>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78">
+        <v>4</v>
+      </c>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78">
         <v>6.080101</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="78" t="s">
         <v>239</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="78">
         <v>18</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4">
-        <v>2</v>
-      </c>
-      <c r="R18" s="28"/>
-    </row>
-    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78">
+        <v>2</v>
+      </c>
+      <c r="R18" s="79"/>
+    </row>
+    <row r="19" spans="1:18" s="80" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="4">
-        <v>6</v>
-      </c>
-      <c r="D19" s="4">
-        <v>2</v>
-      </c>
-      <c r="E19" s="4">
-        <v>4</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4">
-        <v>4</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="C19" s="78">
+        <v>6</v>
+      </c>
+      <c r="D19" s="78">
+        <v>2</v>
+      </c>
+      <c r="E19" s="78">
+        <v>4</v>
+      </c>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78">
+        <v>4</v>
+      </c>
+      <c r="H19" s="78">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4">
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78">
         <v>3</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4">
+      <c r="L19" s="78"/>
+      <c r="M19" s="78">
         <v>6.080101</v>
       </c>
-      <c r="N19" s="30" t="s">
+      <c r="N19" s="112" t="s">
         <v>208</v>
       </c>
-      <c r="O19" s="30">
-        <v>6</v>
-      </c>
-      <c r="P19" s="30">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="28"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="O19" s="112">
+        <v>6</v>
+      </c>
+      <c r="P19" s="112">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="79"/>
+    </row>
+    <row r="20" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="4">
-        <v>6</v>
-      </c>
-      <c r="D20" s="4">
-        <v>4</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4">
-        <v>6</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="C20" s="78">
+        <v>6</v>
+      </c>
+      <c r="D20" s="78">
+        <v>4</v>
+      </c>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78">
+        <v>6</v>
+      </c>
+      <c r="H20" s="78">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4">
-        <v>2</v>
-      </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4">
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78">
+        <v>2</v>
+      </c>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78">
         <v>6.080101</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="N20" s="78" t="s">
         <v>211</v>
       </c>
-      <c r="O20" s="4">
-        <v>8</v>
-      </c>
-      <c r="P20" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="28"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="O20" s="78">
+        <v>8</v>
+      </c>
+      <c r="P20" s="78">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="79"/>
+    </row>
+    <row r="21" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="4">
-        <v>6</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4">
-        <v>6</v>
-      </c>
-      <c r="H21" s="4">
+      <c r="C21" s="78">
+        <v>6</v>
+      </c>
+      <c r="D21" s="78">
+        <v>2</v>
+      </c>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78">
+        <v>6</v>
+      </c>
+      <c r="H21" s="78">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4">
-        <v>2</v>
-      </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4">
+      <c r="I21" s="78"/>
+      <c r="J21" s="78">
+        <v>2</v>
+      </c>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78">
         <v>6.080101</v>
       </c>
-      <c r="N21" s="30" t="s">
+      <c r="N21" s="112" t="s">
         <v>243</v>
       </c>
-      <c r="O21" s="30">
-        <v>4</v>
-      </c>
-      <c r="P21" s="30">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="28"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="O21" s="112">
+        <v>4</v>
+      </c>
+      <c r="P21" s="112">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="79"/>
+    </row>
+    <row r="22" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="4">
-        <v>4</v>
-      </c>
-      <c r="D22" s="4">
-        <v>4</v>
-      </c>
-      <c r="E22" s="4">
-        <v>4</v>
-      </c>
-      <c r="F22" s="4">
-        <v>4</v>
-      </c>
-      <c r="G22" s="4">
-        <v>4</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="C22" s="78">
+        <v>4</v>
+      </c>
+      <c r="D22" s="78">
+        <v>4</v>
+      </c>
+      <c r="E22" s="78">
+        <v>4</v>
+      </c>
+      <c r="F22" s="78">
+        <v>4</v>
+      </c>
+      <c r="G22" s="78">
+        <v>4</v>
+      </c>
+      <c r="H22" s="78">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4">
-        <v>4</v>
-      </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4">
+      <c r="I22" s="78"/>
+      <c r="J22" s="78">
+        <v>4</v>
+      </c>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78">
         <v>6.090103</v>
       </c>
-      <c r="N22" s="29" t="s">
+      <c r="N22" s="111" t="s">
         <v>214</v>
       </c>
-      <c r="O22" s="29">
-        <v>8</v>
-      </c>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29">
+      <c r="O22" s="111">
+        <v>8</v>
+      </c>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111">
         <v>0</v>
       </c>
-      <c r="R22" s="28"/>
+      <c r="R22" s="79"/>
     </row>
     <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
@@ -8123,46 +8129,46 @@
       </c>
       <c r="R23" s="28"/>
     </row>
-    <row r="24" spans="1:18" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="84" t="s">
+    <row r="24" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="81">
-        <v>6</v>
-      </c>
-      <c r="D24" s="81">
-        <v>6</v>
-      </c>
-      <c r="E24" s="81">
-        <v>2</v>
-      </c>
-      <c r="F24" s="81">
-        <v>4</v>
-      </c>
-      <c r="G24" s="81">
-        <v>8</v>
-      </c>
-      <c r="H24" s="81">
+      <c r="C24" s="78">
+        <v>6</v>
+      </c>
+      <c r="D24" s="78">
+        <v>6</v>
+      </c>
+      <c r="E24" s="78">
+        <v>2</v>
+      </c>
+      <c r="F24" s="78">
+        <v>4</v>
+      </c>
+      <c r="G24" s="78">
+        <v>8</v>
+      </c>
+      <c r="H24" s="78">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81">
-        <v>4</v>
-      </c>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81">
+      <c r="I24" s="78"/>
+      <c r="J24" s="78">
+        <v>4</v>
+      </c>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78">
         <v>6.090103</v>
       </c>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="82"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="79"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
@@ -8330,14 +8336,14 @@
       <c r="M28" s="4">
         <v>6.090103</v>
       </c>
-      <c r="N28" s="52" t="s">
+      <c r="N28" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="O28" s="52">
-        <v>4</v>
-      </c>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
+      <c r="O28" s="49">
+        <v>4</v>
+      </c>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
       <c r="R28" s="31"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -8479,50 +8485,50 @@
       </c>
       <c r="R31" s="32"/>
     </row>
-    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+    <row r="32" spans="1:18" s="80" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="20">
-        <v>6</v>
-      </c>
-      <c r="D32" s="20">
-        <v>4</v>
-      </c>
-      <c r="E32" s="20">
-        <v>4</v>
-      </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20">
-        <v>4</v>
-      </c>
-      <c r="H32" s="20">
+      <c r="C32" s="87">
+        <v>6</v>
+      </c>
+      <c r="D32" s="87">
+        <v>4</v>
+      </c>
+      <c r="E32" s="87">
+        <v>4</v>
+      </c>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87">
+        <v>4</v>
+      </c>
+      <c r="H32" s="87">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20">
+      <c r="I32" s="87"/>
+      <c r="J32" s="87">
         <v>3</v>
       </c>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20">
+      <c r="K32" s="87"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="87">
         <v>6.090103</v>
       </c>
-      <c r="N32" s="33" t="s">
+      <c r="N32" s="113" t="s">
         <v>201</v>
       </c>
-      <c r="O32" s="33">
-        <v>6</v>
-      </c>
-      <c r="P32" s="33">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="35"/>
+      <c r="O32" s="113">
+        <v>6</v>
+      </c>
+      <c r="P32" s="113">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="114"/>
+      <c r="R32" s="115"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8538,8 +8544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8741,89 +8747,89 @@
       </c>
       <c r="Q4" s="12"/>
     </row>
-    <row r="5" spans="1:17" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84" t="s">
+    <row r="5" spans="1:17" s="93" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="81">
-        <v>6</v>
-      </c>
-      <c r="D5" s="81">
+      <c r="C5" s="78">
+        <v>6</v>
+      </c>
+      <c r="D5" s="78">
         <v>4</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="81">
-        <v>6</v>
-      </c>
-      <c r="H5" s="81">
+      <c r="G5" s="78">
+        <v>6</v>
+      </c>
+      <c r="H5" s="78">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81">
-        <v>2</v>
-      </c>
-      <c r="L5" s="81"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78">
+        <v>2</v>
+      </c>
+      <c r="L5" s="78"/>
       <c r="M5" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N5" s="78" t="s">
+      <c r="N5" s="75" t="s">
         <v>218</v>
       </c>
-      <c r="O5" s="78">
-        <v>6</v>
-      </c>
-      <c r="P5" s="81">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="79"/>
+      <c r="O5" s="75">
+        <v>6</v>
+      </c>
+      <c r="P5" s="78">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="76"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="70">
-        <v>6</v>
-      </c>
-      <c r="D6" s="70">
-        <v>4</v>
-      </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70">
-        <v>8</v>
-      </c>
-      <c r="H6" s="70">
+      <c r="C6" s="67">
+        <v>6</v>
+      </c>
+      <c r="D6" s="67">
+        <v>4</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67">
+        <v>8</v>
+      </c>
+      <c r="H6" s="67">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70">
-        <v>2</v>
-      </c>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70">
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67">
+        <v>2</v>
+      </c>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N6" s="69" t="s">
+      <c r="N6" s="66" t="s">
         <v>202</v>
       </c>
-      <c r="O6" s="69">
-        <v>8</v>
-      </c>
-      <c r="P6" s="69">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="69"/>
+      <c r="O6" s="66">
+        <v>8</v>
+      </c>
+      <c r="P6" s="66">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="66"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -9230,48 +9236,48 @@
       <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="70">
-        <v>4</v>
-      </c>
-      <c r="D17" s="70">
-        <v>4</v>
-      </c>
-      <c r="E17" s="70">
-        <v>6</v>
-      </c>
-      <c r="F17" s="70">
-        <v>6</v>
-      </c>
-      <c r="G17" s="70">
+      <c r="C17" s="67">
+        <v>4</v>
+      </c>
+      <c r="D17" s="67">
+        <v>4</v>
+      </c>
+      <c r="E17" s="67">
+        <v>6</v>
+      </c>
+      <c r="F17" s="67">
+        <v>6</v>
+      </c>
+      <c r="G17" s="67">
         <v>0</v>
       </c>
-      <c r="H17" s="70">
+      <c r="H17" s="67">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>8</v>
       </c>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70">
-        <v>4</v>
-      </c>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70">
+      <c r="I17" s="67"/>
+      <c r="J17" s="67">
+        <v>4</v>
+      </c>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67">
         <v>6.080101</v>
       </c>
-      <c r="N17" s="71" t="s">
+      <c r="N17" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="O17" s="71">
-        <v>8</v>
-      </c>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71">
+      <c r="O17" s="68">
+        <v>8</v>
+      </c>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68">
         <v>0</v>
       </c>
     </row>
@@ -9563,7 +9569,7 @@
         <v>8</v>
       </c>
       <c r="P24" s="10"/>
-      <c r="Q24" s="36">
+      <c r="Q24" s="33">
         <v>0</v>
       </c>
     </row>
@@ -9815,47 +9821,47 @@
         <v>6</v>
       </c>
       <c r="P30" s="10"/>
-      <c r="Q30" s="36">
+      <c r="Q30" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="96" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="84" t="s">
+    <row r="31" spans="1:17" s="93" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="81">
-        <v>6</v>
-      </c>
-      <c r="D31" s="81">
-        <v>2</v>
-      </c>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81">
-        <v>6</v>
-      </c>
-      <c r="H31" s="81">
+      <c r="C31" s="78">
+        <v>6</v>
+      </c>
+      <c r="D31" s="78">
+        <v>2</v>
+      </c>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78">
+        <v>6</v>
+      </c>
+      <c r="H31" s="78">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81">
-        <v>2</v>
-      </c>
-      <c r="L31" s="81" t="s">
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78">
+        <v>2</v>
+      </c>
+      <c r="L31" s="78" t="s">
         <v>199</v>
       </c>
-      <c r="M31" s="81"/>
-      <c r="N31" s="78" t="s">
+      <c r="M31" s="78"/>
+      <c r="N31" s="75" t="s">
         <v>283</v>
       </c>
-      <c r="O31" s="78"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="79"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="76"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
@@ -9945,45 +9951,45 @@
       <c r="P33" s="10">
         <v>0</v>
       </c>
-      <c r="Q33" s="36"/>
-    </row>
-    <row r="34" spans="1:17" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="84" t="s">
+      <c r="Q33" s="33"/>
+    </row>
+    <row r="34" spans="1:17" s="93" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="81">
-        <v>6</v>
-      </c>
-      <c r="D34" s="81">
-        <v>2</v>
-      </c>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81">
-        <v>6</v>
-      </c>
-      <c r="H34" s="81">
+      <c r="C34" s="78">
+        <v>6</v>
+      </c>
+      <c r="D34" s="78">
+        <v>2</v>
+      </c>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78">
+        <v>6</v>
+      </c>
+      <c r="H34" s="78">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81">
-        <v>2</v>
-      </c>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81">
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="78">
+        <v>2</v>
+      </c>
+      <c r="L34" s="78"/>
+      <c r="M34" s="78">
         <v>6.090103</v>
       </c>
-      <c r="N34" s="96" t="s">
+      <c r="N34" s="93" t="s">
         <v>285</v>
       </c>
-      <c r="O34" s="78"/>
-      <c r="P34" s="78"/>
-      <c r="Q34" s="79"/>
+      <c r="O34" s="75"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
@@ -10073,7 +10079,7 @@
         <v>6</v>
       </c>
       <c r="P36" s="10"/>
-      <c r="Q36" s="36">
+      <c r="Q36" s="33">
         <v>4</v>
       </c>
     </row>
@@ -10243,43 +10249,43 @@
       <c r="P40" s="17"/>
       <c r="Q40" s="12"/>
     </row>
-    <row r="41" spans="1:17" s="96" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="84" t="s">
+    <row r="41" spans="1:17" s="93" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="81" t="s">
+      <c r="B41" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81">
-        <v>4</v>
-      </c>
-      <c r="E41" s="81">
-        <v>4</v>
-      </c>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81">
+      <c r="C41" s="78"/>
+      <c r="D41" s="78">
+        <v>4</v>
+      </c>
+      <c r="E41" s="78">
+        <v>4</v>
+      </c>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78">
         <v>0</v>
       </c>
-      <c r="H41" s="81">
+      <c r="H41" s="78">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81">
+      <c r="I41" s="78"/>
+      <c r="J41" s="78">
         <v>3</v>
       </c>
-      <c r="K41" s="81"/>
-      <c r="L41" s="81" t="s">
+      <c r="K41" s="78"/>
+      <c r="L41" s="78" t="s">
         <v>200</v>
       </c>
-      <c r="M41" s="81"/>
-      <c r="N41" s="78" t="s">
+      <c r="M41" s="78"/>
+      <c r="N41" s="75" t="s">
         <v>284</v>
       </c>
-      <c r="O41" s="78"/>
-      <c r="P41" s="78"/>
-      <c r="Q41" s="79"/>
+      <c r="O41" s="75"/>
+      <c r="P41" s="75"/>
+      <c r="Q41" s="76"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -10406,10 +10412,10 @@
       <c r="M44" s="20">
         <v>6.090103</v>
       </c>
-      <c r="N44" s="37" t="s">
+      <c r="N44" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="O44" s="37">
+      <c r="O44" s="34">
         <v>12</v>
       </c>
       <c r="P44" s="19"/>
@@ -11040,45 +11046,45 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="1:17" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="84" t="s">
+    <row r="11" spans="1:17" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81">
-        <v>6</v>
-      </c>
-      <c r="E11" s="81">
-        <v>6</v>
-      </c>
-      <c r="F11" s="81">
-        <v>2</v>
-      </c>
-      <c r="G11" s="81">
+      <c r="C11" s="78"/>
+      <c r="D11" s="78">
+        <v>6</v>
+      </c>
+      <c r="E11" s="78">
+        <v>6</v>
+      </c>
+      <c r="F11" s="78">
+        <v>2</v>
+      </c>
+      <c r="G11" s="78">
         <v>0</v>
       </c>
-      <c r="H11" s="81">
+      <c r="H11" s="78">
         <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81">
-        <v>4</v>
-      </c>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81">
+      <c r="I11" s="78"/>
+      <c r="J11" s="78">
+        <v>4</v>
+      </c>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N11" s="78" t="s">
+      <c r="N11" s="75" t="s">
         <v>287</v>
       </c>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="79"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="76"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -11280,7 +11286,7 @@
         <v>12</v>
       </c>
       <c r="P16" s="10"/>
-      <c r="Q16" s="36">
+      <c r="Q16" s="33">
         <v>2</v>
       </c>
     </row>
@@ -11402,7 +11408,7 @@
         <v>8</v>
       </c>
       <c r="P19" s="10"/>
-      <c r="Q19" s="36">
+      <c r="Q19" s="33">
         <v>0</v>
       </c>
     </row>
@@ -11612,42 +11618,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+    <row r="25" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39">
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36">
         <v>10</v>
       </c>
-      <c r="G25" s="39">
+      <c r="G25" s="36">
         <v>0</v>
       </c>
-      <c r="H25" s="39">
+      <c r="H25" s="36">
         <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
         <v>0</v>
       </c>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39">
-        <v>4</v>
-      </c>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39">
+      <c r="I25" s="36"/>
+      <c r="J25" s="36">
+        <v>4</v>
+      </c>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36">
         <v>6.080101</v>
       </c>
-      <c r="N25" s="40" t="s">
+      <c r="N25" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="42"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="39"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
@@ -11691,7 +11697,7 @@
       <c r="P26" s="10">
         <v>8</v>
       </c>
-      <c r="Q26" s="36">
+      <c r="Q26" s="33">
         <v>2</v>
       </c>
     </row>
@@ -11773,115 +11779,115 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="12"/>
     </row>
-    <row r="29" spans="1:18" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="103" t="s">
+    <row r="29" spans="1:18" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="101" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104">
-        <v>4</v>
-      </c>
-      <c r="E29" s="104">
-        <v>4</v>
-      </c>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104">
+      <c r="C29" s="101"/>
+      <c r="D29" s="101">
+        <v>4</v>
+      </c>
+      <c r="E29" s="101">
+        <v>4</v>
+      </c>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101">
         <v>0</v>
       </c>
-      <c r="H29" s="104">
+      <c r="H29" s="101">
         <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="104">
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101">
         <v>3</v>
       </c>
-      <c r="L29" s="104"/>
-      <c r="M29" s="104">
+      <c r="L29" s="101"/>
+      <c r="M29" s="101">
         <v>6.080101</v>
       </c>
-      <c r="N29" s="106"/>
-      <c r="O29" s="106"/>
-      <c r="P29" s="106"/>
-      <c r="Q29" s="107"/>
-    </row>
-    <row r="30" spans="1:18" s="105" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="84" t="s">
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="104"/>
+    </row>
+    <row r="30" spans="1:18" s="102" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81">
-        <v>4</v>
-      </c>
-      <c r="E30" s="81">
-        <v>4</v>
-      </c>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81">
+      <c r="C30" s="78"/>
+      <c r="D30" s="78">
+        <v>4</v>
+      </c>
+      <c r="E30" s="78">
+        <v>4</v>
+      </c>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78">
         <v>0</v>
       </c>
-      <c r="H30" s="81">
+      <c r="H30" s="78">
         <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81">
+      <c r="I30" s="78"/>
+      <c r="J30" s="78">
         <v>3</v>
       </c>
-      <c r="K30" s="81"/>
-      <c r="L30" s="81" t="s">
+      <c r="K30" s="78"/>
+      <c r="L30" s="78" t="s">
         <v>200</v>
       </c>
-      <c r="M30" s="81"/>
-      <c r="N30" s="78" t="s">
+      <c r="M30" s="78"/>
+      <c r="N30" s="75" t="s">
         <v>284</v>
       </c>
-      <c r="O30" s="78"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="79"/>
-    </row>
-    <row r="31" spans="1:18" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="84" t="s">
+      <c r="O30" s="75"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="76"/>
+    </row>
+    <row r="31" spans="1:18" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="81">
-        <v>4</v>
-      </c>
-      <c r="D31" s="81">
-        <v>4</v>
-      </c>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81">
-        <v>4</v>
-      </c>
-      <c r="H31" s="81">
+      <c r="C31" s="78">
+        <v>4</v>
+      </c>
+      <c r="D31" s="78">
+        <v>4</v>
+      </c>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78">
+        <v>4</v>
+      </c>
+      <c r="H31" s="78">
         <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81">
-        <v>2</v>
-      </c>
-      <c r="L31" s="81"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="78" t="s">
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78">
+        <v>2</v>
+      </c>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="75" t="s">
         <v>330</v>
       </c>
-      <c r="O31" s="78"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="79"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="76"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
@@ -12360,13 +12366,13 @@
       <c r="M42" s="20">
         <v>6.090103</v>
       </c>
-      <c r="N42" s="37" t="s">
+      <c r="N42" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="O42" s="37">
-        <v>8</v>
-      </c>
-      <c r="P42" s="37">
+      <c r="O42" s="34">
+        <v>8</v>
+      </c>
+      <c r="P42" s="34">
         <v>2</v>
       </c>
       <c r="Q42" s="21"/>
@@ -12813,7 +12819,7 @@
       <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="41" t="s">
         <v>148</v>
       </c>
       <c r="C10" s="4">
@@ -12982,42 +12988,42 @@
       <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="81">
-        <v>6</v>
-      </c>
-      <c r="D14" s="81">
-        <v>6</v>
-      </c>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81">
+      <c r="C14" s="78">
+        <v>6</v>
+      </c>
+      <c r="D14" s="78">
+        <v>6</v>
+      </c>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78">
         <v>0</v>
       </c>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81">
-        <v>2</v>
-      </c>
-      <c r="K14" s="81">
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78">
+        <v>2</v>
+      </c>
+      <c r="K14" s="78">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>12</v>
       </c>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81">
+      <c r="L14" s="78"/>
+      <c r="M14" s="78">
         <v>6.080101</v>
       </c>
-      <c r="N14" s="81" t="s">
+      <c r="N14" s="78" t="s">
         <v>279</v>
       </c>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="79"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="76"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
@@ -13146,44 +13152,44 @@
       <c r="Q17" s="12"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="72">
-        <v>6</v>
-      </c>
-      <c r="D18" s="72">
-        <v>6</v>
-      </c>
-      <c r="E18" s="72">
-        <v>6</v>
-      </c>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72">
+      <c r="C18" s="69">
+        <v>6</v>
+      </c>
+      <c r="D18" s="69">
+        <v>6</v>
+      </c>
+      <c r="E18" s="69">
+        <v>6</v>
+      </c>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69">
         <v>0</v>
       </c>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72">
+      <c r="H18" s="69"/>
+      <c r="I18" s="69">
         <v>3</v>
       </c>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72">
+      <c r="J18" s="69"/>
+      <c r="K18" s="69">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>12</v>
       </c>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72">
+      <c r="L18" s="69"/>
+      <c r="M18" s="69">
         <v>6.090103</v>
       </c>
-      <c r="N18" s="73" t="s">
+      <c r="N18" s="70" t="s">
         <v>244</v>
       </c>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="69"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="66"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -13481,43 +13487,43 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" spans="1:17" s="96" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="84" t="s">
+    <row r="26" spans="1:17" s="93" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="81" t="s">
+      <c r="B26" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="81">
-        <v>6</v>
-      </c>
-      <c r="D26" s="81">
-        <v>2</v>
-      </c>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81">
-        <v>6</v>
-      </c>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81">
-        <v>2</v>
-      </c>
-      <c r="K26" s="81">
+      <c r="C26" s="78">
+        <v>6</v>
+      </c>
+      <c r="D26" s="78">
+        <v>2</v>
+      </c>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78">
+        <v>6</v>
+      </c>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78">
+        <v>2</v>
+      </c>
+      <c r="K26" s="78">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="L26" s="81" t="s">
+      <c r="L26" s="78" t="s">
         <v>199</v>
       </c>
-      <c r="M26" s="81"/>
-      <c r="N26" s="78" t="s">
+      <c r="M26" s="78"/>
+      <c r="N26" s="75" t="s">
         <v>283</v>
       </c>
-      <c r="O26" s="78"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="79"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="76"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
@@ -13550,13 +13556,13 @@
       <c r="M27" s="20">
         <v>6.090103</v>
       </c>
-      <c r="N27" s="45" t="s">
+      <c r="N27" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="O27" s="45">
-        <v>4</v>
-      </c>
-      <c r="P27" s="45">
+      <c r="O27" s="42">
+        <v>4</v>
+      </c>
+      <c r="P27" s="42">
         <v>4</v>
       </c>
       <c r="Q27" s="21"/>
@@ -13580,40 +13586,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52" style="47" customWidth="1"/>
-    <col min="3" max="4" width="14.28515625" style="46" customWidth="1"/>
-    <col min="5" max="6" width="14.28515625" style="46" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="14.28515625" style="46" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="46" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" style="46" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="46" customWidth="1"/>
-    <col min="12" max="12" width="1.5703125" style="46" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="46" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="23.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" style="46" customWidth="1"/>
-    <col min="16" max="16" width="10" style="46" customWidth="1"/>
-    <col min="17" max="17" width="7.140625" style="46" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="1" width="15.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52" style="44" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" style="43" customWidth="1"/>
+    <col min="5" max="6" width="14.28515625" style="43" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="14.28515625" style="43" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="43" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="43" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="43" customWidth="1"/>
+    <col min="12" max="12" width="1.5703125" style="43" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="43" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="23.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="43" customWidth="1"/>
+    <col min="16" max="16" width="10" style="43" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" style="43" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="54" t="s">
         <v>299</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="54" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="54" t="s">
         <v>302</v>
       </c>
       <c r="G1" s="20" t="s">
@@ -13688,7 +13694,7 @@
       <c r="P2" s="3">
         <v>4</v>
       </c>
-      <c r="Q2" s="55"/>
+      <c r="Q2" s="52"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -13730,83 +13736,83 @@
       <c r="P3" s="3">
         <v>4</v>
       </c>
-      <c r="Q3" s="55"/>
-    </row>
-    <row r="4" spans="1:17" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="Q3" s="52"/>
+    </row>
+    <row r="4" spans="1:17" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="81">
-        <v>8</v>
-      </c>
-      <c r="D4" s="81">
-        <v>2</v>
-      </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81">
-        <v>8</v>
-      </c>
-      <c r="H4" s="81">
+      <c r="C4" s="78">
+        <v>8</v>
+      </c>
+      <c r="D4" s="78">
+        <v>2</v>
+      </c>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78">
+        <v>8</v>
+      </c>
+      <c r="H4" s="78">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81">
-        <v>2</v>
-      </c>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="78" t="s">
+      <c r="I4" s="78"/>
+      <c r="J4" s="78">
+        <v>2</v>
+      </c>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="75" t="s">
         <v>289</v>
       </c>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="113"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="110"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="67" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="70">
-        <v>4</v>
-      </c>
-      <c r="D5" s="70">
-        <v>6</v>
-      </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70">
-        <v>6</v>
-      </c>
-      <c r="H5" s="70">
+      <c r="C5" s="67">
+        <v>4</v>
+      </c>
+      <c r="D5" s="67">
+        <v>6</v>
+      </c>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67">
+        <v>6</v>
+      </c>
+      <c r="H5" s="67">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70">
-        <v>2</v>
-      </c>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70">
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67">
+        <v>2</v>
+      </c>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67">
         <v>7.0140000000000002</v>
       </c>
-      <c r="N5" s="69" t="s">
+      <c r="N5" s="66" t="s">
         <v>211</v>
       </c>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69">
+      <c r="O5" s="66"/>
+      <c r="P5" s="66">
         <v>10</v>
       </c>
-      <c r="Q5" s="74"/>
+      <c r="Q5" s="71"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -13848,7 +13854,7 @@
       <c r="P6" s="17">
         <v>4</v>
       </c>
-      <c r="Q6" s="55"/>
+      <c r="Q6" s="52"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -13886,7 +13892,7 @@
         <v>4</v>
       </c>
       <c r="P7" s="3"/>
-      <c r="Q7" s="55"/>
+      <c r="Q7" s="52"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -13926,7 +13932,7 @@
         <v>14</v>
       </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="55"/>
+      <c r="Q8" s="52"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -13964,7 +13970,7 @@
         <v>4</v>
       </c>
       <c r="P9" s="3"/>
-      <c r="Q9" s="55"/>
+      <c r="Q9" s="52"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -14004,7 +14010,7 @@
         <v>6</v>
       </c>
       <c r="P10" s="3"/>
-      <c r="Q10" s="55"/>
+      <c r="Q10" s="52"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -14042,7 +14048,7 @@
         <v>8</v>
       </c>
       <c r="P11" s="3"/>
-      <c r="Q11" s="55"/>
+      <c r="Q11" s="52"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -14080,7 +14086,7 @@
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="55"/>
+      <c r="Q12" s="52"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -14116,7 +14122,7 @@
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="55"/>
+      <c r="Q13" s="52"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -14152,7 +14158,7 @@
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="55"/>
+      <c r="Q14" s="52"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -14186,7 +14192,7 @@
       <c r="N15" s="10"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="55"/>
+      <c r="Q15" s="52"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -14226,7 +14232,7 @@
       <c r="P16" s="10">
         <v>4</v>
       </c>
-      <c r="Q16" s="55"/>
+      <c r="Q16" s="52"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -14266,47 +14272,47 @@
       <c r="P17" s="10">
         <v>4</v>
       </c>
-      <c r="Q17" s="55"/>
-    </row>
-    <row r="18" spans="1:17" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="104" t="s">
+      <c r="Q17" s="52"/>
+    </row>
+    <row r="18" spans="1:17" s="109" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="101" t="s">
         <v>178</v>
       </c>
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="101" t="s">
         <v>271</v>
       </c>
-      <c r="C18" s="104">
-        <v>8</v>
-      </c>
-      <c r="D18" s="104">
-        <v>6</v>
-      </c>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104">
+      <c r="C18" s="101">
+        <v>8</v>
+      </c>
+      <c r="D18" s="101">
+        <v>6</v>
+      </c>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101">
         <v>0</v>
       </c>
-      <c r="H18" s="104">
+      <c r="H18" s="101">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>14</v>
       </c>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104">
-        <v>2</v>
-      </c>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="104"/>
-      <c r="N18" s="110" t="s">
+      <c r="I18" s="101"/>
+      <c r="J18" s="101">
+        <v>2</v>
+      </c>
+      <c r="K18" s="101"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="101"/>
+      <c r="N18" s="107" t="s">
         <v>272</v>
       </c>
-      <c r="O18" s="109">
-        <v>8</v>
-      </c>
-      <c r="P18" s="109">
-        <v>6</v>
-      </c>
-      <c r="Q18" s="111"/>
+      <c r="O18" s="106">
+        <v>8</v>
+      </c>
+      <c r="P18" s="106">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="108"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -14348,7 +14354,7 @@
       <c r="P19" s="3">
         <v>4</v>
       </c>
-      <c r="Q19" s="55"/>
+      <c r="Q19" s="52"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -14390,7 +14396,7 @@
       <c r="P20" s="17">
         <v>4</v>
       </c>
-      <c r="Q20" s="55"/>
+      <c r="Q20" s="52"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -14432,13 +14438,13 @@
       <c r="P21" s="10">
         <v>2</v>
       </c>
-      <c r="Q21" s="55"/>
+      <c r="Q21" s="52"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="36" t="s">
         <v>263</v>
       </c>
       <c r="C22" s="4">
@@ -14472,7 +14478,7 @@
       <c r="P22" s="10">
         <v>4</v>
       </c>
-      <c r="Q22" s="55"/>
+      <c r="Q22" s="52"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -14510,7 +14516,7 @@
         <v>6</v>
       </c>
       <c r="P23" s="3"/>
-      <c r="Q23" s="55"/>
+      <c r="Q23" s="52"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -14550,7 +14556,7 @@
         <v>6</v>
       </c>
       <c r="P24" s="3"/>
-      <c r="Q24" s="55"/>
+      <c r="Q24" s="52"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -14588,7 +14594,7 @@
         <v>6</v>
       </c>
       <c r="P25" s="3"/>
-      <c r="Q25" s="55"/>
+      <c r="Q25" s="52"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -14626,13 +14632,13 @@
         <v>8</v>
       </c>
       <c r="P26" s="3"/>
-      <c r="Q26" s="55"/>
+      <c r="Q26" s="52"/>
     </row>
     <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="36" t="s">
         <v>264</v>
       </c>
       <c r="C27" s="4"/>
@@ -14664,7 +14670,7 @@
         <v>8</v>
       </c>
       <c r="P27" s="3"/>
-      <c r="Q27" s="55"/>
+      <c r="Q27" s="52"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -14704,43 +14710,43 @@
       <c r="P28" s="17">
         <v>4</v>
       </c>
-      <c r="Q28" s="55"/>
-    </row>
-    <row r="29" spans="1:17" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="81" t="s">
+      <c r="Q28" s="52"/>
+    </row>
+    <row r="29" spans="1:17" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="B29" s="81" t="s">
+      <c r="B29" s="78" t="s">
         <v>177</v>
       </c>
-      <c r="C29" s="81">
-        <v>8</v>
-      </c>
-      <c r="D29" s="81">
-        <v>4</v>
-      </c>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81">
-        <v>8</v>
-      </c>
-      <c r="H29" s="81">
+      <c r="C29" s="78">
+        <v>8</v>
+      </c>
+      <c r="D29" s="78">
+        <v>4</v>
+      </c>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78">
+        <v>8</v>
+      </c>
+      <c r="H29" s="78">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81">
-        <v>2</v>
-      </c>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="78" t="s">
+      <c r="I29" s="78"/>
+      <c r="J29" s="78">
+        <v>2</v>
+      </c>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="75" t="s">
         <v>290</v>
       </c>
-      <c r="O29" s="78"/>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="113"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="110"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -14780,7 +14786,7 @@
       <c r="P30" s="10">
         <v>10</v>
       </c>
-      <c r="Q30" s="55"/>
+      <c r="Q30" s="52"/>
     </row>
     <row r="31" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -14820,7 +14826,7 @@
         <v>6</v>
       </c>
       <c r="P31" s="3"/>
-      <c r="Q31" s="55"/>
+      <c r="Q31" s="52"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -14858,7 +14864,7 @@
       </c>
       <c r="O32" s="17"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="55"/>
+      <c r="Q32" s="52"/>
     </row>
     <row r="33" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -14900,7 +14906,7 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-      <c r="Q33" s="55"/>
+      <c r="Q33" s="52"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -14944,45 +14950,45 @@
       <c r="P34" s="4">
         <v>4</v>
       </c>
-      <c r="Q34" s="55"/>
-    </row>
-    <row r="35" spans="1:17" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="92" t="s">
+      <c r="Q34" s="52"/>
+    </row>
+    <row r="35" spans="1:17" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="89" t="s">
         <v>304</v>
       </c>
-      <c r="B35" s="92" t="s">
+      <c r="B35" s="89" t="s">
         <v>305</v>
       </c>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92">
-        <v>4</v>
-      </c>
-      <c r="E35" s="62">
-        <v>4</v>
-      </c>
-      <c r="F35" s="62"/>
-      <c r="G35" s="92">
+      <c r="C35" s="89"/>
+      <c r="D35" s="89">
+        <v>4</v>
+      </c>
+      <c r="E35" s="59">
+        <v>4</v>
+      </c>
+      <c r="F35" s="59"/>
+      <c r="G35" s="89">
         <v>0</v>
       </c>
-      <c r="H35" s="92">
+      <c r="H35" s="89">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92">
+      <c r="I35" s="89"/>
+      <c r="J35" s="89">
         <v>3</v>
       </c>
-      <c r="K35" s="92"/>
-      <c r="L35" s="92"/>
-      <c r="M35" s="62">
+      <c r="K35" s="89"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="59">
         <v>20.204999999999998</v>
       </c>
-      <c r="N35" s="93" t="s">
+      <c r="N35" s="90" t="s">
         <v>329</v>
       </c>
-      <c r="O35" s="94"/>
-      <c r="P35" s="93"/>
-      <c r="Q35" s="94"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="90"/>
+      <c r="Q35" s="91"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -14992,13 +14998,13 @@
         <v>306</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="53">
-        <v>6</v>
-      </c>
-      <c r="E36" s="53">
-        <v>4</v>
-      </c>
-      <c r="F36" s="53">
+      <c r="D36" s="50">
+        <v>6</v>
+      </c>
+      <c r="E36" s="50">
+        <v>4</v>
+      </c>
+      <c r="F36" s="50">
         <v>4</v>
       </c>
       <c r="G36" s="4">
@@ -15017,14 +15023,14 @@
       <c r="M36" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N36" s="56" t="s">
+      <c r="N36" s="53" t="s">
         <v>318</v>
       </c>
       <c r="O36" s="3">
         <v>6</v>
       </c>
       <c r="P36" s="3"/>
-      <c r="Q36" s="54"/>
+      <c r="Q36" s="51"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -15034,13 +15040,13 @@
         <v>307</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="53">
-        <v>6</v>
-      </c>
-      <c r="E37" s="53">
-        <v>4</v>
-      </c>
-      <c r="F37" s="53">
+      <c r="D37" s="50">
+        <v>6</v>
+      </c>
+      <c r="E37" s="50">
+        <v>4</v>
+      </c>
+      <c r="F37" s="50">
         <v>4</v>
       </c>
       <c r="G37" s="4">
@@ -15061,14 +15067,14 @@
       <c r="M37" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N37" s="56" t="s">
+      <c r="N37" s="53" t="s">
         <v>319</v>
       </c>
-      <c r="O37" s="54">
+      <c r="O37" s="51">
         <v>6</v>
       </c>
       <c r="P37" s="3"/>
-      <c r="Q37" s="54"/>
+      <c r="Q37" s="51"/>
     </row>
     <row r="38" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -15078,13 +15084,13 @@
         <v>308</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="53">
-        <v>6</v>
-      </c>
-      <c r="E38" s="53">
-        <v>4</v>
-      </c>
-      <c r="F38" s="53"/>
+      <c r="D38" s="50">
+        <v>6</v>
+      </c>
+      <c r="E38" s="50">
+        <v>4</v>
+      </c>
+      <c r="F38" s="50"/>
       <c r="G38" s="4">
         <v>0</v>
       </c>
@@ -15101,14 +15107,14 @@
       <c r="M38" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N38" s="56" t="s">
+      <c r="N38" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="O38" s="54">
+      <c r="O38" s="51">
         <v>4</v>
       </c>
       <c r="P38" s="3"/>
-      <c r="Q38" s="54">
+      <c r="Q38" s="51">
         <v>2</v>
       </c>
     </row>
@@ -15120,13 +15126,13 @@
         <v>166</v>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="53">
-        <v>6</v>
-      </c>
-      <c r="E39" s="53">
-        <v>4</v>
-      </c>
-      <c r="F39" s="53"/>
+      <c r="D39" s="50">
+        <v>6</v>
+      </c>
+      <c r="E39" s="50">
+        <v>4</v>
+      </c>
+      <c r="F39" s="50"/>
       <c r="G39" s="4">
         <v>0</v>
       </c>
@@ -15143,52 +15149,52 @@
       <c r="M39" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N39" s="56" t="s">
+      <c r="N39" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="O39" s="54">
+      <c r="O39" s="51">
         <v>4</v>
       </c>
       <c r="P39" s="3">
         <v>2</v>
       </c>
-      <c r="Q39" s="54"/>
+      <c r="Q39" s="51"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="62" t="s">
+      <c r="A40" s="59" t="s">
         <v>304</v>
       </c>
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="59" t="s">
         <v>309</v>
       </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62">
-        <v>6</v>
-      </c>
-      <c r="E40" s="62">
-        <v>4</v>
-      </c>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62">
+      <c r="C40" s="59"/>
+      <c r="D40" s="59">
+        <v>6</v>
+      </c>
+      <c r="E40" s="59">
+        <v>4</v>
+      </c>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59">
         <v>0</v>
       </c>
-      <c r="H40" s="62">
+      <c r="H40" s="59">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62">
-        <v>2</v>
-      </c>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62">
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59">
+        <v>2</v>
+      </c>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59">
         <v>20.204999999999998</v>
       </c>
-      <c r="N40" s="63"/>
-      <c r="O40" s="64"/>
-      <c r="P40" s="63"/>
-      <c r="Q40" s="64"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="61"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
@@ -15198,13 +15204,13 @@
         <v>310</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="53">
-        <v>6</v>
-      </c>
-      <c r="E41" s="53">
-        <v>6</v>
-      </c>
-      <c r="F41" s="53">
+      <c r="D41" s="50">
+        <v>6</v>
+      </c>
+      <c r="E41" s="50">
+        <v>6</v>
+      </c>
+      <c r="F41" s="50">
         <v>4</v>
       </c>
       <c r="G41" s="4">
@@ -15225,14 +15231,14 @@
       <c r="M41" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N41" s="56" t="s">
+      <c r="N41" s="53" t="s">
         <v>320</v>
       </c>
-      <c r="O41" s="54">
+      <c r="O41" s="51">
         <v>6</v>
       </c>
       <c r="P41" s="3"/>
-      <c r="Q41" s="54"/>
+      <c r="Q41" s="51"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
@@ -15242,13 +15248,13 @@
         <v>311</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="53">
-        <v>8</v>
-      </c>
-      <c r="E42" s="53">
-        <v>4</v>
-      </c>
-      <c r="F42" s="53"/>
+      <c r="D42" s="50">
+        <v>8</v>
+      </c>
+      <c r="E42" s="50">
+        <v>4</v>
+      </c>
+      <c r="F42" s="50"/>
       <c r="G42" s="4">
         <v>0</v>
       </c>
@@ -15265,134 +15271,134 @@
       <c r="M42" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N42" s="56" t="s">
+      <c r="N42" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="O42" s="54">
+      <c r="O42" s="51">
         <v>6</v>
       </c>
       <c r="P42" s="3">
         <v>2</v>
       </c>
-      <c r="Q42" s="54"/>
+      <c r="Q42" s="51"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="59" t="s">
         <v>304</v>
       </c>
-      <c r="B43" s="62" t="s">
+      <c r="B43" s="59" t="s">
         <v>312</v>
       </c>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62">
-        <v>6</v>
-      </c>
-      <c r="E43" s="62">
-        <v>4</v>
-      </c>
-      <c r="F43" s="62">
-        <v>4</v>
-      </c>
-      <c r="G43" s="62">
+      <c r="C43" s="59"/>
+      <c r="D43" s="59">
+        <v>6</v>
+      </c>
+      <c r="E43" s="59">
+        <v>4</v>
+      </c>
+      <c r="F43" s="59">
+        <v>4</v>
+      </c>
+      <c r="G43" s="59">
         <v>0</v>
       </c>
-      <c r="H43" s="62">
+      <c r="H43" s="59">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62">
-        <v>4</v>
-      </c>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="62">
+      <c r="I43" s="59"/>
+      <c r="J43" s="59">
+        <v>4</v>
+      </c>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59">
         <v>20.204999999999998</v>
       </c>
-      <c r="N43" s="63" t="s">
+      <c r="N43" s="60" t="s">
         <v>331</v>
       </c>
-      <c r="O43" s="64"/>
-      <c r="P43" s="63"/>
-      <c r="Q43" s="64"/>
+      <c r="O43" s="61"/>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="61"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="62" t="s">
+      <c r="A44" s="59" t="s">
         <v>304</v>
       </c>
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="59" t="s">
         <v>313</v>
       </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62">
-        <v>4</v>
-      </c>
-      <c r="E44" s="62">
-        <v>4</v>
-      </c>
-      <c r="F44" s="62">
-        <v>4</v>
-      </c>
-      <c r="G44" s="62">
+      <c r="C44" s="59"/>
+      <c r="D44" s="59">
+        <v>4</v>
+      </c>
+      <c r="E44" s="59">
+        <v>4</v>
+      </c>
+      <c r="F44" s="59">
+        <v>4</v>
+      </c>
+      <c r="G44" s="59">
         <v>0</v>
       </c>
-      <c r="H44" s="62">
+      <c r="H44" s="59">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62">
-        <v>4</v>
-      </c>
-      <c r="L44" s="62"/>
-      <c r="M44" s="62">
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59">
+        <v>4</v>
+      </c>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59">
         <v>20.204999999999998</v>
       </c>
-      <c r="N44" s="63" t="s">
+      <c r="N44" s="60" t="s">
         <v>332</v>
       </c>
-      <c r="O44" s="64"/>
-      <c r="P44" s="63"/>
-      <c r="Q44" s="64"/>
-    </row>
-    <row r="45" spans="1:17" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="92" t="s">
+      <c r="O44" s="61"/>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="61"/>
+    </row>
+    <row r="45" spans="1:17" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="89" t="s">
         <v>304</v>
       </c>
-      <c r="B45" s="92" t="s">
+      <c r="B45" s="89" t="s">
         <v>314</v>
       </c>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92">
-        <v>6</v>
-      </c>
-      <c r="E45" s="92">
-        <v>2</v>
-      </c>
-      <c r="F45" s="92">
-        <v>4</v>
-      </c>
-      <c r="G45" s="92">
+      <c r="C45" s="89"/>
+      <c r="D45" s="89">
+        <v>6</v>
+      </c>
+      <c r="E45" s="89">
+        <v>2</v>
+      </c>
+      <c r="F45" s="89">
+        <v>4</v>
+      </c>
+      <c r="G45" s="89">
         <v>0</v>
       </c>
-      <c r="H45" s="92">
+      <c r="H45" s="89">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I45" s="92"/>
-      <c r="J45" s="92"/>
-      <c r="K45" s="92">
-        <v>4</v>
-      </c>
-      <c r="L45" s="92"/>
-      <c r="M45" s="92">
+      <c r="I45" s="89"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="89">
+        <v>4</v>
+      </c>
+      <c r="L45" s="89"/>
+      <c r="M45" s="89">
         <v>20.204999999999998</v>
       </c>
-      <c r="N45" s="93"/>
-      <c r="O45" s="97"/>
-      <c r="P45" s="93"/>
-      <c r="Q45" s="97"/>
+      <c r="N45" s="90"/>
+      <c r="O45" s="94"/>
+      <c r="P45" s="90"/>
+      <c r="Q45" s="94"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -15402,13 +15408,13 @@
         <v>315</v>
       </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="53">
-        <v>6</v>
-      </c>
-      <c r="E46" s="53">
-        <v>6</v>
-      </c>
-      <c r="F46" s="53">
+      <c r="D46" s="50">
+        <v>6</v>
+      </c>
+      <c r="E46" s="50">
+        <v>6</v>
+      </c>
+      <c r="F46" s="50">
         <v>4</v>
       </c>
       <c r="G46" s="4">
@@ -15429,14 +15435,14 @@
       <c r="M46" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N46" s="56" t="s">
+      <c r="N46" s="53" t="s">
         <v>321</v>
       </c>
-      <c r="O46" s="54">
+      <c r="O46" s="51">
         <v>6</v>
       </c>
       <c r="P46" s="3"/>
-      <c r="Q46" s="54"/>
+      <c r="Q46" s="51"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
@@ -15446,13 +15452,13 @@
         <v>316</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="53">
-        <v>6</v>
-      </c>
-      <c r="E47" s="53">
-        <v>4</v>
-      </c>
-      <c r="F47" s="53">
+      <c r="D47" s="50">
+        <v>6</v>
+      </c>
+      <c r="E47" s="50">
+        <v>4</v>
+      </c>
+      <c r="F47" s="50">
         <v>4</v>
       </c>
       <c r="G47" s="4">
@@ -15471,14 +15477,14 @@
       <c r="M47" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N47" s="56" t="s">
+      <c r="N47" s="53" t="s">
         <v>322</v>
       </c>
-      <c r="O47" s="54">
+      <c r="O47" s="51">
         <v>6</v>
       </c>
       <c r="P47" s="3"/>
-      <c r="Q47" s="54"/>
+      <c r="Q47" s="51"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
@@ -15488,13 +15494,13 @@
         <v>317</v>
       </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="53">
-        <v>6</v>
-      </c>
-      <c r="E48" s="53">
-        <v>6</v>
-      </c>
-      <c r="F48" s="53"/>
+      <c r="D48" s="50">
+        <v>6</v>
+      </c>
+      <c r="E48" s="50">
+        <v>6</v>
+      </c>
+      <c r="F48" s="50"/>
       <c r="G48" s="4">
         <v>0</v>
       </c>
@@ -15511,14 +15517,14 @@
       <c r="M48" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N48" s="56" t="s">
+      <c r="N48" s="53" t="s">
         <v>318</v>
       </c>
-      <c r="O48" s="54">
+      <c r="O48" s="51">
         <v>6</v>
       </c>
       <c r="P48" s="3"/>
-      <c r="Q48" s="54"/>
+      <c r="Q48" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15552,10 +15558,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="23" t="s">
@@ -15573,22 +15579,22 @@
       <c r="G1" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="J1" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="50" t="s">
+      <c r="J1" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="47" t="s">
         <v>265</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="48" t="s">
         <v>210</v>
       </c>
     </row>
@@ -15607,7 +15613,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="52" t="s">
         <v>297</v>
       </c>
       <c r="J2" s="10" t="s">
@@ -15634,7 +15640,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="52" t="s">
         <v>297</v>
       </c>
       <c r="J3" s="10" t="s">
@@ -15659,147 +15665,147 @@
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="59" t="s">
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56" t="s">
         <v>297</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="K4" s="37">
-        <v>8</v>
-      </c>
-      <c r="L4" s="37">
-        <v>2</v>
-      </c>
-      <c r="M4" s="60"/>
+      <c r="K4" s="34">
+        <v>8</v>
+      </c>
+      <c r="L4" s="34">
+        <v>2</v>
+      </c>
+      <c r="M4" s="57"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G5" s="61"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G6" s="61"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G7" s="61"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G8" s="61"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G9" s="61"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G10" s="61"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G11" s="61"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G12" s="61"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G13" s="61"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G14" s="61"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G15" s="61"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G16" s="61"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
     </row>
     <row r="17" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G17" s="61"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
     </row>
     <row r="18" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G18" s="61"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zaizd2.xlsx
+++ b/Zaizd2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="20730" windowHeight="9300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="20730" windowHeight="9240" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1 курс" sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="334">
   <si>
     <t>Групи</t>
   </si>
@@ -1302,6 +1302,9 @@
   </si>
   <si>
     <t>ст. викл. Головацький Н.Т.</t>
+  </si>
+  <si>
+    <t>Кушнір Ю.Б.</t>
   </si>
 </sst>
 </file>
@@ -1654,7 +1657,7 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1696,9 +1699,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1742,12 +1742,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1789,9 +1783,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1842,9 +1833,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1968,6 +1956,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5811,427 +5823,427 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="N1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="24" t="s">
+      <c r="N1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="24" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+    <row r="2" spans="1:18" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="73">
-        <v>4</v>
-      </c>
-      <c r="D2" s="73">
-        <v>4</v>
-      </c>
-      <c r="E2" s="73">
-        <v>2</v>
-      </c>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73">
+      <c r="B2" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="68">
+        <v>4</v>
+      </c>
+      <c r="D2" s="68">
+        <v>4</v>
+      </c>
+      <c r="E2" s="68">
+        <v>2</v>
+      </c>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68">
         <v>0</v>
       </c>
-      <c r="H2" s="73">
+      <c r="H2" s="68">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>8</v>
       </c>
-      <c r="I2" s="73"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="73">
+      <c r="I2" s="68"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="68">
         <v>3</v>
       </c>
-      <c r="L2" s="73"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="73" t="s">
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="76"/>
-    </row>
-    <row r="3" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="71"/>
+    </row>
+    <row r="3" spans="1:18" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="73">
-        <v>4</v>
-      </c>
-      <c r="D3" s="73">
-        <v>6</v>
-      </c>
-      <c r="E3" s="73">
-        <v>4</v>
-      </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73">
-        <v>4</v>
-      </c>
-      <c r="H3" s="73">
+      <c r="C3" s="68">
+        <v>4</v>
+      </c>
+      <c r="D3" s="68">
+        <v>6</v>
+      </c>
+      <c r="E3" s="68">
+        <v>4</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68">
+        <v>4</v>
+      </c>
+      <c r="H3" s="68">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73">
+      <c r="I3" s="68"/>
+      <c r="J3" s="68">
         <v>3</v>
       </c>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="73" t="s">
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="76"/>
-    </row>
-    <row r="4" spans="1:18" s="77" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="71"/>
+    </row>
+    <row r="4" spans="1:18" s="72" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="73">
-        <v>6</v>
-      </c>
-      <c r="D4" s="73">
-        <v>6</v>
-      </c>
-      <c r="E4" s="73">
-        <v>4</v>
-      </c>
-      <c r="F4" s="73">
-        <v>4</v>
-      </c>
-      <c r="G4" s="73">
-        <v>6</v>
-      </c>
-      <c r="H4" s="73">
+      <c r="B4" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="68">
+        <v>6</v>
+      </c>
+      <c r="D4" s="68">
+        <v>6</v>
+      </c>
+      <c r="E4" s="68">
+        <v>4</v>
+      </c>
+      <c r="F4" s="68">
+        <v>4</v>
+      </c>
+      <c r="G4" s="68">
+        <v>6</v>
+      </c>
+      <c r="H4" s="68">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73">
-        <v>4</v>
-      </c>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="78" t="s">
+      <c r="I4" s="68"/>
+      <c r="J4" s="68">
+        <v>4</v>
+      </c>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="76"/>
-    </row>
-    <row r="5" spans="1:18" s="77" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="s">
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="71"/>
+    </row>
+    <row r="5" spans="1:18" s="72" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="78">
+      <c r="B5" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="73">
         <v>12</v>
       </c>
-      <c r="D5" s="78">
+      <c r="D5" s="73">
         <v>10</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="78">
+      <c r="G5" s="73">
         <v>10</v>
       </c>
-      <c r="H5" s="78">
+      <c r="H5" s="73">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>12</v>
       </c>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78">
-        <v>2</v>
-      </c>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78" t="s">
+      <c r="I5" s="73"/>
+      <c r="J5" s="73">
+        <v>2</v>
+      </c>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="N5" s="78" t="s">
+      <c r="N5" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="76"/>
-    </row>
-    <row r="6" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="71"/>
+    </row>
+    <row r="6" spans="1:18" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="78">
+      <c r="C6" s="73">
         <v>14</v>
       </c>
-      <c r="D6" s="78">
-        <v>6</v>
-      </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78">
+      <c r="D6" s="73">
+        <v>6</v>
+      </c>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73">
         <v>10</v>
       </c>
-      <c r="H6" s="78">
+      <c r="H6" s="73">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>10</v>
       </c>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78">
-        <v>2</v>
-      </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78" t="s">
+      <c r="I6" s="73"/>
+      <c r="J6" s="73">
+        <v>2</v>
+      </c>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="N6" s="75" t="s">
+      <c r="N6" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="O6" s="75">
+      <c r="O6" s="70">
         <v>12</v>
       </c>
-      <c r="P6" s="75">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="76"/>
-    </row>
-    <row r="7" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="81" t="s">
+      <c r="P6" s="70">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="71"/>
+    </row>
+    <row r="7" spans="1:18" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="78">
+      <c r="C7" s="73">
         <v>10</v>
       </c>
-      <c r="D7" s="78">
+      <c r="D7" s="73">
         <v>10</v>
       </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78">
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73">
         <v>10</v>
       </c>
-      <c r="H7" s="78">
+      <c r="H7" s="73">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>10</v>
       </c>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78">
-        <v>2</v>
-      </c>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78" t="s">
+      <c r="I7" s="73"/>
+      <c r="J7" s="73">
+        <v>2</v>
+      </c>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="N7" s="75" t="s">
+      <c r="N7" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="O7" s="75">
+      <c r="O7" s="70">
         <v>12</v>
       </c>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75">
-        <v>8</v>
-      </c>
-      <c r="R7" s="76"/>
-    </row>
-    <row r="8" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70">
+        <v>8</v>
+      </c>
+      <c r="R7" s="71"/>
+    </row>
+    <row r="8" spans="1:18" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="78">
-        <v>8</v>
-      </c>
-      <c r="D8" s="78">
+      <c r="C8" s="73">
+        <v>8</v>
+      </c>
+      <c r="D8" s="73">
         <v>6</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="78">
-        <v>8</v>
-      </c>
-      <c r="H8" s="78">
+      <c r="G8" s="73">
+        <v>8</v>
+      </c>
+      <c r="H8" s="73">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78">
-        <v>2</v>
-      </c>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78" t="s">
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73">
+        <v>2</v>
+      </c>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="76"/>
-    </row>
-    <row r="9" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="s">
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="71"/>
+    </row>
+    <row r="9" spans="1:18" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="78">
-        <v>4</v>
-      </c>
-      <c r="D9" s="78">
+      <c r="C9" s="73">
+        <v>4</v>
+      </c>
+      <c r="D9" s="73">
         <v>10</v>
       </c>
-      <c r="E9" s="78">
-        <v>2</v>
-      </c>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78">
-        <v>4</v>
-      </c>
-      <c r="H9" s="78">
+      <c r="E9" s="73">
+        <v>2</v>
+      </c>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73">
+        <v>4</v>
+      </c>
+      <c r="H9" s="73">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>10</v>
       </c>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78">
+      <c r="I9" s="73"/>
+      <c r="J9" s="73">
         <v>3</v>
       </c>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78" t="s">
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="N9" s="75" t="s">
+      <c r="N9" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="O9" s="75">
-        <v>8</v>
-      </c>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75">
-        <v>6</v>
-      </c>
-      <c r="R9" s="76"/>
-    </row>
-    <row r="10" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="81" t="s">
+      <c r="O9" s="70">
+        <v>8</v>
+      </c>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70">
+        <v>6</v>
+      </c>
+      <c r="R9" s="71"/>
+    </row>
+    <row r="10" spans="1:18" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78">
-        <v>4</v>
-      </c>
-      <c r="E10" s="78">
-        <v>6</v>
-      </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78">
+      <c r="C10" s="73"/>
+      <c r="D10" s="73">
+        <v>4</v>
+      </c>
+      <c r="E10" s="73">
+        <v>6</v>
+      </c>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73">
         <v>0</v>
       </c>
-      <c r="H10" s="78">
+      <c r="H10" s="73">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78">
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73">
         <v>3</v>
       </c>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78" t="s">
+      <c r="L10" s="73"/>
+      <c r="M10" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="N10" s="83" t="s">
+      <c r="N10" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="O10" s="83">
-        <v>4</v>
-      </c>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="76"/>
+      <c r="O10" s="78">
+        <v>4</v>
+      </c>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="71"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -6276,97 +6288,97 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="12"/>
     </row>
-    <row r="12" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="81" t="s">
+    <row r="12" spans="1:18" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="78">
+      <c r="C12" s="73">
         <v>10</v>
       </c>
-      <c r="D12" s="78">
-        <v>8</v>
-      </c>
-      <c r="E12" s="78">
-        <v>6</v>
-      </c>
-      <c r="F12" s="78">
-        <v>6</v>
-      </c>
-      <c r="G12" s="78">
+      <c r="D12" s="73">
+        <v>8</v>
+      </c>
+      <c r="E12" s="73">
+        <v>6</v>
+      </c>
+      <c r="F12" s="73">
+        <v>6</v>
+      </c>
+      <c r="G12" s="73">
         <v>10</v>
       </c>
-      <c r="H12" s="78">
+      <c r="H12" s="73">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>8</v>
       </c>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78">
-        <v>4</v>
-      </c>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="75" t="s">
+      <c r="I12" s="73"/>
+      <c r="J12" s="73">
+        <v>4</v>
+      </c>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="70" t="s">
         <v>191</v>
       </c>
-      <c r="N12" s="78" t="s">
+      <c r="N12" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="76" t="s">
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="71" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="77" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="95" t="s">
+    <row r="13" spans="1:18" s="72" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="90" t="s">
         <v>187</v>
       </c>
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="96">
+      <c r="C13" s="91">
         <v>10</v>
       </c>
-      <c r="D13" s="96">
-        <v>8</v>
-      </c>
-      <c r="E13" s="96">
-        <v>6</v>
-      </c>
-      <c r="F13" s="96">
-        <v>6</v>
-      </c>
-      <c r="G13" s="96">
-        <v>6</v>
-      </c>
-      <c r="H13" s="96">
+      <c r="D13" s="91">
+        <v>8</v>
+      </c>
+      <c r="E13" s="91">
+        <v>6</v>
+      </c>
+      <c r="F13" s="91">
+        <v>6</v>
+      </c>
+      <c r="G13" s="91">
+        <v>6</v>
+      </c>
+      <c r="H13" s="91">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>12</v>
       </c>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96">
-        <v>4</v>
-      </c>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96" t="s">
+      <c r="I13" s="91"/>
+      <c r="J13" s="91">
+        <v>4</v>
+      </c>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91" t="s">
         <v>324</v>
       </c>
-      <c r="M13" s="97" t="s">
+      <c r="M13" s="92" t="s">
         <v>192</v>
       </c>
-      <c r="N13" s="96" t="s">
+      <c r="N13" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="O13" s="97">
+      <c r="O13" s="92">
         <v>14</v>
       </c>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="98" t="s">
+      <c r="P13" s="92"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="93" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6403,62 +6415,62 @@
       <c r="M14" s="3">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N14" s="17" t="s">
+      <c r="N14" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="O14" s="17">
-        <v>4</v>
-      </c>
-      <c r="P14" s="17">
+      <c r="O14" s="16">
+        <v>4</v>
+      </c>
+      <c r="P14" s="16">
         <v>0</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="12"/>
     </row>
     <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="63">
-        <v>6</v>
-      </c>
-      <c r="D15" s="63">
-        <v>4</v>
-      </c>
-      <c r="E15" s="63">
+      <c r="C15" s="59">
+        <v>6</v>
+      </c>
+      <c r="D15" s="59">
+        <v>4</v>
+      </c>
+      <c r="E15" s="59">
         <v>12</v>
       </c>
-      <c r="F15" s="63">
-        <v>8</v>
-      </c>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63">
+      <c r="F15" s="59">
+        <v>8</v>
+      </c>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>10</v>
       </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63">
-        <v>4</v>
-      </c>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63" t="s">
+      <c r="I15" s="59"/>
+      <c r="J15" s="59">
+        <v>4</v>
+      </c>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59" t="s">
         <v>325</v>
       </c>
-      <c r="M15" s="64">
+      <c r="M15" s="60">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N15" s="64" t="s">
+      <c r="N15" s="60" t="s">
         <v>219</v>
       </c>
-      <c r="O15" s="64">
-        <v>2</v>
-      </c>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="65"/>
+      <c r="O15" s="60">
+        <v>2</v>
+      </c>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="61"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -6495,14 +6507,14 @@
       <c r="M16" s="3">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N16" s="17" t="s">
+      <c r="N16" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="O16" s="17">
-        <v>4</v>
-      </c>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17">
+      <c r="O16" s="16">
+        <v>4</v>
+      </c>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16">
         <v>2</v>
       </c>
       <c r="R16" s="12"/>
@@ -6538,199 +6550,199 @@
       <c r="M17" s="3">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N17" s="17" t="s">
+      <c r="N17" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="O17" s="17">
-        <v>2</v>
-      </c>
-      <c r="P17" s="17">
+      <c r="O17" s="16">
+        <v>2</v>
+      </c>
+      <c r="P17" s="16">
         <v>0</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="Q17" s="16">
         <v>0</v>
       </c>
       <c r="R17" s="12"/>
     </row>
-    <row r="18" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="81" t="s">
+    <row r="18" spans="1:18" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78">
-        <v>2</v>
-      </c>
-      <c r="E18" s="78">
-        <v>6</v>
-      </c>
-      <c r="F18" s="78">
-        <v>6</v>
-      </c>
-      <c r="G18" s="78">
+      <c r="C18" s="73"/>
+      <c r="D18" s="73">
+        <v>2</v>
+      </c>
+      <c r="E18" s="73">
+        <v>6</v>
+      </c>
+      <c r="F18" s="73">
+        <v>6</v>
+      </c>
+      <c r="G18" s="73">
         <v>0</v>
       </c>
-      <c r="H18" s="78">
+      <c r="H18" s="73">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78">
-        <v>4</v>
-      </c>
-      <c r="L18" s="78"/>
-      <c r="M18" s="75">
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73">
+        <v>4</v>
+      </c>
+      <c r="L18" s="73"/>
+      <c r="M18" s="70">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N18" s="84" t="s">
+      <c r="N18" s="79" t="s">
         <v>236</v>
       </c>
-      <c r="O18" s="84">
-        <v>2</v>
-      </c>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84">
+      <c r="O18" s="79">
+        <v>2</v>
+      </c>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79">
         <v>0</v>
       </c>
-      <c r="R18" s="76"/>
-    </row>
-    <row r="19" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="81" t="s">
+      <c r="R18" s="71"/>
+    </row>
+    <row r="19" spans="1:18" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78">
-        <v>2</v>
-      </c>
-      <c r="E19" s="78">
-        <v>4</v>
-      </c>
-      <c r="F19" s="78">
-        <v>4</v>
-      </c>
-      <c r="G19" s="78">
+      <c r="C19" s="73"/>
+      <c r="D19" s="73">
+        <v>2</v>
+      </c>
+      <c r="E19" s="73">
+        <v>4</v>
+      </c>
+      <c r="F19" s="73">
+        <v>4</v>
+      </c>
+      <c r="G19" s="73">
         <v>0</v>
       </c>
-      <c r="H19" s="78">
+      <c r="H19" s="73">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78">
-        <v>4</v>
-      </c>
-      <c r="L19" s="78"/>
-      <c r="M19" s="75">
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73">
+        <v>4</v>
+      </c>
+      <c r="L19" s="73"/>
+      <c r="M19" s="70">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N19" s="84" t="s">
+      <c r="N19" s="79" t="s">
         <v>202</v>
       </c>
-      <c r="O19" s="84">
-        <v>2</v>
-      </c>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="76"/>
-    </row>
-    <row r="20" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="81" t="s">
+      <c r="O19" s="79">
+        <v>2</v>
+      </c>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="71"/>
+    </row>
+    <row r="20" spans="1:18" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="78">
-        <v>6</v>
-      </c>
-      <c r="D20" s="75">
-        <v>4</v>
-      </c>
-      <c r="E20" s="75">
-        <v>4</v>
-      </c>
-      <c r="F20" s="75">
-        <v>8</v>
-      </c>
-      <c r="G20" s="75">
-        <v>4</v>
-      </c>
-      <c r="H20" s="75">
+      <c r="C20" s="73">
+        <v>6</v>
+      </c>
+      <c r="D20" s="70">
+        <v>4</v>
+      </c>
+      <c r="E20" s="70">
+        <v>4</v>
+      </c>
+      <c r="F20" s="70">
+        <v>8</v>
+      </c>
+      <c r="G20" s="70">
+        <v>4</v>
+      </c>
+      <c r="H20" s="70">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75">
-        <v>4</v>
-      </c>
-      <c r="K20" s="75"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="75">
+      <c r="I20" s="70"/>
+      <c r="J20" s="70">
+        <v>4</v>
+      </c>
+      <c r="K20" s="70"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="70">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N20" s="84" t="s">
+      <c r="N20" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="O20" s="84">
-        <v>6</v>
-      </c>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84">
-        <v>4</v>
-      </c>
-      <c r="R20" s="76"/>
-    </row>
-    <row r="21" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
+      <c r="O20" s="79">
+        <v>6</v>
+      </c>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79">
+        <v>4</v>
+      </c>
+      <c r="R20" s="71"/>
+    </row>
+    <row r="21" spans="1:18" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="78">
-        <v>6</v>
-      </c>
-      <c r="D21" s="75">
-        <v>4</v>
-      </c>
-      <c r="E21" s="75">
-        <v>4</v>
-      </c>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75">
-        <v>6</v>
-      </c>
-      <c r="H21" s="75">
+      <c r="C21" s="73">
+        <v>6</v>
+      </c>
+      <c r="D21" s="70">
+        <v>4</v>
+      </c>
+      <c r="E21" s="70">
+        <v>4</v>
+      </c>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70">
+        <v>6</v>
+      </c>
+      <c r="H21" s="70">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75">
+      <c r="I21" s="70"/>
+      <c r="J21" s="70">
         <v>3</v>
       </c>
-      <c r="K21" s="75"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="75">
+      <c r="K21" s="70"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="70">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N21" s="84" t="s">
+      <c r="N21" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="O21" s="84">
-        <v>6</v>
-      </c>
-      <c r="P21" s="84">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="76"/>
+      <c r="O21" s="79">
+        <v>6</v>
+      </c>
+      <c r="P21" s="79">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="71"/>
     </row>
     <row r="22" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
@@ -6765,70 +6777,70 @@
       <c r="M22" s="3">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N22" s="17" t="s">
+      <c r="N22" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="O22" s="17">
+      <c r="O22" s="16">
         <v>6</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="12"/>
     </row>
-    <row r="23" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="81" t="s">
+    <row r="23" spans="1:18" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="78">
-        <v>6</v>
-      </c>
-      <c r="D23" s="75">
-        <v>4</v>
-      </c>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75">
-        <v>6</v>
-      </c>
-      <c r="H23" s="75">
+      <c r="C23" s="73">
+        <v>6</v>
+      </c>
+      <c r="D23" s="70">
+        <v>4</v>
+      </c>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70">
+        <v>6</v>
+      </c>
+      <c r="H23" s="70">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75">
-        <v>2</v>
-      </c>
-      <c r="L23" s="78"/>
-      <c r="M23" s="75">
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70">
+        <v>2</v>
+      </c>
+      <c r="L23" s="73"/>
+      <c r="M23" s="70">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N23" s="75" t="s">
+      <c r="N23" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="O23" s="75">
-        <v>6</v>
-      </c>
-      <c r="P23" s="75">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="76"/>
-    </row>
-    <row r="24" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="81" t="s">
+      <c r="O23" s="70">
+        <v>6</v>
+      </c>
+      <c r="P23" s="70">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="71"/>
+    </row>
+    <row r="24" spans="1:18" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="78">
-        <v>4</v>
-      </c>
-      <c r="D24" s="78">
+      <c r="C24" s="73">
+        <v>4</v>
+      </c>
+      <c r="D24" s="73">
         <v>6</v>
       </c>
       <c r="E24" s="4">
@@ -6837,168 +6849,168 @@
       <c r="F24" s="4">
         <v>6</v>
       </c>
-      <c r="G24" s="78">
-        <v>4</v>
-      </c>
-      <c r="H24" s="78">
+      <c r="G24" s="73">
+        <v>4</v>
+      </c>
+      <c r="H24" s="73">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78">
-        <v>4</v>
-      </c>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="75">
+      <c r="I24" s="73"/>
+      <c r="J24" s="73">
+        <v>4</v>
+      </c>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="70">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N24" s="83" t="s">
+      <c r="N24" s="78" t="s">
         <v>280</v>
       </c>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="76" t="s">
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="71" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="77" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="95" t="s">
+    <row r="25" spans="1:18" s="72" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="96" t="s">
+      <c r="B25" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="96">
-        <v>4</v>
-      </c>
-      <c r="D25" s="96">
-        <v>8</v>
-      </c>
-      <c r="E25" s="96">
-        <v>4</v>
-      </c>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96">
-        <v>4</v>
-      </c>
-      <c r="H25" s="96">
+      <c r="C25" s="91">
+        <v>4</v>
+      </c>
+      <c r="D25" s="91">
+        <v>8</v>
+      </c>
+      <c r="E25" s="91">
+        <v>4</v>
+      </c>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91">
+        <v>4</v>
+      </c>
+      <c r="H25" s="91">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>8</v>
       </c>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96">
+      <c r="I25" s="91"/>
+      <c r="J25" s="91">
         <v>3</v>
       </c>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96" t="s">
+      <c r="K25" s="91"/>
+      <c r="L25" s="91" t="s">
         <v>324</v>
       </c>
-      <c r="M25" s="97">
+      <c r="M25" s="92">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N25" s="96" t="s">
+      <c r="N25" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="O25" s="97">
-        <v>6</v>
-      </c>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="97"/>
-      <c r="R25" s="98" t="s">
+      <c r="O25" s="92">
+        <v>6</v>
+      </c>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="92"/>
+      <c r="R25" s="93" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="81" t="s">
+    <row r="26" spans="1:18" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="78">
-        <v>8</v>
-      </c>
-      <c r="D26" s="78">
-        <v>8</v>
-      </c>
-      <c r="E26" s="78">
-        <v>6</v>
-      </c>
-      <c r="F26" s="78">
-        <v>8</v>
-      </c>
-      <c r="G26" s="78">
-        <v>8</v>
-      </c>
-      <c r="H26" s="78">
+      <c r="C26" s="73">
+        <v>8</v>
+      </c>
+      <c r="D26" s="73">
+        <v>8</v>
+      </c>
+      <c r="E26" s="73">
+        <v>6</v>
+      </c>
+      <c r="F26" s="73">
+        <v>8</v>
+      </c>
+      <c r="G26" s="73">
+        <v>8</v>
+      </c>
+      <c r="H26" s="73">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>8</v>
       </c>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78">
-        <v>4</v>
-      </c>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="75">
+      <c r="I26" s="73"/>
+      <c r="J26" s="73">
+        <v>4</v>
+      </c>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="70">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N26" s="75" t="s">
+      <c r="N26" s="70" t="s">
         <v>233</v>
       </c>
-      <c r="O26" s="75">
+      <c r="O26" s="70">
         <v>16</v>
       </c>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75">
+      <c r="P26" s="70"/>
+      <c r="Q26" s="70">
         <v>0</v>
       </c>
-      <c r="R26" s="76"/>
-    </row>
-    <row r="27" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="85" t="s">
+      <c r="R26" s="71"/>
+    </row>
+    <row r="27" spans="1:18" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="86" t="s">
+      <c r="B27" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="86">
-        <v>4</v>
-      </c>
-      <c r="D27" s="87">
-        <v>6</v>
-      </c>
-      <c r="E27" s="20">
-        <v>4</v>
-      </c>
-      <c r="F27" s="20">
-        <v>2</v>
-      </c>
-      <c r="G27" s="87">
-        <v>4</v>
-      </c>
-      <c r="H27" s="87">
+      <c r="C27" s="81">
+        <v>4</v>
+      </c>
+      <c r="D27" s="82">
+        <v>6</v>
+      </c>
+      <c r="E27" s="19">
+        <v>4</v>
+      </c>
+      <c r="F27" s="19">
+        <v>2</v>
+      </c>
+      <c r="G27" s="82">
+        <v>4</v>
+      </c>
+      <c r="H27" s="82">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 1 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87">
+      <c r="I27" s="82"/>
+      <c r="J27" s="82">
         <v>3</v>
       </c>
-      <c r="K27" s="87"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86">
+      <c r="K27" s="82"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N27" s="86" t="s">
+      <c r="N27" s="81" t="s">
         <v>291</v>
       </c>
-      <c r="O27" s="86"/>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="86"/>
-      <c r="R27" s="88"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="83"/>
     </row>
     <row r="102" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M102" s="9"/>
@@ -7103,466 +7115,466 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.28515625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="27" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="27" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="27" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="27" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" style="27" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="27" customWidth="1"/>
-    <col min="11" max="11" width="6" style="27" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="27" customWidth="1"/>
-    <col min="13" max="13" width="0.140625" style="27" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" style="27" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" style="27" customWidth="1"/>
-    <col min="16" max="16" width="10" style="27" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="27"/>
-    <col min="18" max="18" width="11.85546875" style="27" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="1" width="10.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="26" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="26" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="26" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="26" customWidth="1"/>
+    <col min="11" max="11" width="6" style="26" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="26" customWidth="1"/>
+    <col min="13" max="13" width="0.140625" style="26" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" style="26" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="26" customWidth="1"/>
+    <col min="16" max="16" width="10" style="26" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="26"/>
+    <col min="18" max="18" width="11.85546875" style="26" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="N1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="24" t="s">
+      <c r="N1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="25" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="80" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+    <row r="2" spans="1:18" s="75" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="73">
-        <v>6</v>
-      </c>
-      <c r="D2" s="73">
-        <v>4</v>
-      </c>
-      <c r="E2" s="73">
-        <v>2</v>
-      </c>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73">
-        <v>6</v>
-      </c>
-      <c r="H2" s="73">
+      <c r="C2" s="68">
+        <v>6</v>
+      </c>
+      <c r="D2" s="68">
+        <v>4</v>
+      </c>
+      <c r="E2" s="68">
+        <v>2</v>
+      </c>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68">
+        <v>6</v>
+      </c>
+      <c r="H2" s="68">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73">
+      <c r="I2" s="68"/>
+      <c r="J2" s="68">
         <v>3</v>
       </c>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="78" t="s">
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="79"/>
-    </row>
-    <row r="3" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="74"/>
+    </row>
+    <row r="3" spans="1:18" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="73">
-        <v>4</v>
-      </c>
-      <c r="D3" s="73">
-        <v>6</v>
-      </c>
-      <c r="E3" s="73">
-        <v>4</v>
-      </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73">
-        <v>4</v>
-      </c>
-      <c r="H3" s="73">
+      <c r="C3" s="68">
+        <v>4</v>
+      </c>
+      <c r="D3" s="68">
+        <v>6</v>
+      </c>
+      <c r="E3" s="68">
+        <v>4</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68">
+        <v>4</v>
+      </c>
+      <c r="H3" s="68">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73">
+      <c r="I3" s="68"/>
+      <c r="J3" s="68">
         <v>3</v>
       </c>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="78" t="s">
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="73" t="s">
         <v>292</v>
       </c>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="79"/>
-    </row>
-    <row r="4" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="74"/>
+    </row>
+    <row r="4" spans="1:18" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="78">
-        <v>8</v>
-      </c>
-      <c r="D4" s="78">
-        <v>8</v>
-      </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78">
-        <v>8</v>
-      </c>
-      <c r="H4" s="78">
+      <c r="C4" s="73">
+        <v>8</v>
+      </c>
+      <c r="D4" s="73">
+        <v>8</v>
+      </c>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73">
+        <v>8</v>
+      </c>
+      <c r="H4" s="73">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>8</v>
       </c>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78">
-        <v>2</v>
-      </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78">
+      <c r="I4" s="73"/>
+      <c r="J4" s="73">
+        <v>2</v>
+      </c>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="O4" s="78">
+      <c r="O4" s="73">
         <v>12</v>
       </c>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78">
-        <v>4</v>
-      </c>
-      <c r="R4" s="79"/>
-    </row>
-    <row r="5" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="s">
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73">
+        <v>4</v>
+      </c>
+      <c r="R4" s="74"/>
+    </row>
+    <row r="5" spans="1:18" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="78">
-        <v>8</v>
-      </c>
-      <c r="D5" s="78">
+      <c r="C5" s="73">
+        <v>8</v>
+      </c>
+      <c r="D5" s="73">
         <v>10</v>
       </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78">
-        <v>8</v>
-      </c>
-      <c r="H5" s="78">
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73">
+        <v>8</v>
+      </c>
+      <c r="H5" s="73">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>10</v>
       </c>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78">
-        <v>2</v>
-      </c>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78">
+      <c r="I5" s="73"/>
+      <c r="J5" s="73">
+        <v>2</v>
+      </c>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N5" s="78" t="s">
+      <c r="N5" s="73" t="s">
         <v>237</v>
       </c>
-      <c r="O5" s="78">
+      <c r="O5" s="73">
         <v>12</v>
       </c>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78">
-        <v>6</v>
-      </c>
-      <c r="R5" s="79"/>
-    </row>
-    <row r="6" spans="1:18" s="80" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73">
+        <v>6</v>
+      </c>
+      <c r="R5" s="74"/>
+    </row>
+    <row r="6" spans="1:18" s="75" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="78">
+      <c r="C6" s="73">
         <v>10</v>
       </c>
-      <c r="D6" s="78">
+      <c r="D6" s="73">
         <v>10</v>
       </c>
-      <c r="E6" s="78">
-        <v>8</v>
-      </c>
-      <c r="F6" s="78">
+      <c r="E6" s="73">
+        <v>8</v>
+      </c>
+      <c r="F6" s="73">
         <v>10</v>
       </c>
-      <c r="G6" s="78">
+      <c r="G6" s="73">
         <v>10</v>
       </c>
-      <c r="H6" s="78">
+      <c r="H6" s="73">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>10</v>
       </c>
-      <c r="I6" s="78">
-        <v>4</v>
-      </c>
-      <c r="J6" s="78">
-        <v>2</v>
-      </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78">
+      <c r="I6" s="73">
+        <v>4</v>
+      </c>
+      <c r="J6" s="73">
+        <v>2</v>
+      </c>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N6" s="78" t="s">
+      <c r="N6" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="O6" s="78">
+      <c r="O6" s="73">
         <v>20</v>
       </c>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="79"/>
-    </row>
-    <row r="7" spans="1:18" s="80" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="81" t="s">
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="74"/>
+    </row>
+    <row r="7" spans="1:18" s="75" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="78">
+      <c r="B7" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="73">
         <v>12</v>
       </c>
-      <c r="D7" s="78">
+      <c r="D7" s="73">
         <v>10</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="78">
+      <c r="G7" s="73">
         <v>12</v>
       </c>
-      <c r="H7" s="78">
+      <c r="H7" s="73">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>10</v>
       </c>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78">
-        <v>2</v>
-      </c>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78">
+      <c r="I7" s="73"/>
+      <c r="J7" s="73">
+        <v>2</v>
+      </c>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N7" s="78" t="s">
+      <c r="N7" s="73" t="s">
         <v>281</v>
       </c>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="79"/>
-    </row>
-    <row r="8" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="74"/>
+    </row>
+    <row r="8" spans="1:18" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="78">
-        <v>6</v>
-      </c>
-      <c r="D8" s="78">
-        <v>6</v>
-      </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78">
-        <v>6</v>
-      </c>
-      <c r="H8" s="78">
+      <c r="C8" s="73">
+        <v>6</v>
+      </c>
+      <c r="D8" s="73">
+        <v>6</v>
+      </c>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73">
+        <v>6</v>
+      </c>
+      <c r="H8" s="73">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78">
-        <v>2</v>
-      </c>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78">
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73">
+        <v>2</v>
+      </c>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N8" s="78" t="s">
+      <c r="N8" s="73" t="s">
         <v>204</v>
       </c>
-      <c r="O8" s="78">
+      <c r="O8" s="73">
         <v>10</v>
       </c>
-      <c r="P8" s="78">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="79"/>
-    </row>
-    <row r="9" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="s">
+      <c r="P8" s="73">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="74"/>
+    </row>
+    <row r="9" spans="1:18" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="78">
-        <v>6</v>
-      </c>
-      <c r="D9" s="78">
-        <v>8</v>
-      </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78">
-        <v>6</v>
-      </c>
-      <c r="H9" s="78">
+      <c r="C9" s="73">
+        <v>6</v>
+      </c>
+      <c r="D9" s="73">
+        <v>8</v>
+      </c>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73">
+        <v>6</v>
+      </c>
+      <c r="H9" s="73">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>8</v>
       </c>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78">
-        <v>2</v>
-      </c>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78">
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73">
+        <v>2</v>
+      </c>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N9" s="78" t="s">
+      <c r="N9" s="73" t="s">
         <v>258</v>
       </c>
-      <c r="O9" s="78">
+      <c r="O9" s="73">
         <v>10</v>
       </c>
-      <c r="P9" s="78">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="79"/>
-    </row>
-    <row r="10" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="81" t="s">
+      <c r="P9" s="73">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="74"/>
+    </row>
+    <row r="10" spans="1:18" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="78">
-        <v>4</v>
-      </c>
-      <c r="D10" s="78">
-        <v>8</v>
-      </c>
-      <c r="E10" s="78">
-        <v>4</v>
-      </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78">
-        <v>4</v>
-      </c>
-      <c r="H10" s="78">
+      <c r="C10" s="73">
+        <v>4</v>
+      </c>
+      <c r="D10" s="73">
+        <v>8</v>
+      </c>
+      <c r="E10" s="73">
+        <v>4</v>
+      </c>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73">
+        <v>4</v>
+      </c>
+      <c r="H10" s="73">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>8</v>
       </c>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78">
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73">
         <v>3</v>
       </c>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78">
+      <c r="L10" s="73"/>
+      <c r="M10" s="73">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N10" s="111" t="s">
+      <c r="N10" s="106" t="s">
         <v>204</v>
       </c>
-      <c r="O10" s="111">
+      <c r="O10" s="106">
         <v>12</v>
       </c>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="79"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="74"/>
     </row>
     <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -7595,13 +7607,13 @@
       <c r="M11" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N11" s="29" t="s">
+      <c r="N11" s="28" t="s">
         <v>201</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="28"/>
+      <c r="R11" s="27"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -7634,13 +7646,13 @@
       <c r="M12" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N12" s="29" t="s">
+      <c r="N12" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="28"/>
+      <c r="R12" s="27"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
@@ -7679,856 +7691,856 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="28"/>
-    </row>
-    <row r="14" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="81" t="s">
+      <c r="R13" s="27"/>
+    </row>
+    <row r="14" spans="1:18" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="78">
+      <c r="C14" s="73">
         <v>12</v>
       </c>
-      <c r="D14" s="78">
-        <v>2</v>
-      </c>
-      <c r="E14" s="78">
+      <c r="D14" s="73">
+        <v>2</v>
+      </c>
+      <c r="E14" s="73">
         <v>10</v>
       </c>
-      <c r="F14" s="78">
+      <c r="F14" s="73">
         <v>10</v>
       </c>
-      <c r="G14" s="78">
-        <v>8</v>
-      </c>
-      <c r="H14" s="78">
+      <c r="G14" s="73">
+        <v>8</v>
+      </c>
+      <c r="H14" s="73">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78">
-        <v>4</v>
-      </c>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78">
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73">
+        <v>4</v>
+      </c>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73">
         <v>6.080101</v>
       </c>
-      <c r="N14" s="112" t="s">
+      <c r="N14" s="107" t="s">
         <v>205</v>
       </c>
-      <c r="O14" s="112">
+      <c r="O14" s="107">
         <v>12</v>
       </c>
-      <c r="P14" s="112">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="79"/>
-    </row>
-    <row r="15" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="81" t="s">
+      <c r="P14" s="107">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="74"/>
+    </row>
+    <row r="15" spans="1:18" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="99">
+      <c r="C15" s="94">
         <v>10</v>
       </c>
-      <c r="D15" s="99">
-        <v>8</v>
-      </c>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99">
-        <v>8</v>
-      </c>
-      <c r="H15" s="99">
+      <c r="D15" s="94">
+        <v>8</v>
+      </c>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94">
+        <v>8</v>
+      </c>
+      <c r="H15" s="94">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>10</v>
       </c>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99">
-        <v>2</v>
-      </c>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99">
+      <c r="I15" s="94"/>
+      <c r="J15" s="94">
+        <v>2</v>
+      </c>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94">
         <v>6.080101</v>
       </c>
-      <c r="N15" s="99" t="s">
+      <c r="N15" s="94" t="s">
         <v>282</v>
       </c>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="99" t="s">
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="81" t="s">
+    <row r="16" spans="1:18" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="78">
-        <v>4</v>
-      </c>
-      <c r="D16" s="78">
-        <v>6</v>
-      </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78">
-        <v>4</v>
-      </c>
-      <c r="H16" s="78">
+      <c r="C16" s="73">
+        <v>4</v>
+      </c>
+      <c r="D16" s="73">
+        <v>6</v>
+      </c>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73">
+        <v>4</v>
+      </c>
+      <c r="H16" s="73">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78">
-        <v>2</v>
-      </c>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78">
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73">
+        <v>2</v>
+      </c>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73">
         <v>6.080101</v>
       </c>
-      <c r="N16" s="78" t="s">
+      <c r="N16" s="73" t="s">
         <v>222</v>
       </c>
-      <c r="O16" s="78">
-        <v>6</v>
-      </c>
-      <c r="P16" s="78">
-        <v>4</v>
-      </c>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="79"/>
-    </row>
-    <row r="17" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="81" t="s">
+      <c r="O16" s="73">
+        <v>6</v>
+      </c>
+      <c r="P16" s="73">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="74"/>
+    </row>
+    <row r="17" spans="1:18" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="78">
-        <v>4</v>
-      </c>
-      <c r="D17" s="78">
-        <v>6</v>
-      </c>
-      <c r="E17" s="78">
-        <v>8</v>
-      </c>
-      <c r="F17" s="78">
-        <v>8</v>
-      </c>
-      <c r="G17" s="78">
-        <v>4</v>
-      </c>
-      <c r="H17" s="78">
+      <c r="C17" s="73">
+        <v>4</v>
+      </c>
+      <c r="D17" s="73">
+        <v>6</v>
+      </c>
+      <c r="E17" s="73">
+        <v>8</v>
+      </c>
+      <c r="F17" s="73">
+        <v>8</v>
+      </c>
+      <c r="G17" s="73">
+        <v>4</v>
+      </c>
+      <c r="H17" s="73">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78">
-        <v>4</v>
-      </c>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78">
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73">
+        <v>4</v>
+      </c>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73">
         <v>6.080101</v>
       </c>
-      <c r="N17" s="111" t="s">
+      <c r="N17" s="106" t="s">
         <v>212</v>
       </c>
-      <c r="O17" s="111">
+      <c r="O17" s="106">
         <v>10</v>
       </c>
-      <c r="P17" s="111"/>
-      <c r="Q17" s="111">
+      <c r="P17" s="106"/>
+      <c r="Q17" s="106">
         <v>0</v>
       </c>
-      <c r="R17" s="79"/>
-    </row>
-    <row r="18" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="81" t="s">
+      <c r="R17" s="74"/>
+    </row>
+    <row r="18" spans="1:18" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="78">
+      <c r="C18" s="73">
         <v>10</v>
       </c>
-      <c r="D18" s="78">
+      <c r="D18" s="73">
         <v>10</v>
       </c>
-      <c r="E18" s="78">
+      <c r="E18" s="73">
         <v>10</v>
       </c>
-      <c r="F18" s="78">
-        <v>6</v>
-      </c>
-      <c r="G18" s="78">
+      <c r="F18" s="73">
+        <v>6</v>
+      </c>
+      <c r="G18" s="73">
         <v>10</v>
       </c>
-      <c r="H18" s="78">
+      <c r="H18" s="73">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>10</v>
       </c>
-      <c r="I18" s="78">
-        <v>4</v>
-      </c>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78">
-        <v>4</v>
-      </c>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78">
+      <c r="I18" s="73">
+        <v>4</v>
+      </c>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73">
+        <v>4</v>
+      </c>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73">
         <v>6.080101</v>
       </c>
-      <c r="N18" s="78" t="s">
+      <c r="N18" s="73" t="s">
         <v>239</v>
       </c>
-      <c r="O18" s="78">
+      <c r="O18" s="73">
         <v>18</v>
       </c>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78">
-        <v>2</v>
-      </c>
-      <c r="R18" s="79"/>
-    </row>
-    <row r="19" spans="1:18" s="80" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="81" t="s">
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73">
+        <v>2</v>
+      </c>
+      <c r="R18" s="74"/>
+    </row>
+    <row r="19" spans="1:18" s="75" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="78">
-        <v>6</v>
-      </c>
-      <c r="D19" s="78">
-        <v>2</v>
-      </c>
-      <c r="E19" s="78">
-        <v>4</v>
-      </c>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78">
-        <v>4</v>
-      </c>
-      <c r="H19" s="78">
+      <c r="C19" s="73">
+        <v>6</v>
+      </c>
+      <c r="D19" s="73">
+        <v>2</v>
+      </c>
+      <c r="E19" s="73">
+        <v>4</v>
+      </c>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73">
+        <v>4</v>
+      </c>
+      <c r="H19" s="73">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78">
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73">
         <v>3</v>
       </c>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78">
+      <c r="L19" s="73"/>
+      <c r="M19" s="73">
         <v>6.080101</v>
       </c>
-      <c r="N19" s="112" t="s">
+      <c r="N19" s="107" t="s">
         <v>208</v>
       </c>
-      <c r="O19" s="112">
-        <v>6</v>
-      </c>
-      <c r="P19" s="112">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="79"/>
-    </row>
-    <row r="20" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="81" t="s">
+      <c r="O19" s="107">
+        <v>6</v>
+      </c>
+      <c r="P19" s="107">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="74"/>
+    </row>
+    <row r="20" spans="1:18" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="78">
-        <v>6</v>
-      </c>
-      <c r="D20" s="78">
-        <v>4</v>
-      </c>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78">
-        <v>6</v>
-      </c>
-      <c r="H20" s="78">
+      <c r="C20" s="73">
+        <v>6</v>
+      </c>
+      <c r="D20" s="73">
+        <v>4</v>
+      </c>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73">
+        <v>6</v>
+      </c>
+      <c r="H20" s="73">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78">
-        <v>2</v>
-      </c>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78">
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73">
+        <v>2</v>
+      </c>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73">
         <v>6.080101</v>
       </c>
-      <c r="N20" s="78" t="s">
+      <c r="N20" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="O20" s="78">
-        <v>8</v>
-      </c>
-      <c r="P20" s="78">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="79"/>
-    </row>
-    <row r="21" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
+      <c r="O20" s="73">
+        <v>8</v>
+      </c>
+      <c r="P20" s="73">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="74"/>
+    </row>
+    <row r="21" spans="1:18" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="78">
-        <v>6</v>
-      </c>
-      <c r="D21" s="78">
-        <v>2</v>
-      </c>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78">
-        <v>6</v>
-      </c>
-      <c r="H21" s="78">
+      <c r="C21" s="73">
+        <v>6</v>
+      </c>
+      <c r="D21" s="73">
+        <v>2</v>
+      </c>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73">
+        <v>6</v>
+      </c>
+      <c r="H21" s="73">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78">
-        <v>2</v>
-      </c>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78">
+      <c r="I21" s="73"/>
+      <c r="J21" s="73">
+        <v>2</v>
+      </c>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73">
         <v>6.080101</v>
       </c>
-      <c r="N21" s="112" t="s">
+      <c r="N21" s="107" t="s">
         <v>243</v>
       </c>
-      <c r="O21" s="112">
-        <v>4</v>
-      </c>
-      <c r="P21" s="112">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="79"/>
-    </row>
-    <row r="22" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="81" t="s">
+      <c r="O21" s="107">
+        <v>4</v>
+      </c>
+      <c r="P21" s="107">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="74"/>
+    </row>
+    <row r="22" spans="1:18" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="78">
-        <v>4</v>
-      </c>
-      <c r="D22" s="78">
-        <v>4</v>
-      </c>
-      <c r="E22" s="78">
-        <v>4</v>
-      </c>
-      <c r="F22" s="78">
-        <v>4</v>
-      </c>
-      <c r="G22" s="78">
-        <v>4</v>
-      </c>
-      <c r="H22" s="78">
+      <c r="C22" s="73">
+        <v>4</v>
+      </c>
+      <c r="D22" s="73">
+        <v>4</v>
+      </c>
+      <c r="E22" s="73">
+        <v>4</v>
+      </c>
+      <c r="F22" s="73">
+        <v>4</v>
+      </c>
+      <c r="G22" s="73">
+        <v>4</v>
+      </c>
+      <c r="H22" s="73">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78">
-        <v>4</v>
-      </c>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78">
+      <c r="I22" s="73"/>
+      <c r="J22" s="73">
+        <v>4</v>
+      </c>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73">
         <v>6.090103</v>
       </c>
-      <c r="N22" s="111" t="s">
+      <c r="N22" s="106" t="s">
         <v>214</v>
       </c>
-      <c r="O22" s="111">
-        <v>8</v>
-      </c>
-      <c r="P22" s="111"/>
-      <c r="Q22" s="111">
+      <c r="O22" s="106">
+        <v>8</v>
+      </c>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="106">
         <v>0</v>
       </c>
-      <c r="R22" s="79"/>
-    </row>
-    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="R22" s="74"/>
+    </row>
+    <row r="23" spans="1:18" s="75" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="4">
-        <v>6</v>
-      </c>
-      <c r="D23" s="4">
-        <v>6</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4">
-        <v>6</v>
-      </c>
-      <c r="H23" s="4">
+      <c r="C23" s="73">
+        <v>6</v>
+      </c>
+      <c r="D23" s="73">
+        <v>6</v>
+      </c>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73">
+        <v>6</v>
+      </c>
+      <c r="H23" s="73">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4">
-        <v>2</v>
-      </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4">
+      <c r="I23" s="73"/>
+      <c r="J23" s="73">
+        <v>2</v>
+      </c>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73">
         <v>6.090103</v>
       </c>
-      <c r="N23" s="29" t="s">
+      <c r="N23" s="106" t="s">
         <v>241</v>
       </c>
-      <c r="O23" s="29">
-        <v>8</v>
-      </c>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29">
-        <v>4</v>
-      </c>
-      <c r="R23" s="28"/>
-    </row>
-    <row r="24" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="81" t="s">
+      <c r="O23" s="106">
+        <v>8</v>
+      </c>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="106">
+        <v>4</v>
+      </c>
+      <c r="R23" s="74"/>
+    </row>
+    <row r="24" spans="1:18" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="78">
-        <v>6</v>
-      </c>
-      <c r="D24" s="78">
-        <v>6</v>
-      </c>
-      <c r="E24" s="78">
-        <v>2</v>
-      </c>
-      <c r="F24" s="78">
-        <v>4</v>
-      </c>
-      <c r="G24" s="78">
-        <v>8</v>
-      </c>
-      <c r="H24" s="78">
+      <c r="C24" s="73">
+        <v>6</v>
+      </c>
+      <c r="D24" s="73">
+        <v>6</v>
+      </c>
+      <c r="E24" s="73">
+        <v>2</v>
+      </c>
+      <c r="F24" s="73">
+        <v>4</v>
+      </c>
+      <c r="G24" s="73">
+        <v>8</v>
+      </c>
+      <c r="H24" s="73">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78">
-        <v>4</v>
-      </c>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78">
+      <c r="I24" s="73"/>
+      <c r="J24" s="73">
+        <v>4</v>
+      </c>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73">
         <v>6.090103</v>
       </c>
-      <c r="N24" s="78"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="78"/>
-      <c r="Q24" s="78"/>
-      <c r="R24" s="79"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="74"/>
+    </row>
+    <row r="25" spans="1:18" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="4">
-        <v>4</v>
-      </c>
-      <c r="D25" s="4">
-        <v>6</v>
-      </c>
-      <c r="E25" s="4">
-        <v>6</v>
-      </c>
-      <c r="F25" s="4">
-        <v>4</v>
-      </c>
-      <c r="G25" s="4">
-        <v>4</v>
-      </c>
-      <c r="H25" s="4">
+      <c r="C25" s="73">
+        <v>4</v>
+      </c>
+      <c r="D25" s="73">
+        <v>6</v>
+      </c>
+      <c r="E25" s="73">
+        <v>6</v>
+      </c>
+      <c r="F25" s="73">
+        <v>4</v>
+      </c>
+      <c r="G25" s="73">
+        <v>4</v>
+      </c>
+      <c r="H25" s="73">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4">
-        <v>4</v>
-      </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4">
+      <c r="I25" s="73"/>
+      <c r="J25" s="73">
+        <v>4</v>
+      </c>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73">
         <v>6.090103</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="N25" s="73" t="s">
         <v>244</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="73">
         <v>10</v>
       </c>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="28"/>
-    </row>
-    <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="P25" s="107"/>
+      <c r="Q25" s="107"/>
+      <c r="R25" s="74"/>
+    </row>
+    <row r="26" spans="1:18" s="75" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="4">
-        <v>6</v>
-      </c>
-      <c r="D26" s="4">
-        <v>6</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4">
-        <v>6</v>
-      </c>
-      <c r="H26" s="4">
+      <c r="C26" s="73">
+        <v>6</v>
+      </c>
+      <c r="D26" s="73">
+        <v>6</v>
+      </c>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73">
+        <v>6</v>
+      </c>
+      <c r="H26" s="73">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4">
-        <v>2</v>
-      </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4">
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73">
+        <v>2</v>
+      </c>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73">
         <v>6.090103</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="N26" s="73" t="s">
         <v>208</v>
       </c>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4">
+      <c r="O26" s="73"/>
+      <c r="P26" s="73">
         <v>12</v>
       </c>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="28"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="Q26" s="73"/>
+      <c r="R26" s="74"/>
+    </row>
+    <row r="27" spans="1:18" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="4">
-        <v>8</v>
-      </c>
-      <c r="D27" s="4">
-        <v>6</v>
-      </c>
-      <c r="E27" s="4">
-        <v>4</v>
-      </c>
-      <c r="F27" s="4">
-        <v>4</v>
-      </c>
-      <c r="G27" s="4">
-        <v>8</v>
-      </c>
-      <c r="H27" s="4">
+      <c r="C27" s="73">
+        <v>8</v>
+      </c>
+      <c r="D27" s="73">
+        <v>6</v>
+      </c>
+      <c r="E27" s="73">
+        <v>4</v>
+      </c>
+      <c r="F27" s="73">
+        <v>4</v>
+      </c>
+      <c r="G27" s="73">
+        <v>8</v>
+      </c>
+      <c r="H27" s="73">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4">
-        <v>4</v>
-      </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4">
+      <c r="I27" s="73"/>
+      <c r="J27" s="73">
+        <v>4</v>
+      </c>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73">
         <v>6.090103</v>
       </c>
-      <c r="N27" s="29" t="s">
+      <c r="N27" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="O27" s="29">
+      <c r="O27" s="106">
         <v>10</v>
       </c>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29">
-        <v>4</v>
-      </c>
-      <c r="R27" s="31"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="P27" s="106"/>
+      <c r="Q27" s="106">
+        <v>4</v>
+      </c>
+      <c r="R27" s="111"/>
+    </row>
+    <row r="28" spans="1:18" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4">
-        <v>4</v>
-      </c>
-      <c r="E28" s="4">
-        <v>4</v>
-      </c>
-      <c r="F28" s="4">
-        <v>4</v>
-      </c>
-      <c r="G28" s="4">
+      <c r="C28" s="73"/>
+      <c r="D28" s="73">
+        <v>4</v>
+      </c>
+      <c r="E28" s="73">
+        <v>4</v>
+      </c>
+      <c r="F28" s="73">
+        <v>4</v>
+      </c>
+      <c r="G28" s="73">
         <v>0</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="73">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4">
-        <v>4</v>
-      </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4">
+      <c r="I28" s="73"/>
+      <c r="J28" s="73">
+        <v>4</v>
+      </c>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73">
         <v>6.090103</v>
       </c>
-      <c r="N28" s="49" t="s">
+      <c r="N28" s="112" t="s">
         <v>233</v>
       </c>
-      <c r="O28" s="49">
-        <v>4</v>
-      </c>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="31"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="O28" s="112">
+        <v>4</v>
+      </c>
+      <c r="P28" s="112"/>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="111"/>
+    </row>
+    <row r="29" spans="1:18" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="4">
-        <v>6</v>
-      </c>
-      <c r="D29" s="4">
-        <v>6</v>
-      </c>
-      <c r="E29" s="4">
-        <v>4</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4">
-        <v>6</v>
-      </c>
-      <c r="H29" s="4">
+      <c r="C29" s="73">
+        <v>6</v>
+      </c>
+      <c r="D29" s="73">
+        <v>6</v>
+      </c>
+      <c r="E29" s="73">
+        <v>4</v>
+      </c>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73">
+        <v>6</v>
+      </c>
+      <c r="H29" s="73">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4">
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73">
         <v>3</v>
       </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4">
+      <c r="L29" s="73"/>
+      <c r="M29" s="73">
         <v>6.090103</v>
       </c>
-      <c r="N29" s="29" t="s">
+      <c r="N29" s="106" t="s">
         <v>242</v>
       </c>
-      <c r="O29" s="29">
-        <v>8</v>
-      </c>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29">
-        <v>4</v>
-      </c>
-      <c r="R29" s="28"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="O29" s="106">
+        <v>8</v>
+      </c>
+      <c r="P29" s="106"/>
+      <c r="Q29" s="106">
+        <v>4</v>
+      </c>
+      <c r="R29" s="74"/>
+    </row>
+    <row r="30" spans="1:18" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="4">
-        <v>8</v>
-      </c>
-      <c r="D30" s="4">
-        <v>6</v>
-      </c>
-      <c r="E30" s="4">
-        <v>4</v>
-      </c>
-      <c r="F30" s="4">
-        <v>4</v>
-      </c>
-      <c r="G30" s="4">
-        <v>8</v>
-      </c>
-      <c r="H30" s="4">
+      <c r="C30" s="73">
+        <v>8</v>
+      </c>
+      <c r="D30" s="73">
+        <v>6</v>
+      </c>
+      <c r="E30" s="73">
+        <v>4</v>
+      </c>
+      <c r="F30" s="73">
+        <v>4</v>
+      </c>
+      <c r="G30" s="73">
+        <v>8</v>
+      </c>
+      <c r="H30" s="73">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4">
-        <v>4</v>
-      </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4">
+      <c r="I30" s="73"/>
+      <c r="J30" s="73">
+        <v>4</v>
+      </c>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73">
         <v>6.090103</v>
       </c>
-      <c r="N30" s="29" t="s">
+      <c r="N30" s="106" t="s">
         <v>233</v>
       </c>
-      <c r="O30" s="29">
+      <c r="O30" s="106">
         <v>10</v>
       </c>
-      <c r="P30" s="29">
-        <v>4</v>
-      </c>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="28"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="P30" s="106">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="107"/>
+      <c r="R30" s="74"/>
+    </row>
+    <row r="31" spans="1:18" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="4">
-        <v>4</v>
-      </c>
-      <c r="D31" s="4">
-        <v>6</v>
-      </c>
-      <c r="E31" s="4">
-        <v>4</v>
-      </c>
-      <c r="F31" s="4">
-        <v>4</v>
-      </c>
-      <c r="G31" s="4">
-        <v>4</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="C31" s="73">
+        <v>4</v>
+      </c>
+      <c r="D31" s="73">
+        <v>6</v>
+      </c>
+      <c r="E31" s="73">
+        <v>4</v>
+      </c>
+      <c r="F31" s="73">
+        <v>4</v>
+      </c>
+      <c r="G31" s="73">
+        <v>4</v>
+      </c>
+      <c r="H31" s="73">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4">
+      <c r="I31" s="73"/>
+      <c r="J31" s="73">
         <v>3</v>
       </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4">
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73">
         <v>6.090103</v>
       </c>
-      <c r="N31" s="29" t="s">
+      <c r="N31" s="106" t="s">
         <v>213</v>
       </c>
-      <c r="O31" s="29">
-        <v>8</v>
-      </c>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29">
-        <v>2</v>
-      </c>
-      <c r="R31" s="32"/>
-    </row>
-    <row r="32" spans="1:18" s="80" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="85" t="s">
+      <c r="O31" s="106">
+        <v>8</v>
+      </c>
+      <c r="P31" s="106"/>
+      <c r="Q31" s="106">
+        <v>2</v>
+      </c>
+      <c r="R31" s="113"/>
+    </row>
+    <row r="32" spans="1:18" s="75" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="87" t="s">
+      <c r="B32" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="87">
-        <v>6</v>
-      </c>
-      <c r="D32" s="87">
-        <v>4</v>
-      </c>
-      <c r="E32" s="87">
-        <v>4</v>
-      </c>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87">
-        <v>4</v>
-      </c>
-      <c r="H32" s="87">
+      <c r="C32" s="82">
+        <v>6</v>
+      </c>
+      <c r="D32" s="82">
+        <v>4</v>
+      </c>
+      <c r="E32" s="82">
+        <v>4</v>
+      </c>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82">
+        <v>4</v>
+      </c>
+      <c r="H32" s="82">
         <f>Таблица2[[#This Row],[Годин 1 заїзд]]+Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I32" s="87"/>
-      <c r="J32" s="87">
+      <c r="I32" s="82"/>
+      <c r="J32" s="82">
         <v>3</v>
       </c>
-      <c r="K32" s="87"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="87">
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82">
         <v>6.090103</v>
       </c>
-      <c r="N32" s="113" t="s">
+      <c r="N32" s="108" t="s">
         <v>201</v>
       </c>
-      <c r="O32" s="113">
-        <v>6</v>
-      </c>
-      <c r="P32" s="113">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="114"/>
-      <c r="R32" s="115"/>
+      <c r="O32" s="108">
+        <v>6</v>
+      </c>
+      <c r="P32" s="108">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="109"/>
+      <c r="R32" s="110"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8544,8 +8556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8569,475 +8581,475 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="N1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="24" t="s">
+      <c r="N1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="24" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="4">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" s="73">
+        <v>8</v>
+      </c>
+      <c r="D2" s="73">
         <v>16</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4">
-        <v>8</v>
-      </c>
-      <c r="H2" s="16">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73">
+        <v>8</v>
+      </c>
+      <c r="H2" s="68">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>16</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16">
-        <v>2</v>
-      </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4">
+      <c r="I2" s="68"/>
+      <c r="J2" s="68">
+        <v>2</v>
+      </c>
+      <c r="K2" s="68"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="79" t="s">
         <v>202</v>
       </c>
-      <c r="O2" s="17">
+      <c r="O2" s="79">
         <v>12</v>
       </c>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="13">
+      <c r="P2" s="79"/>
+      <c r="Q2" s="115">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="4">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4">
-        <v>8</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="C3" s="73">
+        <v>8</v>
+      </c>
+      <c r="D3" s="73">
+        <v>8</v>
+      </c>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73">
+        <v>8</v>
+      </c>
+      <c r="H3" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>8</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4">
-        <v>2</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4">
+      <c r="I3" s="73"/>
+      <c r="J3" s="73">
+        <v>2</v>
+      </c>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="70">
         <v>12</v>
       </c>
-      <c r="P3" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="12"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="P3" s="70">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="71"/>
+    </row>
+    <row r="4" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="4">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
-        <v>8</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="C4" s="73">
+        <v>8</v>
+      </c>
+      <c r="D4" s="73">
+        <v>6</v>
+      </c>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73">
+        <v>8</v>
+      </c>
+      <c r="H4" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4">
-        <v>2</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4">
+      <c r="I4" s="73"/>
+      <c r="J4" s="73">
+        <v>2</v>
+      </c>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="70">
         <v>10</v>
       </c>
-      <c r="P4" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="12"/>
-    </row>
-    <row r="5" spans="1:17" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="s">
+      <c r="P4" s="73">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="71"/>
+    </row>
+    <row r="5" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="78">
-        <v>6</v>
-      </c>
-      <c r="D5" s="78">
+      <c r="C5" s="73">
+        <v>6</v>
+      </c>
+      <c r="D5" s="73">
         <v>4</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="78">
-        <v>6</v>
-      </c>
-      <c r="H5" s="78">
+      <c r="G5" s="73">
+        <v>6</v>
+      </c>
+      <c r="H5" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78">
-        <v>2</v>
-      </c>
-      <c r="L5" s="78"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73">
+        <v>2</v>
+      </c>
+      <c r="L5" s="73"/>
       <c r="M5" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N5" s="75" t="s">
+      <c r="N5" s="70" t="s">
         <v>218</v>
       </c>
-      <c r="O5" s="75">
-        <v>6</v>
-      </c>
-      <c r="P5" s="78">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="76"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+      <c r="O5" s="70">
+        <v>6</v>
+      </c>
+      <c r="P5" s="73">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="71"/>
+    </row>
+    <row r="6" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="67">
-        <v>6</v>
-      </c>
-      <c r="D6" s="67">
-        <v>4</v>
-      </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67">
-        <v>8</v>
-      </c>
-      <c r="H6" s="67">
+      <c r="C6" s="94">
+        <v>6</v>
+      </c>
+      <c r="D6" s="94">
+        <v>4</v>
+      </c>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94">
+        <v>8</v>
+      </c>
+      <c r="H6" s="94">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67">
-        <v>2</v>
-      </c>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67">
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94">
+        <v>2</v>
+      </c>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N6" s="66" t="s">
+      <c r="N6" s="114" t="s">
         <v>202</v>
       </c>
-      <c r="O6" s="66">
-        <v>8</v>
-      </c>
-      <c r="P6" s="66">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="66"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="O6" s="114">
+        <v>8</v>
+      </c>
+      <c r="P6" s="114">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="114"/>
+    </row>
+    <row r="7" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="4">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
-        <v>6</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="C7" s="73">
+        <v>6</v>
+      </c>
+      <c r="D7" s="73">
+        <v>8</v>
+      </c>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73">
+        <v>6</v>
+      </c>
+      <c r="H7" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>8</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4">
-        <v>2</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4">
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73">
+        <v>2</v>
+      </c>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="70" t="s">
         <v>245</v>
       </c>
-      <c r="O7" s="3">
-        <v>6</v>
-      </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="12">
+      <c r="O7" s="70">
+        <v>6</v>
+      </c>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="71">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="73">
         <v>10</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="73">
         <v>10</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="73">
         <v>10</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
+      <c r="F8" s="73"/>
+      <c r="G8" s="73">
         <v>10</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>10</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4">
+      <c r="I8" s="73"/>
+      <c r="J8" s="73">
         <v>3</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4">
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="70">
         <v>20</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="12"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="P8" s="70"/>
+      <c r="Q8" s="71"/>
+    </row>
+    <row r="9" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="73" t="s">
         <v>246</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4">
-        <v>6</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
+      <c r="C9" s="73"/>
+      <c r="D9" s="73">
+        <v>8</v>
+      </c>
+      <c r="E9" s="73">
+        <v>6</v>
+      </c>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73">
         <v>0</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>8</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4">
+      <c r="I9" s="73"/>
+      <c r="J9" s="73">
         <v>3</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4">
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="70" t="s">
         <v>245</v>
       </c>
-      <c r="O9" s="3">
-        <v>8</v>
-      </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="12"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="O9" s="70">
+        <v>8</v>
+      </c>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="71"/>
+    </row>
+    <row r="10" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4">
-        <v>6</v>
-      </c>
-      <c r="E10" s="4">
-        <v>4</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4">
+      <c r="C10" s="73"/>
+      <c r="D10" s="73">
+        <v>6</v>
+      </c>
+      <c r="E10" s="73">
+        <v>4</v>
+      </c>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73">
         <v>0</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4">
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73">
         <v>3</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4">
+      <c r="L10" s="73"/>
+      <c r="M10" s="73">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="O10" s="10">
-        <v>6</v>
-      </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="12"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="O10" s="78">
+        <v>6</v>
+      </c>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="71"/>
+    </row>
+    <row r="11" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4">
-        <v>6</v>
-      </c>
-      <c r="E11" s="4">
-        <v>6</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="C11" s="73"/>
+      <c r="D11" s="73">
+        <v>6</v>
+      </c>
+      <c r="E11" s="73">
+        <v>6</v>
+      </c>
+      <c r="F11" s="73">
+        <v>2</v>
+      </c>
+      <c r="G11" s="73">
         <v>0</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I11" s="4">
-        <v>4</v>
-      </c>
-      <c r="J11" s="4">
-        <v>4</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4">
+      <c r="I11" s="73">
+        <v>4</v>
+      </c>
+      <c r="J11" s="73">
+        <v>4</v>
+      </c>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="78" t="s">
         <v>256</v>
       </c>
-      <c r="O11" s="10">
-        <v>6</v>
-      </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="12"/>
+      <c r="O11" s="78">
+        <v>6</v>
+      </c>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="71"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -9146,7 +9158,7 @@
       <c r="M14" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N14" s="17" t="s">
+      <c r="N14" s="16" t="s">
         <v>204</v>
       </c>
       <c r="O14" s="3"/>
@@ -9184,226 +9196,226 @@
       <c r="M15" s="4">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N15" s="29" t="s">
+      <c r="N15" s="28" t="s">
         <v>247</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="12"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="4">
-        <v>6</v>
-      </c>
-      <c r="D16" s="4">
-        <v>6</v>
-      </c>
-      <c r="E16" s="4">
-        <v>4</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4">
-        <v>6</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="C16" s="73">
+        <v>6</v>
+      </c>
+      <c r="D16" s="73">
+        <v>6</v>
+      </c>
+      <c r="E16" s="73">
+        <v>4</v>
+      </c>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73">
+        <v>6</v>
+      </c>
+      <c r="H16" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4">
+      <c r="I16" s="73"/>
+      <c r="J16" s="73">
         <v>3</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4">
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73">
         <v>6.080101</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="N16" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="O16" s="10">
-        <v>8</v>
-      </c>
-      <c r="P16" s="10">
-        <v>4</v>
-      </c>
-      <c r="Q16" s="12"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
+      <c r="O16" s="78">
+        <v>8</v>
+      </c>
+      <c r="P16" s="78">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="71"/>
+    </row>
+    <row r="17" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="67">
-        <v>4</v>
-      </c>
-      <c r="D17" s="67">
-        <v>4</v>
-      </c>
-      <c r="E17" s="67">
-        <v>6</v>
-      </c>
-      <c r="F17" s="67">
-        <v>6</v>
-      </c>
-      <c r="G17" s="67">
+      <c r="C17" s="94">
+        <v>4</v>
+      </c>
+      <c r="D17" s="94">
+        <v>4</v>
+      </c>
+      <c r="E17" s="94">
+        <v>6</v>
+      </c>
+      <c r="F17" s="94">
+        <v>6</v>
+      </c>
+      <c r="G17" s="94">
         <v>0</v>
       </c>
-      <c r="H17" s="67">
+      <c r="H17" s="94">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>8</v>
       </c>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67">
-        <v>4</v>
-      </c>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67">
+      <c r="I17" s="94"/>
+      <c r="J17" s="94">
+        <v>4</v>
+      </c>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94">
         <v>6.080101</v>
       </c>
-      <c r="N17" s="68" t="s">
+      <c r="N17" s="116" t="s">
         <v>212</v>
       </c>
-      <c r="O17" s="68">
-        <v>8</v>
-      </c>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68">
+      <c r="O17" s="116">
+        <v>8</v>
+      </c>
+      <c r="P17" s="116"/>
+      <c r="Q17" s="116">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="4">
-        <v>4</v>
-      </c>
-      <c r="D18" s="4">
-        <v>6</v>
-      </c>
-      <c r="E18" s="4">
-        <v>4</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4">
-        <v>4</v>
-      </c>
-      <c r="H18" s="4">
+      <c r="C18" s="73">
+        <v>4</v>
+      </c>
+      <c r="D18" s="73">
+        <v>6</v>
+      </c>
+      <c r="E18" s="73">
+        <v>4</v>
+      </c>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73">
+        <v>4</v>
+      </c>
+      <c r="H18" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4">
+      <c r="I18" s="73"/>
+      <c r="J18" s="73">
         <v>3</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4">
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73">
         <v>6.080101</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="N18" s="78" t="s">
         <v>248</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="70">
         <v>10</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="12"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="P18" s="70"/>
+      <c r="Q18" s="71"/>
+    </row>
+    <row r="19" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="4">
-        <v>6</v>
-      </c>
-      <c r="D19" s="4">
-        <v>6</v>
-      </c>
-      <c r="E19" s="4">
-        <v>8</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4">
-        <v>6</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="C19" s="73">
+        <v>6</v>
+      </c>
+      <c r="D19" s="73">
+        <v>6</v>
+      </c>
+      <c r="E19" s="73">
+        <v>8</v>
+      </c>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73">
+        <v>6</v>
+      </c>
+      <c r="H19" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4">
+      <c r="I19" s="73"/>
+      <c r="J19" s="73">
         <v>3</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4">
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73">
         <v>6.080101</v>
       </c>
-      <c r="N19" s="10" t="s">
+      <c r="N19" s="78" t="s">
         <v>219</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="78">
         <v>10</v>
       </c>
-      <c r="P19" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="12"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="P19" s="78">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="71"/>
+    </row>
+    <row r="20" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4">
-        <v>8</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4">
+      <c r="C20" s="73"/>
+      <c r="D20" s="73">
+        <v>8</v>
+      </c>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73">
         <v>0</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>8</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4">
-        <v>2</v>
-      </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4">
+      <c r="I20" s="73"/>
+      <c r="J20" s="73">
+        <v>2</v>
+      </c>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73">
         <v>6.080101</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="O20" s="3">
-        <v>8</v>
-      </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="12"/>
+      <c r="O20" s="70">
+        <v>8</v>
+      </c>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="71"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
@@ -9443,301 +9455,301 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="12"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="4">
-        <v>8</v>
-      </c>
-      <c r="D22" s="4">
-        <v>2</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4">
-        <v>8</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="C22" s="73">
+        <v>8</v>
+      </c>
+      <c r="D22" s="73">
+        <v>2</v>
+      </c>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73">
+        <v>8</v>
+      </c>
+      <c r="H22" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4">
-        <v>2</v>
-      </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4">
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73">
+        <v>2</v>
+      </c>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73">
         <v>6.080101</v>
       </c>
-      <c r="N22" s="10" t="s">
+      <c r="N22" s="78" t="s">
         <v>249</v>
       </c>
-      <c r="O22" s="10">
-        <v>8</v>
-      </c>
-      <c r="P22" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="12"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="O22" s="78">
+        <v>8</v>
+      </c>
+      <c r="P22" s="78">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="71"/>
+    </row>
+    <row r="23" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="4">
-        <v>4</v>
-      </c>
-      <c r="D23" s="4">
-        <v>4</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4">
-        <v>4</v>
-      </c>
-      <c r="H23" s="4">
+      <c r="C23" s="73">
+        <v>4</v>
+      </c>
+      <c r="D23" s="73">
+        <v>4</v>
+      </c>
+      <c r="E23" s="73">
+        <v>2</v>
+      </c>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73">
+        <v>4</v>
+      </c>
+      <c r="H23" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4">
+      <c r="I23" s="73"/>
+      <c r="J23" s="73">
         <v>3</v>
       </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4">
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73">
         <v>6.080101</v>
       </c>
-      <c r="N23" s="10" t="s">
+      <c r="N23" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="O23" s="10">
-        <v>8</v>
-      </c>
-      <c r="P23" s="10">
+      <c r="O23" s="78">
+        <v>8</v>
+      </c>
+      <c r="P23" s="78">
         <v>0</v>
       </c>
-      <c r="Q23" s="12"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="Q23" s="71"/>
+    </row>
+    <row r="24" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="4">
-        <v>4</v>
-      </c>
-      <c r="D24" s="4">
-        <v>4</v>
-      </c>
-      <c r="E24" s="4">
-        <v>2</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4">
-        <v>4</v>
-      </c>
-      <c r="H24" s="4">
+      <c r="C24" s="73">
+        <v>4</v>
+      </c>
+      <c r="D24" s="73">
+        <v>4</v>
+      </c>
+      <c r="E24" s="73">
+        <v>2</v>
+      </c>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73">
+        <v>4</v>
+      </c>
+      <c r="H24" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4">
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73">
         <v>3</v>
       </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4">
+      <c r="L24" s="73"/>
+      <c r="M24" s="73">
         <v>6.080101</v>
       </c>
-      <c r="N24" s="10" t="s">
+      <c r="N24" s="78" t="s">
         <v>236</v>
       </c>
-      <c r="O24" s="10">
-        <v>8</v>
-      </c>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="33">
+      <c r="O24" s="78">
+        <v>8</v>
+      </c>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="117">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="4">
-        <v>6</v>
-      </c>
-      <c r="D25" s="4">
-        <v>4</v>
-      </c>
-      <c r="E25" s="4">
-        <v>2</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4">
-        <v>6</v>
-      </c>
-      <c r="H25" s="4">
+      <c r="C25" s="73">
+        <v>6</v>
+      </c>
+      <c r="D25" s="73">
+        <v>4</v>
+      </c>
+      <c r="E25" s="73">
+        <v>2</v>
+      </c>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73">
+        <v>6</v>
+      </c>
+      <c r="H25" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4">
-        <v>4</v>
-      </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4">
+      <c r="I25" s="73"/>
+      <c r="J25" s="73">
+        <v>4</v>
+      </c>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73">
         <v>6.080101</v>
       </c>
-      <c r="N25" s="10" t="s">
+      <c r="N25" s="78" t="s">
         <v>250</v>
       </c>
-      <c r="O25" s="10">
+      <c r="O25" s="78">
         <v>10</v>
       </c>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="12"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="P25" s="70"/>
+      <c r="Q25" s="71"/>
+    </row>
+    <row r="26" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="4">
-        <v>4</v>
-      </c>
-      <c r="D26" s="4">
-        <v>6</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4">
-        <v>4</v>
-      </c>
-      <c r="H26" s="4">
+      <c r="C26" s="73">
+        <v>4</v>
+      </c>
+      <c r="D26" s="73">
+        <v>6</v>
+      </c>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73">
+        <v>4</v>
+      </c>
+      <c r="H26" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4">
-        <v>2</v>
-      </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4">
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73">
+        <v>2</v>
+      </c>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73">
         <v>6.080101</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="N26" s="70" t="s">
         <v>217</v>
       </c>
-      <c r="O26" s="3">
-        <v>8</v>
-      </c>
-      <c r="P26" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="12"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="O26" s="70">
+        <v>8</v>
+      </c>
+      <c r="P26" s="70">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="71"/>
+    </row>
+    <row r="27" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="4">
-        <v>6</v>
-      </c>
-      <c r="D27" s="4">
-        <v>4</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4">
-        <v>6</v>
-      </c>
-      <c r="H27" s="4">
+      <c r="C27" s="73">
+        <v>6</v>
+      </c>
+      <c r="D27" s="73">
+        <v>4</v>
+      </c>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73">
+        <v>6</v>
+      </c>
+      <c r="H27" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4">
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73">
         <v>3</v>
       </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4">
+      <c r="L27" s="73"/>
+      <c r="M27" s="73">
         <v>6.080101</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="N27" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="O27" s="3">
-        <v>6</v>
-      </c>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="O27" s="70">
+        <v>6</v>
+      </c>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="4">
-        <v>4</v>
-      </c>
-      <c r="D28" s="4">
-        <v>6</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4">
-        <v>4</v>
-      </c>
-      <c r="H28" s="4">
+      <c r="C28" s="73">
+        <v>4</v>
+      </c>
+      <c r="D28" s="73">
+        <v>6</v>
+      </c>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73">
+        <v>4</v>
+      </c>
+      <c r="H28" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4">
-        <v>2</v>
-      </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4">
+      <c r="I28" s="73"/>
+      <c r="J28" s="73">
+        <v>2</v>
+      </c>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73">
         <v>6.080101</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="N28" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="O28" s="3">
-        <v>6</v>
-      </c>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="12">
+      <c r="O28" s="70">
+        <v>6</v>
+      </c>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="71">
         <v>4</v>
       </c>
     </row>
@@ -9772,7 +9784,7 @@
       <c r="M29" s="4">
         <v>6.080101</v>
       </c>
-      <c r="N29" s="17" t="s">
+      <c r="N29" s="16" t="s">
         <v>242</v>
       </c>
       <c r="O29" s="3"/>
@@ -9780,646 +9792,646 @@
       <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4">
-        <v>6</v>
-      </c>
-      <c r="E30" s="4">
-        <v>4</v>
-      </c>
-      <c r="F30" s="4">
-        <v>2</v>
-      </c>
-      <c r="G30" s="4">
+      <c r="C30" s="73"/>
+      <c r="D30" s="73">
+        <v>6</v>
+      </c>
+      <c r="E30" s="73">
+        <v>4</v>
+      </c>
+      <c r="F30" s="73">
+        <v>2</v>
+      </c>
+      <c r="G30" s="73">
         <v>0</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I30" s="4">
-        <v>4</v>
-      </c>
-      <c r="J30" s="4">
-        <v>4</v>
-      </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4">
+      <c r="I30" s="73">
+        <v>4</v>
+      </c>
+      <c r="J30" s="73">
+        <v>4</v>
+      </c>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73">
         <v>6.080101</v>
       </c>
-      <c r="N30" s="10" t="s">
+      <c r="N30" s="78" t="s">
         <v>223</v>
       </c>
-      <c r="O30" s="10">
-        <v>6</v>
-      </c>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="33">
+      <c r="O30" s="78">
+        <v>6</v>
+      </c>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="117">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="93" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="81" t="s">
+    <row r="31" spans="1:17" s="88" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="78">
-        <v>6</v>
-      </c>
-      <c r="D31" s="78">
-        <v>2</v>
-      </c>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78">
-        <v>6</v>
-      </c>
-      <c r="H31" s="78">
+      <c r="C31" s="73">
+        <v>6</v>
+      </c>
+      <c r="D31" s="73">
+        <v>2</v>
+      </c>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73">
+        <v>6</v>
+      </c>
+      <c r="H31" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78">
-        <v>2</v>
-      </c>
-      <c r="L31" s="78" t="s">
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73">
+        <v>2</v>
+      </c>
+      <c r="L31" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="M31" s="78"/>
-      <c r="N31" s="75" t="s">
+      <c r="M31" s="73"/>
+      <c r="N31" s="70" t="s">
         <v>283</v>
       </c>
-      <c r="O31" s="75"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="76"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="O31" s="70"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="71"/>
+    </row>
+    <row r="32" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="4">
-        <v>4</v>
-      </c>
-      <c r="D32" s="4">
-        <v>4</v>
-      </c>
-      <c r="E32" s="4">
-        <v>4</v>
-      </c>
-      <c r="F32" s="4">
-        <v>2</v>
-      </c>
-      <c r="G32" s="4">
-        <v>4</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="C32" s="73">
+        <v>4</v>
+      </c>
+      <c r="D32" s="73">
+        <v>4</v>
+      </c>
+      <c r="E32" s="73">
+        <v>4</v>
+      </c>
+      <c r="F32" s="73">
+        <v>2</v>
+      </c>
+      <c r="G32" s="73">
+        <v>4</v>
+      </c>
+      <c r="H32" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4">
-        <v>4</v>
-      </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4">
+      <c r="I32" s="73"/>
+      <c r="J32" s="73">
+        <v>4</v>
+      </c>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73">
         <v>6.090103</v>
       </c>
-      <c r="N32" s="10" t="s">
+      <c r="N32" s="78" t="s">
         <v>251</v>
       </c>
-      <c r="O32" s="10">
-        <v>6</v>
-      </c>
-      <c r="P32" s="29">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="12"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="O32" s="78">
+        <v>6</v>
+      </c>
+      <c r="P32" s="106">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="71"/>
+    </row>
+    <row r="33" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4">
-        <v>4</v>
-      </c>
-      <c r="E33" s="4">
-        <v>4</v>
-      </c>
-      <c r="F33" s="4">
-        <v>6</v>
-      </c>
-      <c r="G33" s="4">
+      <c r="C33" s="73"/>
+      <c r="D33" s="73">
+        <v>4</v>
+      </c>
+      <c r="E33" s="73">
+        <v>4</v>
+      </c>
+      <c r="F33" s="73">
+        <v>6</v>
+      </c>
+      <c r="G33" s="73">
         <v>0</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4">
-        <v>4</v>
-      </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4">
+      <c r="I33" s="73"/>
+      <c r="J33" s="73">
+        <v>4</v>
+      </c>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73">
         <v>6.090103</v>
       </c>
-      <c r="N33" s="10" t="s">
+      <c r="N33" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="O33" s="10">
-        <v>4</v>
-      </c>
-      <c r="P33" s="10">
+      <c r="O33" s="78">
+        <v>4</v>
+      </c>
+      <c r="P33" s="78">
         <v>0</v>
       </c>
-      <c r="Q33" s="33"/>
-    </row>
-    <row r="34" spans="1:17" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="81" t="s">
+      <c r="Q33" s="117"/>
+    </row>
+    <row r="34" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="78" t="s">
+      <c r="B34" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="78">
-        <v>6</v>
-      </c>
-      <c r="D34" s="78">
-        <v>2</v>
-      </c>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78">
-        <v>6</v>
-      </c>
-      <c r="H34" s="78">
+      <c r="C34" s="73">
+        <v>6</v>
+      </c>
+      <c r="D34" s="73">
+        <v>2</v>
+      </c>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73">
+        <v>6</v>
+      </c>
+      <c r="H34" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78">
-        <v>2</v>
-      </c>
-      <c r="L34" s="78"/>
-      <c r="M34" s="78">
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73">
+        <v>2</v>
+      </c>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73">
         <v>6.090103</v>
       </c>
-      <c r="N34" s="93" t="s">
+      <c r="N34" s="88" t="s">
         <v>285</v>
       </c>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="76"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="O34" s="70"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="71"/>
+    </row>
+    <row r="35" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="4">
-        <v>6</v>
-      </c>
-      <c r="D35" s="4">
-        <v>6</v>
-      </c>
-      <c r="E35" s="4">
-        <v>6</v>
-      </c>
-      <c r="F35" s="4">
-        <v>6</v>
-      </c>
-      <c r="G35" s="4">
-        <v>6</v>
-      </c>
-      <c r="H35" s="4">
+      <c r="C35" s="73">
+        <v>6</v>
+      </c>
+      <c r="D35" s="73">
+        <v>6</v>
+      </c>
+      <c r="E35" s="73">
+        <v>6</v>
+      </c>
+      <c r="F35" s="73">
+        <v>6</v>
+      </c>
+      <c r="G35" s="73">
+        <v>6</v>
+      </c>
+      <c r="H35" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="73">
         <v>3</v>
       </c>
-      <c r="J35" s="4">
-        <v>4</v>
-      </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4">
+      <c r="J35" s="73">
+        <v>4</v>
+      </c>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73">
         <v>6.090103</v>
       </c>
-      <c r="N35" s="10" t="s">
+      <c r="N35" s="78" t="s">
         <v>252</v>
       </c>
-      <c r="O35" s="10">
+      <c r="O35" s="78">
         <v>12</v>
       </c>
-      <c r="P35" s="4">
+      <c r="P35" s="73">
         <v>0</v>
       </c>
-      <c r="Q35" s="12"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="Q35" s="71"/>
+    </row>
+    <row r="36" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="4">
-        <v>6</v>
-      </c>
-      <c r="D36" s="4">
-        <v>4</v>
-      </c>
-      <c r="E36" s="4">
-        <v>4</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4">
-        <v>6</v>
-      </c>
-      <c r="H36" s="4">
+      <c r="C36" s="73">
+        <v>6</v>
+      </c>
+      <c r="D36" s="73">
+        <v>4</v>
+      </c>
+      <c r="E36" s="73">
+        <v>4</v>
+      </c>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73">
+        <v>6</v>
+      </c>
+      <c r="H36" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4">
+      <c r="I36" s="73"/>
+      <c r="J36" s="73">
         <v>3</v>
       </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4">
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73">
         <v>6.090103</v>
       </c>
-      <c r="N36" s="10" t="s">
+      <c r="N36" s="78" t="s">
         <v>243</v>
       </c>
-      <c r="O36" s="10">
-        <v>6</v>
-      </c>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="O36" s="78">
+        <v>6</v>
+      </c>
+      <c r="P36" s="78"/>
+      <c r="Q36" s="117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="4">
-        <v>4</v>
-      </c>
-      <c r="D37" s="4">
-        <v>6</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4">
-        <v>4</v>
-      </c>
-      <c r="H37" s="4">
+      <c r="C37" s="73">
+        <v>4</v>
+      </c>
+      <c r="D37" s="73">
+        <v>6</v>
+      </c>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73">
+        <v>4</v>
+      </c>
+      <c r="H37" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4">
-        <v>2</v>
-      </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4">
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73">
+        <v>2</v>
+      </c>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73">
         <v>6.090103</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="N37" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="O37" s="3">
-        <v>4</v>
-      </c>
-      <c r="P37" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q37" s="12"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="O37" s="70">
+        <v>4</v>
+      </c>
+      <c r="P37" s="70">
+        <v>6</v>
+      </c>
+      <c r="Q37" s="71"/>
+    </row>
+    <row r="38" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="4">
-        <v>4</v>
-      </c>
-      <c r="D38" s="4">
-        <v>4</v>
-      </c>
-      <c r="E38" s="4">
-        <v>2</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4">
-        <v>4</v>
-      </c>
-      <c r="H38" s="4">
+      <c r="C38" s="73">
+        <v>4</v>
+      </c>
+      <c r="D38" s="73">
+        <v>4</v>
+      </c>
+      <c r="E38" s="73">
+        <v>2</v>
+      </c>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73">
+        <v>4</v>
+      </c>
+      <c r="H38" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4">
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73">
         <v>3</v>
       </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4">
+      <c r="L38" s="73"/>
+      <c r="M38" s="73">
         <v>6.090103</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="N38" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="12"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="O38" s="70"/>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="71"/>
+    </row>
+    <row r="39" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="4">
-        <v>4</v>
-      </c>
-      <c r="D39" s="4">
-        <v>6</v>
-      </c>
-      <c r="E39" s="4">
-        <v>4</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4">
-        <v>4</v>
-      </c>
-      <c r="H39" s="4">
+      <c r="C39" s="73">
+        <v>4</v>
+      </c>
+      <c r="D39" s="73">
+        <v>6</v>
+      </c>
+      <c r="E39" s="73">
+        <v>4</v>
+      </c>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73">
+        <v>4</v>
+      </c>
+      <c r="H39" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4">
+      <c r="I39" s="73"/>
+      <c r="J39" s="73">
         <v>3</v>
       </c>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4">
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73">
         <v>6.090103</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="N39" s="70" t="s">
         <v>252</v>
       </c>
-      <c r="O39" s="3">
-        <v>6</v>
-      </c>
-      <c r="P39" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q39" s="12"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="O39" s="70">
+        <v>6</v>
+      </c>
+      <c r="P39" s="73">
+        <v>4</v>
+      </c>
+      <c r="Q39" s="71"/>
+    </row>
+    <row r="40" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="4">
-        <v>4</v>
-      </c>
-      <c r="D40" s="4">
-        <v>6</v>
-      </c>
-      <c r="E40" s="4">
-        <v>4</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4">
-        <v>4</v>
-      </c>
-      <c r="H40" s="4">
+      <c r="C40" s="73">
+        <v>4</v>
+      </c>
+      <c r="D40" s="73">
+        <v>6</v>
+      </c>
+      <c r="E40" s="73">
+        <v>4</v>
+      </c>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73">
+        <v>4</v>
+      </c>
+      <c r="H40" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4">
+      <c r="I40" s="73"/>
+      <c r="J40" s="73">
         <v>3</v>
       </c>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4">
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73">
         <v>6.090103</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="N40" s="70" t="s">
         <v>244</v>
       </c>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="12"/>
-    </row>
-    <row r="41" spans="1:17" s="93" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="81" t="s">
+      <c r="O40" s="79"/>
+      <c r="P40" s="79"/>
+      <c r="Q40" s="71"/>
+    </row>
+    <row r="41" spans="1:17" s="88" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78">
-        <v>4</v>
-      </c>
-      <c r="E41" s="78">
-        <v>4</v>
-      </c>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78">
+      <c r="C41" s="73"/>
+      <c r="D41" s="73">
+        <v>4</v>
+      </c>
+      <c r="E41" s="73">
+        <v>4</v>
+      </c>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73">
         <v>0</v>
       </c>
-      <c r="H41" s="78">
+      <c r="H41" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78">
+      <c r="I41" s="73"/>
+      <c r="J41" s="73">
         <v>3</v>
       </c>
-      <c r="K41" s="78"/>
-      <c r="L41" s="78" t="s">
+      <c r="K41" s="73"/>
+      <c r="L41" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="M41" s="78"/>
-      <c r="N41" s="75" t="s">
+      <c r="M41" s="73"/>
+      <c r="N41" s="70" t="s">
         <v>284</v>
       </c>
-      <c r="O41" s="75"/>
-      <c r="P41" s="75"/>
-      <c r="Q41" s="76"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="O41" s="70"/>
+      <c r="P41" s="70"/>
+      <c r="Q41" s="71"/>
+    </row>
+    <row r="42" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="4">
-        <v>6</v>
-      </c>
-      <c r="D42" s="4">
-        <v>4</v>
-      </c>
-      <c r="E42" s="4">
-        <v>4</v>
-      </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4">
-        <v>6</v>
-      </c>
-      <c r="H42" s="4">
+      <c r="C42" s="73">
+        <v>6</v>
+      </c>
+      <c r="D42" s="73">
+        <v>4</v>
+      </c>
+      <c r="E42" s="73">
+        <v>4</v>
+      </c>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73">
+        <v>6</v>
+      </c>
+      <c r="H42" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4">
+      <c r="I42" s="73"/>
+      <c r="J42" s="73">
         <v>3</v>
       </c>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4">
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73">
         <v>6.090103</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="N42" s="70" t="s">
         <v>252</v>
       </c>
-      <c r="O42" s="3">
-        <v>8</v>
-      </c>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="O42" s="70">
+        <v>8</v>
+      </c>
+      <c r="P42" s="70"/>
+      <c r="Q42" s="71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="4">
-        <v>4</v>
-      </c>
-      <c r="D43" s="4">
-        <v>4</v>
-      </c>
-      <c r="E43" s="4">
-        <v>4</v>
-      </c>
-      <c r="F43" s="4">
-        <v>2</v>
-      </c>
-      <c r="G43" s="4">
-        <v>4</v>
-      </c>
-      <c r="H43" s="4">
+      <c r="C43" s="73">
+        <v>4</v>
+      </c>
+      <c r="D43" s="73">
+        <v>4</v>
+      </c>
+      <c r="E43" s="73">
+        <v>4</v>
+      </c>
+      <c r="F43" s="73">
+        <v>2</v>
+      </c>
+      <c r="G43" s="73">
+        <v>4</v>
+      </c>
+      <c r="H43" s="73">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4">
-        <v>4</v>
-      </c>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4">
+      <c r="I43" s="73"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="73">
+        <v>4</v>
+      </c>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73">
         <v>6.090103</v>
       </c>
-      <c r="N43" s="10" t="s">
+      <c r="N43" s="78" t="s">
         <v>214</v>
       </c>
-      <c r="O43" s="10">
-        <v>6</v>
-      </c>
-      <c r="P43" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q43" s="12"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+      <c r="O43" s="78">
+        <v>6</v>
+      </c>
+      <c r="P43" s="78">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="71"/>
+    </row>
+    <row r="44" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="20">
-        <v>6</v>
-      </c>
-      <c r="D44" s="20">
-        <v>6</v>
-      </c>
-      <c r="E44" s="20">
-        <v>6</v>
-      </c>
-      <c r="F44" s="20">
-        <v>8</v>
-      </c>
-      <c r="G44" s="20">
-        <v>6</v>
-      </c>
-      <c r="H44" s="20">
+      <c r="C44" s="82">
+        <v>6</v>
+      </c>
+      <c r="D44" s="82">
+        <v>6</v>
+      </c>
+      <c r="E44" s="82">
+        <v>6</v>
+      </c>
+      <c r="F44" s="82">
+        <v>8</v>
+      </c>
+      <c r="G44" s="82">
+        <v>6</v>
+      </c>
+      <c r="H44" s="82">
         <f>Таблица3[[#This Row],[Годин 1 заїзд]]+Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20">
-        <v>4</v>
-      </c>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20">
+      <c r="I44" s="82"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="82">
+        <v>4</v>
+      </c>
+      <c r="L44" s="82"/>
+      <c r="M44" s="82">
         <v>6.090103</v>
       </c>
-      <c r="N44" s="34" t="s">
+      <c r="N44" s="118" t="s">
         <v>253</v>
       </c>
-      <c r="O44" s="34">
+      <c r="O44" s="118">
         <v>12</v>
       </c>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="21"/>
+      <c r="P44" s="81"/>
+      <c r="Q44" s="83"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
@@ -10600,8 +10612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10624,55 +10636,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="N1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="24" t="s">
+      <c r="N1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="24" t="s">
         <v>210</v>
       </c>
     </row>
@@ -10837,7 +10849,7 @@
       <c r="O5" s="10">
         <v>10</v>
       </c>
-      <c r="P5" s="29">
+      <c r="P5" s="28">
         <v>4</v>
       </c>
       <c r="Q5" s="12"/>
@@ -11046,45 +11058,45 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="1:17" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
+    <row r="11" spans="1:17" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78">
-        <v>6</v>
-      </c>
-      <c r="E11" s="78">
-        <v>6</v>
-      </c>
-      <c r="F11" s="78">
-        <v>2</v>
-      </c>
-      <c r="G11" s="78">
+      <c r="C11" s="73"/>
+      <c r="D11" s="73">
+        <v>6</v>
+      </c>
+      <c r="E11" s="73">
+        <v>6</v>
+      </c>
+      <c r="F11" s="73">
+        <v>2</v>
+      </c>
+      <c r="G11" s="73">
         <v>0</v>
       </c>
-      <c r="H11" s="78">
+      <c r="H11" s="73">
         <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78">
-        <v>4</v>
-      </c>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78">
+      <c r="I11" s="73"/>
+      <c r="J11" s="73">
+        <v>4</v>
+      </c>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N11" s="75" t="s">
+      <c r="N11" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="76"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="71"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -11286,7 +11298,7 @@
         <v>12</v>
       </c>
       <c r="P16" s="10"/>
-      <c r="Q16" s="33">
+      <c r="Q16" s="30">
         <v>2</v>
       </c>
     </row>
@@ -11408,7 +11420,7 @@
         <v>8</v>
       </c>
       <c r="P19" s="10"/>
-      <c r="Q19" s="33">
+      <c r="Q19" s="30">
         <v>0</v>
       </c>
     </row>
@@ -11618,42 +11630,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+    <row r="25" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36">
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33">
         <v>10</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="33">
         <v>0</v>
       </c>
-      <c r="H25" s="36">
+      <c r="H25" s="33">
         <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
         <v>0</v>
       </c>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36">
-        <v>4</v>
-      </c>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36">
+      <c r="I25" s="33"/>
+      <c r="J25" s="33">
+        <v>4</v>
+      </c>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33">
         <v>6.080101</v>
       </c>
-      <c r="N25" s="37" t="s">
+      <c r="N25" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="39"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="36"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
@@ -11697,7 +11709,7 @@
       <c r="P26" s="10">
         <v>8</v>
       </c>
-      <c r="Q26" s="33">
+      <c r="Q26" s="30">
         <v>2</v>
       </c>
     </row>
@@ -11779,115 +11791,117 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="12"/>
     </row>
-    <row r="29" spans="1:18" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="100" t="s">
+    <row r="29" spans="1:18" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="101" t="s">
+      <c r="B29" s="96" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101">
-        <v>4</v>
-      </c>
-      <c r="E29" s="101">
-        <v>4</v>
-      </c>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101">
+      <c r="C29" s="96"/>
+      <c r="D29" s="96">
+        <v>4</v>
+      </c>
+      <c r="E29" s="96">
+        <v>4</v>
+      </c>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96">
         <v>0</v>
       </c>
-      <c r="H29" s="101">
+      <c r="H29" s="96">
         <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101">
+      <c r="I29" s="96"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="96">
         <v>3</v>
       </c>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101">
+      <c r="L29" s="96"/>
+      <c r="M29" s="96">
         <v>6.080101</v>
       </c>
-      <c r="N29" s="103"/>
-      <c r="O29" s="103"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="104"/>
-    </row>
-    <row r="30" spans="1:18" s="102" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="81" t="s">
+      <c r="N29" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="99"/>
+    </row>
+    <row r="30" spans="1:18" s="97" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78">
-        <v>4</v>
-      </c>
-      <c r="E30" s="78">
-        <v>4</v>
-      </c>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78">
+      <c r="C30" s="73"/>
+      <c r="D30" s="73">
+        <v>4</v>
+      </c>
+      <c r="E30" s="73">
+        <v>4</v>
+      </c>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73">
         <v>0</v>
       </c>
-      <c r="H30" s="78">
+      <c r="H30" s="73">
         <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78">
+      <c r="I30" s="73"/>
+      <c r="J30" s="73">
         <v>3</v>
       </c>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78" t="s">
+      <c r="K30" s="73"/>
+      <c r="L30" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="M30" s="78"/>
-      <c r="N30" s="75" t="s">
+      <c r="M30" s="73"/>
+      <c r="N30" s="70" t="s">
         <v>284</v>
       </c>
-      <c r="O30" s="75"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="76"/>
-    </row>
-    <row r="31" spans="1:18" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="81" t="s">
+      <c r="O30" s="70"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="71"/>
+    </row>
+    <row r="31" spans="1:18" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="78">
-        <v>4</v>
-      </c>
-      <c r="D31" s="78">
-        <v>4</v>
-      </c>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78">
-        <v>4</v>
-      </c>
-      <c r="H31" s="78">
+      <c r="C31" s="73">
+        <v>4</v>
+      </c>
+      <c r="D31" s="73">
+        <v>4</v>
+      </c>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73">
+        <v>4</v>
+      </c>
+      <c r="H31" s="73">
         <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78">
-        <v>2</v>
-      </c>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="75" t="s">
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73">
+        <v>2</v>
+      </c>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="O31" s="75"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="76"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="71"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
@@ -11968,13 +11982,13 @@
       <c r="M33" s="4">
         <v>6.090103</v>
       </c>
-      <c r="N33" s="17" t="s">
+      <c r="N33" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="O33" s="17">
+      <c r="O33" s="16">
         <v>10</v>
       </c>
-      <c r="P33" s="17"/>
+      <c r="P33" s="16"/>
       <c r="Q33" s="13">
         <v>0</v>
       </c>
@@ -12025,49 +12039,49 @@
       </c>
       <c r="Q34" s="12"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+    <row r="35" spans="1:17" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="4">
-        <v>4</v>
-      </c>
-      <c r="D35" s="4">
-        <v>4</v>
-      </c>
-      <c r="E35" s="4">
-        <v>6</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4">
-        <v>4</v>
-      </c>
-      <c r="H35" s="4">
+      <c r="C35" s="73">
+        <v>4</v>
+      </c>
+      <c r="D35" s="73">
+        <v>4</v>
+      </c>
+      <c r="E35" s="73">
+        <v>6</v>
+      </c>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73">
+        <v>4</v>
+      </c>
+      <c r="H35" s="73">
         <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4">
+      <c r="I35" s="73"/>
+      <c r="J35" s="73">
         <v>3</v>
       </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4">
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73">
         <v>6.090103</v>
       </c>
-      <c r="N35" s="17" t="s">
+      <c r="N35" s="79" t="s">
         <v>215</v>
       </c>
-      <c r="O35" s="17">
-        <v>6</v>
-      </c>
-      <c r="P35" s="17">
-        <v>2</v>
-      </c>
-      <c r="Q35" s="12"/>
+      <c r="O35" s="79">
+        <v>6</v>
+      </c>
+      <c r="P35" s="79">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="71"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
@@ -12146,13 +12160,13 @@
       <c r="M37" s="4">
         <v>6.090103</v>
       </c>
-      <c r="N37" s="17" t="s">
+      <c r="N37" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="O37" s="17">
-        <v>6</v>
-      </c>
-      <c r="P37" s="17">
+      <c r="O37" s="16">
+        <v>6</v>
+      </c>
+      <c r="P37" s="16">
         <v>0</v>
       </c>
       <c r="Q37" s="12"/>
@@ -12232,13 +12246,13 @@
       <c r="M39" s="4">
         <v>6.090103</v>
       </c>
-      <c r="N39" s="17" t="s">
+      <c r="N39" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="O39" s="17">
-        <v>6</v>
-      </c>
-      <c r="P39" s="17">
+      <c r="O39" s="16">
+        <v>6</v>
+      </c>
+      <c r="P39" s="16">
         <v>0</v>
       </c>
       <c r="Q39" s="12"/>
@@ -12280,13 +12294,13 @@
       <c r="M40" s="4">
         <v>6.090103</v>
       </c>
-      <c r="N40" s="17" t="s">
+      <c r="N40" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="O40" s="17">
-        <v>6</v>
-      </c>
-      <c r="P40" s="17"/>
+      <c r="O40" s="16">
+        <v>6</v>
+      </c>
+      <c r="P40" s="16"/>
       <c r="Q40" s="12"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -12334,48 +12348,48 @@
       <c r="Q41" s="12"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="20">
-        <v>4</v>
-      </c>
-      <c r="D42" s="20">
-        <v>6</v>
-      </c>
-      <c r="E42" s="20">
-        <v>4</v>
-      </c>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20">
-        <v>4</v>
-      </c>
-      <c r="H42" s="20">
+      <c r="C42" s="19">
+        <v>4</v>
+      </c>
+      <c r="D42" s="19">
+        <v>6</v>
+      </c>
+      <c r="E42" s="19">
+        <v>4</v>
+      </c>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19">
+        <v>4</v>
+      </c>
+      <c r="H42" s="19">
         <f>Таблица4[[#This Row],[Годин 1 заїзд]]+Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20">
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19">
         <v>3</v>
       </c>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20">
+      <c r="L42" s="19"/>
+      <c r="M42" s="19">
         <v>6.090103</v>
       </c>
-      <c r="N42" s="34" t="s">
+      <c r="N42" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="O42" s="34">
-        <v>8</v>
-      </c>
-      <c r="P42" s="34">
-        <v>2</v>
-      </c>
-      <c r="Q42" s="21"/>
+      <c r="O42" s="31">
+        <v>8</v>
+      </c>
+      <c r="P42" s="31">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12390,7 +12404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -12417,55 +12431,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="N1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="24" t="s">
+      <c r="N1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="24" t="s">
         <v>210</v>
       </c>
     </row>
@@ -12508,7 +12522,7 @@
       <c r="O2" s="10">
         <v>8</v>
       </c>
-      <c r="P2" s="17"/>
+      <c r="P2" s="16"/>
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -12819,7 +12833,7 @@
       <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="38" t="s">
         <v>148</v>
       </c>
       <c r="C10" s="4">
@@ -12848,13 +12862,13 @@
       <c r="M10" s="4">
         <v>6.080101</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O10" s="16">
         <v>18</v>
       </c>
-      <c r="P10" s="17"/>
+      <c r="P10" s="16"/>
       <c r="Q10" s="13">
         <v>4</v>
       </c>
@@ -12892,13 +12906,13 @@
       <c r="M11" s="4">
         <v>6.080101</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="16">
         <v>12</v>
       </c>
-      <c r="P11" s="17"/>
+      <c r="P11" s="16"/>
       <c r="Q11" s="13">
         <v>8</v>
       </c>
@@ -12936,13 +12950,13 @@
       <c r="M12" s="4">
         <v>6.080101</v>
       </c>
-      <c r="N12" s="17" t="s">
+      <c r="N12" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12" s="16">
         <v>16</v>
       </c>
-      <c r="P12" s="17"/>
+      <c r="P12" s="16"/>
       <c r="Q12" s="13">
         <v>8</v>
       </c>
@@ -12988,42 +13002,42 @@
       <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="78">
-        <v>6</v>
-      </c>
-      <c r="D14" s="78">
-        <v>6</v>
-      </c>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78">
+      <c r="C14" s="73">
+        <v>6</v>
+      </c>
+      <c r="D14" s="73">
+        <v>6</v>
+      </c>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73">
         <v>0</v>
       </c>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78">
-        <v>2</v>
-      </c>
-      <c r="K14" s="78">
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73">
+        <v>2</v>
+      </c>
+      <c r="K14" s="73">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>12</v>
       </c>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78">
+      <c r="L14" s="73"/>
+      <c r="M14" s="73">
         <v>6.080101</v>
       </c>
-      <c r="N14" s="78" t="s">
+      <c r="N14" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="76"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="71"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
@@ -13059,10 +13073,10 @@
       <c r="N15" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="O15" s="17">
-        <v>8</v>
-      </c>
-      <c r="P15" s="17">
+      <c r="O15" s="16">
+        <v>8</v>
+      </c>
+      <c r="P15" s="16">
         <v>6</v>
       </c>
       <c r="Q15" s="12"/>
@@ -13152,44 +13166,44 @@
       <c r="Q17" s="12"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="69">
-        <v>6</v>
-      </c>
-      <c r="D18" s="69">
-        <v>6</v>
-      </c>
-      <c r="E18" s="69">
-        <v>6</v>
-      </c>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69">
+      <c r="C18" s="64">
+        <v>6</v>
+      </c>
+      <c r="D18" s="64">
+        <v>6</v>
+      </c>
+      <c r="E18" s="64">
+        <v>6</v>
+      </c>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64">
         <v>0</v>
       </c>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69">
+      <c r="H18" s="64"/>
+      <c r="I18" s="64">
         <v>3</v>
       </c>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69">
+      <c r="J18" s="64"/>
+      <c r="K18" s="64">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>12</v>
       </c>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69">
+      <c r="L18" s="64"/>
+      <c r="M18" s="64">
         <v>6.090103</v>
       </c>
-      <c r="N18" s="70" t="s">
+      <c r="N18" s="65" t="s">
         <v>244</v>
       </c>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="66"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="62"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -13315,10 +13329,10 @@
       <c r="N21" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="O21" s="17">
-        <v>6</v>
-      </c>
-      <c r="P21" s="17"/>
+      <c r="O21" s="16">
+        <v>6</v>
+      </c>
+      <c r="P21" s="16"/>
       <c r="Q21" s="13">
         <v>2</v>
       </c>
@@ -13487,85 +13501,85 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" spans="1:17" s="93" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="81" t="s">
+    <row r="26" spans="1:17" s="88" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="78">
-        <v>6</v>
-      </c>
-      <c r="D26" s="78">
-        <v>2</v>
-      </c>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78">
-        <v>6</v>
-      </c>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78">
-        <v>2</v>
-      </c>
-      <c r="K26" s="78">
+      <c r="C26" s="73">
+        <v>6</v>
+      </c>
+      <c r="D26" s="73">
+        <v>2</v>
+      </c>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73">
+        <v>6</v>
+      </c>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73">
+        <v>2</v>
+      </c>
+      <c r="K26" s="73">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="L26" s="78" t="s">
+      <c r="L26" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="M26" s="78"/>
-      <c r="N26" s="75" t="s">
+      <c r="M26" s="73"/>
+      <c r="N26" s="70" t="s">
         <v>283</v>
       </c>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="76"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="71"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C27" s="20">
-        <v>4</v>
-      </c>
-      <c r="D27" s="20">
-        <v>4</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20">
-        <v>4</v>
-      </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20">
-        <v>2</v>
-      </c>
-      <c r="K27" s="20">
+      <c r="C27" s="19">
+        <v>4</v>
+      </c>
+      <c r="D27" s="19">
+        <v>4</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19">
+        <v>4</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19">
+        <v>2</v>
+      </c>
+      <c r="K27" s="19">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20">
+      <c r="L27" s="19"/>
+      <c r="M27" s="19">
         <v>6.090103</v>
       </c>
-      <c r="N27" s="42" t="s">
+      <c r="N27" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="O27" s="42">
-        <v>4</v>
-      </c>
-      <c r="P27" s="42">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="21"/>
+      <c r="O27" s="39">
+        <v>4</v>
+      </c>
+      <c r="P27" s="39">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13580,76 +13594,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52" style="44" customWidth="1"/>
-    <col min="3" max="4" width="14.28515625" style="43" customWidth="1"/>
-    <col min="5" max="6" width="14.28515625" style="43" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="14.28515625" style="43" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="43" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" style="43" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="43" customWidth="1"/>
-    <col min="12" max="12" width="1.5703125" style="43" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="43" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="23.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" style="43" customWidth="1"/>
-    <col min="16" max="16" width="10" style="43" customWidth="1"/>
-    <col min="17" max="17" width="7.140625" style="43" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="43"/>
+    <col min="1" max="1" width="15.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52" style="41" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" style="40" customWidth="1"/>
+    <col min="5" max="6" width="14.28515625" style="40" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="14.28515625" style="40" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="40" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="40" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="40" customWidth="1"/>
+    <col min="12" max="12" width="1.5703125" style="40" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="40" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="23.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="40" customWidth="1"/>
+    <col min="16" max="16" width="10" style="40" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" style="40" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="50" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="N1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="19" t="s">
+      <c r="N1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="18" t="s">
         <v>266</v>
       </c>
       <c r="Q1" s="9" t="s">
@@ -13694,7 +13708,7 @@
       <c r="P2" s="3">
         <v>4</v>
       </c>
-      <c r="Q2" s="52"/>
+      <c r="Q2" s="48"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -13736,83 +13750,83 @@
       <c r="P3" s="3">
         <v>4</v>
       </c>
-      <c r="Q3" s="52"/>
-    </row>
-    <row r="4" spans="1:17" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="Q3" s="48"/>
+    </row>
+    <row r="4" spans="1:17" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="78">
-        <v>8</v>
-      </c>
-      <c r="D4" s="78">
-        <v>2</v>
-      </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78">
-        <v>8</v>
-      </c>
-      <c r="H4" s="78">
+      <c r="C4" s="73">
+        <v>8</v>
+      </c>
+      <c r="D4" s="73">
+        <v>2</v>
+      </c>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73">
+        <v>8</v>
+      </c>
+      <c r="H4" s="73">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78">
-        <v>2</v>
-      </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="75" t="s">
+      <c r="I4" s="73"/>
+      <c r="J4" s="73">
+        <v>2</v>
+      </c>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="70" t="s">
         <v>289</v>
       </c>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="110"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="105"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="67">
-        <v>4</v>
-      </c>
-      <c r="D5" s="67">
-        <v>6</v>
-      </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67">
-        <v>6</v>
-      </c>
-      <c r="H5" s="67">
+      <c r="C5" s="63">
+        <v>4</v>
+      </c>
+      <c r="D5" s="63">
+        <v>6</v>
+      </c>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63">
+        <v>6</v>
+      </c>
+      <c r="H5" s="63">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67">
-        <v>2</v>
-      </c>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67">
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63">
+        <v>2</v>
+      </c>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63">
         <v>7.0140000000000002</v>
       </c>
-      <c r="N5" s="66" t="s">
+      <c r="N5" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66">
+      <c r="O5" s="62"/>
+      <c r="P5" s="62">
         <v>10</v>
       </c>
-      <c r="Q5" s="71"/>
+      <c r="Q5" s="66"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -13845,16 +13859,16 @@
       <c r="M6" s="4">
         <v>7.0140000000000002</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="16">
         <v>12</v>
       </c>
-      <c r="P6" s="17">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="52"/>
+      <c r="P6" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="48"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -13892,7 +13906,7 @@
         <v>4</v>
       </c>
       <c r="P7" s="3"/>
-      <c r="Q7" s="52"/>
+      <c r="Q7" s="48"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -13932,7 +13946,7 @@
         <v>14</v>
       </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="52"/>
+      <c r="Q8" s="48"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -13970,7 +13984,7 @@
         <v>4</v>
       </c>
       <c r="P9" s="3"/>
-      <c r="Q9" s="52"/>
+      <c r="Q9" s="48"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -14010,7 +14024,7 @@
         <v>6</v>
       </c>
       <c r="P10" s="3"/>
-      <c r="Q10" s="52"/>
+      <c r="Q10" s="48"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -14041,14 +14055,14 @@
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="16">
         <v>8</v>
       </c>
       <c r="P11" s="3"/>
-      <c r="Q11" s="52"/>
+      <c r="Q11" s="48"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -14086,7 +14100,7 @@
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="52"/>
+      <c r="Q12" s="48"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -14122,7 +14136,7 @@
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="52"/>
+      <c r="Q13" s="48"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -14158,7 +14172,7 @@
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="52"/>
+      <c r="Q14" s="48"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -14192,7 +14206,7 @@
       <c r="N15" s="10"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="52"/>
+      <c r="Q15" s="48"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -14232,7 +14246,7 @@
       <c r="P16" s="10">
         <v>4</v>
       </c>
-      <c r="Q16" s="52"/>
+      <c r="Q16" s="48"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -14272,47 +14286,47 @@
       <c r="P17" s="10">
         <v>4</v>
       </c>
-      <c r="Q17" s="52"/>
-    </row>
-    <row r="18" spans="1:17" s="109" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="101" t="s">
+      <c r="Q17" s="48"/>
+    </row>
+    <row r="18" spans="1:17" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="96" t="s">
         <v>271</v>
       </c>
-      <c r="C18" s="101">
-        <v>8</v>
-      </c>
-      <c r="D18" s="101">
-        <v>6</v>
-      </c>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101">
+      <c r="C18" s="96">
+        <v>8</v>
+      </c>
+      <c r="D18" s="96">
+        <v>6</v>
+      </c>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96">
         <v>0</v>
       </c>
-      <c r="H18" s="101">
+      <c r="H18" s="96">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>14</v>
       </c>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101">
-        <v>2</v>
-      </c>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="107" t="s">
+      <c r="I18" s="96"/>
+      <c r="J18" s="96">
+        <v>2</v>
+      </c>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="102" t="s">
         <v>272</v>
       </c>
-      <c r="O18" s="106">
-        <v>8</v>
-      </c>
-      <c r="P18" s="106">
-        <v>6</v>
-      </c>
-      <c r="Q18" s="108"/>
+      <c r="O18" s="101">
+        <v>8</v>
+      </c>
+      <c r="P18" s="101">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="103"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -14354,7 +14368,7 @@
       <c r="P19" s="3">
         <v>4</v>
       </c>
-      <c r="Q19" s="52"/>
+      <c r="Q19" s="48"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -14390,13 +14404,13 @@
       <c r="N20" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O20" s="16">
         <v>10</v>
       </c>
-      <c r="P20" s="17">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="52"/>
+      <c r="P20" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="48"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -14438,13 +14452,13 @@
       <c r="P21" s="10">
         <v>2</v>
       </c>
-      <c r="Q21" s="52"/>
+      <c r="Q21" s="48"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="33" t="s">
         <v>263</v>
       </c>
       <c r="C22" s="4">
@@ -14478,7 +14492,7 @@
       <c r="P22" s="10">
         <v>4</v>
       </c>
-      <c r="Q22" s="52"/>
+      <c r="Q22" s="48"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -14516,7 +14530,7 @@
         <v>6</v>
       </c>
       <c r="P23" s="3"/>
-      <c r="Q23" s="52"/>
+      <c r="Q23" s="48"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -14556,7 +14570,7 @@
         <v>6</v>
       </c>
       <c r="P24" s="3"/>
-      <c r="Q24" s="52"/>
+      <c r="Q24" s="48"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -14594,7 +14608,7 @@
         <v>6</v>
       </c>
       <c r="P25" s="3"/>
-      <c r="Q25" s="52"/>
+      <c r="Q25" s="48"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -14632,13 +14646,13 @@
         <v>8</v>
       </c>
       <c r="P26" s="3"/>
-      <c r="Q26" s="52"/>
+      <c r="Q26" s="48"/>
     </row>
     <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="33" t="s">
         <v>264</v>
       </c>
       <c r="C27" s="4"/>
@@ -14663,14 +14677,14 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="29" t="s">
+      <c r="N27" s="28" t="s">
         <v>268</v>
       </c>
       <c r="O27" s="10">
         <v>8</v>
       </c>
       <c r="P27" s="3"/>
-      <c r="Q27" s="52"/>
+      <c r="Q27" s="48"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -14704,49 +14718,49 @@
       <c r="N28" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="O28" s="17">
-        <v>8</v>
-      </c>
-      <c r="P28" s="17">
-        <v>4</v>
-      </c>
-      <c r="Q28" s="52"/>
-    </row>
-    <row r="29" spans="1:17" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="78" t="s">
+      <c r="O28" s="16">
+        <v>8</v>
+      </c>
+      <c r="P28" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="48"/>
+    </row>
+    <row r="29" spans="1:17" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="73" t="s">
         <v>178</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="C29" s="78">
-        <v>8</v>
-      </c>
-      <c r="D29" s="78">
-        <v>4</v>
-      </c>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78">
-        <v>8</v>
-      </c>
-      <c r="H29" s="78">
+      <c r="C29" s="73">
+        <v>8</v>
+      </c>
+      <c r="D29" s="73">
+        <v>4</v>
+      </c>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73">
+        <v>8</v>
+      </c>
+      <c r="H29" s="73">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78">
-        <v>2</v>
-      </c>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="75" t="s">
+      <c r="I29" s="73"/>
+      <c r="J29" s="73">
+        <v>2</v>
+      </c>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="70" t="s">
         <v>290</v>
       </c>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="110"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="105"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -14786,7 +14800,7 @@
       <c r="P30" s="10">
         <v>10</v>
       </c>
-      <c r="Q30" s="52"/>
+      <c r="Q30" s="48"/>
     </row>
     <row r="31" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -14826,7 +14840,7 @@
         <v>6</v>
       </c>
       <c r="P31" s="3"/>
-      <c r="Q31" s="52"/>
+      <c r="Q31" s="48"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -14862,9 +14876,9 @@
       <c r="N32" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="O32" s="17"/>
+      <c r="O32" s="16"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="52"/>
+      <c r="Q32" s="48"/>
     </row>
     <row r="33" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -14906,7 +14920,7 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-      <c r="Q33" s="52"/>
+      <c r="Q33" s="48"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -14950,45 +14964,45 @@
       <c r="P34" s="4">
         <v>4</v>
       </c>
-      <c r="Q34" s="52"/>
-    </row>
-    <row r="35" spans="1:17" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="89" t="s">
+      <c r="Q34" s="48"/>
+    </row>
+    <row r="35" spans="1:17" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="84" t="s">
         <v>304</v>
       </c>
-      <c r="B35" s="89" t="s">
+      <c r="B35" s="84" t="s">
         <v>305</v>
       </c>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89">
-        <v>4</v>
-      </c>
-      <c r="E35" s="59">
-        <v>4</v>
-      </c>
-      <c r="F35" s="59"/>
-      <c r="G35" s="89">
+      <c r="C35" s="84"/>
+      <c r="D35" s="84">
+        <v>4</v>
+      </c>
+      <c r="E35" s="55">
+        <v>4</v>
+      </c>
+      <c r="F35" s="55"/>
+      <c r="G35" s="84">
         <v>0</v>
       </c>
-      <c r="H35" s="89">
+      <c r="H35" s="84">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I35" s="89"/>
-      <c r="J35" s="89">
+      <c r="I35" s="84"/>
+      <c r="J35" s="84">
         <v>3</v>
       </c>
-      <c r="K35" s="89"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="59">
+      <c r="K35" s="84"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="55">
         <v>20.204999999999998</v>
       </c>
-      <c r="N35" s="90" t="s">
+      <c r="N35" s="85" t="s">
         <v>329</v>
       </c>
-      <c r="O35" s="91"/>
-      <c r="P35" s="90"/>
-      <c r="Q35" s="91"/>
+      <c r="O35" s="86"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="86"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -14998,13 +15012,13 @@
         <v>306</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="50">
-        <v>6</v>
-      </c>
-      <c r="E36" s="50">
-        <v>4</v>
-      </c>
-      <c r="F36" s="50">
+      <c r="D36" s="46">
+        <v>6</v>
+      </c>
+      <c r="E36" s="46">
+        <v>4</v>
+      </c>
+      <c r="F36" s="46">
         <v>4</v>
       </c>
       <c r="G36" s="4">
@@ -15023,14 +15037,14 @@
       <c r="M36" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N36" s="53" t="s">
+      <c r="N36" s="49" t="s">
         <v>318</v>
       </c>
       <c r="O36" s="3">
         <v>6</v>
       </c>
       <c r="P36" s="3"/>
-      <c r="Q36" s="51"/>
+      <c r="Q36" s="47"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -15040,13 +15054,13 @@
         <v>307</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="50">
-        <v>6</v>
-      </c>
-      <c r="E37" s="50">
-        <v>4</v>
-      </c>
-      <c r="F37" s="50">
+      <c r="D37" s="46">
+        <v>6</v>
+      </c>
+      <c r="E37" s="46">
+        <v>4</v>
+      </c>
+      <c r="F37" s="46">
         <v>4</v>
       </c>
       <c r="G37" s="4">
@@ -15067,14 +15081,14 @@
       <c r="M37" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N37" s="53" t="s">
+      <c r="N37" s="49" t="s">
         <v>319</v>
       </c>
-      <c r="O37" s="51">
+      <c r="O37" s="47">
         <v>6</v>
       </c>
       <c r="P37" s="3"/>
-      <c r="Q37" s="51"/>
+      <c r="Q37" s="47"/>
     </row>
     <row r="38" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -15084,13 +15098,13 @@
         <v>308</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="50">
-        <v>6</v>
-      </c>
-      <c r="E38" s="50">
-        <v>4</v>
-      </c>
-      <c r="F38" s="50"/>
+      <c r="D38" s="46">
+        <v>6</v>
+      </c>
+      <c r="E38" s="46">
+        <v>4</v>
+      </c>
+      <c r="F38" s="46"/>
       <c r="G38" s="4">
         <v>0</v>
       </c>
@@ -15107,14 +15121,14 @@
       <c r="M38" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N38" s="53" t="s">
+      <c r="N38" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="O38" s="51">
+      <c r="O38" s="47">
         <v>4</v>
       </c>
       <c r="P38" s="3"/>
-      <c r="Q38" s="51">
+      <c r="Q38" s="47">
         <v>2</v>
       </c>
     </row>
@@ -15126,13 +15140,13 @@
         <v>166</v>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="50">
-        <v>6</v>
-      </c>
-      <c r="E39" s="50">
-        <v>4</v>
-      </c>
-      <c r="F39" s="50"/>
+      <c r="D39" s="46">
+        <v>6</v>
+      </c>
+      <c r="E39" s="46">
+        <v>4</v>
+      </c>
+      <c r="F39" s="46"/>
       <c r="G39" s="4">
         <v>0</v>
       </c>
@@ -15149,52 +15163,52 @@
       <c r="M39" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N39" s="53" t="s">
+      <c r="N39" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="O39" s="51">
+      <c r="O39" s="47">
         <v>4</v>
       </c>
       <c r="P39" s="3">
         <v>2</v>
       </c>
-      <c r="Q39" s="51"/>
+      <c r="Q39" s="47"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="59" t="s">
+      <c r="A40" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="55" t="s">
         <v>309</v>
       </c>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59">
-        <v>6</v>
-      </c>
-      <c r="E40" s="59">
-        <v>4</v>
-      </c>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59">
+      <c r="C40" s="55"/>
+      <c r="D40" s="55">
+        <v>6</v>
+      </c>
+      <c r="E40" s="55">
+        <v>4</v>
+      </c>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55">
         <v>0</v>
       </c>
-      <c r="H40" s="59">
+      <c r="H40" s="55">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59">
-        <v>2</v>
-      </c>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59">
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55">
+        <v>2</v>
+      </c>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55">
         <v>20.204999999999998</v>
       </c>
-      <c r="N40" s="60"/>
-      <c r="O40" s="61"/>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="61"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="56"/>
+      <c r="Q40" s="57"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
@@ -15204,13 +15218,13 @@
         <v>310</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="50">
-        <v>6</v>
-      </c>
-      <c r="E41" s="50">
-        <v>6</v>
-      </c>
-      <c r="F41" s="50">
+      <c r="D41" s="46">
+        <v>6</v>
+      </c>
+      <c r="E41" s="46">
+        <v>6</v>
+      </c>
+      <c r="F41" s="46">
         <v>4</v>
       </c>
       <c r="G41" s="4">
@@ -15231,14 +15245,14 @@
       <c r="M41" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N41" s="53" t="s">
+      <c r="N41" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="O41" s="51">
+      <c r="O41" s="47">
         <v>6</v>
       </c>
       <c r="P41" s="3"/>
-      <c r="Q41" s="51"/>
+      <c r="Q41" s="47"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
@@ -15248,13 +15262,13 @@
         <v>311</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="50">
-        <v>8</v>
-      </c>
-      <c r="E42" s="50">
-        <v>4</v>
-      </c>
-      <c r="F42" s="50"/>
+      <c r="D42" s="46">
+        <v>8</v>
+      </c>
+      <c r="E42" s="46">
+        <v>4</v>
+      </c>
+      <c r="F42" s="46"/>
       <c r="G42" s="4">
         <v>0</v>
       </c>
@@ -15271,134 +15285,134 @@
       <c r="M42" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N42" s="53" t="s">
+      <c r="N42" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="O42" s="51">
+      <c r="O42" s="47">
         <v>6</v>
       </c>
       <c r="P42" s="3">
         <v>2</v>
       </c>
-      <c r="Q42" s="51"/>
+      <c r="Q42" s="47"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="59" t="s">
+      <c r="A43" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="55" t="s">
         <v>312</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59">
-        <v>6</v>
-      </c>
-      <c r="E43" s="59">
-        <v>4</v>
-      </c>
-      <c r="F43" s="59">
-        <v>4</v>
-      </c>
-      <c r="G43" s="59">
+      <c r="C43" s="55"/>
+      <c r="D43" s="55">
+        <v>6</v>
+      </c>
+      <c r="E43" s="55">
+        <v>4</v>
+      </c>
+      <c r="F43" s="55">
+        <v>4</v>
+      </c>
+      <c r="G43" s="55">
         <v>0</v>
       </c>
-      <c r="H43" s="59">
+      <c r="H43" s="55">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59">
-        <v>4</v>
-      </c>
-      <c r="K43" s="59"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59">
+      <c r="I43" s="55"/>
+      <c r="J43" s="55">
+        <v>4</v>
+      </c>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="55">
         <v>20.204999999999998</v>
       </c>
-      <c r="N43" s="60" t="s">
+      <c r="N43" s="56" t="s">
         <v>331</v>
       </c>
-      <c r="O43" s="61"/>
-      <c r="P43" s="60"/>
-      <c r="Q43" s="61"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="56"/>
+      <c r="Q43" s="57"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="59" t="s">
+      <c r="A44" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="55" t="s">
         <v>313</v>
       </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59">
-        <v>4</v>
-      </c>
-      <c r="E44" s="59">
-        <v>4</v>
-      </c>
-      <c r="F44" s="59">
-        <v>4</v>
-      </c>
-      <c r="G44" s="59">
+      <c r="C44" s="55"/>
+      <c r="D44" s="55">
+        <v>4</v>
+      </c>
+      <c r="E44" s="55">
+        <v>4</v>
+      </c>
+      <c r="F44" s="55">
+        <v>4</v>
+      </c>
+      <c r="G44" s="55">
         <v>0</v>
       </c>
-      <c r="H44" s="59">
+      <c r="H44" s="55">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59">
-        <v>4</v>
-      </c>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59">
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55">
+        <v>4</v>
+      </c>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55">
         <v>20.204999999999998</v>
       </c>
-      <c r="N44" s="60" t="s">
+      <c r="N44" s="56" t="s">
         <v>332</v>
       </c>
-      <c r="O44" s="61"/>
-      <c r="P44" s="60"/>
-      <c r="Q44" s="61"/>
-    </row>
-    <row r="45" spans="1:17" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="89" t="s">
+      <c r="O44" s="57"/>
+      <c r="P44" s="56"/>
+      <c r="Q44" s="57"/>
+    </row>
+    <row r="45" spans="1:17" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="84" t="s">
         <v>304</v>
       </c>
-      <c r="B45" s="89" t="s">
+      <c r="B45" s="84" t="s">
         <v>314</v>
       </c>
-      <c r="C45" s="89"/>
-      <c r="D45" s="89">
-        <v>6</v>
-      </c>
-      <c r="E45" s="89">
-        <v>2</v>
-      </c>
-      <c r="F45" s="89">
-        <v>4</v>
-      </c>
-      <c r="G45" s="89">
+      <c r="C45" s="84"/>
+      <c r="D45" s="84">
+        <v>6</v>
+      </c>
+      <c r="E45" s="84">
+        <v>2</v>
+      </c>
+      <c r="F45" s="84">
+        <v>4</v>
+      </c>
+      <c r="G45" s="84">
         <v>0</v>
       </c>
-      <c r="H45" s="89">
+      <c r="H45" s="84">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I45" s="89"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="89">
-        <v>4</v>
-      </c>
-      <c r="L45" s="89"/>
-      <c r="M45" s="89">
+      <c r="I45" s="84"/>
+      <c r="J45" s="84"/>
+      <c r="K45" s="84">
+        <v>4</v>
+      </c>
+      <c r="L45" s="84"/>
+      <c r="M45" s="84">
         <v>20.204999999999998</v>
       </c>
-      <c r="N45" s="90"/>
-      <c r="O45" s="94"/>
-      <c r="P45" s="90"/>
-      <c r="Q45" s="94"/>
+      <c r="N45" s="85"/>
+      <c r="O45" s="89"/>
+      <c r="P45" s="85"/>
+      <c r="Q45" s="89"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -15408,13 +15422,13 @@
         <v>315</v>
       </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="50">
-        <v>6</v>
-      </c>
-      <c r="E46" s="50">
-        <v>6</v>
-      </c>
-      <c r="F46" s="50">
+      <c r="D46" s="46">
+        <v>6</v>
+      </c>
+      <c r="E46" s="46">
+        <v>6</v>
+      </c>
+      <c r="F46" s="46">
         <v>4</v>
       </c>
       <c r="G46" s="4">
@@ -15435,14 +15449,14 @@
       <c r="M46" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N46" s="53" t="s">
+      <c r="N46" s="49" t="s">
         <v>321</v>
       </c>
-      <c r="O46" s="51">
+      <c r="O46" s="47">
         <v>6</v>
       </c>
       <c r="P46" s="3"/>
-      <c r="Q46" s="51"/>
+      <c r="Q46" s="47"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
@@ -15452,13 +15466,13 @@
         <v>316</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="50">
-        <v>6</v>
-      </c>
-      <c r="E47" s="50">
-        <v>4</v>
-      </c>
-      <c r="F47" s="50">
+      <c r="D47" s="46">
+        <v>6</v>
+      </c>
+      <c r="E47" s="46">
+        <v>4</v>
+      </c>
+      <c r="F47" s="46">
         <v>4</v>
       </c>
       <c r="G47" s="4">
@@ -15477,14 +15491,14 @@
       <c r="M47" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N47" s="53" t="s">
+      <c r="N47" s="49" t="s">
         <v>322</v>
       </c>
-      <c r="O47" s="51">
+      <c r="O47" s="47">
         <v>6</v>
       </c>
       <c r="P47" s="3"/>
-      <c r="Q47" s="51"/>
+      <c r="Q47" s="47"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
@@ -15494,13 +15508,13 @@
         <v>317</v>
       </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="50">
-        <v>6</v>
-      </c>
-      <c r="E48" s="50">
-        <v>6</v>
-      </c>
-      <c r="F48" s="50"/>
+      <c r="D48" s="46">
+        <v>6</v>
+      </c>
+      <c r="E48" s="46">
+        <v>6</v>
+      </c>
+      <c r="F48" s="46"/>
       <c r="G48" s="4">
         <v>0</v>
       </c>
@@ -15517,14 +15531,14 @@
       <c r="M48" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N48" s="53" t="s">
+      <c r="N48" s="49" t="s">
         <v>318</v>
       </c>
-      <c r="O48" s="51">
+      <c r="O48" s="47">
         <v>6</v>
       </c>
       <c r="P48" s="3"/>
-      <c r="Q48" s="51"/>
+      <c r="Q48" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15558,43 +15572,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>302</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="J1" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="47" t="s">
+      <c r="J1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="45" t="s">
         <v>210</v>
       </c>
     </row>
@@ -15613,7 +15627,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="48" t="s">
         <v>297</v>
       </c>
       <c r="J2" s="10" t="s">
@@ -15623,7 +15637,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="10"/>
-      <c r="M2" s="17"/>
+      <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -15640,7 +15654,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="48" t="s">
         <v>297</v>
       </c>
       <c r="J3" s="10" t="s">
@@ -15665,147 +15679,147 @@
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56" t="s">
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52" t="s">
         <v>297</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="K4" s="34">
-        <v>8</v>
-      </c>
-      <c r="L4" s="34">
-        <v>2</v>
-      </c>
-      <c r="M4" s="57"/>
+      <c r="K4" s="31">
+        <v>8</v>
+      </c>
+      <c r="L4" s="31">
+        <v>2</v>
+      </c>
+      <c r="M4" s="53"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G5" s="58"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G6" s="58"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G7" s="58"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G8" s="58"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G9" s="58"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G10" s="58"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G11" s="58"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G12" s="58"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G13" s="58"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G14" s="58"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G15" s="58"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G16" s="58"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
     </row>
     <row r="17" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G17" s="58"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
     </row>
     <row r="18" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G18" s="58"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zaizd2.xlsx
+++ b/Zaizd2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20730" windowHeight="9180" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="20730" windowHeight="9120" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1 курс" sheetId="1" r:id="rId1"/>
@@ -320,6 +320,30 @@
             <charset val="204"/>
           </rPr>
           <t>На наступний заїзд 1 пара</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- 1 пара наступний заїзд</t>
         </r>
       </text>
     </comment>
@@ -1711,7 +1735,7 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2018,19 +2042,9 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2045,6 +2059,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Ввід" xfId="3" builtinId="20"/>
@@ -5446,7 +5469,13 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:Q44" totalsRowShown="0" headerRowDxfId="103" dataDxfId="101" headerRowBorderDxfId="102" tableBorderDxfId="100" totalsRowBorderDxfId="99">
-  <autoFilter ref="A1:Q44"/>
+  <autoFilter ref="A1:Q44">
+    <filterColumn colId="13">
+      <filters>
+        <filter val="доц. Кухта М.І."/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="17">
     <tableColumn id="1" name="Групи" dataDxfId="98"/>
     <tableColumn id="2" name="Дисципліна" dataDxfId="97"/>
@@ -8646,8 +8675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8723,7 +8752,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
         <v>195</v>
       </c>
@@ -8765,7 +8794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
         <v>195</v>
       </c>
@@ -8807,7 +8836,7 @@
       </c>
       <c r="Q3" s="68"/>
     </row>
-    <row r="4" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="73" t="s">
         <v>195</v>
       </c>
@@ -8849,7 +8878,7 @@
       </c>
       <c r="Q4" s="68"/>
     </row>
-    <row r="5" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="73" t="s">
         <v>195</v>
       </c>
@@ -8891,7 +8920,7 @@
       </c>
       <c r="Q5" s="68"/>
     </row>
-    <row r="6" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="91" t="s">
         <v>195</v>
       </c>
@@ -8933,7 +8962,7 @@
       </c>
       <c r="Q6" s="107"/>
     </row>
-    <row r="7" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="73" t="s">
         <v>195</v>
       </c>
@@ -8975,7 +9004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="73" t="s">
         <v>195</v>
       </c>
@@ -9017,7 +9046,7 @@
       <c r="P8" s="67"/>
       <c r="Q8" s="68"/>
     </row>
-    <row r="9" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="73" t="s">
         <v>195</v>
       </c>
@@ -9057,7 +9086,7 @@
       <c r="P9" s="67"/>
       <c r="Q9" s="68"/>
     </row>
-    <row r="10" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="73" t="s">
         <v>195</v>
       </c>
@@ -9097,7 +9126,7 @@
       <c r="P10" s="67"/>
       <c r="Q10" s="68"/>
     </row>
-    <row r="11" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="73" t="s">
         <v>195</v>
       </c>
@@ -9141,7 +9170,7 @@
       <c r="P11" s="67"/>
       <c r="Q11" s="68"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>195</v>
       </c>
@@ -9179,7 +9208,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>195</v>
       </c>
@@ -9217,7 +9246,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>195</v>
       </c>
@@ -9255,7 +9284,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="12"/>
     </row>
-    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>195</v>
       </c>
@@ -9293,7 +9322,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="12"/>
     </row>
-    <row r="16" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="73" t="s">
         <v>19</v>
       </c>
@@ -9337,7 +9366,7 @@
       </c>
       <c r="Q16" s="68"/>
     </row>
-    <row r="17" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="91" t="s">
         <v>19</v>
       </c>
@@ -9383,7 +9412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="73" t="s">
         <v>19</v>
       </c>
@@ -9425,7 +9454,7 @@
       <c r="P18" s="67"/>
       <c r="Q18" s="68"/>
     </row>
-    <row r="19" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="73" t="s">
         <v>19</v>
       </c>
@@ -9469,7 +9498,7 @@
       </c>
       <c r="Q19" s="68"/>
     </row>
-    <row r="20" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="73" t="s">
         <v>19</v>
       </c>
@@ -9507,7 +9536,7 @@
       <c r="P20" s="67"/>
       <c r="Q20" s="68"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
@@ -9545,7 +9574,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="12"/>
     </row>
-    <row r="22" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="73" t="s">
         <v>19</v>
       </c>
@@ -9587,7 +9616,7 @@
       </c>
       <c r="Q22" s="68"/>
     </row>
-    <row r="23" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="73" t="s">
         <v>19</v>
       </c>
@@ -9631,7 +9660,7 @@
       </c>
       <c r="Q23" s="68"/>
     </row>
-    <row r="24" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="73" t="s">
         <v>19</v>
       </c>
@@ -9675,7 +9704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="73" t="s">
         <v>19</v>
       </c>
@@ -9717,7 +9746,7 @@
       <c r="P25" s="67"/>
       <c r="Q25" s="68"/>
     </row>
-    <row r="26" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="73" t="s">
         <v>19</v>
       </c>
@@ -9759,7 +9788,7 @@
       </c>
       <c r="Q26" s="68"/>
     </row>
-    <row r="27" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="73" t="s">
         <v>19</v>
       </c>
@@ -9801,7 +9830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="73" t="s">
         <v>19</v>
       </c>
@@ -9843,7 +9872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>19</v>
       </c>
@@ -9881,7 +9910,7 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="12"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="73" t="s">
         <v>19</v>
       </c>
@@ -9965,7 +9994,7 @@
       <c r="P31" s="67"/>
       <c r="Q31" s="68"/>
     </row>
-    <row r="32" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="73" t="s">
         <v>56</v>
       </c>
@@ -10011,7 +10040,7 @@
       </c>
       <c r="Q32" s="68"/>
     </row>
-    <row r="33" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="73" t="s">
         <v>56</v>
       </c>
@@ -10055,7 +10084,7 @@
       </c>
       <c r="Q33" s="110"/>
     </row>
-    <row r="34" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="73" t="s">
         <v>56</v>
       </c>
@@ -10093,7 +10122,7 @@
       <c r="P34" s="67"/>
       <c r="Q34" s="68"/>
     </row>
-    <row r="35" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="73" t="s">
         <v>56</v>
       </c>
@@ -10141,7 +10170,7 @@
       </c>
       <c r="Q35" s="68"/>
     </row>
-    <row r="36" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="73" t="s">
         <v>56</v>
       </c>
@@ -10185,7 +10214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="73" t="s">
         <v>56</v>
       </c>
@@ -10227,7 +10256,7 @@
       </c>
       <c r="Q37" s="68"/>
     </row>
-    <row r="38" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="73" t="s">
         <v>56</v>
       </c>
@@ -10267,7 +10296,7 @@
       <c r="P38" s="67"/>
       <c r="Q38" s="68"/>
     </row>
-    <row r="39" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="73" t="s">
         <v>56</v>
       </c>
@@ -10311,7 +10340,7 @@
       </c>
       <c r="Q39" s="68"/>
     </row>
-    <row r="40" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="73" t="s">
         <v>56</v>
       </c>
@@ -10351,7 +10380,7 @@
       <c r="P40" s="76"/>
       <c r="Q40" s="68"/>
     </row>
-    <row r="41" spans="1:17" s="85" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" s="85" customFormat="1" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="73" t="s">
         <v>99</v>
       </c>
@@ -10389,7 +10418,7 @@
       <c r="P41" s="67"/>
       <c r="Q41" s="68"/>
     </row>
-    <row r="42" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="73" t="s">
         <v>56</v>
       </c>
@@ -10433,7 +10462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="73" t="s">
         <v>56</v>
       </c>
@@ -10479,7 +10508,7 @@
       </c>
       <c r="Q43" s="68"/>
     </row>
-    <row r="44" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="77" t="s">
         <v>56</v>
       </c>
@@ -10702,7 +10731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -12494,8 +12523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12520,7 +12549,7 @@
     <col min="18" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="165" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -12615,49 +12644,49 @@
       <c r="P2" s="76"/>
       <c r="Q2" s="108"/>
     </row>
-    <row r="3" spans="1:17" s="122" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+    <row r="3" spans="1:17" s="118" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="114" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="119">
-        <v>8</v>
-      </c>
-      <c r="D3" s="119">
-        <v>6</v>
-      </c>
-      <c r="E3" s="119">
-        <v>2</v>
-      </c>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119">
-        <v>8</v>
-      </c>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119">
+      <c r="C3" s="115">
+        <v>8</v>
+      </c>
+      <c r="D3" s="115">
+        <v>6</v>
+      </c>
+      <c r="E3" s="115">
+        <v>2</v>
+      </c>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115">
+        <v>8</v>
+      </c>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115">
         <v>3</v>
       </c>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119">
+      <c r="J3" s="115"/>
+      <c r="K3" s="115">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119">
+      <c r="L3" s="115"/>
+      <c r="M3" s="115">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N3" s="120" t="s">
+      <c r="N3" s="116" t="s">
         <v>216</v>
       </c>
-      <c r="O3" s="120">
+      <c r="O3" s="116">
         <v>12</v>
       </c>
-      <c r="P3" s="120">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="121"/>
+      <c r="P3" s="116">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="117"/>
     </row>
     <row r="4" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="73" t="s">
@@ -13427,43 +13456,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="116" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="112" t="s">
+    <row r="22" spans="1:17" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="113" t="s">
+      <c r="B22" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="113">
-        <v>6</v>
-      </c>
-      <c r="D22" s="113">
-        <v>6</v>
-      </c>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113">
-        <v>6</v>
-      </c>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113">
-        <v>2</v>
-      </c>
-      <c r="K22" s="113">
+      <c r="C22" s="70">
+        <v>6</v>
+      </c>
+      <c r="D22" s="70">
+        <v>6</v>
+      </c>
+      <c r="E22" s="70"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112">
+        <v>6</v>
+      </c>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70">
+        <v>2</v>
+      </c>
+      <c r="K22" s="70">
         <f>Таблица5[[#This Row],[Годин 1 заїзд]]+Таблица5[[#This Row],[Годин 2 заїзд]]+-Таблица5[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="L22" s="113"/>
-      <c r="M22" s="113">
+      <c r="L22" s="70"/>
+      <c r="M22" s="112">
         <v>6.090103</v>
       </c>
-      <c r="N22" s="114" t="s">
+      <c r="N22" s="67" t="s">
         <v>288</v>
       </c>
-      <c r="O22" s="114"/>
-      <c r="P22" s="114"/>
-      <c r="Q22" s="115"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="68"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
@@ -13685,16 +13714,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52" style="39" customWidth="1"/>
-    <col min="3" max="4" width="14.28515625" style="38" customWidth="1"/>
-    <col min="5" max="6" width="14.28515625" style="38" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="24" style="38" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="38" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="38" hidden="1" customWidth="1"/>
     <col min="7" max="8" width="14.28515625" style="38" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" style="38" customWidth="1"/>
     <col min="10" max="10" width="7.28515625" style="38" customWidth="1"/>
@@ -13917,7 +13948,7 @@
       <c r="P5" s="107">
         <v>10</v>
       </c>
-      <c r="Q5" s="117"/>
+      <c r="Q5" s="113"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -15137,15 +15168,15 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="45"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:17" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="70" t="s">
         <v>304</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="70" t="s">
         <v>307</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="44">
+      <c r="C37" s="70"/>
+      <c r="D37" s="119">
         <v>6</v>
       </c>
       <c r="E37" s="44">
@@ -15154,32 +15185,32 @@
       <c r="F37" s="44">
         <v>4</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="70">
         <v>0</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="70">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="70">
         <v>3</v>
       </c>
-      <c r="J37" s="4">
-        <v>4</v>
-      </c>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
+      <c r="J37" s="70">
+        <v>4</v>
+      </c>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
       <c r="M37" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N37" s="47" t="s">
+      <c r="N37" s="120" t="s">
         <v>319</v>
       </c>
-      <c r="O37" s="45">
-        <v>6</v>
-      </c>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="45"/>
+      <c r="O37" s="121">
+        <v>6</v>
+      </c>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="121"/>
     </row>
     <row r="38" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -15296,7 +15327,9 @@
       <c r="M40" s="53">
         <v>20.204999999999998</v>
       </c>
-      <c r="N40" s="54"/>
+      <c r="N40" s="54" t="s">
+        <v>332</v>
+      </c>
       <c r="O40" s="55"/>
       <c r="P40" s="54"/>
       <c r="Q40" s="55"/>
@@ -15387,15 +15420,15 @@
       </c>
       <c r="Q42" s="45"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="53" t="s">
+    <row r="43" spans="1:17" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="81" t="s">
         <v>304</v>
       </c>
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="81" t="s">
         <v>312</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53">
+      <c r="C43" s="81"/>
+      <c r="D43" s="81">
         <v>6</v>
       </c>
       <c r="E43" s="53">
@@ -15404,28 +15437,28 @@
       <c r="F43" s="53">
         <v>4</v>
       </c>
-      <c r="G43" s="53">
+      <c r="G43" s="81">
         <v>0</v>
       </c>
-      <c r="H43" s="53">
+      <c r="H43" s="81">
         <f>Таблица6[[#This Row],[Годин 1 заїзд]]+Таблица6[[#This Row],[Годин 2 заїзд]]+-Таблица6[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53">
-        <v>4</v>
-      </c>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="81">
+        <v>4</v>
+      </c>
+      <c r="K43" s="81"/>
+      <c r="L43" s="81"/>
       <c r="M43" s="53">
         <v>20.204999999999998</v>
       </c>
-      <c r="N43" s="54" t="s">
+      <c r="N43" s="82" t="s">
         <v>331</v>
       </c>
-      <c r="O43" s="55"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="55"/>
+      <c r="O43" s="86"/>
+      <c r="P43" s="82"/>
+      <c r="Q43" s="86"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="53" t="s">
@@ -15460,9 +15493,7 @@
       <c r="M44" s="53">
         <v>20.204999999999998</v>
       </c>
-      <c r="N44" s="54" t="s">
-        <v>332</v>
-      </c>
+      <c r="N44" s="54"/>
       <c r="O44" s="55"/>
       <c r="P44" s="54"/>
       <c r="Q44" s="55"/>

--- a/Zaizd2.xlsx
+++ b/Zaizd2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="20730" windowHeight="9060" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="20730" windowHeight="9000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1 курс" sheetId="1" r:id="rId1"/>
@@ -5438,13 +5438,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:R32" totalsRowShown="0" headerRowDxfId="126" dataDxfId="124" headerRowBorderDxfId="125" tableBorderDxfId="123" totalsRowBorderDxfId="122">
-  <autoFilter ref="A1:R32">
-    <filterColumn colId="13">
-      <filters>
-        <filter val="ст.викл. Лахоцька Е.Я."/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R32"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Групи" dataDxfId="121"/>
     <tableColumn id="2" name="Дисципліна" dataDxfId="120"/>
@@ -5473,13 +5467,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:Q44" totalsRowShown="0" headerRowDxfId="103" dataDxfId="101" headerRowBorderDxfId="102" tableBorderDxfId="100" totalsRowBorderDxfId="99">
-  <autoFilter ref="A1:Q44">
-    <filterColumn colId="13">
-      <filters>
-        <filter val="доц. Кухта М.І."/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q44"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Групи" dataDxfId="98"/>
     <tableColumn id="2" name="Дисципліна" dataDxfId="97"/>
@@ -5507,16 +5495,7 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:Q42" totalsRowShown="0" headerRowDxfId="81" dataDxfId="79" headerRowBorderDxfId="80" tableBorderDxfId="78" totalsRowBorderDxfId="77">
-  <autoFilter ref="A1:Q42">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="2"/>
-        <filter val="4"/>
-        <filter val="6"/>
-        <filter val="8"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q42"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Групи" dataDxfId="76"/>
     <tableColumn id="2" name="Дисципліна" dataDxfId="75"/>
@@ -7238,8 +7217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7321,7 +7300,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="64" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="64" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>5</v>
       </c>
@@ -7360,7 +7339,7 @@
       <c r="Q2" s="62"/>
       <c r="R2" s="63"/>
     </row>
-    <row r="3" spans="1:18" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
         <v>5</v>
       </c>
@@ -7399,7 +7378,7 @@
       <c r="Q3" s="62"/>
       <c r="R3" s="63"/>
     </row>
-    <row r="4" spans="1:18" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65" t="s">
         <v>194</v>
       </c>
@@ -7442,7 +7421,7 @@
       </c>
       <c r="R4" s="63"/>
     </row>
-    <row r="5" spans="1:18" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65" t="s">
         <v>194</v>
       </c>
@@ -7485,7 +7464,7 @@
       </c>
       <c r="R5" s="63"/>
     </row>
-    <row r="6" spans="1:18" s="64" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="64" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
         <v>194</v>
       </c>
@@ -7532,7 +7511,7 @@
       <c r="Q6" s="62"/>
       <c r="R6" s="63"/>
     </row>
-    <row r="7" spans="1:18" s="64" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="64" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
         <v>194</v>
       </c>
@@ -7571,7 +7550,7 @@
       <c r="Q7" s="62"/>
       <c r="R7" s="63"/>
     </row>
-    <row r="8" spans="1:18" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="65" t="s">
         <v>194</v>
       </c>
@@ -7614,7 +7593,7 @@
       <c r="Q8" s="62"/>
       <c r="R8" s="63"/>
     </row>
-    <row r="9" spans="1:18" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
         <v>194</v>
       </c>
@@ -7657,7 +7636,7 @@
       <c r="Q9" s="62"/>
       <c r="R9" s="63"/>
     </row>
-    <row r="10" spans="1:18" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
         <v>194</v>
       </c>
@@ -7700,7 +7679,7 @@
       <c r="Q10" s="62"/>
       <c r="R10" s="63"/>
     </row>
-    <row r="11" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>194</v>
       </c>
@@ -7778,7 +7757,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="25"/>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>194</v>
       </c>
@@ -7817,7 +7796,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="25"/>
     </row>
-    <row r="14" spans="1:18" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="65" t="s">
         <v>19</v>
       </c>
@@ -7864,7 +7843,7 @@
       <c r="Q14" s="62"/>
       <c r="R14" s="63"/>
     </row>
-    <row r="15" spans="1:18" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="s">
         <v>19</v>
       </c>
@@ -7905,7 +7884,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="65" t="s">
         <v>19</v>
       </c>
@@ -7995,7 +7974,7 @@
       </c>
       <c r="R17" s="63"/>
     </row>
-    <row r="18" spans="1:18" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="65" t="s">
         <v>19</v>
       </c>
@@ -8044,7 +8023,7 @@
       </c>
       <c r="R18" s="63"/>
     </row>
-    <row r="19" spans="1:18" s="64" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="64" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="65" t="s">
         <v>19</v>
       </c>
@@ -8089,7 +8068,7 @@
       <c r="Q19" s="62"/>
       <c r="R19" s="63"/>
     </row>
-    <row r="20" spans="1:18" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="65" t="s">
         <v>19</v>
       </c>
@@ -8132,7 +8111,7 @@
       <c r="Q20" s="62"/>
       <c r="R20" s="63"/>
     </row>
-    <row r="21" spans="1:18" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="65" t="s">
         <v>19</v>
       </c>
@@ -8175,7 +8154,7 @@
       <c r="Q21" s="62"/>
       <c r="R21" s="63"/>
     </row>
-    <row r="22" spans="1:18" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="65" t="s">
         <v>56</v>
       </c>
@@ -8222,7 +8201,7 @@
       </c>
       <c r="R22" s="63"/>
     </row>
-    <row r="23" spans="1:18" s="64" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" s="64" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="65" t="s">
         <v>56</v>
       </c>
@@ -8265,7 +8244,7 @@
       </c>
       <c r="R23" s="63"/>
     </row>
-    <row r="24" spans="1:18" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="65" t="s">
         <v>56</v>
       </c>
@@ -8306,7 +8285,7 @@
       <c r="Q24" s="62"/>
       <c r="R24" s="63"/>
     </row>
-    <row r="25" spans="1:18" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="65" t="s">
         <v>56</v>
       </c>
@@ -8351,7 +8330,7 @@
       <c r="Q25" s="88"/>
       <c r="R25" s="63"/>
     </row>
-    <row r="26" spans="1:18" s="64" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="64" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="65" t="s">
         <v>56</v>
       </c>
@@ -8392,7 +8371,7 @@
       <c r="Q26" s="62"/>
       <c r="R26" s="63"/>
     </row>
-    <row r="27" spans="1:18" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="65" t="s">
         <v>56</v>
       </c>
@@ -8439,7 +8418,7 @@
       </c>
       <c r="R27" s="92"/>
     </row>
-    <row r="28" spans="1:18" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="65" t="s">
         <v>56</v>
       </c>
@@ -8482,7 +8461,7 @@
       <c r="Q28" s="93"/>
       <c r="R28" s="92"/>
     </row>
-    <row r="29" spans="1:18" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="65" t="s">
         <v>193</v>
       </c>
@@ -8527,7 +8506,7 @@
       </c>
       <c r="R29" s="63"/>
     </row>
-    <row r="30" spans="1:18" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="65" t="s">
         <v>193</v>
       </c>
@@ -8574,7 +8553,7 @@
       <c r="Q30" s="88"/>
       <c r="R30" s="63"/>
     </row>
-    <row r="31" spans="1:18" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="65" t="s">
         <v>56</v>
       </c>
@@ -8621,7 +8600,7 @@
       </c>
       <c r="R31" s="94"/>
     </row>
-    <row r="32" spans="1:18" s="64" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" s="64" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="69" t="s">
         <v>56</v>
       </c>
@@ -8680,8 +8659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8757,7 +8736,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
         <v>194</v>
       </c>
@@ -8799,7 +8778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
         <v>194</v>
       </c>
@@ -8841,7 +8820,7 @@
       </c>
       <c r="Q3" s="60"/>
     </row>
-    <row r="4" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65" t="s">
         <v>194</v>
       </c>
@@ -8883,7 +8862,7 @@
       </c>
       <c r="Q4" s="60"/>
     </row>
-    <row r="5" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65" t="s">
         <v>194</v>
       </c>
@@ -8925,7 +8904,7 @@
       </c>
       <c r="Q5" s="60"/>
     </row>
-    <row r="6" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="83" t="s">
         <v>194</v>
       </c>
@@ -8967,7 +8946,7 @@
       </c>
       <c r="Q6" s="95"/>
     </row>
-    <row r="7" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
         <v>194</v>
       </c>
@@ -9009,7 +8988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="65" t="s">
         <v>194</v>
       </c>
@@ -9051,7 +9030,7 @@
       <c r="P8" s="59"/>
       <c r="Q8" s="60"/>
     </row>
-    <row r="9" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
         <v>194</v>
       </c>
@@ -9091,7 +9070,7 @@
       <c r="P9" s="59"/>
       <c r="Q9" s="60"/>
     </row>
-    <row r="10" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
         <v>194</v>
       </c>
@@ -9131,7 +9110,7 @@
       <c r="P10" s="59"/>
       <c r="Q10" s="60"/>
     </row>
-    <row r="11" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="65" t="s">
         <v>194</v>
       </c>
@@ -9175,7 +9154,7 @@
       <c r="P11" s="59"/>
       <c r="Q11" s="60"/>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>194</v>
       </c>
@@ -9213,7 +9192,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="12"/>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>194</v>
       </c>
@@ -9251,7 +9230,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>194</v>
       </c>
@@ -9289,7 +9268,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="12"/>
     </row>
-    <row r="15" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>194</v>
       </c>
@@ -9327,7 +9306,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="12"/>
     </row>
-    <row r="16" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="65" t="s">
         <v>19</v>
       </c>
@@ -9371,7 +9350,7 @@
       </c>
       <c r="Q16" s="60"/>
     </row>
-    <row r="17" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="83" t="s">
         <v>19</v>
       </c>
@@ -9417,7 +9396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="65" t="s">
         <v>19</v>
       </c>
@@ -9459,7 +9438,7 @@
       <c r="P18" s="59"/>
       <c r="Q18" s="60"/>
     </row>
-    <row r="19" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="65" t="s">
         <v>19</v>
       </c>
@@ -9503,7 +9482,7 @@
       </c>
       <c r="Q19" s="60"/>
     </row>
-    <row r="20" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="65" t="s">
         <v>19</v>
       </c>
@@ -9541,7 +9520,7 @@
       <c r="P20" s="59"/>
       <c r="Q20" s="60"/>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
@@ -9579,7 +9558,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="12"/>
     </row>
-    <row r="22" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="65" t="s">
         <v>19</v>
       </c>
@@ -9621,7 +9600,7 @@
       </c>
       <c r="Q22" s="60"/>
     </row>
-    <row r="23" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="65" t="s">
         <v>19</v>
       </c>
@@ -9665,7 +9644,7 @@
       </c>
       <c r="Q23" s="60"/>
     </row>
-    <row r="24" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="65" t="s">
         <v>19</v>
       </c>
@@ -9709,7 +9688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="65" t="s">
         <v>19</v>
       </c>
@@ -9751,7 +9730,7 @@
       <c r="P25" s="59"/>
       <c r="Q25" s="60"/>
     </row>
-    <row r="26" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="65" t="s">
         <v>19</v>
       </c>
@@ -9793,7 +9772,7 @@
       </c>
       <c r="Q26" s="60"/>
     </row>
-    <row r="27" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="65" t="s">
         <v>19</v>
       </c>
@@ -9835,7 +9814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="65" t="s">
         <v>19</v>
       </c>
@@ -9877,7 +9856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>19</v>
       </c>
@@ -9915,7 +9894,7 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="12"/>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="65" t="s">
         <v>19</v>
       </c>
@@ -9999,7 +9978,7 @@
       <c r="P31" s="59"/>
       <c r="Q31" s="60"/>
     </row>
-    <row r="32" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="65" t="s">
         <v>56</v>
       </c>
@@ -10045,7 +10024,7 @@
       </c>
       <c r="Q32" s="60"/>
     </row>
-    <row r="33" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="65" t="s">
         <v>56</v>
       </c>
@@ -10089,7 +10068,7 @@
       </c>
       <c r="Q33" s="98"/>
     </row>
-    <row r="34" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="65" t="s">
         <v>56</v>
       </c>
@@ -10127,7 +10106,7 @@
       <c r="P34" s="59"/>
       <c r="Q34" s="60"/>
     </row>
-    <row r="35" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="65" t="s">
         <v>56</v>
       </c>
@@ -10175,7 +10154,7 @@
       </c>
       <c r="Q35" s="60"/>
     </row>
-    <row r="36" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="65" t="s">
         <v>56</v>
       </c>
@@ -10219,7 +10198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="65" t="s">
         <v>56</v>
       </c>
@@ -10261,7 +10240,7 @@
       </c>
       <c r="Q37" s="60"/>
     </row>
-    <row r="38" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="65" t="s">
         <v>56</v>
       </c>
@@ -10301,7 +10280,7 @@
       <c r="P38" s="59"/>
       <c r="Q38" s="60"/>
     </row>
-    <row r="39" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="65" t="s">
         <v>56</v>
       </c>
@@ -10345,7 +10324,7 @@
       </c>
       <c r="Q39" s="60"/>
     </row>
-    <row r="40" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="65" t="s">
         <v>56</v>
       </c>
@@ -10385,7 +10364,7 @@
       <c r="P40" s="68"/>
       <c r="Q40" s="60"/>
     </row>
-    <row r="41" spans="1:17" s="77" customFormat="1" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" s="77" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="65" t="s">
         <v>99</v>
       </c>
@@ -10423,7 +10402,7 @@
       <c r="P41" s="59"/>
       <c r="Q41" s="60"/>
     </row>
-    <row r="42" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="65" t="s">
         <v>56</v>
       </c>
@@ -10467,7 +10446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="65" t="s">
         <v>56</v>
       </c>
@@ -10513,7 +10492,7 @@
       </c>
       <c r="Q43" s="60"/>
     </row>
-    <row r="44" spans="1:17" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="69" t="s">
         <v>56</v>
       </c>
@@ -10737,7 +10716,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11066,7 +11045,7 @@
       </c>
       <c r="Q7" s="60"/>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>194</v>
       </c>
@@ -11102,7 +11081,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="12"/>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>194</v>
       </c>
@@ -11142,7 +11121,7 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="12"/>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>194</v>
       </c>
@@ -11266,7 +11245,7 @@
       <c r="P12" s="59"/>
       <c r="Q12" s="60"/>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>194</v>
       </c>
@@ -11304,7 +11283,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>194</v>
       </c>
@@ -11342,7 +11321,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="12"/>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>194</v>
       </c>
@@ -11426,7 +11405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
@@ -11548,7 +11527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>19</v>
       </c>
@@ -11754,7 +11733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>19</v>
       </c>
@@ -11837,7 +11816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>19</v>
       </c>
@@ -12528,7 +12507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -13677,8 +13656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
